--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\T17-Spint2C4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -79,25 +79,10 @@
     <t>ROW(S)</t>
   </si>
   <si>
-    <t>[Theme, Epic, or Dept]: [High Level Piece of Functionality]</t>
-  </si>
-  <si>
-    <t>As a [archetype], I want to be able to [do a thing], so that I can [achieve a goal]</t>
-  </si>
-  <si>
     <t>1 High</t>
   </si>
   <si>
     <t>LG</t>
-  </si>
-  <si>
-    <t>[A list of acceptance tests]</t>
-  </si>
-  <si>
-    <t>[Any thing that must be done prior to this story]</t>
-  </si>
-  <si>
-    <t>[Who asked for this feature]</t>
   </si>
   <si>
     <t>[Any relevant notes]</t>
@@ -105,12 +90,39 @@
   <si>
     <t xml:space="preserve"> [High Level Piece of Functionality]</t>
   </si>
+  <si>
+    <t>Chat Room</t>
+  </si>
+  <si>
+    <t>Video and Audio icons available for toggling with corresponding actions.</t>
+  </si>
+  <si>
+    <t>As a User , I want to send text meassages in chats in Public Sessions.</t>
+  </si>
+  <si>
+    <t>XXLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View sent and received messages in session </t>
+  </si>
+  <si>
+    <t>As a User , I want to exit the chat whenever I am done with my questions in Public and Private sessions.</t>
+  </si>
+  <si>
+    <t>As an Expert , I want to have the option to voice call or video call in Public and Private sessions.</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Finishing the session with a re-direction to the rating bar and feedback template.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -144,6 +156,16 @@
     <font>
       <sz val="8"/>
       <color rgb="FF999999"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -230,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -284,6 +306,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -824,15 +855,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="69.28515625" customWidth="1"/>
+    <col min="2" max="2" width="73.42578125" customWidth="1"/>
     <col min="3" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="8" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" customWidth="1"/>
+    <col min="6" max="8" width="31.140625" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
     <col min="10" max="19" width="8.7109375" hidden="1" customWidth="1"/>
   </cols>
@@ -896,30 +928,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="22.5">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:19" ht="25.5">
+      <c r="A2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="I2" s="15" t="e">
         <f>IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="1 High",#REF!="2 Med")),"Strategic",IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="3 Med",#REF!="4 Low")),"Leveraged",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="1 High",#REF!="2 Med")),"Focused",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="3 Med",#REF!="4 Low")),"Routine",""))))</f>
@@ -954,7 +982,7 @@
         <v>[Theme, Epic, or Dept]</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R2" s="19" t="e">
         <f t="shared" ref="R2:R1000" si="5">IF(#REF!="MVP","0.0 MVP",#REF!)</f>
@@ -967,17 +995,25 @@
     </row>
     <row r="3" spans="1:19" ht="12.75">
       <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
       <c r="I3" s="15"/>
-      <c r="J3" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="J3" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K3" s="17" t="e">
         <f t="shared" ref="K3:L3" si="7">IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -987,9 +1023,9 @@
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="M3" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="M3" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="N3" s="16" t="e">
         <f t="shared" ref="N3:O3" si="8">IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1008,24 +1044,32 @@
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="S3" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="12.75">
+      <c r="S3" s="20">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="25.5">
       <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>31</v>
+      </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="J4" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K4" s="17" t="e">
         <f t="shared" ref="K4:L4" si="9">IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1035,9 +1079,9 @@
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="M4" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="M4" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="N4" s="16" t="e">
         <f t="shared" ref="N4:O4" si="10">IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1056,9 +1100,9 @@
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="S4" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="S4" s="20">
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="12.75">
@@ -51439,6 +51483,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\T17-Spint2C4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Document\Desktop\spint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A3CF04CF-616B-4717-BA20-32DEAF699C9E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -117,12 +118,33 @@
   <si>
     <t>Finishing the session with a re-direction to the rating bar and feedback template.</t>
   </si>
+  <si>
+    <t>2 Medium</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>As an Expert , I want to rate the user. (Both types)</t>
+  </si>
+  <si>
+    <t>Submit a rating on the rating bar displayed</t>
+  </si>
+  <si>
+    <t>As an Expert , I want to limit users in chats. (Public)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of users never exceeds the limit I specififed </t>
+  </si>
+  <si>
+    <t>As a User , I want to rate the expert. (Both types)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -167,6 +189,11 @@
     <font>
       <sz val="10"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helvetica Neue"/>
+      <charset val="178"/>
     </font>
   </fonts>
   <fills count="8">
@@ -252,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -315,6 +342,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -847,7 +880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF3C78D8"/>
   </sheetPr>
@@ -855,18 +888,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" customWidth="1"/>
-    <col min="3" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" customWidth="1"/>
-    <col min="6" max="8" width="31.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="19" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="2" max="2" width="73.44140625" customWidth="1"/>
+    <col min="3" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="47.88671875" customWidth="1"/>
+    <col min="6" max="8" width="31.109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="19" width="8.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1">
@@ -928,7 +961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="25.5">
+    <row r="2" spans="1:19" ht="26.4">
       <c r="A2" s="23" t="s">
         <v>23</v>
       </c>
@@ -993,7 +1026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="12.75">
+    <row r="3" spans="1:19" ht="13.2">
       <c r="A3" s="9"/>
       <c r="B3" s="24" t="s">
         <v>25</v>
@@ -1049,7 +1082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="25.5">
+    <row r="4" spans="1:19" ht="26.4">
       <c r="A4" s="9"/>
       <c r="B4" s="24" t="s">
         <v>28</v>
@@ -1105,12 +1138,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="12.75">
+    <row r="5" spans="1:19" ht="13.2">
       <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
+      <c r="B5" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>35</v>
+      </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14"/>
@@ -1148,17 +1189,25 @@
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="S5" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="12.75">
+      <c r="S5" s="20">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="13.2">
       <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
+      <c r="B6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>37</v>
+      </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
@@ -1196,17 +1245,25 @@
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="S6" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="12.75">
+      <c r="S6" s="20">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="13.2">
       <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
+      <c r="B7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
@@ -1244,12 +1301,12 @@
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="S7" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="12.75">
+      <c r="S7" s="20">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="13.2">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -1297,7 +1354,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="12.75">
+    <row r="9" spans="1:19" ht="13.2">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
@@ -1345,7 +1402,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="12.75">
+    <row r="10" spans="1:19" ht="13.2">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
@@ -1393,7 +1450,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="12.75">
+    <row r="11" spans="1:19" ht="13.2">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
@@ -1441,7 +1498,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="12.75">
+    <row r="12" spans="1:19" ht="13.2">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
@@ -1489,7 +1546,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="12.75">
+    <row r="13" spans="1:19" ht="13.2">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
@@ -1537,7 +1594,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="12.75">
+    <row r="14" spans="1:19" ht="13.2">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
@@ -1585,7 +1642,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="12.75">
+    <row r="15" spans="1:19" ht="13.2">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
@@ -1633,7 +1690,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="12.75">
+    <row r="16" spans="1:19" ht="13.2">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
@@ -1681,7 +1738,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="12.75">
+    <row r="17" spans="1:19" ht="13.2">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
@@ -1729,7 +1786,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="12.75">
+    <row r="18" spans="1:19" ht="13.2">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
@@ -1777,7 +1834,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="12.75">
+    <row r="19" spans="1:19" ht="13.2">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -1825,7 +1882,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="12.75">
+    <row r="20" spans="1:19" ht="13.2">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
@@ -1873,7 +1930,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="12.75">
+    <row r="21" spans="1:19" ht="13.2">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
@@ -1921,7 +1978,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="12.75">
+    <row r="22" spans="1:19" ht="13.2">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
@@ -1969,7 +2026,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="12.75">
+    <row r="23" spans="1:19" ht="13.2">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
@@ -2017,7 +2074,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="12.75">
+    <row r="24" spans="1:19" ht="13.2">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
@@ -2065,7 +2122,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="12.75">
+    <row r="25" spans="1:19" ht="13.2">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
@@ -2113,7 +2170,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="12.75">
+    <row r="26" spans="1:19" ht="13.2">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
@@ -2161,7 +2218,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="12.75">
+    <row r="27" spans="1:19" ht="13.2">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
@@ -2209,7 +2266,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="12.75">
+    <row r="28" spans="1:19" ht="13.2">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
@@ -2257,7 +2314,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="12.75">
+    <row r="29" spans="1:19" ht="13.2">
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
@@ -2305,7 +2362,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="12.75">
+    <row r="30" spans="1:19" ht="13.2">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
@@ -2353,7 +2410,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="12.75">
+    <row r="31" spans="1:19" ht="13.2">
       <c r="A31" s="9"/>
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
@@ -2401,7 +2458,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="12.75">
+    <row r="32" spans="1:19" ht="13.2">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
@@ -2449,7 +2506,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="12.75">
+    <row r="33" spans="1:19" ht="13.2">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
@@ -2497,7 +2554,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="12.75">
+    <row r="34" spans="1:19" ht="13.2">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
@@ -2545,7 +2602,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="12.75">
+    <row r="35" spans="1:19" ht="13.2">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
@@ -2593,7 +2650,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="12.75">
+    <row r="36" spans="1:19" ht="13.2">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
@@ -2641,7 +2698,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="12.75">
+    <row r="37" spans="1:19" ht="13.2">
       <c r="A37" s="9"/>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
@@ -2689,7 +2746,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="12.75">
+    <row r="38" spans="1:19" ht="13.2">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
@@ -2737,7 +2794,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="12.75">
+    <row r="39" spans="1:19" ht="13.2">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
@@ -2785,7 +2842,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="12.75">
+    <row r="40" spans="1:19" ht="13.2">
       <c r="A40" s="9"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
@@ -2833,7 +2890,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="12.75">
+    <row r="41" spans="1:19" ht="13.2">
       <c r="A41" s="9"/>
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
@@ -2881,7 +2938,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="12.75">
+    <row r="42" spans="1:19" ht="13.2">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
@@ -2929,7 +2986,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="12.75">
+    <row r="43" spans="1:19" ht="13.2">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
@@ -2977,7 +3034,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="12.75">
+    <row r="44" spans="1:19" ht="13.2">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
@@ -3025,7 +3082,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="12.75">
+    <row r="45" spans="1:19" ht="13.2">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
@@ -3073,7 +3130,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="12.75">
+    <row r="46" spans="1:19" ht="13.2">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
@@ -3121,7 +3178,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="12.75">
+    <row r="47" spans="1:19" ht="13.2">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
@@ -3169,7 +3226,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="12.75">
+    <row r="48" spans="1:19" ht="13.2">
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
@@ -3217,7 +3274,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="12.75">
+    <row r="49" spans="1:19" ht="13.2">
       <c r="A49" s="9"/>
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
@@ -3265,7 +3322,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="12.75">
+    <row r="50" spans="1:19" ht="13.2">
       <c r="A50" s="9"/>
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
@@ -3313,7 +3370,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="12.75">
+    <row r="51" spans="1:19" ht="13.2">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
@@ -3361,7 +3418,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="12.75">
+    <row r="52" spans="1:19" ht="13.2">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
@@ -3409,7 +3466,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="12.75">
+    <row r="53" spans="1:19" ht="13.2">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
@@ -3457,7 +3514,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="12.75">
+    <row r="54" spans="1:19" ht="13.2">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
@@ -3505,7 +3562,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="12.75">
+    <row r="55" spans="1:19" ht="13.2">
       <c r="A55" s="9"/>
       <c r="B55" s="10"/>
       <c r="C55" s="11"/>
@@ -3553,7 +3610,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="12.75">
+    <row r="56" spans="1:19" ht="13.2">
       <c r="A56" s="9"/>
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
@@ -3601,7 +3658,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="12.75">
+    <row r="57" spans="1:19" ht="13.2">
       <c r="A57" s="9"/>
       <c r="B57" s="10"/>
       <c r="C57" s="11"/>
@@ -3649,7 +3706,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="12.75">
+    <row r="58" spans="1:19" ht="13.2">
       <c r="A58" s="9"/>
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
@@ -3697,7 +3754,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="12.75">
+    <row r="59" spans="1:19" ht="13.2">
       <c r="A59" s="9"/>
       <c r="B59" s="10"/>
       <c r="C59" s="11"/>
@@ -3745,7 +3802,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="12.75">
+    <row r="60" spans="1:19" ht="13.2">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
@@ -3793,7 +3850,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="12.75">
+    <row r="61" spans="1:19" ht="13.2">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
@@ -3841,7 +3898,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="12.75">
+    <row r="62" spans="1:19" ht="13.2">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
@@ -3889,7 +3946,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="12.75">
+    <row r="63" spans="1:19" ht="13.2">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
@@ -3937,7 +3994,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="12.75">
+    <row r="64" spans="1:19" ht="13.2">
       <c r="A64" s="9"/>
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
@@ -3985,7 +4042,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="12.75">
+    <row r="65" spans="1:19" ht="13.2">
       <c r="A65" s="9"/>
       <c r="B65" s="10"/>
       <c r="C65" s="11"/>
@@ -4033,7 +4090,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="12.75">
+    <row r="66" spans="1:19" ht="13.2">
       <c r="A66" s="9"/>
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
@@ -4081,7 +4138,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="12.75">
+    <row r="67" spans="1:19" ht="13.2">
       <c r="A67" s="9"/>
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
@@ -4129,7 +4186,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="12.75">
+    <row r="68" spans="1:19" ht="13.2">
       <c r="A68" s="9"/>
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
@@ -4177,7 +4234,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="12.75">
+    <row r="69" spans="1:19" ht="13.2">
       <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="11"/>
@@ -4225,7 +4282,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="12.75">
+    <row r="70" spans="1:19" ht="13.2">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
       <c r="C70" s="11"/>
@@ -4273,7 +4330,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="12.75">
+    <row r="71" spans="1:19" ht="13.2">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
@@ -4321,7 +4378,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="12.75">
+    <row r="72" spans="1:19" ht="13.2">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
@@ -4369,7 +4426,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="12.75">
+    <row r="73" spans="1:19" ht="13.2">
       <c r="A73" s="9"/>
       <c r="B73" s="10"/>
       <c r="C73" s="11"/>
@@ -4417,7 +4474,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="12.75">
+    <row r="74" spans="1:19" ht="13.2">
       <c r="A74" s="9"/>
       <c r="B74" s="10"/>
       <c r="C74" s="11"/>
@@ -4465,7 +4522,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="12.75">
+    <row r="75" spans="1:19" ht="13.2">
       <c r="A75" s="9"/>
       <c r="B75" s="10"/>
       <c r="C75" s="11"/>
@@ -4513,7 +4570,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="12.75">
+    <row r="76" spans="1:19" ht="13.2">
       <c r="A76" s="9"/>
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
@@ -4561,7 +4618,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="12.75">
+    <row r="77" spans="1:19" ht="13.2">
       <c r="A77" s="9"/>
       <c r="B77" s="10"/>
       <c r="C77" s="11"/>
@@ -4609,7 +4666,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="12.75">
+    <row r="78" spans="1:19" ht="13.2">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="11"/>
@@ -4657,7 +4714,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="12.75">
+    <row r="79" spans="1:19" ht="13.2">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="11"/>
@@ -4705,7 +4762,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="12.75">
+    <row r="80" spans="1:19" ht="13.2">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="11"/>
@@ -4753,7 +4810,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="12.75">
+    <row r="81" spans="1:19" ht="13.2">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="11"/>
@@ -4801,7 +4858,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="12.75">
+    <row r="82" spans="1:19" ht="13.2">
       <c r="A82" s="9"/>
       <c r="B82" s="10"/>
       <c r="C82" s="11"/>
@@ -4849,7 +4906,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="12.75">
+    <row r="83" spans="1:19" ht="13.2">
       <c r="A83" s="9"/>
       <c r="B83" s="10"/>
       <c r="C83" s="11"/>
@@ -4897,7 +4954,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="12.75">
+    <row r="84" spans="1:19" ht="13.2">
       <c r="A84" s="9"/>
       <c r="B84" s="10"/>
       <c r="C84" s="11"/>
@@ -4945,7 +5002,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="12.75">
+    <row r="85" spans="1:19" ht="13.2">
       <c r="A85" s="9"/>
       <c r="B85" s="10"/>
       <c r="C85" s="11"/>
@@ -4993,7 +5050,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="12.75">
+    <row r="86" spans="1:19" ht="13.2">
       <c r="A86" s="9"/>
       <c r="B86" s="10"/>
       <c r="C86" s="11"/>
@@ -5041,7 +5098,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="12.75">
+    <row r="87" spans="1:19" ht="13.2">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="11"/>
@@ -5089,7 +5146,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="12.75">
+    <row r="88" spans="1:19" ht="13.2">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="11"/>
@@ -5137,7 +5194,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="12.75">
+    <row r="89" spans="1:19" ht="13.2">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="11"/>
@@ -5185,7 +5242,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="12.75">
+    <row r="90" spans="1:19" ht="13.2">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="11"/>
@@ -5233,7 +5290,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="12.75">
+    <row r="91" spans="1:19" ht="13.2">
       <c r="A91" s="9"/>
       <c r="B91" s="10"/>
       <c r="C91" s="11"/>
@@ -5281,7 +5338,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="12.75">
+    <row r="92" spans="1:19" ht="13.2">
       <c r="A92" s="9"/>
       <c r="B92" s="10"/>
       <c r="C92" s="11"/>
@@ -5329,7 +5386,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="12.75">
+    <row r="93" spans="1:19" ht="13.2">
       <c r="A93" s="9"/>
       <c r="B93" s="10"/>
       <c r="C93" s="11"/>
@@ -5377,7 +5434,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="12.75">
+    <row r="94" spans="1:19" ht="13.2">
       <c r="A94" s="9"/>
       <c r="B94" s="10"/>
       <c r="C94" s="11"/>
@@ -5425,7 +5482,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="12.75">
+    <row r="95" spans="1:19" ht="13.2">
       <c r="A95" s="9"/>
       <c r="B95" s="10"/>
       <c r="C95" s="11"/>
@@ -5473,7 +5530,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="12.75">
+    <row r="96" spans="1:19" ht="13.2">
       <c r="A96" s="9"/>
       <c r="B96" s="10"/>
       <c r="C96" s="11"/>
@@ -5521,7 +5578,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="12.75">
+    <row r="97" spans="1:19" ht="13.2">
       <c r="A97" s="9"/>
       <c r="B97" s="10"/>
       <c r="C97" s="11"/>
@@ -5569,7 +5626,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="12.75">
+    <row r="98" spans="1:19" ht="13.2">
       <c r="A98" s="9"/>
       <c r="B98" s="10"/>
       <c r="C98" s="11"/>
@@ -5617,7 +5674,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="12.75">
+    <row r="99" spans="1:19" ht="13.2">
       <c r="A99" s="9"/>
       <c r="B99" s="10"/>
       <c r="C99" s="11"/>
@@ -5665,7 +5722,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="12.75">
+    <row r="100" spans="1:19" ht="13.2">
       <c r="A100" s="9"/>
       <c r="B100" s="10"/>
       <c r="C100" s="11"/>
@@ -5713,7 +5770,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="12.75">
+    <row r="101" spans="1:19" ht="13.2">
       <c r="A101" s="9"/>
       <c r="B101" s="10"/>
       <c r="C101" s="11"/>
@@ -5761,7 +5818,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="12.75">
+    <row r="102" spans="1:19" ht="13.2">
       <c r="A102" s="9"/>
       <c r="B102" s="10"/>
       <c r="C102" s="11"/>
@@ -5809,7 +5866,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="12.75">
+    <row r="103" spans="1:19" ht="13.2">
       <c r="A103" s="9"/>
       <c r="B103" s="10"/>
       <c r="C103" s="11"/>
@@ -5857,7 +5914,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="12.75">
+    <row r="104" spans="1:19" ht="13.2">
       <c r="A104" s="9"/>
       <c r="B104" s="10"/>
       <c r="C104" s="11"/>
@@ -5905,7 +5962,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="12.75">
+    <row r="105" spans="1:19" ht="13.2">
       <c r="A105" s="9"/>
       <c r="B105" s="10"/>
       <c r="C105" s="11"/>
@@ -5953,7 +6010,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="12.75">
+    <row r="106" spans="1:19" ht="13.2">
       <c r="A106" s="9"/>
       <c r="B106" s="10"/>
       <c r="C106" s="11"/>
@@ -6001,7 +6058,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="12.75">
+    <row r="107" spans="1:19" ht="13.2">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
       <c r="C107" s="11"/>
@@ -6049,7 +6106,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="12.75">
+    <row r="108" spans="1:19" ht="13.2">
       <c r="A108" s="9"/>
       <c r="B108" s="10"/>
       <c r="C108" s="11"/>
@@ -6097,7 +6154,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="12.75">
+    <row r="109" spans="1:19" ht="13.2">
       <c r="A109" s="9"/>
       <c r="B109" s="10"/>
       <c r="C109" s="11"/>
@@ -6145,7 +6202,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="12.75">
+    <row r="110" spans="1:19" ht="13.2">
       <c r="A110" s="9"/>
       <c r="B110" s="10"/>
       <c r="C110" s="11"/>
@@ -6193,7 +6250,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="12.75">
+    <row r="111" spans="1:19" ht="13.2">
       <c r="A111" s="9"/>
       <c r="B111" s="10"/>
       <c r="C111" s="11"/>
@@ -6241,7 +6298,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="12.75">
+    <row r="112" spans="1:19" ht="13.2">
       <c r="A112" s="9"/>
       <c r="B112" s="10"/>
       <c r="C112" s="11"/>
@@ -6289,7 +6346,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="12.75">
+    <row r="113" spans="1:19" ht="13.2">
       <c r="A113" s="9"/>
       <c r="B113" s="10"/>
       <c r="C113" s="11"/>
@@ -6337,7 +6394,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="12.75">
+    <row r="114" spans="1:19" ht="13.2">
       <c r="A114" s="9"/>
       <c r="B114" s="10"/>
       <c r="C114" s="11"/>
@@ -6385,7 +6442,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="12.75">
+    <row r="115" spans="1:19" ht="13.2">
       <c r="A115" s="9"/>
       <c r="B115" s="10"/>
       <c r="C115" s="11"/>
@@ -6433,7 +6490,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="12.75">
+    <row r="116" spans="1:19" ht="13.2">
       <c r="A116" s="9"/>
       <c r="B116" s="10"/>
       <c r="C116" s="11"/>
@@ -6481,7 +6538,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="12.75">
+    <row r="117" spans="1:19" ht="13.2">
       <c r="A117" s="9"/>
       <c r="B117" s="10"/>
       <c r="C117" s="11"/>
@@ -6529,7 +6586,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="12.75">
+    <row r="118" spans="1:19" ht="13.2">
       <c r="A118" s="9"/>
       <c r="B118" s="10"/>
       <c r="C118" s="11"/>
@@ -6577,7 +6634,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="12.75">
+    <row r="119" spans="1:19" ht="13.2">
       <c r="A119" s="9"/>
       <c r="B119" s="10"/>
       <c r="C119" s="11"/>
@@ -6625,7 +6682,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="12.75">
+    <row r="120" spans="1:19" ht="13.2">
       <c r="A120" s="9"/>
       <c r="B120" s="10"/>
       <c r="C120" s="11"/>
@@ -6673,7 +6730,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="12.75">
+    <row r="121" spans="1:19" ht="13.2">
       <c r="A121" s="9"/>
       <c r="B121" s="10"/>
       <c r="C121" s="11"/>
@@ -6721,7 +6778,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="12.75">
+    <row r="122" spans="1:19" ht="13.2">
       <c r="A122" s="9"/>
       <c r="B122" s="10"/>
       <c r="C122" s="11"/>
@@ -6769,7 +6826,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="12.75">
+    <row r="123" spans="1:19" ht="13.2">
       <c r="A123" s="9"/>
       <c r="B123" s="10"/>
       <c r="C123" s="11"/>
@@ -6817,7 +6874,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="12.75">
+    <row r="124" spans="1:19" ht="13.2">
       <c r="A124" s="9"/>
       <c r="B124" s="10"/>
       <c r="C124" s="11"/>
@@ -6865,7 +6922,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="12.75">
+    <row r="125" spans="1:19" ht="13.2">
       <c r="A125" s="9"/>
       <c r="B125" s="10"/>
       <c r="C125" s="11"/>
@@ -6913,7 +6970,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="12.75">
+    <row r="126" spans="1:19" ht="13.2">
       <c r="A126" s="9"/>
       <c r="B126" s="10"/>
       <c r="C126" s="11"/>
@@ -6961,7 +7018,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="12.75">
+    <row r="127" spans="1:19" ht="13.2">
       <c r="A127" s="9"/>
       <c r="B127" s="10"/>
       <c r="C127" s="11"/>
@@ -7009,7 +7066,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="12.75">
+    <row r="128" spans="1:19" ht="13.2">
       <c r="A128" s="9"/>
       <c r="B128" s="10"/>
       <c r="C128" s="11"/>
@@ -7057,7 +7114,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="12.75">
+    <row r="129" spans="1:19" ht="13.2">
       <c r="A129" s="9"/>
       <c r="B129" s="10"/>
       <c r="C129" s="11"/>
@@ -7105,7 +7162,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="12.75">
+    <row r="130" spans="1:19" ht="13.2">
       <c r="A130" s="9"/>
       <c r="B130" s="10"/>
       <c r="C130" s="11"/>
@@ -7153,7 +7210,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="12.75">
+    <row r="131" spans="1:19" ht="13.2">
       <c r="A131" s="9"/>
       <c r="B131" s="10"/>
       <c r="C131" s="11"/>
@@ -7201,7 +7258,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="12.75">
+    <row r="132" spans="1:19" ht="13.2">
       <c r="A132" s="9"/>
       <c r="B132" s="10"/>
       <c r="C132" s="11"/>
@@ -7249,7 +7306,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="12.75">
+    <row r="133" spans="1:19" ht="13.2">
       <c r="A133" s="9"/>
       <c r="B133" s="10"/>
       <c r="C133" s="11"/>
@@ -7297,7 +7354,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="12.75">
+    <row r="134" spans="1:19" ht="13.2">
       <c r="A134" s="9"/>
       <c r="B134" s="10"/>
       <c r="C134" s="11"/>
@@ -7345,7 +7402,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="12.75">
+    <row r="135" spans="1:19" ht="13.2">
       <c r="A135" s="9"/>
       <c r="B135" s="10"/>
       <c r="C135" s="11"/>
@@ -7393,7 +7450,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="12.75">
+    <row r="136" spans="1:19" ht="13.2">
       <c r="A136" s="9"/>
       <c r="B136" s="10"/>
       <c r="C136" s="11"/>
@@ -7441,7 +7498,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="12.75">
+    <row r="137" spans="1:19" ht="13.2">
       <c r="A137" s="9"/>
       <c r="B137" s="10"/>
       <c r="C137" s="11"/>
@@ -7489,7 +7546,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="12.75">
+    <row r="138" spans="1:19" ht="13.2">
       <c r="A138" s="9"/>
       <c r="B138" s="10"/>
       <c r="C138" s="11"/>
@@ -7537,7 +7594,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="12.75">
+    <row r="139" spans="1:19" ht="13.2">
       <c r="A139" s="9"/>
       <c r="B139" s="10"/>
       <c r="C139" s="11"/>
@@ -7585,7 +7642,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="12.75">
+    <row r="140" spans="1:19" ht="13.2">
       <c r="A140" s="9"/>
       <c r="B140" s="10"/>
       <c r="C140" s="11"/>
@@ -7633,7 +7690,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="12.75">
+    <row r="141" spans="1:19" ht="13.2">
       <c r="A141" s="9"/>
       <c r="B141" s="10"/>
       <c r="C141" s="11"/>
@@ -7681,7 +7738,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="12.75">
+    <row r="142" spans="1:19" ht="13.2">
       <c r="A142" s="9"/>
       <c r="B142" s="10"/>
       <c r="C142" s="11"/>
@@ -7729,7 +7786,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="12.75">
+    <row r="143" spans="1:19" ht="13.2">
       <c r="A143" s="9"/>
       <c r="B143" s="10"/>
       <c r="C143" s="11"/>
@@ -7777,7 +7834,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="12.75">
+    <row r="144" spans="1:19" ht="13.2">
       <c r="A144" s="9"/>
       <c r="B144" s="10"/>
       <c r="C144" s="11"/>
@@ -7825,7 +7882,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="12.75">
+    <row r="145" spans="1:19" ht="13.2">
       <c r="A145" s="9"/>
       <c r="B145" s="10"/>
       <c r="C145" s="11"/>
@@ -7873,7 +7930,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="12.75">
+    <row r="146" spans="1:19" ht="13.2">
       <c r="A146" s="9"/>
       <c r="B146" s="10"/>
       <c r="C146" s="11"/>
@@ -7921,7 +7978,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="12.75">
+    <row r="147" spans="1:19" ht="13.2">
       <c r="A147" s="9"/>
       <c r="B147" s="10"/>
       <c r="C147" s="11"/>
@@ -7969,7 +8026,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="12.75">
+    <row r="148" spans="1:19" ht="13.2">
       <c r="A148" s="9"/>
       <c r="B148" s="10"/>
       <c r="C148" s="11"/>
@@ -8017,7 +8074,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="12.75">
+    <row r="149" spans="1:19" ht="13.2">
       <c r="A149" s="9"/>
       <c r="B149" s="10"/>
       <c r="C149" s="11"/>
@@ -8065,7 +8122,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="12.75">
+    <row r="150" spans="1:19" ht="13.2">
       <c r="A150" s="9"/>
       <c r="B150" s="10"/>
       <c r="C150" s="11"/>
@@ -8113,7 +8170,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="12.75">
+    <row r="151" spans="1:19" ht="13.2">
       <c r="A151" s="9"/>
       <c r="B151" s="10"/>
       <c r="C151" s="11"/>
@@ -8161,7 +8218,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="12.75">
+    <row r="152" spans="1:19" ht="13.2">
       <c r="A152" s="9"/>
       <c r="B152" s="10"/>
       <c r="C152" s="11"/>
@@ -8209,7 +8266,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="12.75">
+    <row r="153" spans="1:19" ht="13.2">
       <c r="A153" s="9"/>
       <c r="B153" s="10"/>
       <c r="C153" s="11"/>
@@ -8257,7 +8314,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="12.75">
+    <row r="154" spans="1:19" ht="13.2">
       <c r="A154" s="9"/>
       <c r="B154" s="10"/>
       <c r="C154" s="11"/>
@@ -8305,7 +8362,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="12.75">
+    <row r="155" spans="1:19" ht="13.2">
       <c r="A155" s="9"/>
       <c r="B155" s="10"/>
       <c r="C155" s="11"/>
@@ -8353,7 +8410,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="12.75">
+    <row r="156" spans="1:19" ht="13.2">
       <c r="A156" s="9"/>
       <c r="B156" s="10"/>
       <c r="C156" s="11"/>
@@ -8401,7 +8458,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="12.75">
+    <row r="157" spans="1:19" ht="13.2">
       <c r="A157" s="9"/>
       <c r="B157" s="10"/>
       <c r="C157" s="11"/>
@@ -8449,7 +8506,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="12.75">
+    <row r="158" spans="1:19" ht="13.2">
       <c r="A158" s="9"/>
       <c r="B158" s="10"/>
       <c r="C158" s="11"/>
@@ -8497,7 +8554,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="12.75">
+    <row r="159" spans="1:19" ht="13.2">
       <c r="A159" s="9"/>
       <c r="B159" s="10"/>
       <c r="C159" s="11"/>
@@ -8545,7 +8602,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="12.75">
+    <row r="160" spans="1:19" ht="13.2">
       <c r="A160" s="9"/>
       <c r="B160" s="10"/>
       <c r="C160" s="11"/>
@@ -8593,7 +8650,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="12.75">
+    <row r="161" spans="1:19" ht="13.2">
       <c r="A161" s="9"/>
       <c r="B161" s="10"/>
       <c r="C161" s="11"/>
@@ -8641,7 +8698,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="12.75">
+    <row r="162" spans="1:19" ht="13.2">
       <c r="A162" s="9"/>
       <c r="B162" s="10"/>
       <c r="C162" s="11"/>
@@ -8689,7 +8746,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="12.75">
+    <row r="163" spans="1:19" ht="13.2">
       <c r="A163" s="9"/>
       <c r="B163" s="10"/>
       <c r="C163" s="11"/>
@@ -8737,7 +8794,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="12.75">
+    <row r="164" spans="1:19" ht="13.2">
       <c r="A164" s="9"/>
       <c r="B164" s="10"/>
       <c r="C164" s="11"/>
@@ -8785,7 +8842,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="12.75">
+    <row r="165" spans="1:19" ht="13.2">
       <c r="A165" s="9"/>
       <c r="B165" s="10"/>
       <c r="C165" s="11"/>
@@ -8833,7 +8890,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="12.75">
+    <row r="166" spans="1:19" ht="13.2">
       <c r="A166" s="9"/>
       <c r="B166" s="10"/>
       <c r="C166" s="11"/>
@@ -8881,7 +8938,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="12.75">
+    <row r="167" spans="1:19" ht="13.2">
       <c r="A167" s="9"/>
       <c r="B167" s="10"/>
       <c r="C167" s="11"/>
@@ -8929,7 +8986,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="12.75">
+    <row r="168" spans="1:19" ht="13.2">
       <c r="A168" s="9"/>
       <c r="B168" s="10"/>
       <c r="C168" s="11"/>
@@ -8977,7 +9034,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="12.75">
+    <row r="169" spans="1:19" ht="13.2">
       <c r="A169" s="9"/>
       <c r="B169" s="10"/>
       <c r="C169" s="11"/>
@@ -9025,7 +9082,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="12.75">
+    <row r="170" spans="1:19" ht="13.2">
       <c r="A170" s="9"/>
       <c r="B170" s="10"/>
       <c r="C170" s="11"/>
@@ -9073,7 +9130,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="12.75">
+    <row r="171" spans="1:19" ht="13.2">
       <c r="A171" s="9"/>
       <c r="B171" s="10"/>
       <c r="C171" s="11"/>
@@ -9121,7 +9178,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="12.75">
+    <row r="172" spans="1:19" ht="13.2">
       <c r="A172" s="9"/>
       <c r="B172" s="10"/>
       <c r="C172" s="11"/>
@@ -9169,7 +9226,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="12.75">
+    <row r="173" spans="1:19" ht="13.2">
       <c r="A173" s="9"/>
       <c r="B173" s="10"/>
       <c r="C173" s="11"/>
@@ -9217,7 +9274,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="12.75">
+    <row r="174" spans="1:19" ht="13.2">
       <c r="A174" s="9"/>
       <c r="B174" s="10"/>
       <c r="C174" s="11"/>
@@ -9265,7 +9322,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="12.75">
+    <row r="175" spans="1:19" ht="13.2">
       <c r="A175" s="9"/>
       <c r="B175" s="10"/>
       <c r="C175" s="11"/>
@@ -9313,7 +9370,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="12.75">
+    <row r="176" spans="1:19" ht="13.2">
       <c r="A176" s="9"/>
       <c r="B176" s="10"/>
       <c r="C176" s="11"/>
@@ -9361,7 +9418,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="12.75">
+    <row r="177" spans="1:19" ht="13.2">
       <c r="A177" s="9"/>
       <c r="B177" s="10"/>
       <c r="C177" s="11"/>
@@ -9409,7 +9466,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="12.75">
+    <row r="178" spans="1:19" ht="13.2">
       <c r="A178" s="9"/>
       <c r="B178" s="10"/>
       <c r="C178" s="11"/>
@@ -9457,7 +9514,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="12.75">
+    <row r="179" spans="1:19" ht="13.2">
       <c r="A179" s="9"/>
       <c r="B179" s="10"/>
       <c r="C179" s="11"/>
@@ -9505,7 +9562,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="12.75">
+    <row r="180" spans="1:19" ht="13.2">
       <c r="A180" s="9"/>
       <c r="B180" s="10"/>
       <c r="C180" s="11"/>
@@ -9553,7 +9610,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="12.75">
+    <row r="181" spans="1:19" ht="13.2">
       <c r="A181" s="9"/>
       <c r="B181" s="10"/>
       <c r="C181" s="11"/>
@@ -9601,7 +9658,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="12.75">
+    <row r="182" spans="1:19" ht="13.2">
       <c r="A182" s="9"/>
       <c r="B182" s="10"/>
       <c r="C182" s="11"/>
@@ -9649,7 +9706,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="12.75">
+    <row r="183" spans="1:19" ht="13.2">
       <c r="A183" s="9"/>
       <c r="B183" s="10"/>
       <c r="C183" s="11"/>
@@ -9697,7 +9754,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="12.75">
+    <row r="184" spans="1:19" ht="13.2">
       <c r="A184" s="9"/>
       <c r="B184" s="10"/>
       <c r="C184" s="11"/>
@@ -9745,7 +9802,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="12.75">
+    <row r="185" spans="1:19" ht="13.2">
       <c r="A185" s="9"/>
       <c r="B185" s="10"/>
       <c r="C185" s="11"/>
@@ -9793,7 +9850,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="12.75">
+    <row r="186" spans="1:19" ht="13.2">
       <c r="A186" s="9"/>
       <c r="B186" s="10"/>
       <c r="C186" s="11"/>
@@ -9844,7 +9901,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="12.75">
+    <row r="187" spans="1:19" ht="13.2">
       <c r="A187" s="9"/>
       <c r="B187" s="10"/>
       <c r="C187" s="11"/>
@@ -9895,7 +9952,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="12.75">
+    <row r="188" spans="1:19" ht="13.2">
       <c r="A188" s="9"/>
       <c r="B188" s="10"/>
       <c r="C188" s="11"/>
@@ -9946,7 +10003,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="12.75">
+    <row r="189" spans="1:19" ht="13.2">
       <c r="A189" s="9"/>
       <c r="B189" s="10"/>
       <c r="C189" s="11"/>
@@ -9997,7 +10054,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="12.75">
+    <row r="190" spans="1:19" ht="13.2">
       <c r="A190" s="9"/>
       <c r="B190" s="10"/>
       <c r="C190" s="11"/>
@@ -10048,7 +10105,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="12.75">
+    <row r="191" spans="1:19" ht="13.2">
       <c r="A191" s="9"/>
       <c r="B191" s="10"/>
       <c r="C191" s="11"/>
@@ -10099,7 +10156,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="12.75">
+    <row r="192" spans="1:19" ht="13.2">
       <c r="A192" s="9"/>
       <c r="B192" s="10"/>
       <c r="C192" s="11"/>
@@ -10150,7 +10207,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="12.75">
+    <row r="193" spans="1:19" ht="13.2">
       <c r="A193" s="9"/>
       <c r="B193" s="10"/>
       <c r="C193" s="11"/>
@@ -10201,7 +10258,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="12.75">
+    <row r="194" spans="1:19" ht="13.2">
       <c r="A194" s="9"/>
       <c r="B194" s="10"/>
       <c r="C194" s="11"/>
@@ -10252,7 +10309,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="12.75">
+    <row r="195" spans="1:19" ht="13.2">
       <c r="A195" s="9"/>
       <c r="B195" s="10"/>
       <c r="C195" s="11"/>
@@ -10303,7 +10360,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="12.75">
+    <row r="196" spans="1:19" ht="13.2">
       <c r="A196" s="9"/>
       <c r="B196" s="10"/>
       <c r="C196" s="11"/>
@@ -10354,7 +10411,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="12.75">
+    <row r="197" spans="1:19" ht="13.2">
       <c r="A197" s="9"/>
       <c r="B197" s="10"/>
       <c r="C197" s="11"/>
@@ -10405,7 +10462,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="12.75">
+    <row r="198" spans="1:19" ht="13.2">
       <c r="A198" s="9"/>
       <c r="B198" s="10"/>
       <c r="C198" s="11"/>
@@ -10456,7 +10513,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="12.75">
+    <row r="199" spans="1:19" ht="13.2">
       <c r="A199" s="9"/>
       <c r="B199" s="10"/>
       <c r="C199" s="11"/>
@@ -10507,7 +10564,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="12.75">
+    <row r="200" spans="1:19" ht="13.2">
       <c r="A200" s="9"/>
       <c r="B200" s="10"/>
       <c r="C200" s="11"/>
@@ -10558,7 +10615,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="12.75">
+    <row r="201" spans="1:19" ht="13.2">
       <c r="A201" s="9"/>
       <c r="B201" s="10"/>
       <c r="C201" s="11"/>
@@ -10609,7 +10666,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="12.75">
+    <row r="202" spans="1:19" ht="13.2">
       <c r="A202" s="9"/>
       <c r="B202" s="10"/>
       <c r="C202" s="11"/>
@@ -10660,7 +10717,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="12.75">
+    <row r="203" spans="1:19" ht="13.2">
       <c r="A203" s="9"/>
       <c r="B203" s="10"/>
       <c r="C203" s="11"/>
@@ -10711,7 +10768,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="12.75">
+    <row r="204" spans="1:19" ht="13.2">
       <c r="A204" s="9"/>
       <c r="B204" s="10"/>
       <c r="C204" s="11"/>
@@ -10762,7 +10819,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="12.75">
+    <row r="205" spans="1:19" ht="13.2">
       <c r="A205" s="9"/>
       <c r="B205" s="10"/>
       <c r="C205" s="11"/>
@@ -10813,7 +10870,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="12.75">
+    <row r="206" spans="1:19" ht="13.2">
       <c r="A206" s="9"/>
       <c r="B206" s="10"/>
       <c r="C206" s="11"/>
@@ -10864,7 +10921,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="12.75">
+    <row r="207" spans="1:19" ht="13.2">
       <c r="A207" s="9"/>
       <c r="B207" s="10"/>
       <c r="C207" s="11"/>
@@ -10915,7 +10972,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="12.75">
+    <row r="208" spans="1:19" ht="13.2">
       <c r="A208" s="9"/>
       <c r="B208" s="10"/>
       <c r="C208" s="11"/>
@@ -10966,7 +11023,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="12.75">
+    <row r="209" spans="1:19" ht="13.2">
       <c r="A209" s="9"/>
       <c r="B209" s="10"/>
       <c r="C209" s="11"/>
@@ -11017,7 +11074,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="12.75">
+    <row r="210" spans="1:19" ht="13.2">
       <c r="A210" s="9"/>
       <c r="B210" s="10"/>
       <c r="C210" s="11"/>
@@ -11068,7 +11125,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="12.75">
+    <row r="211" spans="1:19" ht="13.2">
       <c r="A211" s="9"/>
       <c r="B211" s="10"/>
       <c r="C211" s="11"/>
@@ -11119,7 +11176,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="12.75">
+    <row r="212" spans="1:19" ht="13.2">
       <c r="A212" s="9"/>
       <c r="B212" s="10"/>
       <c r="C212" s="11"/>
@@ -11170,7 +11227,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="12.75">
+    <row r="213" spans="1:19" ht="13.2">
       <c r="A213" s="9"/>
       <c r="B213" s="10"/>
       <c r="C213" s="11"/>
@@ -11221,7 +11278,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="12.75">
+    <row r="214" spans="1:19" ht="13.2">
       <c r="A214" s="9"/>
       <c r="B214" s="10"/>
       <c r="C214" s="11"/>
@@ -11272,7 +11329,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="12.75">
+    <row r="215" spans="1:19" ht="13.2">
       <c r="A215" s="9"/>
       <c r="B215" s="10"/>
       <c r="C215" s="11"/>
@@ -11323,7 +11380,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="12.75">
+    <row r="216" spans="1:19" ht="13.2">
       <c r="A216" s="9"/>
       <c r="B216" s="10"/>
       <c r="C216" s="11"/>
@@ -11374,7 +11431,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="12.75">
+    <row r="217" spans="1:19" ht="13.2">
       <c r="A217" s="9"/>
       <c r="B217" s="10"/>
       <c r="C217" s="11"/>
@@ -11425,7 +11482,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="12.75">
+    <row r="218" spans="1:19" ht="13.2">
       <c r="A218" s="9"/>
       <c r="B218" s="10"/>
       <c r="C218" s="11"/>
@@ -11476,7 +11533,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="12.75">
+    <row r="219" spans="1:19" ht="13.2">
       <c r="A219" s="9"/>
       <c r="B219" s="10"/>
       <c r="C219" s="11"/>
@@ -11527,7 +11584,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="12.75">
+    <row r="220" spans="1:19" ht="13.2">
       <c r="A220" s="9"/>
       <c r="B220" s="10"/>
       <c r="C220" s="11"/>
@@ -11578,7 +11635,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="12.75">
+    <row r="221" spans="1:19" ht="13.2">
       <c r="A221" s="9"/>
       <c r="B221" s="10"/>
       <c r="C221" s="11"/>
@@ -11629,7 +11686,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="12.75">
+    <row r="222" spans="1:19" ht="13.2">
       <c r="A222" s="9"/>
       <c r="B222" s="10"/>
       <c r="C222" s="11"/>
@@ -11680,7 +11737,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="12.75">
+    <row r="223" spans="1:19" ht="13.2">
       <c r="A223" s="9"/>
       <c r="B223" s="10"/>
       <c r="C223" s="11"/>
@@ -11731,7 +11788,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="12.75">
+    <row r="224" spans="1:19" ht="13.2">
       <c r="A224" s="9"/>
       <c r="B224" s="10"/>
       <c r="C224" s="11"/>
@@ -11782,7 +11839,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="12.75">
+    <row r="225" spans="1:19" ht="13.2">
       <c r="A225" s="9"/>
       <c r="B225" s="10"/>
       <c r="C225" s="11"/>
@@ -11833,7 +11890,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="12.75">
+    <row r="226" spans="1:19" ht="13.2">
       <c r="A226" s="9"/>
       <c r="B226" s="10"/>
       <c r="C226" s="11"/>
@@ -11884,7 +11941,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="12.75">
+    <row r="227" spans="1:19" ht="13.2">
       <c r="A227" s="9"/>
       <c r="B227" s="10"/>
       <c r="C227" s="11"/>
@@ -11935,7 +11992,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="12.75">
+    <row r="228" spans="1:19" ht="13.2">
       <c r="A228" s="9"/>
       <c r="B228" s="10"/>
       <c r="C228" s="11"/>
@@ -11986,7 +12043,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="12.75">
+    <row r="229" spans="1:19" ht="13.2">
       <c r="A229" s="9"/>
       <c r="B229" s="10"/>
       <c r="C229" s="11"/>
@@ -12037,7 +12094,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="12.75">
+    <row r="230" spans="1:19" ht="13.2">
       <c r="A230" s="9"/>
       <c r="B230" s="10"/>
       <c r="C230" s="11"/>
@@ -12088,7 +12145,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="12.75">
+    <row r="231" spans="1:19" ht="13.2">
       <c r="A231" s="9"/>
       <c r="B231" s="10"/>
       <c r="C231" s="11"/>
@@ -12139,7 +12196,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="12.75">
+    <row r="232" spans="1:19" ht="13.2">
       <c r="A232" s="9"/>
       <c r="B232" s="10"/>
       <c r="C232" s="11"/>
@@ -12190,7 +12247,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="12.75">
+    <row r="233" spans="1:19" ht="13.2">
       <c r="A233" s="9"/>
       <c r="B233" s="10"/>
       <c r="C233" s="11"/>
@@ -12241,7 +12298,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="12.75">
+    <row r="234" spans="1:19" ht="13.2">
       <c r="A234" s="9"/>
       <c r="B234" s="10"/>
       <c r="C234" s="11"/>
@@ -12292,7 +12349,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="12.75">
+    <row r="235" spans="1:19" ht="13.2">
       <c r="A235" s="9"/>
       <c r="B235" s="10"/>
       <c r="C235" s="11"/>
@@ -12343,7 +12400,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="12.75">
+    <row r="236" spans="1:19" ht="13.2">
       <c r="A236" s="9"/>
       <c r="B236" s="10"/>
       <c r="C236" s="11"/>
@@ -12394,7 +12451,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="12.75">
+    <row r="237" spans="1:19" ht="13.2">
       <c r="A237" s="9"/>
       <c r="B237" s="10"/>
       <c r="C237" s="11"/>
@@ -12445,7 +12502,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="12.75">
+    <row r="238" spans="1:19" ht="13.2">
       <c r="A238" s="9"/>
       <c r="B238" s="10"/>
       <c r="C238" s="11"/>
@@ -12496,7 +12553,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="12.75">
+    <row r="239" spans="1:19" ht="13.2">
       <c r="A239" s="9"/>
       <c r="B239" s="10"/>
       <c r="C239" s="11"/>
@@ -12547,7 +12604,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="12.75">
+    <row r="240" spans="1:19" ht="13.2">
       <c r="A240" s="9"/>
       <c r="B240" s="10"/>
       <c r="C240" s="11"/>
@@ -12598,7 +12655,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="12.75">
+    <row r="241" spans="1:19" ht="13.2">
       <c r="A241" s="9"/>
       <c r="B241" s="10"/>
       <c r="C241" s="11"/>
@@ -12649,7 +12706,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="12.75">
+    <row r="242" spans="1:19" ht="13.2">
       <c r="A242" s="9"/>
       <c r="B242" s="10"/>
       <c r="C242" s="11"/>
@@ -12700,7 +12757,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="12.75">
+    <row r="243" spans="1:19" ht="13.2">
       <c r="A243" s="9"/>
       <c r="B243" s="10"/>
       <c r="C243" s="11"/>
@@ -12751,7 +12808,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="12.75">
+    <row r="244" spans="1:19" ht="13.2">
       <c r="A244" s="9"/>
       <c r="B244" s="10"/>
       <c r="C244" s="11"/>
@@ -12802,7 +12859,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="12.75">
+    <row r="245" spans="1:19" ht="13.2">
       <c r="A245" s="9"/>
       <c r="B245" s="10"/>
       <c r="C245" s="11"/>
@@ -12853,7 +12910,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="12.75">
+    <row r="246" spans="1:19" ht="13.2">
       <c r="A246" s="9"/>
       <c r="B246" s="10"/>
       <c r="C246" s="11"/>
@@ -12904,7 +12961,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="12.75">
+    <row r="247" spans="1:19" ht="13.2">
       <c r="A247" s="9"/>
       <c r="B247" s="10"/>
       <c r="C247" s="11"/>
@@ -12955,7 +13012,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="12.75">
+    <row r="248" spans="1:19" ht="13.2">
       <c r="A248" s="9"/>
       <c r="B248" s="10"/>
       <c r="C248" s="11"/>
@@ -13006,7 +13063,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="12.75">
+    <row r="249" spans="1:19" ht="13.2">
       <c r="A249" s="9"/>
       <c r="B249" s="10"/>
       <c r="C249" s="11"/>
@@ -13057,7 +13114,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="12.75">
+    <row r="250" spans="1:19" ht="13.2">
       <c r="A250" s="9"/>
       <c r="B250" s="10"/>
       <c r="C250" s="11"/>
@@ -13108,7 +13165,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="12.75">
+    <row r="251" spans="1:19" ht="13.2">
       <c r="A251" s="9"/>
       <c r="B251" s="10"/>
       <c r="C251" s="11"/>
@@ -13159,7 +13216,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="12.75">
+    <row r="252" spans="1:19" ht="13.2">
       <c r="A252" s="9"/>
       <c r="B252" s="10"/>
       <c r="C252" s="11"/>
@@ -13210,7 +13267,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="12.75">
+    <row r="253" spans="1:19" ht="13.2">
       <c r="A253" s="9"/>
       <c r="B253" s="10"/>
       <c r="C253" s="11"/>
@@ -13261,7 +13318,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="12.75">
+    <row r="254" spans="1:19" ht="13.2">
       <c r="A254" s="9"/>
       <c r="B254" s="10"/>
       <c r="C254" s="11"/>
@@ -13312,7 +13369,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="12.75">
+    <row r="255" spans="1:19" ht="13.2">
       <c r="A255" s="9"/>
       <c r="B255" s="10"/>
       <c r="C255" s="11"/>
@@ -13363,7 +13420,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="12.75">
+    <row r="256" spans="1:19" ht="13.2">
       <c r="A256" s="9"/>
       <c r="B256" s="10"/>
       <c r="C256" s="11"/>
@@ -13414,7 +13471,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="12.75">
+    <row r="257" spans="1:19" ht="13.2">
       <c r="A257" s="9"/>
       <c r="B257" s="10"/>
       <c r="C257" s="11"/>
@@ -13465,7 +13522,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="12.75">
+    <row r="258" spans="1:19" ht="13.2">
       <c r="A258" s="9"/>
       <c r="B258" s="10"/>
       <c r="C258" s="11"/>
@@ -13516,7 +13573,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="12.75">
+    <row r="259" spans="1:19" ht="13.2">
       <c r="A259" s="9"/>
       <c r="B259" s="10"/>
       <c r="C259" s="11"/>
@@ -13567,7 +13624,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="12.75">
+    <row r="260" spans="1:19" ht="13.2">
       <c r="A260" s="9"/>
       <c r="B260" s="10"/>
       <c r="C260" s="11"/>
@@ -13618,7 +13675,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="12.75">
+    <row r="261" spans="1:19" ht="13.2">
       <c r="A261" s="9"/>
       <c r="B261" s="10"/>
       <c r="C261" s="11"/>
@@ -13669,7 +13726,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="12.75">
+    <row r="262" spans="1:19" ht="13.2">
       <c r="A262" s="9"/>
       <c r="B262" s="10"/>
       <c r="C262" s="11"/>
@@ -13720,7 +13777,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="12.75">
+    <row r="263" spans="1:19" ht="13.2">
       <c r="A263" s="9"/>
       <c r="B263" s="10"/>
       <c r="C263" s="11"/>
@@ -13771,7 +13828,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="12.75">
+    <row r="264" spans="1:19" ht="13.2">
       <c r="A264" s="9"/>
       <c r="B264" s="10"/>
       <c r="C264" s="11"/>
@@ -13822,7 +13879,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="12.75">
+    <row r="265" spans="1:19" ht="13.2">
       <c r="A265" s="9"/>
       <c r="B265" s="10"/>
       <c r="C265" s="11"/>
@@ -13873,7 +13930,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="12.75">
+    <row r="266" spans="1:19" ht="13.2">
       <c r="A266" s="9"/>
       <c r="B266" s="10"/>
       <c r="C266" s="11"/>
@@ -13924,7 +13981,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="12.75">
+    <row r="267" spans="1:19" ht="13.2">
       <c r="A267" s="9"/>
       <c r="B267" s="10"/>
       <c r="C267" s="11"/>
@@ -13975,7 +14032,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="12.75">
+    <row r="268" spans="1:19" ht="13.2">
       <c r="A268" s="9"/>
       <c r="B268" s="10"/>
       <c r="C268" s="11"/>
@@ -14026,7 +14083,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="12.75">
+    <row r="269" spans="1:19" ht="13.2">
       <c r="A269" s="9"/>
       <c r="B269" s="10"/>
       <c r="C269" s="11"/>
@@ -14077,7 +14134,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="12.75">
+    <row r="270" spans="1:19" ht="13.2">
       <c r="A270" s="9"/>
       <c r="B270" s="10"/>
       <c r="C270" s="11"/>
@@ -14128,7 +14185,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="12.75">
+    <row r="271" spans="1:19" ht="13.2">
       <c r="A271" s="9"/>
       <c r="B271" s="10"/>
       <c r="C271" s="11"/>
@@ -14179,7 +14236,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="12.75">
+    <row r="272" spans="1:19" ht="13.2">
       <c r="A272" s="9"/>
       <c r="B272" s="10"/>
       <c r="C272" s="11"/>
@@ -14230,7 +14287,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="12.75">
+    <row r="273" spans="1:19" ht="13.2">
       <c r="A273" s="9"/>
       <c r="B273" s="10"/>
       <c r="C273" s="11"/>
@@ -14281,7 +14338,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="12.75">
+    <row r="274" spans="1:19" ht="13.2">
       <c r="A274" s="9"/>
       <c r="B274" s="10"/>
       <c r="C274" s="11"/>
@@ -14332,7 +14389,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="12.75">
+    <row r="275" spans="1:19" ht="13.2">
       <c r="A275" s="9"/>
       <c r="B275" s="10"/>
       <c r="C275" s="11"/>
@@ -14383,7 +14440,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="12.75">
+    <row r="276" spans="1:19" ht="13.2">
       <c r="A276" s="9"/>
       <c r="B276" s="10"/>
       <c r="C276" s="11"/>
@@ -14434,7 +14491,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="12.75">
+    <row r="277" spans="1:19" ht="13.2">
       <c r="A277" s="9"/>
       <c r="B277" s="10"/>
       <c r="C277" s="11"/>
@@ -14485,7 +14542,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="12.75">
+    <row r="278" spans="1:19" ht="13.2">
       <c r="A278" s="9"/>
       <c r="B278" s="10"/>
       <c r="C278" s="11"/>
@@ -14536,7 +14593,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="12.75">
+    <row r="279" spans="1:19" ht="13.2">
       <c r="A279" s="9"/>
       <c r="B279" s="10"/>
       <c r="C279" s="11"/>
@@ -14587,7 +14644,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="12.75">
+    <row r="280" spans="1:19" ht="13.2">
       <c r="A280" s="9"/>
       <c r="B280" s="10"/>
       <c r="C280" s="11"/>
@@ -14638,7 +14695,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="12.75">
+    <row r="281" spans="1:19" ht="13.2">
       <c r="A281" s="9"/>
       <c r="B281" s="10"/>
       <c r="C281" s="11"/>
@@ -14689,7 +14746,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="12.75">
+    <row r="282" spans="1:19" ht="13.2">
       <c r="A282" s="9"/>
       <c r="B282" s="10"/>
       <c r="C282" s="11"/>
@@ -14740,7 +14797,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="12.75">
+    <row r="283" spans="1:19" ht="13.2">
       <c r="A283" s="9"/>
       <c r="B283" s="10"/>
       <c r="C283" s="11"/>
@@ -14791,7 +14848,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="12.75">
+    <row r="284" spans="1:19" ht="13.2">
       <c r="A284" s="9"/>
       <c r="B284" s="10"/>
       <c r="C284" s="11"/>
@@ -14842,7 +14899,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="12.75">
+    <row r="285" spans="1:19" ht="13.2">
       <c r="A285" s="9"/>
       <c r="B285" s="10"/>
       <c r="C285" s="11"/>
@@ -14893,7 +14950,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="12.75">
+    <row r="286" spans="1:19" ht="13.2">
       <c r="A286" s="9"/>
       <c r="B286" s="10"/>
       <c r="C286" s="11"/>
@@ -14944,7 +15001,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="12.75">
+    <row r="287" spans="1:19" ht="13.2">
       <c r="A287" s="9"/>
       <c r="B287" s="10"/>
       <c r="C287" s="11"/>
@@ -14995,7 +15052,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="12.75">
+    <row r="288" spans="1:19" ht="13.2">
       <c r="A288" s="9"/>
       <c r="B288" s="10"/>
       <c r="C288" s="11"/>
@@ -15046,7 +15103,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="12.75">
+    <row r="289" spans="1:19" ht="13.2">
       <c r="A289" s="9"/>
       <c r="B289" s="10"/>
       <c r="C289" s="11"/>
@@ -15097,7 +15154,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="12.75">
+    <row r="290" spans="1:19" ht="13.2">
       <c r="A290" s="9"/>
       <c r="B290" s="10"/>
       <c r="C290" s="11"/>
@@ -15148,7 +15205,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="12.75">
+    <row r="291" spans="1:19" ht="13.2">
       <c r="A291" s="9"/>
       <c r="B291" s="10"/>
       <c r="C291" s="11"/>
@@ -15199,7 +15256,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="12.75">
+    <row r="292" spans="1:19" ht="13.2">
       <c r="A292" s="9"/>
       <c r="B292" s="10"/>
       <c r="C292" s="11"/>
@@ -15250,7 +15307,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="12.75">
+    <row r="293" spans="1:19" ht="13.2">
       <c r="A293" s="9"/>
       <c r="B293" s="10"/>
       <c r="C293" s="11"/>
@@ -15301,7 +15358,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="12.75">
+    <row r="294" spans="1:19" ht="13.2">
       <c r="A294" s="9"/>
       <c r="B294" s="10"/>
       <c r="C294" s="11"/>
@@ -15352,7 +15409,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="12.75">
+    <row r="295" spans="1:19" ht="13.2">
       <c r="A295" s="9"/>
       <c r="B295" s="10"/>
       <c r="C295" s="11"/>
@@ -15403,7 +15460,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="12.75">
+    <row r="296" spans="1:19" ht="13.2">
       <c r="A296" s="9"/>
       <c r="B296" s="10"/>
       <c r="C296" s="11"/>
@@ -15454,7 +15511,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="12.75">
+    <row r="297" spans="1:19" ht="13.2">
       <c r="A297" s="9"/>
       <c r="B297" s="10"/>
       <c r="C297" s="11"/>
@@ -15505,7 +15562,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="12.75">
+    <row r="298" spans="1:19" ht="13.2">
       <c r="A298" s="9"/>
       <c r="B298" s="10"/>
       <c r="C298" s="11"/>
@@ -15556,7 +15613,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="12.75">
+    <row r="299" spans="1:19" ht="13.2">
       <c r="A299" s="9"/>
       <c r="B299" s="10"/>
       <c r="C299" s="11"/>
@@ -15607,7 +15664,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="12.75">
+    <row r="300" spans="1:19" ht="13.2">
       <c r="A300" s="9"/>
       <c r="B300" s="10"/>
       <c r="C300" s="11"/>
@@ -15658,7 +15715,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="12.75">
+    <row r="301" spans="1:19" ht="13.2">
       <c r="A301" s="9"/>
       <c r="B301" s="10"/>
       <c r="C301" s="11"/>
@@ -15709,7 +15766,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="12.75">
+    <row r="302" spans="1:19" ht="13.2">
       <c r="A302" s="9"/>
       <c r="B302" s="10"/>
       <c r="C302" s="11"/>
@@ -15760,7 +15817,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="12.75">
+    <row r="303" spans="1:19" ht="13.2">
       <c r="A303" s="9"/>
       <c r="B303" s="10"/>
       <c r="C303" s="11"/>
@@ -15811,7 +15868,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="12.75">
+    <row r="304" spans="1:19" ht="13.2">
       <c r="A304" s="9"/>
       <c r="B304" s="10"/>
       <c r="C304" s="11"/>
@@ -15862,7 +15919,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="12.75">
+    <row r="305" spans="1:19" ht="13.2">
       <c r="A305" s="9"/>
       <c r="B305" s="10"/>
       <c r="C305" s="11"/>
@@ -15913,7 +15970,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="12.75">
+    <row r="306" spans="1:19" ht="13.2">
       <c r="A306" s="9"/>
       <c r="B306" s="10"/>
       <c r="C306" s="11"/>
@@ -15964,7 +16021,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="12.75">
+    <row r="307" spans="1:19" ht="13.2">
       <c r="A307" s="9"/>
       <c r="B307" s="10"/>
       <c r="C307" s="11"/>
@@ -16015,7 +16072,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="12.75">
+    <row r="308" spans="1:19" ht="13.2">
       <c r="A308" s="9"/>
       <c r="B308" s="10"/>
       <c r="C308" s="11"/>
@@ -16066,7 +16123,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="12.75">
+    <row r="309" spans="1:19" ht="13.2">
       <c r="A309" s="9"/>
       <c r="B309" s="10"/>
       <c r="C309" s="11"/>
@@ -16117,7 +16174,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="12.75">
+    <row r="310" spans="1:19" ht="13.2">
       <c r="A310" s="9"/>
       <c r="B310" s="10"/>
       <c r="C310" s="11"/>
@@ -16168,7 +16225,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="12.75">
+    <row r="311" spans="1:19" ht="13.2">
       <c r="A311" s="9"/>
       <c r="B311" s="10"/>
       <c r="C311" s="11"/>
@@ -16219,7 +16276,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="12.75">
+    <row r="312" spans="1:19" ht="13.2">
       <c r="A312" s="9"/>
       <c r="B312" s="10"/>
       <c r="C312" s="11"/>
@@ -16270,7 +16327,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="12.75">
+    <row r="313" spans="1:19" ht="13.2">
       <c r="A313" s="9"/>
       <c r="B313" s="10"/>
       <c r="C313" s="11"/>
@@ -16321,7 +16378,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="12.75">
+    <row r="314" spans="1:19" ht="13.2">
       <c r="A314" s="9"/>
       <c r="B314" s="10"/>
       <c r="C314" s="11"/>
@@ -16372,7 +16429,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="12.75">
+    <row r="315" spans="1:19" ht="13.2">
       <c r="A315" s="9"/>
       <c r="B315" s="10"/>
       <c r="C315" s="11"/>
@@ -16423,7 +16480,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="12.75">
+    <row r="316" spans="1:19" ht="13.2">
       <c r="A316" s="9"/>
       <c r="B316" s="10"/>
       <c r="C316" s="11"/>
@@ -16474,7 +16531,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="12.75">
+    <row r="317" spans="1:19" ht="13.2">
       <c r="A317" s="9"/>
       <c r="B317" s="10"/>
       <c r="C317" s="11"/>
@@ -16525,7 +16582,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="12.75">
+    <row r="318" spans="1:19" ht="13.2">
       <c r="A318" s="9"/>
       <c r="B318" s="10"/>
       <c r="C318" s="11"/>
@@ -16576,7 +16633,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="12.75">
+    <row r="319" spans="1:19" ht="13.2">
       <c r="A319" s="9"/>
       <c r="B319" s="10"/>
       <c r="C319" s="11"/>
@@ -16627,7 +16684,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="12.75">
+    <row r="320" spans="1:19" ht="13.2">
       <c r="A320" s="9"/>
       <c r="B320" s="10"/>
       <c r="C320" s="11"/>
@@ -16678,7 +16735,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="12.75">
+    <row r="321" spans="1:19" ht="13.2">
       <c r="A321" s="9"/>
       <c r="B321" s="10"/>
       <c r="C321" s="11"/>
@@ -16729,7 +16786,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="12.75">
+    <row r="322" spans="1:19" ht="13.2">
       <c r="A322" s="9"/>
       <c r="B322" s="10"/>
       <c r="C322" s="11"/>
@@ -16780,7 +16837,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="12.75">
+    <row r="323" spans="1:19" ht="13.2">
       <c r="A323" s="9"/>
       <c r="B323" s="10"/>
       <c r="C323" s="11"/>
@@ -16831,7 +16888,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="12.75">
+    <row r="324" spans="1:19" ht="13.2">
       <c r="A324" s="9"/>
       <c r="B324" s="10"/>
       <c r="C324" s="11"/>
@@ -16882,7 +16939,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="12.75">
+    <row r="325" spans="1:19" ht="13.2">
       <c r="A325" s="9"/>
       <c r="B325" s="10"/>
       <c r="C325" s="11"/>
@@ -16933,7 +16990,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="12.75">
+    <row r="326" spans="1:19" ht="13.2">
       <c r="A326" s="9"/>
       <c r="B326" s="10"/>
       <c r="C326" s="11"/>
@@ -16984,7 +17041,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="12.75">
+    <row r="327" spans="1:19" ht="13.2">
       <c r="A327" s="9"/>
       <c r="B327" s="10"/>
       <c r="C327" s="11"/>
@@ -17035,7 +17092,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="12.75">
+    <row r="328" spans="1:19" ht="13.2">
       <c r="A328" s="9"/>
       <c r="B328" s="10"/>
       <c r="C328" s="11"/>
@@ -17086,7 +17143,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="12.75">
+    <row r="329" spans="1:19" ht="13.2">
       <c r="A329" s="9"/>
       <c r="B329" s="10"/>
       <c r="C329" s="11"/>
@@ -17137,7 +17194,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="12.75">
+    <row r="330" spans="1:19" ht="13.2">
       <c r="A330" s="9"/>
       <c r="B330" s="10"/>
       <c r="C330" s="11"/>
@@ -17188,7 +17245,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="12.75">
+    <row r="331" spans="1:19" ht="13.2">
       <c r="A331" s="9"/>
       <c r="B331" s="10"/>
       <c r="C331" s="11"/>
@@ -17239,7 +17296,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="12.75">
+    <row r="332" spans="1:19" ht="13.2">
       <c r="A332" s="9"/>
       <c r="B332" s="10"/>
       <c r="C332" s="11"/>
@@ -17290,7 +17347,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="12.75">
+    <row r="333" spans="1:19" ht="13.2">
       <c r="A333" s="9"/>
       <c r="B333" s="10"/>
       <c r="C333" s="11"/>
@@ -17341,7 +17398,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="12.75">
+    <row r="334" spans="1:19" ht="13.2">
       <c r="A334" s="9"/>
       <c r="B334" s="10"/>
       <c r="C334" s="11"/>
@@ -17392,7 +17449,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="12.75">
+    <row r="335" spans="1:19" ht="13.2">
       <c r="A335" s="9"/>
       <c r="B335" s="10"/>
       <c r="C335" s="11"/>
@@ -17443,7 +17500,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="12.75">
+    <row r="336" spans="1:19" ht="13.2">
       <c r="A336" s="9"/>
       <c r="B336" s="10"/>
       <c r="C336" s="11"/>
@@ -17494,7 +17551,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="12.75">
+    <row r="337" spans="1:19" ht="13.2">
       <c r="A337" s="9"/>
       <c r="B337" s="10"/>
       <c r="C337" s="11"/>
@@ -17545,7 +17602,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="12.75">
+    <row r="338" spans="1:19" ht="13.2">
       <c r="A338" s="9"/>
       <c r="B338" s="10"/>
       <c r="C338" s="11"/>
@@ -17596,7 +17653,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="12.75">
+    <row r="339" spans="1:19" ht="13.2">
       <c r="A339" s="9"/>
       <c r="B339" s="10"/>
       <c r="C339" s="11"/>
@@ -17647,7 +17704,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="12.75">
+    <row r="340" spans="1:19" ht="13.2">
       <c r="A340" s="9"/>
       <c r="B340" s="10"/>
       <c r="C340" s="11"/>
@@ -17698,7 +17755,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="12.75">
+    <row r="341" spans="1:19" ht="13.2">
       <c r="A341" s="9"/>
       <c r="B341" s="10"/>
       <c r="C341" s="11"/>
@@ -17749,7 +17806,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="12.75">
+    <row r="342" spans="1:19" ht="13.2">
       <c r="A342" s="9"/>
       <c r="B342" s="10"/>
       <c r="C342" s="11"/>
@@ -17800,7 +17857,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="12.75">
+    <row r="343" spans="1:19" ht="13.2">
       <c r="A343" s="9"/>
       <c r="B343" s="10"/>
       <c r="C343" s="11"/>
@@ -17851,7 +17908,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="12.75">
+    <row r="344" spans="1:19" ht="13.2">
       <c r="A344" s="9"/>
       <c r="B344" s="10"/>
       <c r="C344" s="11"/>
@@ -17902,7 +17959,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="12.75">
+    <row r="345" spans="1:19" ht="13.2">
       <c r="A345" s="9"/>
       <c r="B345" s="10"/>
       <c r="C345" s="11"/>
@@ -17953,7 +18010,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="12.75">
+    <row r="346" spans="1:19" ht="13.2">
       <c r="A346" s="9"/>
       <c r="B346" s="10"/>
       <c r="C346" s="11"/>
@@ -18004,7 +18061,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="12.75">
+    <row r="347" spans="1:19" ht="13.2">
       <c r="A347" s="9"/>
       <c r="B347" s="10"/>
       <c r="C347" s="11"/>
@@ -18055,7 +18112,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="12.75">
+    <row r="348" spans="1:19" ht="13.2">
       <c r="A348" s="9"/>
       <c r="B348" s="10"/>
       <c r="C348" s="11"/>
@@ -18106,7 +18163,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="12.75">
+    <row r="349" spans="1:19" ht="13.2">
       <c r="A349" s="9"/>
       <c r="B349" s="10"/>
       <c r="C349" s="11"/>
@@ -18157,7 +18214,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="12.75">
+    <row r="350" spans="1:19" ht="13.2">
       <c r="A350" s="9"/>
       <c r="B350" s="10"/>
       <c r="C350" s="11"/>
@@ -18208,7 +18265,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="12.75">
+    <row r="351" spans="1:19" ht="13.2">
       <c r="A351" s="9"/>
       <c r="B351" s="10"/>
       <c r="C351" s="11"/>
@@ -18259,7 +18316,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="12.75">
+    <row r="352" spans="1:19" ht="13.2">
       <c r="A352" s="9"/>
       <c r="B352" s="10"/>
       <c r="C352" s="11"/>
@@ -18310,7 +18367,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="12.75">
+    <row r="353" spans="1:19" ht="13.2">
       <c r="A353" s="9"/>
       <c r="B353" s="10"/>
       <c r="C353" s="11"/>
@@ -18361,7 +18418,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="12.75">
+    <row r="354" spans="1:19" ht="13.2">
       <c r="A354" s="9"/>
       <c r="B354" s="10"/>
       <c r="C354" s="11"/>
@@ -18412,7 +18469,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="12.75">
+    <row r="355" spans="1:19" ht="13.2">
       <c r="A355" s="9"/>
       <c r="B355" s="10"/>
       <c r="C355" s="11"/>
@@ -18463,7 +18520,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="12.75">
+    <row r="356" spans="1:19" ht="13.2">
       <c r="A356" s="9"/>
       <c r="B356" s="10"/>
       <c r="C356" s="11"/>
@@ -18514,7 +18571,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="12.75">
+    <row r="357" spans="1:19" ht="13.2">
       <c r="A357" s="9"/>
       <c r="B357" s="10"/>
       <c r="C357" s="11"/>
@@ -18565,7 +18622,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="12.75">
+    <row r="358" spans="1:19" ht="13.2">
       <c r="A358" s="9"/>
       <c r="B358" s="10"/>
       <c r="C358" s="11"/>
@@ -18616,7 +18673,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="12.75">
+    <row r="359" spans="1:19" ht="13.2">
       <c r="A359" s="9"/>
       <c r="B359" s="10"/>
       <c r="C359" s="11"/>
@@ -18667,7 +18724,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="12.75">
+    <row r="360" spans="1:19" ht="13.2">
       <c r="A360" s="9"/>
       <c r="B360" s="10"/>
       <c r="C360" s="11"/>
@@ -18718,7 +18775,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="12.75">
+    <row r="361" spans="1:19" ht="13.2">
       <c r="A361" s="9"/>
       <c r="B361" s="10"/>
       <c r="C361" s="11"/>
@@ -18769,7 +18826,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="12.75">
+    <row r="362" spans="1:19" ht="13.2">
       <c r="A362" s="9"/>
       <c r="B362" s="10"/>
       <c r="C362" s="11"/>
@@ -18820,7 +18877,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="12.75">
+    <row r="363" spans="1:19" ht="13.2">
       <c r="A363" s="9"/>
       <c r="B363" s="10"/>
       <c r="C363" s="11"/>
@@ -18871,7 +18928,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="12.75">
+    <row r="364" spans="1:19" ht="13.2">
       <c r="A364" s="9"/>
       <c r="B364" s="10"/>
       <c r="C364" s="11"/>
@@ -18922,7 +18979,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="12.75">
+    <row r="365" spans="1:19" ht="13.2">
       <c r="A365" s="9"/>
       <c r="B365" s="10"/>
       <c r="C365" s="11"/>
@@ -18973,7 +19030,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="12.75">
+    <row r="366" spans="1:19" ht="13.2">
       <c r="A366" s="9"/>
       <c r="B366" s="10"/>
       <c r="C366" s="11"/>
@@ -19024,7 +19081,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="12.75">
+    <row r="367" spans="1:19" ht="13.2">
       <c r="A367" s="9"/>
       <c r="B367" s="10"/>
       <c r="C367" s="11"/>
@@ -19075,7 +19132,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="12.75">
+    <row r="368" spans="1:19" ht="13.2">
       <c r="A368" s="9"/>
       <c r="B368" s="10"/>
       <c r="C368" s="11"/>
@@ -19126,7 +19183,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="12.75">
+    <row r="369" spans="1:19" ht="13.2">
       <c r="A369" s="9"/>
       <c r="B369" s="10"/>
       <c r="C369" s="11"/>
@@ -19177,7 +19234,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="12.75">
+    <row r="370" spans="1:19" ht="13.2">
       <c r="A370" s="9"/>
       <c r="B370" s="10"/>
       <c r="C370" s="11"/>
@@ -19228,7 +19285,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="12.75">
+    <row r="371" spans="1:19" ht="13.2">
       <c r="A371" s="9"/>
       <c r="B371" s="10"/>
       <c r="C371" s="11"/>
@@ -19279,7 +19336,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="12.75">
+    <row r="372" spans="1:19" ht="13.2">
       <c r="A372" s="9"/>
       <c r="B372" s="10"/>
       <c r="C372" s="11"/>
@@ -19330,7 +19387,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="12.75">
+    <row r="373" spans="1:19" ht="13.2">
       <c r="A373" s="9"/>
       <c r="B373" s="10"/>
       <c r="C373" s="11"/>
@@ -19381,7 +19438,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="12.75">
+    <row r="374" spans="1:19" ht="13.2">
       <c r="A374" s="9"/>
       <c r="B374" s="10"/>
       <c r="C374" s="11"/>
@@ -19432,7 +19489,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="12.75">
+    <row r="375" spans="1:19" ht="13.2">
       <c r="A375" s="9"/>
       <c r="B375" s="10"/>
       <c r="C375" s="11"/>
@@ -19483,7 +19540,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="12.75">
+    <row r="376" spans="1:19" ht="13.2">
       <c r="A376" s="9"/>
       <c r="B376" s="10"/>
       <c r="C376" s="11"/>
@@ -19534,7 +19591,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="12.75">
+    <row r="377" spans="1:19" ht="13.2">
       <c r="A377" s="9"/>
       <c r="B377" s="10"/>
       <c r="C377" s="11"/>
@@ -19585,7 +19642,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="12.75">
+    <row r="378" spans="1:19" ht="13.2">
       <c r="A378" s="9"/>
       <c r="B378" s="10"/>
       <c r="C378" s="11"/>
@@ -19636,7 +19693,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="12.75">
+    <row r="379" spans="1:19" ht="13.2">
       <c r="A379" s="9"/>
       <c r="B379" s="10"/>
       <c r="C379" s="11"/>
@@ -19687,7 +19744,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="12.75">
+    <row r="380" spans="1:19" ht="13.2">
       <c r="A380" s="9"/>
       <c r="B380" s="10"/>
       <c r="C380" s="11"/>
@@ -19738,7 +19795,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="12.75">
+    <row r="381" spans="1:19" ht="13.2">
       <c r="A381" s="9"/>
       <c r="B381" s="10"/>
       <c r="C381" s="11"/>
@@ -19789,7 +19846,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="12.75">
+    <row r="382" spans="1:19" ht="13.2">
       <c r="A382" s="9"/>
       <c r="B382" s="10"/>
       <c r="C382" s="11"/>
@@ -19840,7 +19897,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="12.75">
+    <row r="383" spans="1:19" ht="13.2">
       <c r="A383" s="9"/>
       <c r="B383" s="10"/>
       <c r="C383" s="11"/>
@@ -19891,7 +19948,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="12.75">
+    <row r="384" spans="1:19" ht="13.2">
       <c r="A384" s="9"/>
       <c r="B384" s="10"/>
       <c r="C384" s="11"/>
@@ -19942,7 +19999,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="12.75">
+    <row r="385" spans="1:19" ht="13.2">
       <c r="A385" s="9"/>
       <c r="B385" s="10"/>
       <c r="C385" s="11"/>
@@ -19993,7 +20050,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="12.75">
+    <row r="386" spans="1:19" ht="13.2">
       <c r="A386" s="9"/>
       <c r="B386" s="10"/>
       <c r="C386" s="11"/>
@@ -20044,7 +20101,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="12.75">
+    <row r="387" spans="1:19" ht="13.2">
       <c r="A387" s="9"/>
       <c r="B387" s="10"/>
       <c r="C387" s="11"/>
@@ -20095,7 +20152,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="12.75">
+    <row r="388" spans="1:19" ht="13.2">
       <c r="A388" s="9"/>
       <c r="B388" s="10"/>
       <c r="C388" s="11"/>
@@ -20146,7 +20203,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="12.75">
+    <row r="389" spans="1:19" ht="13.2">
       <c r="A389" s="9"/>
       <c r="B389" s="10"/>
       <c r="C389" s="11"/>
@@ -20197,7 +20254,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="12.75">
+    <row r="390" spans="1:19" ht="13.2">
       <c r="A390" s="9"/>
       <c r="B390" s="10"/>
       <c r="C390" s="11"/>
@@ -20248,7 +20305,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="12.75">
+    <row r="391" spans="1:19" ht="13.2">
       <c r="A391" s="9"/>
       <c r="B391" s="10"/>
       <c r="C391" s="11"/>
@@ -20299,7 +20356,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="12.75">
+    <row r="392" spans="1:19" ht="13.2">
       <c r="A392" s="9"/>
       <c r="B392" s="10"/>
       <c r="C392" s="11"/>
@@ -20350,7 +20407,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="12.75">
+    <row r="393" spans="1:19" ht="13.2">
       <c r="A393" s="9"/>
       <c r="B393" s="10"/>
       <c r="C393" s="11"/>
@@ -20401,7 +20458,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="12.75">
+    <row r="394" spans="1:19" ht="13.2">
       <c r="A394" s="9"/>
       <c r="B394" s="10"/>
       <c r="C394" s="11"/>
@@ -20452,7 +20509,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:19" ht="12.75">
+    <row r="395" spans="1:19" ht="13.2">
       <c r="A395" s="9"/>
       <c r="B395" s="10"/>
       <c r="C395" s="11"/>
@@ -20503,7 +20560,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="12.75">
+    <row r="396" spans="1:19" ht="13.2">
       <c r="A396" s="9"/>
       <c r="B396" s="10"/>
       <c r="C396" s="11"/>
@@ -20554,7 +20611,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="12.75">
+    <row r="397" spans="1:19" ht="13.2">
       <c r="A397" s="9"/>
       <c r="B397" s="10"/>
       <c r="C397" s="11"/>
@@ -20605,7 +20662,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="12.75">
+    <row r="398" spans="1:19" ht="13.2">
       <c r="A398" s="9"/>
       <c r="B398" s="10"/>
       <c r="C398" s="11"/>
@@ -20656,7 +20713,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="12.75">
+    <row r="399" spans="1:19" ht="13.2">
       <c r="A399" s="9"/>
       <c r="B399" s="10"/>
       <c r="C399" s="11"/>
@@ -20707,7 +20764,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="12.75">
+    <row r="400" spans="1:19" ht="13.2">
       <c r="A400" s="9"/>
       <c r="B400" s="10"/>
       <c r="C400" s="11"/>
@@ -20758,7 +20815,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="12.75">
+    <row r="401" spans="1:19" ht="13.2">
       <c r="A401" s="9"/>
       <c r="B401" s="10"/>
       <c r="C401" s="11"/>
@@ -20809,7 +20866,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="12.75">
+    <row r="402" spans="1:19" ht="13.2">
       <c r="A402" s="9"/>
       <c r="B402" s="10"/>
       <c r="C402" s="11"/>
@@ -20860,7 +20917,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="12.75">
+    <row r="403" spans="1:19" ht="13.2">
       <c r="A403" s="9"/>
       <c r="B403" s="10"/>
       <c r="C403" s="11"/>
@@ -20911,7 +20968,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="12.75">
+    <row r="404" spans="1:19" ht="13.2">
       <c r="A404" s="9"/>
       <c r="B404" s="10"/>
       <c r="C404" s="11"/>
@@ -20962,7 +21019,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="12.75">
+    <row r="405" spans="1:19" ht="13.2">
       <c r="A405" s="9"/>
       <c r="B405" s="10"/>
       <c r="C405" s="11"/>
@@ -21013,7 +21070,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="12.75">
+    <row r="406" spans="1:19" ht="13.2">
       <c r="A406" s="9"/>
       <c r="B406" s="10"/>
       <c r="C406" s="11"/>
@@ -21064,7 +21121,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="12.75">
+    <row r="407" spans="1:19" ht="13.2">
       <c r="A407" s="9"/>
       <c r="B407" s="10"/>
       <c r="C407" s="11"/>
@@ -21115,7 +21172,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="12.75">
+    <row r="408" spans="1:19" ht="13.2">
       <c r="A408" s="9"/>
       <c r="B408" s="10"/>
       <c r="C408" s="11"/>
@@ -21166,7 +21223,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="12.75">
+    <row r="409" spans="1:19" ht="13.2">
       <c r="A409" s="9"/>
       <c r="B409" s="10"/>
       <c r="C409" s="11"/>
@@ -21217,7 +21274,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="12.75">
+    <row r="410" spans="1:19" ht="13.2">
       <c r="A410" s="9"/>
       <c r="B410" s="10"/>
       <c r="C410" s="11"/>
@@ -21268,7 +21325,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="12.75">
+    <row r="411" spans="1:19" ht="13.2">
       <c r="A411" s="9"/>
       <c r="B411" s="10"/>
       <c r="C411" s="11"/>
@@ -21319,7 +21376,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="12.75">
+    <row r="412" spans="1:19" ht="13.2">
       <c r="A412" s="9"/>
       <c r="B412" s="10"/>
       <c r="C412" s="11"/>
@@ -21370,7 +21427,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="12.75">
+    <row r="413" spans="1:19" ht="13.2">
       <c r="A413" s="9"/>
       <c r="B413" s="10"/>
       <c r="C413" s="11"/>
@@ -21421,7 +21478,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="12.75">
+    <row r="414" spans="1:19" ht="13.2">
       <c r="A414" s="9"/>
       <c r="B414" s="10"/>
       <c r="C414" s="11"/>
@@ -21472,7 +21529,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="12.75">
+    <row r="415" spans="1:19" ht="13.2">
       <c r="A415" s="9"/>
       <c r="B415" s="10"/>
       <c r="C415" s="11"/>
@@ -21523,7 +21580,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="12.75">
+    <row r="416" spans="1:19" ht="13.2">
       <c r="A416" s="9"/>
       <c r="B416" s="10"/>
       <c r="C416" s="11"/>
@@ -21574,7 +21631,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="12.75">
+    <row r="417" spans="1:19" ht="13.2">
       <c r="A417" s="9"/>
       <c r="B417" s="10"/>
       <c r="C417" s="11"/>
@@ -21625,7 +21682,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="12.75">
+    <row r="418" spans="1:19" ht="13.2">
       <c r="A418" s="9"/>
       <c r="B418" s="10"/>
       <c r="C418" s="11"/>
@@ -21676,7 +21733,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="12.75">
+    <row r="419" spans="1:19" ht="13.2">
       <c r="A419" s="9"/>
       <c r="B419" s="10"/>
       <c r="C419" s="11"/>
@@ -21727,7 +21784,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="12.75">
+    <row r="420" spans="1:19" ht="13.2">
       <c r="A420" s="9"/>
       <c r="B420" s="10"/>
       <c r="C420" s="11"/>
@@ -21778,7 +21835,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="12.75">
+    <row r="421" spans="1:19" ht="13.2">
       <c r="A421" s="9"/>
       <c r="B421" s="10"/>
       <c r="C421" s="11"/>
@@ -21829,7 +21886,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="12.75">
+    <row r="422" spans="1:19" ht="13.2">
       <c r="A422" s="9"/>
       <c r="B422" s="10"/>
       <c r="C422" s="11"/>
@@ -21880,7 +21937,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="12.75">
+    <row r="423" spans="1:19" ht="13.2">
       <c r="A423" s="9"/>
       <c r="B423" s="10"/>
       <c r="C423" s="11"/>
@@ -21931,7 +21988,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="12.75">
+    <row r="424" spans="1:19" ht="13.2">
       <c r="A424" s="9"/>
       <c r="B424" s="10"/>
       <c r="C424" s="11"/>
@@ -21982,7 +22039,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="12.75">
+    <row r="425" spans="1:19" ht="13.2">
       <c r="A425" s="9"/>
       <c r="B425" s="10"/>
       <c r="C425" s="11"/>
@@ -22033,7 +22090,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="12.75">
+    <row r="426" spans="1:19" ht="13.2">
       <c r="A426" s="9"/>
       <c r="B426" s="10"/>
       <c r="C426" s="11"/>
@@ -22084,7 +22141,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="12.75">
+    <row r="427" spans="1:19" ht="13.2">
       <c r="A427" s="9"/>
       <c r="B427" s="10"/>
       <c r="C427" s="11"/>
@@ -22135,7 +22192,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="12.75">
+    <row r="428" spans="1:19" ht="13.2">
       <c r="A428" s="9"/>
       <c r="B428" s="10"/>
       <c r="C428" s="11"/>
@@ -22186,7 +22243,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="12.75">
+    <row r="429" spans="1:19" ht="13.2">
       <c r="A429" s="9"/>
       <c r="B429" s="10"/>
       <c r="C429" s="11"/>
@@ -22237,7 +22294,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="12.75">
+    <row r="430" spans="1:19" ht="13.2">
       <c r="A430" s="9"/>
       <c r="B430" s="10"/>
       <c r="C430" s="11"/>
@@ -22288,7 +22345,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="12.75">
+    <row r="431" spans="1:19" ht="13.2">
       <c r="A431" s="9"/>
       <c r="B431" s="10"/>
       <c r="C431" s="11"/>
@@ -22339,7 +22396,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="12.75">
+    <row r="432" spans="1:19" ht="13.2">
       <c r="A432" s="9"/>
       <c r="B432" s="10"/>
       <c r="C432" s="11"/>
@@ -22390,7 +22447,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="12.75">
+    <row r="433" spans="1:19" ht="13.2">
       <c r="A433" s="9"/>
       <c r="B433" s="10"/>
       <c r="C433" s="11"/>
@@ -22441,7 +22498,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="12.75">
+    <row r="434" spans="1:19" ht="13.2">
       <c r="A434" s="9"/>
       <c r="B434" s="10"/>
       <c r="C434" s="11"/>
@@ -22492,7 +22549,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="12.75">
+    <row r="435" spans="1:19" ht="13.2">
       <c r="A435" s="9"/>
       <c r="B435" s="10"/>
       <c r="C435" s="11"/>
@@ -22543,7 +22600,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="12.75">
+    <row r="436" spans="1:19" ht="13.2">
       <c r="A436" s="9"/>
       <c r="B436" s="10"/>
       <c r="C436" s="11"/>
@@ -22594,7 +22651,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="12.75">
+    <row r="437" spans="1:19" ht="13.2">
       <c r="A437" s="9"/>
       <c r="B437" s="10"/>
       <c r="C437" s="11"/>
@@ -22645,7 +22702,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="12.75">
+    <row r="438" spans="1:19" ht="13.2">
       <c r="A438" s="9"/>
       <c r="B438" s="10"/>
       <c r="C438" s="11"/>
@@ -22696,7 +22753,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="12.75">
+    <row r="439" spans="1:19" ht="13.2">
       <c r="A439" s="9"/>
       <c r="B439" s="10"/>
       <c r="C439" s="11"/>
@@ -22747,7 +22804,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="12.75">
+    <row r="440" spans="1:19" ht="13.2">
       <c r="A440" s="9"/>
       <c r="B440" s="10"/>
       <c r="C440" s="11"/>
@@ -22798,7 +22855,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="12.75">
+    <row r="441" spans="1:19" ht="13.2">
       <c r="A441" s="9"/>
       <c r="B441" s="10"/>
       <c r="C441" s="11"/>
@@ -22849,7 +22906,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="12.75">
+    <row r="442" spans="1:19" ht="13.2">
       <c r="A442" s="9"/>
       <c r="B442" s="10"/>
       <c r="C442" s="11"/>
@@ -22900,7 +22957,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="12.75">
+    <row r="443" spans="1:19" ht="13.2">
       <c r="A443" s="9"/>
       <c r="B443" s="10"/>
       <c r="C443" s="11"/>
@@ -22951,7 +23008,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="12.75">
+    <row r="444" spans="1:19" ht="13.2">
       <c r="A444" s="9"/>
       <c r="B444" s="10"/>
       <c r="C444" s="11"/>
@@ -23002,7 +23059,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="12.75">
+    <row r="445" spans="1:19" ht="13.2">
       <c r="A445" s="9"/>
       <c r="B445" s="10"/>
       <c r="C445" s="11"/>
@@ -23053,7 +23110,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="12.75">
+    <row r="446" spans="1:19" ht="13.2">
       <c r="A446" s="9"/>
       <c r="B446" s="10"/>
       <c r="C446" s="11"/>
@@ -23104,7 +23161,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="12.75">
+    <row r="447" spans="1:19" ht="13.2">
       <c r="A447" s="9"/>
       <c r="B447" s="10"/>
       <c r="C447" s="11"/>
@@ -23155,7 +23212,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="12.75">
+    <row r="448" spans="1:19" ht="13.2">
       <c r="A448" s="9"/>
       <c r="B448" s="10"/>
       <c r="C448" s="11"/>
@@ -23206,7 +23263,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="12.75">
+    <row r="449" spans="1:19" ht="13.2">
       <c r="A449" s="9"/>
       <c r="B449" s="10"/>
       <c r="C449" s="11"/>
@@ -23257,7 +23314,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="12.75">
+    <row r="450" spans="1:19" ht="13.2">
       <c r="A450" s="9"/>
       <c r="B450" s="10"/>
       <c r="C450" s="11"/>
@@ -23308,7 +23365,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="12.75">
+    <row r="451" spans="1:19" ht="13.2">
       <c r="A451" s="9"/>
       <c r="B451" s="10"/>
       <c r="C451" s="11"/>
@@ -23359,7 +23416,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="12.75">
+    <row r="452" spans="1:19" ht="13.2">
       <c r="A452" s="9"/>
       <c r="B452" s="10"/>
       <c r="C452" s="11"/>
@@ -23410,7 +23467,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="12.75">
+    <row r="453" spans="1:19" ht="13.2">
       <c r="A453" s="9"/>
       <c r="B453" s="10"/>
       <c r="C453" s="11"/>
@@ -23461,7 +23518,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="12.75">
+    <row r="454" spans="1:19" ht="13.2">
       <c r="A454" s="9"/>
       <c r="B454" s="10"/>
       <c r="C454" s="11"/>
@@ -23512,7 +23569,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="12.75">
+    <row r="455" spans="1:19" ht="13.2">
       <c r="A455" s="9"/>
       <c r="B455" s="10"/>
       <c r="C455" s="11"/>
@@ -23563,7 +23620,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="12.75">
+    <row r="456" spans="1:19" ht="13.2">
       <c r="A456" s="9"/>
       <c r="B456" s="10"/>
       <c r="C456" s="11"/>
@@ -23614,7 +23671,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="12.75">
+    <row r="457" spans="1:19" ht="13.2">
       <c r="A457" s="9"/>
       <c r="B457" s="10"/>
       <c r="C457" s="11"/>
@@ -23665,7 +23722,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="12.75">
+    <row r="458" spans="1:19" ht="13.2">
       <c r="A458" s="9"/>
       <c r="B458" s="10"/>
       <c r="C458" s="11"/>
@@ -23716,7 +23773,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="12.75">
+    <row r="459" spans="1:19" ht="13.2">
       <c r="A459" s="9"/>
       <c r="B459" s="10"/>
       <c r="C459" s="11"/>
@@ -23767,7 +23824,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="12.75">
+    <row r="460" spans="1:19" ht="13.2">
       <c r="A460" s="9"/>
       <c r="B460" s="10"/>
       <c r="C460" s="11"/>
@@ -23818,7 +23875,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="12.75">
+    <row r="461" spans="1:19" ht="13.2">
       <c r="A461" s="9"/>
       <c r="B461" s="10"/>
       <c r="C461" s="11"/>
@@ -23869,7 +23926,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="12.75">
+    <row r="462" spans="1:19" ht="13.2">
       <c r="A462" s="9"/>
       <c r="B462" s="10"/>
       <c r="C462" s="11"/>
@@ -23920,7 +23977,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="12.75">
+    <row r="463" spans="1:19" ht="13.2">
       <c r="A463" s="9"/>
       <c r="B463" s="10"/>
       <c r="C463" s="11"/>
@@ -23971,7 +24028,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="12.75">
+    <row r="464" spans="1:19" ht="13.2">
       <c r="A464" s="9"/>
       <c r="B464" s="10"/>
       <c r="C464" s="11"/>
@@ -24022,7 +24079,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="12.75">
+    <row r="465" spans="1:19" ht="13.2">
       <c r="A465" s="9"/>
       <c r="B465" s="10"/>
       <c r="C465" s="11"/>
@@ -24073,7 +24130,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="12.75">
+    <row r="466" spans="1:19" ht="13.2">
       <c r="A466" s="9"/>
       <c r="B466" s="10"/>
       <c r="C466" s="11"/>
@@ -24124,7 +24181,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="12.75">
+    <row r="467" spans="1:19" ht="13.2">
       <c r="A467" s="9"/>
       <c r="B467" s="10"/>
       <c r="C467" s="11"/>
@@ -24175,7 +24232,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="12.75">
+    <row r="468" spans="1:19" ht="13.2">
       <c r="A468" s="9"/>
       <c r="B468" s="10"/>
       <c r="C468" s="11"/>
@@ -24226,7 +24283,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="12.75">
+    <row r="469" spans="1:19" ht="13.2">
       <c r="A469" s="9"/>
       <c r="B469" s="10"/>
       <c r="C469" s="11"/>
@@ -24277,7 +24334,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="1:19" ht="12.75">
+    <row r="470" spans="1:19" ht="13.2">
       <c r="A470" s="9"/>
       <c r="B470" s="10"/>
       <c r="C470" s="11"/>
@@ -24328,7 +24385,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="1:19" ht="12.75">
+    <row r="471" spans="1:19" ht="13.2">
       <c r="A471" s="9"/>
       <c r="B471" s="10"/>
       <c r="C471" s="11"/>
@@ -24379,7 +24436,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="1:19" ht="12.75">
+    <row r="472" spans="1:19" ht="13.2">
       <c r="A472" s="9"/>
       <c r="B472" s="10"/>
       <c r="C472" s="11"/>
@@ -24430,7 +24487,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="1:19" ht="12.75">
+    <row r="473" spans="1:19" ht="13.2">
       <c r="A473" s="9"/>
       <c r="B473" s="10"/>
       <c r="C473" s="11"/>
@@ -24481,7 +24538,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="1:19" ht="12.75">
+    <row r="474" spans="1:19" ht="13.2">
       <c r="A474" s="9"/>
       <c r="B474" s="10"/>
       <c r="C474" s="11"/>
@@ -24532,7 +24589,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="1:19" ht="12.75">
+    <row r="475" spans="1:19" ht="13.2">
       <c r="A475" s="9"/>
       <c r="B475" s="10"/>
       <c r="C475" s="11"/>
@@ -24583,7 +24640,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="1:19" ht="12.75">
+    <row r="476" spans="1:19" ht="13.2">
       <c r="A476" s="9"/>
       <c r="B476" s="10"/>
       <c r="C476" s="11"/>
@@ -24634,7 +24691,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="1:19" ht="12.75">
+    <row r="477" spans="1:19" ht="13.2">
       <c r="A477" s="9"/>
       <c r="B477" s="10"/>
       <c r="C477" s="11"/>
@@ -24685,7 +24742,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="1:19" ht="12.75">
+    <row r="478" spans="1:19" ht="13.2">
       <c r="A478" s="9"/>
       <c r="B478" s="10"/>
       <c r="C478" s="11"/>
@@ -24736,7 +24793,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="1:19" ht="12.75">
+    <row r="479" spans="1:19" ht="13.2">
       <c r="A479" s="9"/>
       <c r="B479" s="10"/>
       <c r="C479" s="11"/>
@@ -24787,7 +24844,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="1:19" ht="12.75">
+    <row r="480" spans="1:19" ht="13.2">
       <c r="A480" s="9"/>
       <c r="B480" s="10"/>
       <c r="C480" s="11"/>
@@ -24838,7 +24895,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="1:19" ht="12.75">
+    <row r="481" spans="1:19" ht="13.2">
       <c r="A481" s="9"/>
       <c r="B481" s="10"/>
       <c r="C481" s="11"/>
@@ -24889,7 +24946,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="1:19" ht="12.75">
+    <row r="482" spans="1:19" ht="13.2">
       <c r="A482" s="9"/>
       <c r="B482" s="10"/>
       <c r="C482" s="11"/>
@@ -24940,7 +24997,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="1:19" ht="12.75">
+    <row r="483" spans="1:19" ht="13.2">
       <c r="A483" s="9"/>
       <c r="B483" s="10"/>
       <c r="C483" s="11"/>
@@ -24991,7 +25048,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="1:19" ht="12.75">
+    <row r="484" spans="1:19" ht="13.2">
       <c r="A484" s="9"/>
       <c r="B484" s="10"/>
       <c r="C484" s="11"/>
@@ -25042,7 +25099,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="1:19" ht="12.75">
+    <row r="485" spans="1:19" ht="13.2">
       <c r="A485" s="9"/>
       <c r="B485" s="10"/>
       <c r="C485" s="11"/>
@@ -25093,7 +25150,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="1:19" ht="12.75">
+    <row r="486" spans="1:19" ht="13.2">
       <c r="A486" s="9"/>
       <c r="B486" s="10"/>
       <c r="C486" s="11"/>
@@ -25144,7 +25201,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="1:19" ht="12.75">
+    <row r="487" spans="1:19" ht="13.2">
       <c r="A487" s="9"/>
       <c r="B487" s="10"/>
       <c r="C487" s="11"/>
@@ -25195,7 +25252,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="1:19" ht="12.75">
+    <row r="488" spans="1:19" ht="13.2">
       <c r="A488" s="9"/>
       <c r="B488" s="10"/>
       <c r="C488" s="11"/>
@@ -25246,7 +25303,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="1:19" ht="12.75">
+    <row r="489" spans="1:19" ht="13.2">
       <c r="A489" s="9"/>
       <c r="B489" s="10"/>
       <c r="C489" s="11"/>
@@ -25297,7 +25354,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="1:19" ht="12.75">
+    <row r="490" spans="1:19" ht="13.2">
       <c r="A490" s="9"/>
       <c r="B490" s="10"/>
       <c r="C490" s="11"/>
@@ -25348,7 +25405,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="1:19" ht="12.75">
+    <row r="491" spans="1:19" ht="13.2">
       <c r="A491" s="9"/>
       <c r="B491" s="10"/>
       <c r="C491" s="11"/>
@@ -25399,7 +25456,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="1:19" ht="12.75">
+    <row r="492" spans="1:19" ht="13.2">
       <c r="A492" s="9"/>
       <c r="B492" s="10"/>
       <c r="C492" s="11"/>
@@ -25450,7 +25507,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="1:19" ht="12.75">
+    <row r="493" spans="1:19" ht="13.2">
       <c r="A493" s="9"/>
       <c r="B493" s="10"/>
       <c r="C493" s="11"/>
@@ -25501,7 +25558,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="1:19" ht="12.75">
+    <row r="494" spans="1:19" ht="13.2">
       <c r="A494" s="9"/>
       <c r="B494" s="10"/>
       <c r="C494" s="11"/>
@@ -25552,7 +25609,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="1:19" ht="12.75">
+    <row r="495" spans="1:19" ht="13.2">
       <c r="A495" s="9"/>
       <c r="B495" s="10"/>
       <c r="C495" s="11"/>
@@ -25603,7 +25660,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="1:19" ht="12.75">
+    <row r="496" spans="1:19" ht="13.2">
       <c r="A496" s="9"/>
       <c r="B496" s="10"/>
       <c r="C496" s="11"/>
@@ -25654,7 +25711,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="1:19" ht="12.75">
+    <row r="497" spans="1:19" ht="13.2">
       <c r="A497" s="9"/>
       <c r="B497" s="10"/>
       <c r="C497" s="11"/>
@@ -25705,7 +25762,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="1:19" ht="12.75">
+    <row r="498" spans="1:19" ht="13.2">
       <c r="A498" s="9"/>
       <c r="B498" s="10"/>
       <c r="C498" s="11"/>
@@ -25756,7 +25813,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="1:19" ht="12.75">
+    <row r="499" spans="1:19" ht="13.2">
       <c r="A499" s="9"/>
       <c r="B499" s="10"/>
       <c r="C499" s="11"/>
@@ -25807,7 +25864,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="1:19" ht="12.75">
+    <row r="500" spans="1:19" ht="13.2">
       <c r="A500" s="9"/>
       <c r="B500" s="10"/>
       <c r="C500" s="11"/>
@@ -25858,7 +25915,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="1:19" ht="12.75">
+    <row r="501" spans="1:19" ht="13.2">
       <c r="A501" s="9"/>
       <c r="B501" s="10"/>
       <c r="C501" s="11"/>
@@ -25909,7 +25966,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="1:19" ht="12.75">
+    <row r="502" spans="1:19" ht="13.2">
       <c r="A502" s="9"/>
       <c r="B502" s="10"/>
       <c r="C502" s="11"/>
@@ -25960,7 +26017,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="1:19" ht="12.75">
+    <row r="503" spans="1:19" ht="13.2">
       <c r="A503" s="9"/>
       <c r="B503" s="10"/>
       <c r="C503" s="11"/>
@@ -26011,7 +26068,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="1:19" ht="12.75">
+    <row r="504" spans="1:19" ht="13.2">
       <c r="A504" s="9"/>
       <c r="B504" s="10"/>
       <c r="C504" s="11"/>
@@ -26062,7 +26119,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="1:19" ht="12.75">
+    <row r="505" spans="1:19" ht="13.2">
       <c r="A505" s="9"/>
       <c r="B505" s="10"/>
       <c r="C505" s="11"/>
@@ -26113,7 +26170,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="1:19" ht="12.75">
+    <row r="506" spans="1:19" ht="13.2">
       <c r="A506" s="9"/>
       <c r="B506" s="10"/>
       <c r="C506" s="11"/>
@@ -26164,7 +26221,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="1:19" ht="12.75">
+    <row r="507" spans="1:19" ht="13.2">
       <c r="A507" s="9"/>
       <c r="B507" s="10"/>
       <c r="C507" s="11"/>
@@ -26215,7 +26272,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="1:19" ht="12.75">
+    <row r="508" spans="1:19" ht="13.2">
       <c r="A508" s="9"/>
       <c r="B508" s="10"/>
       <c r="C508" s="11"/>
@@ -26266,7 +26323,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="1:19" ht="12.75">
+    <row r="509" spans="1:19" ht="13.2">
       <c r="A509" s="9"/>
       <c r="B509" s="10"/>
       <c r="C509" s="11"/>
@@ -26317,7 +26374,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="1:19" ht="12.75">
+    <row r="510" spans="1:19" ht="13.2">
       <c r="A510" s="9"/>
       <c r="B510" s="10"/>
       <c r="C510" s="11"/>
@@ -26368,7 +26425,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="1:19" ht="12.75">
+    <row r="511" spans="1:19" ht="13.2">
       <c r="A511" s="9"/>
       <c r="B511" s="10"/>
       <c r="C511" s="11"/>
@@ -26419,7 +26476,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="1:19" ht="12.75">
+    <row r="512" spans="1:19" ht="13.2">
       <c r="A512" s="9"/>
       <c r="B512" s="10"/>
       <c r="C512" s="11"/>
@@ -26470,7 +26527,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="1:19" ht="12.75">
+    <row r="513" spans="1:19" ht="13.2">
       <c r="A513" s="9"/>
       <c r="B513" s="10"/>
       <c r="C513" s="11"/>
@@ -26521,7 +26578,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="1:19" ht="12.75">
+    <row r="514" spans="1:19" ht="13.2">
       <c r="A514" s="9"/>
       <c r="B514" s="10"/>
       <c r="C514" s="11"/>
@@ -26572,7 +26629,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="1:19" ht="12.75">
+    <row r="515" spans="1:19" ht="13.2">
       <c r="A515" s="9"/>
       <c r="B515" s="10"/>
       <c r="C515" s="11"/>
@@ -26623,7 +26680,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="1:19" ht="12.75">
+    <row r="516" spans="1:19" ht="13.2">
       <c r="A516" s="9"/>
       <c r="B516" s="10"/>
       <c r="C516" s="11"/>
@@ -26674,7 +26731,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="1:19" ht="12.75">
+    <row r="517" spans="1:19" ht="13.2">
       <c r="A517" s="9"/>
       <c r="B517" s="10"/>
       <c r="C517" s="11"/>
@@ -26725,7 +26782,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="1:19" ht="12.75">
+    <row r="518" spans="1:19" ht="13.2">
       <c r="A518" s="9"/>
       <c r="B518" s="10"/>
       <c r="C518" s="11"/>
@@ -26776,7 +26833,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="1:19" ht="12.75">
+    <row r="519" spans="1:19" ht="13.2">
       <c r="A519" s="9"/>
       <c r="B519" s="10"/>
       <c r="C519" s="11"/>
@@ -26827,7 +26884,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="1:19" ht="12.75">
+    <row r="520" spans="1:19" ht="13.2">
       <c r="A520" s="9"/>
       <c r="B520" s="10"/>
       <c r="C520" s="11"/>
@@ -26878,7 +26935,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="1:19" ht="12.75">
+    <row r="521" spans="1:19" ht="13.2">
       <c r="A521" s="9"/>
       <c r="B521" s="10"/>
       <c r="C521" s="11"/>
@@ -26929,7 +26986,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="1:19" ht="12.75">
+    <row r="522" spans="1:19" ht="13.2">
       <c r="A522" s="9"/>
       <c r="B522" s="10"/>
       <c r="C522" s="11"/>
@@ -26980,7 +27037,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="1:19" ht="12.75">
+    <row r="523" spans="1:19" ht="13.2">
       <c r="A523" s="9"/>
       <c r="B523" s="10"/>
       <c r="C523" s="11"/>
@@ -27031,7 +27088,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="1:19" ht="12.75">
+    <row r="524" spans="1:19" ht="13.2">
       <c r="A524" s="9"/>
       <c r="B524" s="10"/>
       <c r="C524" s="11"/>
@@ -27082,7 +27139,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="1:19" ht="12.75">
+    <row r="525" spans="1:19" ht="13.2">
       <c r="A525" s="9"/>
       <c r="B525" s="10"/>
       <c r="C525" s="11"/>
@@ -27133,7 +27190,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="1:19" ht="12.75">
+    <row r="526" spans="1:19" ht="13.2">
       <c r="A526" s="9"/>
       <c r="B526" s="10"/>
       <c r="C526" s="11"/>
@@ -27184,7 +27241,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="1:19" ht="12.75">
+    <row r="527" spans="1:19" ht="13.2">
       <c r="A527" s="9"/>
       <c r="B527" s="10"/>
       <c r="C527" s="11"/>
@@ -27235,7 +27292,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="1:19" ht="12.75">
+    <row r="528" spans="1:19" ht="13.2">
       <c r="A528" s="9"/>
       <c r="B528" s="10"/>
       <c r="C528" s="11"/>
@@ -27286,7 +27343,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="1:19" ht="12.75">
+    <row r="529" spans="1:19" ht="13.2">
       <c r="A529" s="9"/>
       <c r="B529" s="10"/>
       <c r="C529" s="11"/>
@@ -27337,7 +27394,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="1:19" ht="12.75">
+    <row r="530" spans="1:19" ht="13.2">
       <c r="A530" s="9"/>
       <c r="B530" s="10"/>
       <c r="C530" s="11"/>
@@ -27388,7 +27445,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="1:19" ht="12.75">
+    <row r="531" spans="1:19" ht="13.2">
       <c r="A531" s="9"/>
       <c r="B531" s="10"/>
       <c r="C531" s="11"/>
@@ -27439,7 +27496,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="1:19" ht="12.75">
+    <row r="532" spans="1:19" ht="13.2">
       <c r="A532" s="9"/>
       <c r="B532" s="10"/>
       <c r="C532" s="11"/>
@@ -27490,7 +27547,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="1:19" ht="12.75">
+    <row r="533" spans="1:19" ht="13.2">
       <c r="A533" s="9"/>
       <c r="B533" s="10"/>
       <c r="C533" s="11"/>
@@ -27541,7 +27598,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="1:19" ht="12.75">
+    <row r="534" spans="1:19" ht="13.2">
       <c r="A534" s="9"/>
       <c r="B534" s="10"/>
       <c r="C534" s="11"/>
@@ -27592,7 +27649,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="1:19" ht="12.75">
+    <row r="535" spans="1:19" ht="13.2">
       <c r="A535" s="9"/>
       <c r="B535" s="10"/>
       <c r="C535" s="11"/>
@@ -27643,7 +27700,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="1:19" ht="12.75">
+    <row r="536" spans="1:19" ht="13.2">
       <c r="A536" s="9"/>
       <c r="B536" s="10"/>
       <c r="C536" s="11"/>
@@ -27694,7 +27751,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="1:19" ht="12.75">
+    <row r="537" spans="1:19" ht="13.2">
       <c r="A537" s="9"/>
       <c r="B537" s="10"/>
       <c r="C537" s="11"/>
@@ -27745,7 +27802,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="1:19" ht="12.75">
+    <row r="538" spans="1:19" ht="13.2">
       <c r="A538" s="9"/>
       <c r="B538" s="10"/>
       <c r="C538" s="11"/>
@@ -27796,7 +27853,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="1:19" ht="12.75">
+    <row r="539" spans="1:19" ht="13.2">
       <c r="A539" s="9"/>
       <c r="B539" s="10"/>
       <c r="C539" s="11"/>
@@ -27847,7 +27904,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="1:19" ht="12.75">
+    <row r="540" spans="1:19" ht="13.2">
       <c r="A540" s="9"/>
       <c r="B540" s="10"/>
       <c r="C540" s="11"/>
@@ -27898,7 +27955,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="1:19" ht="12.75">
+    <row r="541" spans="1:19" ht="13.2">
       <c r="A541" s="9"/>
       <c r="B541" s="10"/>
       <c r="C541" s="11"/>
@@ -27949,7 +28006,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="1:19" ht="12.75">
+    <row r="542" spans="1:19" ht="13.2">
       <c r="A542" s="9"/>
       <c r="B542" s="10"/>
       <c r="C542" s="11"/>
@@ -28000,7 +28057,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="1:19" ht="12.75">
+    <row r="543" spans="1:19" ht="13.2">
       <c r="A543" s="9"/>
       <c r="B543" s="10"/>
       <c r="C543" s="11"/>
@@ -28051,7 +28108,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="1:19" ht="12.75">
+    <row r="544" spans="1:19" ht="13.2">
       <c r="A544" s="9"/>
       <c r="B544" s="10"/>
       <c r="C544" s="11"/>
@@ -28102,7 +28159,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="1:19" ht="12.75">
+    <row r="545" spans="1:19" ht="13.2">
       <c r="A545" s="9"/>
       <c r="B545" s="10"/>
       <c r="C545" s="11"/>
@@ -28153,7 +28210,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="1:19" ht="12.75">
+    <row r="546" spans="1:19" ht="13.2">
       <c r="A546" s="9"/>
       <c r="B546" s="10"/>
       <c r="C546" s="11"/>
@@ -28204,7 +28261,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="1:19" ht="12.75">
+    <row r="547" spans="1:19" ht="13.2">
       <c r="A547" s="9"/>
       <c r="B547" s="10"/>
       <c r="C547" s="11"/>
@@ -28255,7 +28312,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="1:19" ht="12.75">
+    <row r="548" spans="1:19" ht="13.2">
       <c r="A548" s="9"/>
       <c r="B548" s="10"/>
       <c r="C548" s="11"/>
@@ -28306,7 +28363,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="1:19" ht="12.75">
+    <row r="549" spans="1:19" ht="13.2">
       <c r="A549" s="9"/>
       <c r="B549" s="10"/>
       <c r="C549" s="11"/>
@@ -28357,7 +28414,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="1:19" ht="12.75">
+    <row r="550" spans="1:19" ht="13.2">
       <c r="A550" s="9"/>
       <c r="B550" s="10"/>
       <c r="C550" s="11"/>
@@ -28408,7 +28465,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="1:19" ht="12.75">
+    <row r="551" spans="1:19" ht="13.2">
       <c r="A551" s="9"/>
       <c r="B551" s="10"/>
       <c r="C551" s="11"/>
@@ -28459,7 +28516,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="1:19" ht="12.75">
+    <row r="552" spans="1:19" ht="13.2">
       <c r="A552" s="9"/>
       <c r="B552" s="10"/>
       <c r="C552" s="11"/>
@@ -28510,7 +28567,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="1:19" ht="12.75">
+    <row r="553" spans="1:19" ht="13.2">
       <c r="A553" s="9"/>
       <c r="B553" s="10"/>
       <c r="C553" s="11"/>
@@ -28561,7 +28618,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="1:19" ht="12.75">
+    <row r="554" spans="1:19" ht="13.2">
       <c r="A554" s="9"/>
       <c r="B554" s="10"/>
       <c r="C554" s="11"/>
@@ -28612,7 +28669,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="1:19" ht="12.75">
+    <row r="555" spans="1:19" ht="13.2">
       <c r="A555" s="9"/>
       <c r="B555" s="10"/>
       <c r="C555" s="11"/>
@@ -28663,7 +28720,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="1:19" ht="12.75">
+    <row r="556" spans="1:19" ht="13.2">
       <c r="A556" s="9"/>
       <c r="B556" s="10"/>
       <c r="C556" s="11"/>
@@ -28714,7 +28771,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="1:19" ht="12.75">
+    <row r="557" spans="1:19" ht="13.2">
       <c r="A557" s="9"/>
       <c r="B557" s="10"/>
       <c r="C557" s="11"/>
@@ -28765,7 +28822,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="1:19" ht="12.75">
+    <row r="558" spans="1:19" ht="13.2">
       <c r="A558" s="9"/>
       <c r="B558" s="10"/>
       <c r="C558" s="11"/>
@@ -28816,7 +28873,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="1:19" ht="12.75">
+    <row r="559" spans="1:19" ht="13.2">
       <c r="A559" s="9"/>
       <c r="B559" s="10"/>
       <c r="C559" s="11"/>
@@ -28867,7 +28924,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="1:19" ht="12.75">
+    <row r="560" spans="1:19" ht="13.2">
       <c r="A560" s="9"/>
       <c r="B560" s="10"/>
       <c r="C560" s="11"/>
@@ -28918,7 +28975,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="1:19" ht="12.75">
+    <row r="561" spans="1:19" ht="13.2">
       <c r="A561" s="9"/>
       <c r="B561" s="10"/>
       <c r="C561" s="11"/>
@@ -28969,7 +29026,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="1:19" ht="12.75">
+    <row r="562" spans="1:19" ht="13.2">
       <c r="A562" s="9"/>
       <c r="B562" s="10"/>
       <c r="C562" s="11"/>
@@ -29020,7 +29077,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="1:19" ht="12.75">
+    <row r="563" spans="1:19" ht="13.2">
       <c r="A563" s="9"/>
       <c r="B563" s="10"/>
       <c r="C563" s="11"/>
@@ -29071,7 +29128,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="1:19" ht="12.75">
+    <row r="564" spans="1:19" ht="13.2">
       <c r="A564" s="9"/>
       <c r="B564" s="10"/>
       <c r="C564" s="11"/>
@@ -29122,7 +29179,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="1:19" ht="12.75">
+    <row r="565" spans="1:19" ht="13.2">
       <c r="A565" s="9"/>
       <c r="B565" s="10"/>
       <c r="C565" s="11"/>
@@ -29173,7 +29230,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="1:19" ht="12.75">
+    <row r="566" spans="1:19" ht="13.2">
       <c r="A566" s="9"/>
       <c r="B566" s="10"/>
       <c r="C566" s="11"/>
@@ -29224,7 +29281,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="1:19" ht="12.75">
+    <row r="567" spans="1:19" ht="13.2">
       <c r="A567" s="9"/>
       <c r="B567" s="10"/>
       <c r="C567" s="11"/>
@@ -29275,7 +29332,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="1:19" ht="12.75">
+    <row r="568" spans="1:19" ht="13.2">
       <c r="A568" s="9"/>
       <c r="B568" s="10"/>
       <c r="C568" s="11"/>
@@ -29326,7 +29383,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="1:19" ht="12.75">
+    <row r="569" spans="1:19" ht="13.2">
       <c r="A569" s="9"/>
       <c r="B569" s="10"/>
       <c r="C569" s="11"/>
@@ -29377,7 +29434,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="1:19" ht="12.75">
+    <row r="570" spans="1:19" ht="13.2">
       <c r="A570" s="9"/>
       <c r="B570" s="10"/>
       <c r="C570" s="11"/>
@@ -29428,7 +29485,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="1:19" ht="12.75">
+    <row r="571" spans="1:19" ht="13.2">
       <c r="A571" s="9"/>
       <c r="B571" s="10"/>
       <c r="C571" s="11"/>
@@ -29479,7 +29536,7 @@
         <v/>
       </c>
     </row>
-    <row r="572" spans="1:19" ht="12.75">
+    <row r="572" spans="1:19" ht="13.2">
       <c r="A572" s="9"/>
       <c r="B572" s="10"/>
       <c r="C572" s="11"/>
@@ -29530,7 +29587,7 @@
         <v/>
       </c>
     </row>
-    <row r="573" spans="1:19" ht="12.75">
+    <row r="573" spans="1:19" ht="13.2">
       <c r="A573" s="9"/>
       <c r="B573" s="10"/>
       <c r="C573" s="11"/>
@@ -29581,7 +29638,7 @@
         <v/>
       </c>
     </row>
-    <row r="574" spans="1:19" ht="12.75">
+    <row r="574" spans="1:19" ht="13.2">
       <c r="A574" s="9"/>
       <c r="B574" s="10"/>
       <c r="C574" s="11"/>
@@ -29632,7 +29689,7 @@
         <v/>
       </c>
     </row>
-    <row r="575" spans="1:19" ht="12.75">
+    <row r="575" spans="1:19" ht="13.2">
       <c r="A575" s="9"/>
       <c r="B575" s="10"/>
       <c r="C575" s="11"/>
@@ -29683,7 +29740,7 @@
         <v/>
       </c>
     </row>
-    <row r="576" spans="1:19" ht="12.75">
+    <row r="576" spans="1:19" ht="13.2">
       <c r="A576" s="9"/>
       <c r="B576" s="10"/>
       <c r="C576" s="11"/>
@@ -29734,7 +29791,7 @@
         <v/>
       </c>
     </row>
-    <row r="577" spans="1:19" ht="12.75">
+    <row r="577" spans="1:19" ht="13.2">
       <c r="A577" s="9"/>
       <c r="B577" s="10"/>
       <c r="C577" s="11"/>
@@ -29785,7 +29842,7 @@
         <v/>
       </c>
     </row>
-    <row r="578" spans="1:19" ht="12.75">
+    <row r="578" spans="1:19" ht="13.2">
       <c r="A578" s="9"/>
       <c r="B578" s="10"/>
       <c r="C578" s="11"/>
@@ -29836,7 +29893,7 @@
         <v/>
       </c>
     </row>
-    <row r="579" spans="1:19" ht="12.75">
+    <row r="579" spans="1:19" ht="13.2">
       <c r="A579" s="9"/>
       <c r="B579" s="10"/>
       <c r="C579" s="11"/>
@@ -29887,7 +29944,7 @@
         <v/>
       </c>
     </row>
-    <row r="580" spans="1:19" ht="12.75">
+    <row r="580" spans="1:19" ht="13.2">
       <c r="A580" s="9"/>
       <c r="B580" s="10"/>
       <c r="C580" s="11"/>
@@ -29938,7 +29995,7 @@
         <v/>
       </c>
     </row>
-    <row r="581" spans="1:19" ht="12.75">
+    <row r="581" spans="1:19" ht="13.2">
       <c r="A581" s="9"/>
       <c r="B581" s="10"/>
       <c r="C581" s="11"/>
@@ -29989,7 +30046,7 @@
         <v/>
       </c>
     </row>
-    <row r="582" spans="1:19" ht="12.75">
+    <row r="582" spans="1:19" ht="13.2">
       <c r="A582" s="9"/>
       <c r="B582" s="10"/>
       <c r="C582" s="11"/>
@@ -30040,7 +30097,7 @@
         <v/>
       </c>
     </row>
-    <row r="583" spans="1:19" ht="12.75">
+    <row r="583" spans="1:19" ht="13.2">
       <c r="A583" s="9"/>
       <c r="B583" s="10"/>
       <c r="C583" s="11"/>
@@ -30091,7 +30148,7 @@
         <v/>
       </c>
     </row>
-    <row r="584" spans="1:19" ht="12.75">
+    <row r="584" spans="1:19" ht="13.2">
       <c r="A584" s="9"/>
       <c r="B584" s="10"/>
       <c r="C584" s="11"/>
@@ -30142,7 +30199,7 @@
         <v/>
       </c>
     </row>
-    <row r="585" spans="1:19" ht="12.75">
+    <row r="585" spans="1:19" ht="13.2">
       <c r="A585" s="9"/>
       <c r="B585" s="10"/>
       <c r="C585" s="11"/>
@@ -30193,7 +30250,7 @@
         <v/>
       </c>
     </row>
-    <row r="586" spans="1:19" ht="12.75">
+    <row r="586" spans="1:19" ht="13.2">
       <c r="A586" s="9"/>
       <c r="B586" s="10"/>
       <c r="C586" s="11"/>
@@ -30244,7 +30301,7 @@
         <v/>
       </c>
     </row>
-    <row r="587" spans="1:19" ht="12.75">
+    <row r="587" spans="1:19" ht="13.2">
       <c r="A587" s="9"/>
       <c r="B587" s="10"/>
       <c r="C587" s="11"/>
@@ -30295,7 +30352,7 @@
         <v/>
       </c>
     </row>
-    <row r="588" spans="1:19" ht="12.75">
+    <row r="588" spans="1:19" ht="13.2">
       <c r="A588" s="9"/>
       <c r="B588" s="10"/>
       <c r="C588" s="11"/>
@@ -30346,7 +30403,7 @@
         <v/>
       </c>
     </row>
-    <row r="589" spans="1:19" ht="12.75">
+    <row r="589" spans="1:19" ht="13.2">
       <c r="A589" s="9"/>
       <c r="B589" s="10"/>
       <c r="C589" s="11"/>
@@ -30397,7 +30454,7 @@
         <v/>
       </c>
     </row>
-    <row r="590" spans="1:19" ht="12.75">
+    <row r="590" spans="1:19" ht="13.2">
       <c r="A590" s="9"/>
       <c r="B590" s="10"/>
       <c r="C590" s="11"/>
@@ -30448,7 +30505,7 @@
         <v/>
       </c>
     </row>
-    <row r="591" spans="1:19" ht="12.75">
+    <row r="591" spans="1:19" ht="13.2">
       <c r="A591" s="9"/>
       <c r="B591" s="10"/>
       <c r="C591" s="11"/>
@@ -30499,7 +30556,7 @@
         <v/>
       </c>
     </row>
-    <row r="592" spans="1:19" ht="12.75">
+    <row r="592" spans="1:19" ht="13.2">
       <c r="A592" s="9"/>
       <c r="B592" s="10"/>
       <c r="C592" s="11"/>
@@ -30550,7 +30607,7 @@
         <v/>
       </c>
     </row>
-    <row r="593" spans="1:19" ht="12.75">
+    <row r="593" spans="1:19" ht="13.2">
       <c r="A593" s="9"/>
       <c r="B593" s="10"/>
       <c r="C593" s="11"/>
@@ -30601,7 +30658,7 @@
         <v/>
       </c>
     </row>
-    <row r="594" spans="1:19" ht="12.75">
+    <row r="594" spans="1:19" ht="13.2">
       <c r="A594" s="9"/>
       <c r="B594" s="10"/>
       <c r="C594" s="11"/>
@@ -30652,7 +30709,7 @@
         <v/>
       </c>
     </row>
-    <row r="595" spans="1:19" ht="12.75">
+    <row r="595" spans="1:19" ht="13.2">
       <c r="A595" s="9"/>
       <c r="B595" s="10"/>
       <c r="C595" s="11"/>
@@ -30703,7 +30760,7 @@
         <v/>
       </c>
     </row>
-    <row r="596" spans="1:19" ht="12.75">
+    <row r="596" spans="1:19" ht="13.2">
       <c r="A596" s="9"/>
       <c r="B596" s="10"/>
       <c r="C596" s="11"/>
@@ -30754,7 +30811,7 @@
         <v/>
       </c>
     </row>
-    <row r="597" spans="1:19" ht="12.75">
+    <row r="597" spans="1:19" ht="13.2">
       <c r="A597" s="9"/>
       <c r="B597" s="10"/>
       <c r="C597" s="11"/>
@@ -30805,7 +30862,7 @@
         <v/>
       </c>
     </row>
-    <row r="598" spans="1:19" ht="12.75">
+    <row r="598" spans="1:19" ht="13.2">
       <c r="A598" s="9"/>
       <c r="B598" s="10"/>
       <c r="C598" s="11"/>
@@ -30856,7 +30913,7 @@
         <v/>
       </c>
     </row>
-    <row r="599" spans="1:19" ht="12.75">
+    <row r="599" spans="1:19" ht="13.2">
       <c r="A599" s="9"/>
       <c r="B599" s="10"/>
       <c r="C599" s="11"/>
@@ -30907,7 +30964,7 @@
         <v/>
       </c>
     </row>
-    <row r="600" spans="1:19" ht="12.75">
+    <row r="600" spans="1:19" ht="13.2">
       <c r="A600" s="9"/>
       <c r="B600" s="10"/>
       <c r="C600" s="11"/>
@@ -30958,7 +31015,7 @@
         <v/>
       </c>
     </row>
-    <row r="601" spans="1:19" ht="12.75">
+    <row r="601" spans="1:19" ht="13.2">
       <c r="A601" s="9"/>
       <c r="B601" s="10"/>
       <c r="C601" s="11"/>
@@ -31009,7 +31066,7 @@
         <v/>
       </c>
     </row>
-    <row r="602" spans="1:19" ht="12.75">
+    <row r="602" spans="1:19" ht="13.2">
       <c r="A602" s="9"/>
       <c r="B602" s="10"/>
       <c r="C602" s="11"/>
@@ -31060,7 +31117,7 @@
         <v/>
       </c>
     </row>
-    <row r="603" spans="1:19" ht="12.75">
+    <row r="603" spans="1:19" ht="13.2">
       <c r="A603" s="9"/>
       <c r="B603" s="10"/>
       <c r="C603" s="11"/>
@@ -31111,7 +31168,7 @@
         <v/>
       </c>
     </row>
-    <row r="604" spans="1:19" ht="12.75">
+    <row r="604" spans="1:19" ht="13.2">
       <c r="A604" s="9"/>
       <c r="B604" s="10"/>
       <c r="C604" s="11"/>
@@ -31162,7 +31219,7 @@
         <v/>
       </c>
     </row>
-    <row r="605" spans="1:19" ht="12.75">
+    <row r="605" spans="1:19" ht="13.2">
       <c r="A605" s="9"/>
       <c r="B605" s="10"/>
       <c r="C605" s="11"/>
@@ -31213,7 +31270,7 @@
         <v/>
       </c>
     </row>
-    <row r="606" spans="1:19" ht="12.75">
+    <row r="606" spans="1:19" ht="13.2">
       <c r="A606" s="9"/>
       <c r="B606" s="10"/>
       <c r="C606" s="11"/>
@@ -31264,7 +31321,7 @@
         <v/>
       </c>
     </row>
-    <row r="607" spans="1:19" ht="12.75">
+    <row r="607" spans="1:19" ht="13.2">
       <c r="A607" s="9"/>
       <c r="B607" s="10"/>
       <c r="C607" s="11"/>
@@ -31315,7 +31372,7 @@
         <v/>
       </c>
     </row>
-    <row r="608" spans="1:19" ht="12.75">
+    <row r="608" spans="1:19" ht="13.2">
       <c r="A608" s="9"/>
       <c r="B608" s="10"/>
       <c r="C608" s="11"/>
@@ -31366,7 +31423,7 @@
         <v/>
       </c>
     </row>
-    <row r="609" spans="1:19" ht="12.75">
+    <row r="609" spans="1:19" ht="13.2">
       <c r="A609" s="9"/>
       <c r="B609" s="10"/>
       <c r="C609" s="11"/>
@@ -31417,7 +31474,7 @@
         <v/>
       </c>
     </row>
-    <row r="610" spans="1:19" ht="12.75">
+    <row r="610" spans="1:19" ht="13.2">
       <c r="A610" s="9"/>
       <c r="B610" s="10"/>
       <c r="C610" s="11"/>
@@ -31468,7 +31525,7 @@
         <v/>
       </c>
     </row>
-    <row r="611" spans="1:19" ht="12.75">
+    <row r="611" spans="1:19" ht="13.2">
       <c r="A611" s="9"/>
       <c r="B611" s="10"/>
       <c r="C611" s="11"/>
@@ -31519,7 +31576,7 @@
         <v/>
       </c>
     </row>
-    <row r="612" spans="1:19" ht="12.75">
+    <row r="612" spans="1:19" ht="13.2">
       <c r="A612" s="9"/>
       <c r="B612" s="10"/>
       <c r="C612" s="11"/>
@@ -31570,7 +31627,7 @@
         <v/>
       </c>
     </row>
-    <row r="613" spans="1:19" ht="12.75">
+    <row r="613" spans="1:19" ht="13.2">
       <c r="A613" s="9"/>
       <c r="B613" s="10"/>
       <c r="C613" s="11"/>
@@ -31621,7 +31678,7 @@
         <v/>
       </c>
     </row>
-    <row r="614" spans="1:19" ht="12.75">
+    <row r="614" spans="1:19" ht="13.2">
       <c r="A614" s="9"/>
       <c r="B614" s="10"/>
       <c r="C614" s="11"/>
@@ -31672,7 +31729,7 @@
         <v/>
       </c>
     </row>
-    <row r="615" spans="1:19" ht="12.75">
+    <row r="615" spans="1:19" ht="13.2">
       <c r="A615" s="9"/>
       <c r="B615" s="10"/>
       <c r="C615" s="11"/>
@@ -31723,7 +31780,7 @@
         <v/>
       </c>
     </row>
-    <row r="616" spans="1:19" ht="12.75">
+    <row r="616" spans="1:19" ht="13.2">
       <c r="A616" s="9"/>
       <c r="B616" s="10"/>
       <c r="C616" s="11"/>
@@ -31774,7 +31831,7 @@
         <v/>
       </c>
     </row>
-    <row r="617" spans="1:19" ht="12.75">
+    <row r="617" spans="1:19" ht="13.2">
       <c r="A617" s="9"/>
       <c r="B617" s="10"/>
       <c r="C617" s="11"/>
@@ -31825,7 +31882,7 @@
         <v/>
       </c>
     </row>
-    <row r="618" spans="1:19" ht="12.75">
+    <row r="618" spans="1:19" ht="13.2">
       <c r="A618" s="9"/>
       <c r="B618" s="10"/>
       <c r="C618" s="11"/>
@@ -31876,7 +31933,7 @@
         <v/>
       </c>
     </row>
-    <row r="619" spans="1:19" ht="12.75">
+    <row r="619" spans="1:19" ht="13.2">
       <c r="A619" s="9"/>
       <c r="B619" s="10"/>
       <c r="C619" s="11"/>
@@ -31927,7 +31984,7 @@
         <v/>
       </c>
     </row>
-    <row r="620" spans="1:19" ht="12.75">
+    <row r="620" spans="1:19" ht="13.2">
       <c r="A620" s="9"/>
       <c r="B620" s="10"/>
       <c r="C620" s="11"/>
@@ -31978,7 +32035,7 @@
         <v/>
       </c>
     </row>
-    <row r="621" spans="1:19" ht="12.75">
+    <row r="621" spans="1:19" ht="13.2">
       <c r="A621" s="9"/>
       <c r="B621" s="10"/>
       <c r="C621" s="11"/>
@@ -32029,7 +32086,7 @@
         <v/>
       </c>
     </row>
-    <row r="622" spans="1:19" ht="12.75">
+    <row r="622" spans="1:19" ht="13.2">
       <c r="A622" s="9"/>
       <c r="B622" s="10"/>
       <c r="C622" s="11"/>
@@ -32080,7 +32137,7 @@
         <v/>
       </c>
     </row>
-    <row r="623" spans="1:19" ht="12.75">
+    <row r="623" spans="1:19" ht="13.2">
       <c r="A623" s="9"/>
       <c r="B623" s="10"/>
       <c r="C623" s="11"/>
@@ -32131,7 +32188,7 @@
         <v/>
       </c>
     </row>
-    <row r="624" spans="1:19" ht="12.75">
+    <row r="624" spans="1:19" ht="13.2">
       <c r="A624" s="9"/>
       <c r="B624" s="10"/>
       <c r="C624" s="11"/>
@@ -32182,7 +32239,7 @@
         <v/>
       </c>
     </row>
-    <row r="625" spans="1:19" ht="12.75">
+    <row r="625" spans="1:19" ht="13.2">
       <c r="A625" s="9"/>
       <c r="B625" s="10"/>
       <c r="C625" s="11"/>
@@ -32233,7 +32290,7 @@
         <v/>
       </c>
     </row>
-    <row r="626" spans="1:19" ht="12.75">
+    <row r="626" spans="1:19" ht="13.2">
       <c r="A626" s="9"/>
       <c r="B626" s="10"/>
       <c r="C626" s="11"/>
@@ -32284,7 +32341,7 @@
         <v/>
       </c>
     </row>
-    <row r="627" spans="1:19" ht="12.75">
+    <row r="627" spans="1:19" ht="13.2">
       <c r="A627" s="9"/>
       <c r="B627" s="10"/>
       <c r="C627" s="11"/>
@@ -32335,7 +32392,7 @@
         <v/>
       </c>
     </row>
-    <row r="628" spans="1:19" ht="12.75">
+    <row r="628" spans="1:19" ht="13.2">
       <c r="A628" s="9"/>
       <c r="B628" s="10"/>
       <c r="C628" s="11"/>
@@ -32386,7 +32443,7 @@
         <v/>
       </c>
     </row>
-    <row r="629" spans="1:19" ht="12.75">
+    <row r="629" spans="1:19" ht="13.2">
       <c r="A629" s="9"/>
       <c r="B629" s="10"/>
       <c r="C629" s="11"/>
@@ -32437,7 +32494,7 @@
         <v/>
       </c>
     </row>
-    <row r="630" spans="1:19" ht="12.75">
+    <row r="630" spans="1:19" ht="13.2">
       <c r="A630" s="9"/>
       <c r="B630" s="10"/>
       <c r="C630" s="11"/>
@@ -32488,7 +32545,7 @@
         <v/>
       </c>
     </row>
-    <row r="631" spans="1:19" ht="12.75">
+    <row r="631" spans="1:19" ht="13.2">
       <c r="A631" s="9"/>
       <c r="B631" s="10"/>
       <c r="C631" s="11"/>
@@ -32539,7 +32596,7 @@
         <v/>
       </c>
     </row>
-    <row r="632" spans="1:19" ht="12.75">
+    <row r="632" spans="1:19" ht="13.2">
       <c r="A632" s="9"/>
       <c r="B632" s="10"/>
       <c r="C632" s="11"/>
@@ -32590,7 +32647,7 @@
         <v/>
       </c>
     </row>
-    <row r="633" spans="1:19" ht="12.75">
+    <row r="633" spans="1:19" ht="13.2">
       <c r="A633" s="9"/>
       <c r="B633" s="10"/>
       <c r="C633" s="11"/>
@@ -32641,7 +32698,7 @@
         <v/>
       </c>
     </row>
-    <row r="634" spans="1:19" ht="12.75">
+    <row r="634" spans="1:19" ht="13.2">
       <c r="A634" s="9"/>
       <c r="B634" s="10"/>
       <c r="C634" s="11"/>
@@ -32692,7 +32749,7 @@
         <v/>
       </c>
     </row>
-    <row r="635" spans="1:19" ht="12.75">
+    <row r="635" spans="1:19" ht="13.2">
       <c r="A635" s="9"/>
       <c r="B635" s="10"/>
       <c r="C635" s="11"/>
@@ -32743,7 +32800,7 @@
         <v/>
       </c>
     </row>
-    <row r="636" spans="1:19" ht="12.75">
+    <row r="636" spans="1:19" ht="13.2">
       <c r="A636" s="9"/>
       <c r="B636" s="10"/>
       <c r="C636" s="11"/>
@@ -32794,7 +32851,7 @@
         <v/>
       </c>
     </row>
-    <row r="637" spans="1:19" ht="12.75">
+    <row r="637" spans="1:19" ht="13.2">
       <c r="A637" s="9"/>
       <c r="B637" s="10"/>
       <c r="C637" s="11"/>
@@ -32845,7 +32902,7 @@
         <v/>
       </c>
     </row>
-    <row r="638" spans="1:19" ht="12.75">
+    <row r="638" spans="1:19" ht="13.2">
       <c r="A638" s="9"/>
       <c r="B638" s="10"/>
       <c r="C638" s="11"/>
@@ -32896,7 +32953,7 @@
         <v/>
       </c>
     </row>
-    <row r="639" spans="1:19" ht="12.75">
+    <row r="639" spans="1:19" ht="13.2">
       <c r="A639" s="9"/>
       <c r="B639" s="10"/>
       <c r="C639" s="11"/>
@@ -32947,7 +33004,7 @@
         <v/>
       </c>
     </row>
-    <row r="640" spans="1:19" ht="12.75">
+    <row r="640" spans="1:19" ht="13.2">
       <c r="A640" s="9"/>
       <c r="B640" s="10"/>
       <c r="C640" s="11"/>
@@ -32998,7 +33055,7 @@
         <v/>
       </c>
     </row>
-    <row r="641" spans="1:19" ht="12.75">
+    <row r="641" spans="1:19" ht="13.2">
       <c r="A641" s="9"/>
       <c r="B641" s="10"/>
       <c r="C641" s="11"/>
@@ -33049,7 +33106,7 @@
         <v/>
       </c>
     </row>
-    <row r="642" spans="1:19" ht="12.75">
+    <row r="642" spans="1:19" ht="13.2">
       <c r="A642" s="9"/>
       <c r="B642" s="10"/>
       <c r="C642" s="11"/>
@@ -33100,7 +33157,7 @@
         <v/>
       </c>
     </row>
-    <row r="643" spans="1:19" ht="12.75">
+    <row r="643" spans="1:19" ht="13.2">
       <c r="A643" s="9"/>
       <c r="B643" s="10"/>
       <c r="C643" s="11"/>
@@ -33151,7 +33208,7 @@
         <v/>
       </c>
     </row>
-    <row r="644" spans="1:19" ht="12.75">
+    <row r="644" spans="1:19" ht="13.2">
       <c r="A644" s="9"/>
       <c r="B644" s="10"/>
       <c r="C644" s="11"/>
@@ -33202,7 +33259,7 @@
         <v/>
       </c>
     </row>
-    <row r="645" spans="1:19" ht="12.75">
+    <row r="645" spans="1:19" ht="13.2">
       <c r="A645" s="9"/>
       <c r="B645" s="10"/>
       <c r="C645" s="11"/>
@@ -33253,7 +33310,7 @@
         <v/>
       </c>
     </row>
-    <row r="646" spans="1:19" ht="12.75">
+    <row r="646" spans="1:19" ht="13.2">
       <c r="A646" s="9"/>
       <c r="B646" s="10"/>
       <c r="C646" s="11"/>
@@ -33304,7 +33361,7 @@
         <v/>
       </c>
     </row>
-    <row r="647" spans="1:19" ht="12.75">
+    <row r="647" spans="1:19" ht="13.2">
       <c r="A647" s="9"/>
       <c r="B647" s="10"/>
       <c r="C647" s="11"/>
@@ -33355,7 +33412,7 @@
         <v/>
       </c>
     </row>
-    <row r="648" spans="1:19" ht="12.75">
+    <row r="648" spans="1:19" ht="13.2">
       <c r="A648" s="9"/>
       <c r="B648" s="10"/>
       <c r="C648" s="11"/>
@@ -33406,7 +33463,7 @@
         <v/>
       </c>
     </row>
-    <row r="649" spans="1:19" ht="12.75">
+    <row r="649" spans="1:19" ht="13.2">
       <c r="A649" s="9"/>
       <c r="B649" s="10"/>
       <c r="C649" s="11"/>
@@ -33457,7 +33514,7 @@
         <v/>
       </c>
     </row>
-    <row r="650" spans="1:19" ht="12.75">
+    <row r="650" spans="1:19" ht="13.2">
       <c r="A650" s="9"/>
       <c r="B650" s="10"/>
       <c r="C650" s="11"/>
@@ -33508,7 +33565,7 @@
         <v/>
       </c>
     </row>
-    <row r="651" spans="1:19" ht="12.75">
+    <row r="651" spans="1:19" ht="13.2">
       <c r="A651" s="9"/>
       <c r="B651" s="10"/>
       <c r="C651" s="11"/>
@@ -33559,7 +33616,7 @@
         <v/>
       </c>
     </row>
-    <row r="652" spans="1:19" ht="12.75">
+    <row r="652" spans="1:19" ht="13.2">
       <c r="A652" s="9"/>
       <c r="B652" s="10"/>
       <c r="C652" s="11"/>
@@ -33610,7 +33667,7 @@
         <v/>
       </c>
     </row>
-    <row r="653" spans="1:19" ht="12.75">
+    <row r="653" spans="1:19" ht="13.2">
       <c r="A653" s="9"/>
       <c r="B653" s="10"/>
       <c r="C653" s="11"/>
@@ -33661,7 +33718,7 @@
         <v/>
       </c>
     </row>
-    <row r="654" spans="1:19" ht="12.75">
+    <row r="654" spans="1:19" ht="13.2">
       <c r="A654" s="9"/>
       <c r="B654" s="10"/>
       <c r="C654" s="11"/>
@@ -33712,7 +33769,7 @@
         <v/>
       </c>
     </row>
-    <row r="655" spans="1:19" ht="12.75">
+    <row r="655" spans="1:19" ht="13.2">
       <c r="A655" s="9"/>
       <c r="B655" s="10"/>
       <c r="C655" s="11"/>
@@ -33763,7 +33820,7 @@
         <v/>
       </c>
     </row>
-    <row r="656" spans="1:19" ht="12.75">
+    <row r="656" spans="1:19" ht="13.2">
       <c r="A656" s="9"/>
       <c r="B656" s="10"/>
       <c r="C656" s="11"/>
@@ -33814,7 +33871,7 @@
         <v/>
       </c>
     </row>
-    <row r="657" spans="1:19" ht="12.75">
+    <row r="657" spans="1:19" ht="13.2">
       <c r="A657" s="9"/>
       <c r="B657" s="10"/>
       <c r="C657" s="11"/>
@@ -33865,7 +33922,7 @@
         <v/>
       </c>
     </row>
-    <row r="658" spans="1:19" ht="12.75">
+    <row r="658" spans="1:19" ht="13.2">
       <c r="A658" s="9"/>
       <c r="B658" s="10"/>
       <c r="C658" s="11"/>
@@ -33916,7 +33973,7 @@
         <v/>
       </c>
     </row>
-    <row r="659" spans="1:19" ht="12.75">
+    <row r="659" spans="1:19" ht="13.2">
       <c r="A659" s="9"/>
       <c r="B659" s="10"/>
       <c r="C659" s="11"/>
@@ -33967,7 +34024,7 @@
         <v/>
       </c>
     </row>
-    <row r="660" spans="1:19" ht="12.75">
+    <row r="660" spans="1:19" ht="13.2">
       <c r="A660" s="9"/>
       <c r="B660" s="10"/>
       <c r="C660" s="11"/>
@@ -34018,7 +34075,7 @@
         <v/>
       </c>
     </row>
-    <row r="661" spans="1:19" ht="12.75">
+    <row r="661" spans="1:19" ht="13.2">
       <c r="A661" s="9"/>
       <c r="B661" s="10"/>
       <c r="C661" s="11"/>
@@ -34069,7 +34126,7 @@
         <v/>
       </c>
     </row>
-    <row r="662" spans="1:19" ht="12.75">
+    <row r="662" spans="1:19" ht="13.2">
       <c r="A662" s="9"/>
       <c r="B662" s="10"/>
       <c r="C662" s="11"/>
@@ -34120,7 +34177,7 @@
         <v/>
       </c>
     </row>
-    <row r="663" spans="1:19" ht="12.75">
+    <row r="663" spans="1:19" ht="13.2">
       <c r="A663" s="9"/>
       <c r="B663" s="10"/>
       <c r="C663" s="11"/>
@@ -34171,7 +34228,7 @@
         <v/>
       </c>
     </row>
-    <row r="664" spans="1:19" ht="12.75">
+    <row r="664" spans="1:19" ht="13.2">
       <c r="A664" s="9"/>
       <c r="B664" s="10"/>
       <c r="C664" s="11"/>
@@ -34222,7 +34279,7 @@
         <v/>
       </c>
     </row>
-    <row r="665" spans="1:19" ht="12.75">
+    <row r="665" spans="1:19" ht="13.2">
       <c r="A665" s="9"/>
       <c r="B665" s="10"/>
       <c r="C665" s="11"/>
@@ -34273,7 +34330,7 @@
         <v/>
       </c>
     </row>
-    <row r="666" spans="1:19" ht="12.75">
+    <row r="666" spans="1:19" ht="13.2">
       <c r="A666" s="9"/>
       <c r="B666" s="10"/>
       <c r="C666" s="11"/>
@@ -34324,7 +34381,7 @@
         <v/>
       </c>
     </row>
-    <row r="667" spans="1:19" ht="12.75">
+    <row r="667" spans="1:19" ht="13.2">
       <c r="A667" s="9"/>
       <c r="B667" s="10"/>
       <c r="C667" s="11"/>
@@ -34375,7 +34432,7 @@
         <v/>
       </c>
     </row>
-    <row r="668" spans="1:19" ht="12.75">
+    <row r="668" spans="1:19" ht="13.2">
       <c r="A668" s="9"/>
       <c r="B668" s="10"/>
       <c r="C668" s="11"/>
@@ -34426,7 +34483,7 @@
         <v/>
       </c>
     </row>
-    <row r="669" spans="1:19" ht="12.75">
+    <row r="669" spans="1:19" ht="13.2">
       <c r="A669" s="9"/>
       <c r="B669" s="10"/>
       <c r="C669" s="11"/>
@@ -34477,7 +34534,7 @@
         <v/>
       </c>
     </row>
-    <row r="670" spans="1:19" ht="12.75">
+    <row r="670" spans="1:19" ht="13.2">
       <c r="A670" s="9"/>
       <c r="B670" s="10"/>
       <c r="C670" s="11"/>
@@ -34528,7 +34585,7 @@
         <v/>
       </c>
     </row>
-    <row r="671" spans="1:19" ht="12.75">
+    <row r="671" spans="1:19" ht="13.2">
       <c r="A671" s="9"/>
       <c r="B671" s="10"/>
       <c r="C671" s="11"/>
@@ -34579,7 +34636,7 @@
         <v/>
       </c>
     </row>
-    <row r="672" spans="1:19" ht="12.75">
+    <row r="672" spans="1:19" ht="13.2">
       <c r="A672" s="9"/>
       <c r="B672" s="10"/>
       <c r="C672" s="11"/>
@@ -34630,7 +34687,7 @@
         <v/>
       </c>
     </row>
-    <row r="673" spans="1:19" ht="12.75">
+    <row r="673" spans="1:19" ht="13.2">
       <c r="A673" s="9"/>
       <c r="B673" s="10"/>
       <c r="C673" s="11"/>
@@ -34681,7 +34738,7 @@
         <v/>
       </c>
     </row>
-    <row r="674" spans="1:19" ht="12.75">
+    <row r="674" spans="1:19" ht="13.2">
       <c r="A674" s="9"/>
       <c r="B674" s="10"/>
       <c r="C674" s="11"/>
@@ -34732,7 +34789,7 @@
         <v/>
       </c>
     </row>
-    <row r="675" spans="1:19" ht="12.75">
+    <row r="675" spans="1:19" ht="13.2">
       <c r="A675" s="9"/>
       <c r="B675" s="10"/>
       <c r="C675" s="11"/>
@@ -34783,7 +34840,7 @@
         <v/>
       </c>
     </row>
-    <row r="676" spans="1:19" ht="12.75">
+    <row r="676" spans="1:19" ht="13.2">
       <c r="A676" s="9"/>
       <c r="B676" s="10"/>
       <c r="C676" s="11"/>
@@ -34834,7 +34891,7 @@
         <v/>
       </c>
     </row>
-    <row r="677" spans="1:19" ht="12.75">
+    <row r="677" spans="1:19" ht="13.2">
       <c r="A677" s="9"/>
       <c r="B677" s="10"/>
       <c r="C677" s="11"/>
@@ -34885,7 +34942,7 @@
         <v/>
       </c>
     </row>
-    <row r="678" spans="1:19" ht="12.75">
+    <row r="678" spans="1:19" ht="13.2">
       <c r="A678" s="9"/>
       <c r="B678" s="10"/>
       <c r="C678" s="11"/>
@@ -34936,7 +34993,7 @@
         <v/>
       </c>
     </row>
-    <row r="679" spans="1:19" ht="12.75">
+    <row r="679" spans="1:19" ht="13.2">
       <c r="A679" s="9"/>
       <c r="B679" s="10"/>
       <c r="C679" s="11"/>
@@ -34987,7 +35044,7 @@
         <v/>
       </c>
     </row>
-    <row r="680" spans="1:19" ht="12.75">
+    <row r="680" spans="1:19" ht="13.2">
       <c r="A680" s="9"/>
       <c r="B680" s="10"/>
       <c r="C680" s="11"/>
@@ -35038,7 +35095,7 @@
         <v/>
       </c>
     </row>
-    <row r="681" spans="1:19" ht="12.75">
+    <row r="681" spans="1:19" ht="13.2">
       <c r="A681" s="9"/>
       <c r="B681" s="10"/>
       <c r="C681" s="11"/>
@@ -35089,7 +35146,7 @@
         <v/>
       </c>
     </row>
-    <row r="682" spans="1:19" ht="12.75">
+    <row r="682" spans="1:19" ht="13.2">
       <c r="A682" s="9"/>
       <c r="B682" s="10"/>
       <c r="C682" s="11"/>
@@ -35140,7 +35197,7 @@
         <v/>
       </c>
     </row>
-    <row r="683" spans="1:19" ht="12.75">
+    <row r="683" spans="1:19" ht="13.2">
       <c r="A683" s="9"/>
       <c r="B683" s="10"/>
       <c r="C683" s="11"/>
@@ -35191,7 +35248,7 @@
         <v/>
       </c>
     </row>
-    <row r="684" spans="1:19" ht="12.75">
+    <row r="684" spans="1:19" ht="13.2">
       <c r="A684" s="9"/>
       <c r="B684" s="10"/>
       <c r="C684" s="11"/>
@@ -35242,7 +35299,7 @@
         <v/>
       </c>
     </row>
-    <row r="685" spans="1:19" ht="12.75">
+    <row r="685" spans="1:19" ht="13.2">
       <c r="A685" s="9"/>
       <c r="B685" s="10"/>
       <c r="C685" s="11"/>
@@ -35293,7 +35350,7 @@
         <v/>
       </c>
     </row>
-    <row r="686" spans="1:19" ht="12.75">
+    <row r="686" spans="1:19" ht="13.2">
       <c r="A686" s="9"/>
       <c r="B686" s="10"/>
       <c r="C686" s="11"/>
@@ -35344,7 +35401,7 @@
         <v/>
       </c>
     </row>
-    <row r="687" spans="1:19" ht="12.75">
+    <row r="687" spans="1:19" ht="13.2">
       <c r="A687" s="9"/>
       <c r="B687" s="10"/>
       <c r="C687" s="11"/>
@@ -35395,7 +35452,7 @@
         <v/>
       </c>
     </row>
-    <row r="688" spans="1:19" ht="12.75">
+    <row r="688" spans="1:19" ht="13.2">
       <c r="A688" s="9"/>
       <c r="B688" s="10"/>
       <c r="C688" s="11"/>
@@ -35446,7 +35503,7 @@
         <v/>
       </c>
     </row>
-    <row r="689" spans="1:19" ht="12.75">
+    <row r="689" spans="1:19" ht="13.2">
       <c r="A689" s="9"/>
       <c r="B689" s="10"/>
       <c r="C689" s="11"/>
@@ -35497,7 +35554,7 @@
         <v/>
       </c>
     </row>
-    <row r="690" spans="1:19" ht="12.75">
+    <row r="690" spans="1:19" ht="13.2">
       <c r="A690" s="9"/>
       <c r="B690" s="10"/>
       <c r="C690" s="11"/>
@@ -35548,7 +35605,7 @@
         <v/>
       </c>
     </row>
-    <row r="691" spans="1:19" ht="12.75">
+    <row r="691" spans="1:19" ht="13.2">
       <c r="A691" s="9"/>
       <c r="B691" s="10"/>
       <c r="C691" s="11"/>
@@ -35599,7 +35656,7 @@
         <v/>
       </c>
     </row>
-    <row r="692" spans="1:19" ht="12.75">
+    <row r="692" spans="1:19" ht="13.2">
       <c r="A692" s="9"/>
       <c r="B692" s="10"/>
       <c r="C692" s="11"/>
@@ -35650,7 +35707,7 @@
         <v/>
       </c>
     </row>
-    <row r="693" spans="1:19" ht="12.75">
+    <row r="693" spans="1:19" ht="13.2">
       <c r="A693" s="9"/>
       <c r="B693" s="10"/>
       <c r="C693" s="11"/>
@@ -35701,7 +35758,7 @@
         <v/>
       </c>
     </row>
-    <row r="694" spans="1:19" ht="12.75">
+    <row r="694" spans="1:19" ht="13.2">
       <c r="A694" s="9"/>
       <c r="B694" s="10"/>
       <c r="C694" s="11"/>
@@ -35752,7 +35809,7 @@
         <v/>
       </c>
     </row>
-    <row r="695" spans="1:19" ht="12.75">
+    <row r="695" spans="1:19" ht="13.2">
       <c r="A695" s="9"/>
       <c r="B695" s="10"/>
       <c r="C695" s="11"/>
@@ -35803,7 +35860,7 @@
         <v/>
       </c>
     </row>
-    <row r="696" spans="1:19" ht="12.75">
+    <row r="696" spans="1:19" ht="13.2">
       <c r="A696" s="9"/>
       <c r="B696" s="10"/>
       <c r="C696" s="11"/>
@@ -35854,7 +35911,7 @@
         <v/>
       </c>
     </row>
-    <row r="697" spans="1:19" ht="12.75">
+    <row r="697" spans="1:19" ht="13.2">
       <c r="A697" s="9"/>
       <c r="B697" s="10"/>
       <c r="C697" s="11"/>
@@ -35905,7 +35962,7 @@
         <v/>
       </c>
     </row>
-    <row r="698" spans="1:19" ht="12.75">
+    <row r="698" spans="1:19" ht="13.2">
       <c r="A698" s="9"/>
       <c r="B698" s="10"/>
       <c r="C698" s="11"/>
@@ -35956,7 +36013,7 @@
         <v/>
       </c>
     </row>
-    <row r="699" spans="1:19" ht="12.75">
+    <row r="699" spans="1:19" ht="13.2">
       <c r="A699" s="9"/>
       <c r="B699" s="10"/>
       <c r="C699" s="11"/>
@@ -36007,7 +36064,7 @@
         <v/>
       </c>
     </row>
-    <row r="700" spans="1:19" ht="12.75">
+    <row r="700" spans="1:19" ht="13.2">
       <c r="A700" s="9"/>
       <c r="B700" s="10"/>
       <c r="C700" s="11"/>
@@ -36058,7 +36115,7 @@
         <v/>
       </c>
     </row>
-    <row r="701" spans="1:19" ht="12.75">
+    <row r="701" spans="1:19" ht="13.2">
       <c r="A701" s="9"/>
       <c r="B701" s="10"/>
       <c r="C701" s="11"/>
@@ -36109,7 +36166,7 @@
         <v/>
       </c>
     </row>
-    <row r="702" spans="1:19" ht="12.75">
+    <row r="702" spans="1:19" ht="13.2">
       <c r="A702" s="9"/>
       <c r="B702" s="10"/>
       <c r="C702" s="11"/>
@@ -36160,7 +36217,7 @@
         <v/>
       </c>
     </row>
-    <row r="703" spans="1:19" ht="12.75">
+    <row r="703" spans="1:19" ht="13.2">
       <c r="A703" s="9"/>
       <c r="B703" s="10"/>
       <c r="C703" s="11"/>
@@ -36211,7 +36268,7 @@
         <v/>
       </c>
     </row>
-    <row r="704" spans="1:19" ht="12.75">
+    <row r="704" spans="1:19" ht="13.2">
       <c r="A704" s="9"/>
       <c r="B704" s="10"/>
       <c r="C704" s="11"/>
@@ -36262,7 +36319,7 @@
         <v/>
       </c>
     </row>
-    <row r="705" spans="1:19" ht="12.75">
+    <row r="705" spans="1:19" ht="13.2">
       <c r="A705" s="9"/>
       <c r="B705" s="10"/>
       <c r="C705" s="11"/>
@@ -36313,7 +36370,7 @@
         <v/>
       </c>
     </row>
-    <row r="706" spans="1:19" ht="12.75">
+    <row r="706" spans="1:19" ht="13.2">
       <c r="A706" s="9"/>
       <c r="B706" s="10"/>
       <c r="C706" s="11"/>
@@ -36364,7 +36421,7 @@
         <v/>
       </c>
     </row>
-    <row r="707" spans="1:19" ht="12.75">
+    <row r="707" spans="1:19" ht="13.2">
       <c r="A707" s="9"/>
       <c r="B707" s="10"/>
       <c r="C707" s="11"/>
@@ -36415,7 +36472,7 @@
         <v/>
       </c>
     </row>
-    <row r="708" spans="1:19" ht="12.75">
+    <row r="708" spans="1:19" ht="13.2">
       <c r="A708" s="9"/>
       <c r="B708" s="10"/>
       <c r="C708" s="11"/>
@@ -36466,7 +36523,7 @@
         <v/>
       </c>
     </row>
-    <row r="709" spans="1:19" ht="12.75">
+    <row r="709" spans="1:19" ht="13.2">
       <c r="A709" s="9"/>
       <c r="B709" s="10"/>
       <c r="C709" s="11"/>
@@ -36517,7 +36574,7 @@
         <v/>
       </c>
     </row>
-    <row r="710" spans="1:19" ht="12.75">
+    <row r="710" spans="1:19" ht="13.2">
       <c r="A710" s="9"/>
       <c r="B710" s="10"/>
       <c r="C710" s="11"/>
@@ -36568,7 +36625,7 @@
         <v/>
       </c>
     </row>
-    <row r="711" spans="1:19" ht="12.75">
+    <row r="711" spans="1:19" ht="13.2">
       <c r="A711" s="9"/>
       <c r="B711" s="10"/>
       <c r="C711" s="11"/>
@@ -36619,7 +36676,7 @@
         <v/>
       </c>
     </row>
-    <row r="712" spans="1:19" ht="12.75">
+    <row r="712" spans="1:19" ht="13.2">
       <c r="A712" s="9"/>
       <c r="B712" s="10"/>
       <c r="C712" s="11"/>
@@ -36670,7 +36727,7 @@
         <v/>
       </c>
     </row>
-    <row r="713" spans="1:19" ht="12.75">
+    <row r="713" spans="1:19" ht="13.2">
       <c r="A713" s="9"/>
       <c r="B713" s="10"/>
       <c r="C713" s="11"/>
@@ -36721,7 +36778,7 @@
         <v/>
       </c>
     </row>
-    <row r="714" spans="1:19" ht="12.75">
+    <row r="714" spans="1:19" ht="13.2">
       <c r="A714" s="9"/>
       <c r="B714" s="10"/>
       <c r="C714" s="11"/>
@@ -36772,7 +36829,7 @@
         <v/>
       </c>
     </row>
-    <row r="715" spans="1:19" ht="12.75">
+    <row r="715" spans="1:19" ht="13.2">
       <c r="A715" s="9"/>
       <c r="B715" s="10"/>
       <c r="C715" s="11"/>
@@ -36823,7 +36880,7 @@
         <v/>
       </c>
     </row>
-    <row r="716" spans="1:19" ht="12.75">
+    <row r="716" spans="1:19" ht="13.2">
       <c r="A716" s="9"/>
       <c r="B716" s="10"/>
       <c r="C716" s="11"/>
@@ -36874,7 +36931,7 @@
         <v/>
       </c>
     </row>
-    <row r="717" spans="1:19" ht="12.75">
+    <row r="717" spans="1:19" ht="13.2">
       <c r="A717" s="9"/>
       <c r="B717" s="10"/>
       <c r="C717" s="11"/>
@@ -36925,7 +36982,7 @@
         <v/>
       </c>
     </row>
-    <row r="718" spans="1:19" ht="12.75">
+    <row r="718" spans="1:19" ht="13.2">
       <c r="A718" s="9"/>
       <c r="B718" s="10"/>
       <c r="C718" s="11"/>
@@ -36976,7 +37033,7 @@
         <v/>
       </c>
     </row>
-    <row r="719" spans="1:19" ht="12.75">
+    <row r="719" spans="1:19" ht="13.2">
       <c r="A719" s="9"/>
       <c r="B719" s="10"/>
       <c r="C719" s="11"/>
@@ -37027,7 +37084,7 @@
         <v/>
       </c>
     </row>
-    <row r="720" spans="1:19" ht="12.75">
+    <row r="720" spans="1:19" ht="13.2">
       <c r="A720" s="9"/>
       <c r="B720" s="10"/>
       <c r="C720" s="11"/>
@@ -37078,7 +37135,7 @@
         <v/>
       </c>
     </row>
-    <row r="721" spans="1:19" ht="12.75">
+    <row r="721" spans="1:19" ht="13.2">
       <c r="A721" s="9"/>
       <c r="B721" s="10"/>
       <c r="C721" s="11"/>
@@ -37129,7 +37186,7 @@
         <v/>
       </c>
     </row>
-    <row r="722" spans="1:19" ht="12.75">
+    <row r="722" spans="1:19" ht="13.2">
       <c r="A722" s="9"/>
       <c r="B722" s="10"/>
       <c r="C722" s="11"/>
@@ -37180,7 +37237,7 @@
         <v/>
       </c>
     </row>
-    <row r="723" spans="1:19" ht="12.75">
+    <row r="723" spans="1:19" ht="13.2">
       <c r="A723" s="9"/>
       <c r="B723" s="10"/>
       <c r="C723" s="11"/>
@@ -37231,7 +37288,7 @@
         <v/>
       </c>
     </row>
-    <row r="724" spans="1:19" ht="12.75">
+    <row r="724" spans="1:19" ht="13.2">
       <c r="A724" s="9"/>
       <c r="B724" s="10"/>
       <c r="C724" s="11"/>
@@ -37282,7 +37339,7 @@
         <v/>
       </c>
     </row>
-    <row r="725" spans="1:19" ht="12.75">
+    <row r="725" spans="1:19" ht="13.2">
       <c r="A725" s="9"/>
       <c r="B725" s="10"/>
       <c r="C725" s="11"/>
@@ -37333,7 +37390,7 @@
         <v/>
       </c>
     </row>
-    <row r="726" spans="1:19" ht="12.75">
+    <row r="726" spans="1:19" ht="13.2">
       <c r="A726" s="9"/>
       <c r="B726" s="10"/>
       <c r="C726" s="11"/>
@@ -37384,7 +37441,7 @@
         <v/>
       </c>
     </row>
-    <row r="727" spans="1:19" ht="12.75">
+    <row r="727" spans="1:19" ht="13.2">
       <c r="A727" s="9"/>
       <c r="B727" s="10"/>
       <c r="C727" s="11"/>
@@ -37435,7 +37492,7 @@
         <v/>
       </c>
     </row>
-    <row r="728" spans="1:19" ht="12.75">
+    <row r="728" spans="1:19" ht="13.2">
       <c r="A728" s="9"/>
       <c r="B728" s="10"/>
       <c r="C728" s="11"/>
@@ -37486,7 +37543,7 @@
         <v/>
       </c>
     </row>
-    <row r="729" spans="1:19" ht="12.75">
+    <row r="729" spans="1:19" ht="13.2">
       <c r="A729" s="9"/>
       <c r="B729" s="10"/>
       <c r="C729" s="11"/>
@@ -37537,7 +37594,7 @@
         <v/>
       </c>
     </row>
-    <row r="730" spans="1:19" ht="12.75">
+    <row r="730" spans="1:19" ht="13.2">
       <c r="A730" s="9"/>
       <c r="B730" s="10"/>
       <c r="C730" s="11"/>
@@ -37588,7 +37645,7 @@
         <v/>
       </c>
     </row>
-    <row r="731" spans="1:19" ht="12.75">
+    <row r="731" spans="1:19" ht="13.2">
       <c r="A731" s="9"/>
       <c r="B731" s="10"/>
       <c r="C731" s="11"/>
@@ -37639,7 +37696,7 @@
         <v/>
       </c>
     </row>
-    <row r="732" spans="1:19" ht="12.75">
+    <row r="732" spans="1:19" ht="13.2">
       <c r="A732" s="9"/>
       <c r="B732" s="10"/>
       <c r="C732" s="11"/>
@@ -37690,7 +37747,7 @@
         <v/>
       </c>
     </row>
-    <row r="733" spans="1:19" ht="12.75">
+    <row r="733" spans="1:19" ht="13.2">
       <c r="A733" s="9"/>
       <c r="B733" s="10"/>
       <c r="C733" s="11"/>
@@ -37741,7 +37798,7 @@
         <v/>
       </c>
     </row>
-    <row r="734" spans="1:19" ht="12.75">
+    <row r="734" spans="1:19" ht="13.2">
       <c r="A734" s="9"/>
       <c r="B734" s="10"/>
       <c r="C734" s="11"/>
@@ -37792,7 +37849,7 @@
         <v/>
       </c>
     </row>
-    <row r="735" spans="1:19" ht="12.75">
+    <row r="735" spans="1:19" ht="13.2">
       <c r="A735" s="9"/>
       <c r="B735" s="10"/>
       <c r="C735" s="11"/>
@@ -37843,7 +37900,7 @@
         <v/>
       </c>
     </row>
-    <row r="736" spans="1:19" ht="12.75">
+    <row r="736" spans="1:19" ht="13.2">
       <c r="A736" s="9"/>
       <c r="B736" s="10"/>
       <c r="C736" s="11"/>
@@ -37894,7 +37951,7 @@
         <v/>
       </c>
     </row>
-    <row r="737" spans="1:19" ht="12.75">
+    <row r="737" spans="1:19" ht="13.2">
       <c r="A737" s="9"/>
       <c r="B737" s="10"/>
       <c r="C737" s="11"/>
@@ -37945,7 +38002,7 @@
         <v/>
       </c>
     </row>
-    <row r="738" spans="1:19" ht="12.75">
+    <row r="738" spans="1:19" ht="13.2">
       <c r="A738" s="9"/>
       <c r="B738" s="10"/>
       <c r="C738" s="11"/>
@@ -37996,7 +38053,7 @@
         <v/>
       </c>
     </row>
-    <row r="739" spans="1:19" ht="12.75">
+    <row r="739" spans="1:19" ht="13.2">
       <c r="A739" s="9"/>
       <c r="B739" s="10"/>
       <c r="C739" s="11"/>
@@ -38047,7 +38104,7 @@
         <v/>
       </c>
     </row>
-    <row r="740" spans="1:19" ht="12.75">
+    <row r="740" spans="1:19" ht="13.2">
       <c r="A740" s="9"/>
       <c r="B740" s="10"/>
       <c r="C740" s="11"/>
@@ -38098,7 +38155,7 @@
         <v/>
       </c>
     </row>
-    <row r="741" spans="1:19" ht="12.75">
+    <row r="741" spans="1:19" ht="13.2">
       <c r="A741" s="9"/>
       <c r="B741" s="10"/>
       <c r="C741" s="11"/>
@@ -38149,7 +38206,7 @@
         <v/>
       </c>
     </row>
-    <row r="742" spans="1:19" ht="12.75">
+    <row r="742" spans="1:19" ht="13.2">
       <c r="A742" s="9"/>
       <c r="B742" s="10"/>
       <c r="C742" s="11"/>
@@ -38200,7 +38257,7 @@
         <v/>
       </c>
     </row>
-    <row r="743" spans="1:19" ht="12.75">
+    <row r="743" spans="1:19" ht="13.2">
       <c r="A743" s="9"/>
       <c r="B743" s="10"/>
       <c r="C743" s="11"/>
@@ -38251,7 +38308,7 @@
         <v/>
       </c>
     </row>
-    <row r="744" spans="1:19" ht="12.75">
+    <row r="744" spans="1:19" ht="13.2">
       <c r="A744" s="9"/>
       <c r="B744" s="10"/>
       <c r="C744" s="11"/>
@@ -38302,7 +38359,7 @@
         <v/>
       </c>
     </row>
-    <row r="745" spans="1:19" ht="12.75">
+    <row r="745" spans="1:19" ht="13.2">
       <c r="A745" s="9"/>
       <c r="B745" s="10"/>
       <c r="C745" s="11"/>
@@ -38353,7 +38410,7 @@
         <v/>
       </c>
     </row>
-    <row r="746" spans="1:19" ht="12.75">
+    <row r="746" spans="1:19" ht="13.2">
       <c r="A746" s="9"/>
       <c r="B746" s="10"/>
       <c r="C746" s="11"/>
@@ -38404,7 +38461,7 @@
         <v/>
       </c>
     </row>
-    <row r="747" spans="1:19" ht="12.75">
+    <row r="747" spans="1:19" ht="13.2">
       <c r="A747" s="9"/>
       <c r="B747" s="10"/>
       <c r="C747" s="11"/>
@@ -38455,7 +38512,7 @@
         <v/>
       </c>
     </row>
-    <row r="748" spans="1:19" ht="12.75">
+    <row r="748" spans="1:19" ht="13.2">
       <c r="A748" s="9"/>
       <c r="B748" s="10"/>
       <c r="C748" s="11"/>
@@ -38506,7 +38563,7 @@
         <v/>
       </c>
     </row>
-    <row r="749" spans="1:19" ht="12.75">
+    <row r="749" spans="1:19" ht="13.2">
       <c r="A749" s="9"/>
       <c r="B749" s="10"/>
       <c r="C749" s="11"/>
@@ -38557,7 +38614,7 @@
         <v/>
       </c>
     </row>
-    <row r="750" spans="1:19" ht="12.75">
+    <row r="750" spans="1:19" ht="13.2">
       <c r="A750" s="9"/>
       <c r="B750" s="10"/>
       <c r="C750" s="11"/>
@@ -38608,7 +38665,7 @@
         <v/>
       </c>
     </row>
-    <row r="751" spans="1:19" ht="12.75">
+    <row r="751" spans="1:19" ht="13.2">
       <c r="A751" s="9"/>
       <c r="B751" s="10"/>
       <c r="C751" s="11"/>
@@ -38659,7 +38716,7 @@
         <v/>
       </c>
     </row>
-    <row r="752" spans="1:19" ht="12.75">
+    <row r="752" spans="1:19" ht="13.2">
       <c r="A752" s="9"/>
       <c r="B752" s="10"/>
       <c r="C752" s="11"/>
@@ -38710,7 +38767,7 @@
         <v/>
       </c>
     </row>
-    <row r="753" spans="1:19" ht="12.75">
+    <row r="753" spans="1:19" ht="13.2">
       <c r="A753" s="9"/>
       <c r="B753" s="10"/>
       <c r="C753" s="11"/>
@@ -38761,7 +38818,7 @@
         <v/>
       </c>
     </row>
-    <row r="754" spans="1:19" ht="12.75">
+    <row r="754" spans="1:19" ht="13.2">
       <c r="A754" s="9"/>
       <c r="B754" s="10"/>
       <c r="C754" s="11"/>
@@ -38812,7 +38869,7 @@
         <v/>
       </c>
     </row>
-    <row r="755" spans="1:19" ht="12.75">
+    <row r="755" spans="1:19" ht="13.2">
       <c r="A755" s="9"/>
       <c r="B755" s="10"/>
       <c r="C755" s="11"/>
@@ -38863,7 +38920,7 @@
         <v/>
       </c>
     </row>
-    <row r="756" spans="1:19" ht="12.75">
+    <row r="756" spans="1:19" ht="13.2">
       <c r="A756" s="9"/>
       <c r="B756" s="10"/>
       <c r="C756" s="11"/>
@@ -38914,7 +38971,7 @@
         <v/>
       </c>
     </row>
-    <row r="757" spans="1:19" ht="12.75">
+    <row r="757" spans="1:19" ht="13.2">
       <c r="A757" s="9"/>
       <c r="B757" s="10"/>
       <c r="C757" s="11"/>
@@ -38965,7 +39022,7 @@
         <v/>
       </c>
     </row>
-    <row r="758" spans="1:19" ht="12.75">
+    <row r="758" spans="1:19" ht="13.2">
       <c r="A758" s="9"/>
       <c r="B758" s="10"/>
       <c r="C758" s="11"/>
@@ -39016,7 +39073,7 @@
         <v/>
       </c>
     </row>
-    <row r="759" spans="1:19" ht="12.75">
+    <row r="759" spans="1:19" ht="13.2">
       <c r="A759" s="9"/>
       <c r="B759" s="10"/>
       <c r="C759" s="11"/>
@@ -39067,7 +39124,7 @@
         <v/>
       </c>
     </row>
-    <row r="760" spans="1:19" ht="12.75">
+    <row r="760" spans="1:19" ht="13.2">
       <c r="A760" s="9"/>
       <c r="B760" s="10"/>
       <c r="C760" s="11"/>
@@ -39118,7 +39175,7 @@
         <v/>
       </c>
     </row>
-    <row r="761" spans="1:19" ht="12.75">
+    <row r="761" spans="1:19" ht="13.2">
       <c r="A761" s="9"/>
       <c r="B761" s="10"/>
       <c r="C761" s="11"/>
@@ -39169,7 +39226,7 @@
         <v/>
       </c>
     </row>
-    <row r="762" spans="1:19" ht="12.75">
+    <row r="762" spans="1:19" ht="13.2">
       <c r="A762" s="9"/>
       <c r="B762" s="10"/>
       <c r="C762" s="11"/>
@@ -39220,7 +39277,7 @@
         <v/>
       </c>
     </row>
-    <row r="763" spans="1:19" ht="12.75">
+    <row r="763" spans="1:19" ht="13.2">
       <c r="A763" s="9"/>
       <c r="B763" s="10"/>
       <c r="C763" s="11"/>
@@ -39271,7 +39328,7 @@
         <v/>
       </c>
     </row>
-    <row r="764" spans="1:19" ht="12.75">
+    <row r="764" spans="1:19" ht="13.2">
       <c r="A764" s="9"/>
       <c r="B764" s="10"/>
       <c r="C764" s="11"/>
@@ -39322,7 +39379,7 @@
         <v/>
       </c>
     </row>
-    <row r="765" spans="1:19" ht="12.75">
+    <row r="765" spans="1:19" ht="13.2">
       <c r="A765" s="9"/>
       <c r="B765" s="10"/>
       <c r="C765" s="11"/>
@@ -39373,7 +39430,7 @@
         <v/>
       </c>
     </row>
-    <row r="766" spans="1:19" ht="12.75">
+    <row r="766" spans="1:19" ht="13.2">
       <c r="A766" s="9"/>
       <c r="B766" s="10"/>
       <c r="C766" s="11"/>
@@ -39424,7 +39481,7 @@
         <v/>
       </c>
     </row>
-    <row r="767" spans="1:19" ht="12.75">
+    <row r="767" spans="1:19" ht="13.2">
       <c r="A767" s="9"/>
       <c r="B767" s="10"/>
       <c r="C767" s="11"/>
@@ -39475,7 +39532,7 @@
         <v/>
       </c>
     </row>
-    <row r="768" spans="1:19" ht="12.75">
+    <row r="768" spans="1:19" ht="13.2">
       <c r="A768" s="9"/>
       <c r="B768" s="10"/>
       <c r="C768" s="11"/>
@@ -39526,7 +39583,7 @@
         <v/>
       </c>
     </row>
-    <row r="769" spans="1:19" ht="12.75">
+    <row r="769" spans="1:19" ht="13.2">
       <c r="A769" s="9"/>
       <c r="B769" s="10"/>
       <c r="C769" s="11"/>
@@ -39577,7 +39634,7 @@
         <v/>
       </c>
     </row>
-    <row r="770" spans="1:19" ht="12.75">
+    <row r="770" spans="1:19" ht="13.2">
       <c r="A770" s="9"/>
       <c r="B770" s="10"/>
       <c r="C770" s="11"/>
@@ -39628,7 +39685,7 @@
         <v/>
       </c>
     </row>
-    <row r="771" spans="1:19" ht="12.75">
+    <row r="771" spans="1:19" ht="13.2">
       <c r="A771" s="9"/>
       <c r="B771" s="10"/>
       <c r="C771" s="11"/>
@@ -39679,7 +39736,7 @@
         <v/>
       </c>
     </row>
-    <row r="772" spans="1:19" ht="12.75">
+    <row r="772" spans="1:19" ht="13.2">
       <c r="A772" s="9"/>
       <c r="B772" s="10"/>
       <c r="C772" s="11"/>
@@ -39730,7 +39787,7 @@
         <v/>
       </c>
     </row>
-    <row r="773" spans="1:19" ht="12.75">
+    <row r="773" spans="1:19" ht="13.2">
       <c r="A773" s="9"/>
       <c r="B773" s="10"/>
       <c r="C773" s="11"/>
@@ -39781,7 +39838,7 @@
         <v/>
       </c>
     </row>
-    <row r="774" spans="1:19" ht="12.75">
+    <row r="774" spans="1:19" ht="13.2">
       <c r="A774" s="9"/>
       <c r="B774" s="10"/>
       <c r="C774" s="11"/>
@@ -39832,7 +39889,7 @@
         <v/>
       </c>
     </row>
-    <row r="775" spans="1:19" ht="12.75">
+    <row r="775" spans="1:19" ht="13.2">
       <c r="A775" s="9"/>
       <c r="B775" s="10"/>
       <c r="C775" s="11"/>
@@ -39883,7 +39940,7 @@
         <v/>
       </c>
     </row>
-    <row r="776" spans="1:19" ht="12.75">
+    <row r="776" spans="1:19" ht="13.2">
       <c r="A776" s="9"/>
       <c r="B776" s="10"/>
       <c r="C776" s="11"/>
@@ -39934,7 +39991,7 @@
         <v/>
       </c>
     </row>
-    <row r="777" spans="1:19" ht="12.75">
+    <row r="777" spans="1:19" ht="13.2">
       <c r="A777" s="9"/>
       <c r="B777" s="10"/>
       <c r="C777" s="11"/>
@@ -39985,7 +40042,7 @@
         <v/>
       </c>
     </row>
-    <row r="778" spans="1:19" ht="12.75">
+    <row r="778" spans="1:19" ht="13.2">
       <c r="A778" s="9"/>
       <c r="B778" s="10"/>
       <c r="C778" s="11"/>
@@ -40036,7 +40093,7 @@
         <v/>
       </c>
     </row>
-    <row r="779" spans="1:19" ht="12.75">
+    <row r="779" spans="1:19" ht="13.2">
       <c r="A779" s="9"/>
       <c r="B779" s="10"/>
       <c r="C779" s="11"/>
@@ -40087,7 +40144,7 @@
         <v/>
       </c>
     </row>
-    <row r="780" spans="1:19" ht="12.75">
+    <row r="780" spans="1:19" ht="13.2">
       <c r="A780" s="9"/>
       <c r="B780" s="10"/>
       <c r="C780" s="11"/>
@@ -40138,7 +40195,7 @@
         <v/>
       </c>
     </row>
-    <row r="781" spans="1:19" ht="12.75">
+    <row r="781" spans="1:19" ht="13.2">
       <c r="A781" s="9"/>
       <c r="B781" s="10"/>
       <c r="C781" s="11"/>
@@ -40189,7 +40246,7 @@
         <v/>
       </c>
     </row>
-    <row r="782" spans="1:19" ht="12.75">
+    <row r="782" spans="1:19" ht="13.2">
       <c r="A782" s="9"/>
       <c r="B782" s="10"/>
       <c r="C782" s="11"/>
@@ -40240,7 +40297,7 @@
         <v/>
       </c>
     </row>
-    <row r="783" spans="1:19" ht="12.75">
+    <row r="783" spans="1:19" ht="13.2">
       <c r="A783" s="9"/>
       <c r="B783" s="10"/>
       <c r="C783" s="11"/>
@@ -40291,7 +40348,7 @@
         <v/>
       </c>
     </row>
-    <row r="784" spans="1:19" ht="12.75">
+    <row r="784" spans="1:19" ht="13.2">
       <c r="A784" s="9"/>
       <c r="B784" s="10"/>
       <c r="C784" s="11"/>
@@ -40342,7 +40399,7 @@
         <v/>
       </c>
     </row>
-    <row r="785" spans="1:19" ht="12.75">
+    <row r="785" spans="1:19" ht="13.2">
       <c r="A785" s="9"/>
       <c r="B785" s="10"/>
       <c r="C785" s="11"/>
@@ -40393,7 +40450,7 @@
         <v/>
       </c>
     </row>
-    <row r="786" spans="1:19" ht="12.75">
+    <row r="786" spans="1:19" ht="13.2">
       <c r="A786" s="9"/>
       <c r="B786" s="10"/>
       <c r="C786" s="11"/>
@@ -40444,7 +40501,7 @@
         <v/>
       </c>
     </row>
-    <row r="787" spans="1:19" ht="12.75">
+    <row r="787" spans="1:19" ht="13.2">
       <c r="A787" s="9"/>
       <c r="B787" s="10"/>
       <c r="C787" s="11"/>
@@ -40495,7 +40552,7 @@
         <v/>
       </c>
     </row>
-    <row r="788" spans="1:19" ht="12.75">
+    <row r="788" spans="1:19" ht="13.2">
       <c r="A788" s="9"/>
       <c r="B788" s="10"/>
       <c r="C788" s="11"/>
@@ -40546,7 +40603,7 @@
         <v/>
       </c>
     </row>
-    <row r="789" spans="1:19" ht="12.75">
+    <row r="789" spans="1:19" ht="13.2">
       <c r="A789" s="9"/>
       <c r="B789" s="10"/>
       <c r="C789" s="11"/>
@@ -40597,7 +40654,7 @@
         <v/>
       </c>
     </row>
-    <row r="790" spans="1:19" ht="12.75">
+    <row r="790" spans="1:19" ht="13.2">
       <c r="A790" s="9"/>
       <c r="B790" s="10"/>
       <c r="C790" s="11"/>
@@ -40648,7 +40705,7 @@
         <v/>
       </c>
     </row>
-    <row r="791" spans="1:19" ht="12.75">
+    <row r="791" spans="1:19" ht="13.2">
       <c r="A791" s="9"/>
       <c r="B791" s="10"/>
       <c r="C791" s="11"/>
@@ -40699,7 +40756,7 @@
         <v/>
       </c>
     </row>
-    <row r="792" spans="1:19" ht="12.75">
+    <row r="792" spans="1:19" ht="13.2">
       <c r="A792" s="9"/>
       <c r="B792" s="10"/>
       <c r="C792" s="11"/>
@@ -40750,7 +40807,7 @@
         <v/>
       </c>
     </row>
-    <row r="793" spans="1:19" ht="12.75">
+    <row r="793" spans="1:19" ht="13.2">
       <c r="A793" s="9"/>
       <c r="B793" s="10"/>
       <c r="C793" s="11"/>
@@ -40801,7 +40858,7 @@
         <v/>
       </c>
     </row>
-    <row r="794" spans="1:19" ht="12.75">
+    <row r="794" spans="1:19" ht="13.2">
       <c r="A794" s="9"/>
       <c r="B794" s="10"/>
       <c r="C794" s="11"/>
@@ -40852,7 +40909,7 @@
         <v/>
       </c>
     </row>
-    <row r="795" spans="1:19" ht="12.75">
+    <row r="795" spans="1:19" ht="13.2">
       <c r="A795" s="9"/>
       <c r="B795" s="10"/>
       <c r="C795" s="11"/>
@@ -40903,7 +40960,7 @@
         <v/>
       </c>
     </row>
-    <row r="796" spans="1:19" ht="12.75">
+    <row r="796" spans="1:19" ht="13.2">
       <c r="A796" s="9"/>
       <c r="B796" s="10"/>
       <c r="C796" s="11"/>
@@ -40954,7 +41011,7 @@
         <v/>
       </c>
     </row>
-    <row r="797" spans="1:19" ht="12.75">
+    <row r="797" spans="1:19" ht="13.2">
       <c r="A797" s="9"/>
       <c r="B797" s="10"/>
       <c r="C797" s="11"/>
@@ -41005,7 +41062,7 @@
         <v/>
       </c>
     </row>
-    <row r="798" spans="1:19" ht="12.75">
+    <row r="798" spans="1:19" ht="13.2">
       <c r="A798" s="9"/>
       <c r="B798" s="10"/>
       <c r="C798" s="11"/>
@@ -41056,7 +41113,7 @@
         <v/>
       </c>
     </row>
-    <row r="799" spans="1:19" ht="12.75">
+    <row r="799" spans="1:19" ht="13.2">
       <c r="A799" s="9"/>
       <c r="B799" s="10"/>
       <c r="C799" s="11"/>
@@ -41107,7 +41164,7 @@
         <v/>
       </c>
     </row>
-    <row r="800" spans="1:19" ht="12.75">
+    <row r="800" spans="1:19" ht="13.2">
       <c r="A800" s="9"/>
       <c r="B800" s="10"/>
       <c r="C800" s="11"/>
@@ -41158,7 +41215,7 @@
         <v/>
       </c>
     </row>
-    <row r="801" spans="1:19" ht="12.75">
+    <row r="801" spans="1:19" ht="13.2">
       <c r="A801" s="9"/>
       <c r="B801" s="10"/>
       <c r="C801" s="11"/>
@@ -41209,7 +41266,7 @@
         <v/>
       </c>
     </row>
-    <row r="802" spans="1:19" ht="12.75">
+    <row r="802" spans="1:19" ht="13.2">
       <c r="A802" s="9"/>
       <c r="B802" s="10"/>
       <c r="C802" s="11"/>
@@ -41260,7 +41317,7 @@
         <v/>
       </c>
     </row>
-    <row r="803" spans="1:19" ht="12.75">
+    <row r="803" spans="1:19" ht="13.2">
       <c r="A803" s="9"/>
       <c r="B803" s="10"/>
       <c r="C803" s="11"/>
@@ -41311,7 +41368,7 @@
         <v/>
       </c>
     </row>
-    <row r="804" spans="1:19" ht="12.75">
+    <row r="804" spans="1:19" ht="13.2">
       <c r="A804" s="9"/>
       <c r="B804" s="10"/>
       <c r="C804" s="11"/>
@@ -41362,7 +41419,7 @@
         <v/>
       </c>
     </row>
-    <row r="805" spans="1:19" ht="12.75">
+    <row r="805" spans="1:19" ht="13.2">
       <c r="A805" s="9"/>
       <c r="B805" s="10"/>
       <c r="C805" s="11"/>
@@ -41413,7 +41470,7 @@
         <v/>
       </c>
     </row>
-    <row r="806" spans="1:19" ht="12.75">
+    <row r="806" spans="1:19" ht="13.2">
       <c r="A806" s="9"/>
       <c r="B806" s="10"/>
       <c r="C806" s="11"/>
@@ -41464,7 +41521,7 @@
         <v/>
       </c>
     </row>
-    <row r="807" spans="1:19" ht="12.75">
+    <row r="807" spans="1:19" ht="13.2">
       <c r="A807" s="9"/>
       <c r="B807" s="10"/>
       <c r="C807" s="11"/>
@@ -41515,7 +41572,7 @@
         <v/>
       </c>
     </row>
-    <row r="808" spans="1:19" ht="12.75">
+    <row r="808" spans="1:19" ht="13.2">
       <c r="A808" s="9"/>
       <c r="B808" s="10"/>
       <c r="C808" s="11"/>
@@ -41566,7 +41623,7 @@
         <v/>
       </c>
     </row>
-    <row r="809" spans="1:19" ht="12.75">
+    <row r="809" spans="1:19" ht="13.2">
       <c r="A809" s="9"/>
       <c r="B809" s="10"/>
       <c r="C809" s="11"/>
@@ -41617,7 +41674,7 @@
         <v/>
       </c>
     </row>
-    <row r="810" spans="1:19" ht="12.75">
+    <row r="810" spans="1:19" ht="13.2">
       <c r="A810" s="9"/>
       <c r="B810" s="10"/>
       <c r="C810" s="11"/>
@@ -41668,7 +41725,7 @@
         <v/>
       </c>
     </row>
-    <row r="811" spans="1:19" ht="12.75">
+    <row r="811" spans="1:19" ht="13.2">
       <c r="A811" s="9"/>
       <c r="B811" s="10"/>
       <c r="C811" s="11"/>
@@ -41719,7 +41776,7 @@
         <v/>
       </c>
     </row>
-    <row r="812" spans="1:19" ht="12.75">
+    <row r="812" spans="1:19" ht="13.2">
       <c r="A812" s="9"/>
       <c r="B812" s="10"/>
       <c r="C812" s="11"/>
@@ -41770,7 +41827,7 @@
         <v/>
       </c>
     </row>
-    <row r="813" spans="1:19" ht="12.75">
+    <row r="813" spans="1:19" ht="13.2">
       <c r="A813" s="9"/>
       <c r="B813" s="10"/>
       <c r="C813" s="11"/>
@@ -41821,7 +41878,7 @@
         <v/>
       </c>
     </row>
-    <row r="814" spans="1:19" ht="12.75">
+    <row r="814" spans="1:19" ht="13.2">
       <c r="A814" s="9"/>
       <c r="B814" s="10"/>
       <c r="C814" s="11"/>
@@ -41872,7 +41929,7 @@
         <v/>
       </c>
     </row>
-    <row r="815" spans="1:19" ht="12.75">
+    <row r="815" spans="1:19" ht="13.2">
       <c r="A815" s="9"/>
       <c r="B815" s="10"/>
       <c r="C815" s="11"/>
@@ -41923,7 +41980,7 @@
         <v/>
       </c>
     </row>
-    <row r="816" spans="1:19" ht="12.75">
+    <row r="816" spans="1:19" ht="13.2">
       <c r="A816" s="9"/>
       <c r="B816" s="10"/>
       <c r="C816" s="11"/>
@@ -41974,7 +42031,7 @@
         <v/>
       </c>
     </row>
-    <row r="817" spans="1:19" ht="12.75">
+    <row r="817" spans="1:19" ht="13.2">
       <c r="A817" s="9"/>
       <c r="B817" s="10"/>
       <c r="C817" s="11"/>
@@ -42025,7 +42082,7 @@
         <v/>
       </c>
     </row>
-    <row r="818" spans="1:19" ht="12.75">
+    <row r="818" spans="1:19" ht="13.2">
       <c r="A818" s="9"/>
       <c r="B818" s="10"/>
       <c r="C818" s="11"/>
@@ -42076,7 +42133,7 @@
         <v/>
       </c>
     </row>
-    <row r="819" spans="1:19" ht="12.75">
+    <row r="819" spans="1:19" ht="13.2">
       <c r="A819" s="9"/>
       <c r="B819" s="10"/>
       <c r="C819" s="11"/>
@@ -42127,7 +42184,7 @@
         <v/>
       </c>
     </row>
-    <row r="820" spans="1:19" ht="12.75">
+    <row r="820" spans="1:19" ht="13.2">
       <c r="A820" s="9"/>
       <c r="B820" s="10"/>
       <c r="C820" s="11"/>
@@ -42178,7 +42235,7 @@
         <v/>
       </c>
     </row>
-    <row r="821" spans="1:19" ht="12.75">
+    <row r="821" spans="1:19" ht="13.2">
       <c r="A821" s="9"/>
       <c r="B821" s="10"/>
       <c r="C821" s="11"/>
@@ -42229,7 +42286,7 @@
         <v/>
       </c>
     </row>
-    <row r="822" spans="1:19" ht="12.75">
+    <row r="822" spans="1:19" ht="13.2">
       <c r="A822" s="9"/>
       <c r="B822" s="10"/>
       <c r="C822" s="11"/>
@@ -42280,7 +42337,7 @@
         <v/>
       </c>
     </row>
-    <row r="823" spans="1:19" ht="12.75">
+    <row r="823" spans="1:19" ht="13.2">
       <c r="A823" s="9"/>
       <c r="B823" s="10"/>
       <c r="C823" s="11"/>
@@ -42331,7 +42388,7 @@
         <v/>
       </c>
     </row>
-    <row r="824" spans="1:19" ht="12.75">
+    <row r="824" spans="1:19" ht="13.2">
       <c r="A824" s="9"/>
       <c r="B824" s="10"/>
       <c r="C824" s="11"/>
@@ -42382,7 +42439,7 @@
         <v/>
       </c>
     </row>
-    <row r="825" spans="1:19" ht="12.75">
+    <row r="825" spans="1:19" ht="13.2">
       <c r="A825" s="9"/>
       <c r="B825" s="10"/>
       <c r="C825" s="11"/>
@@ -42433,7 +42490,7 @@
         <v/>
       </c>
     </row>
-    <row r="826" spans="1:19" ht="12.75">
+    <row r="826" spans="1:19" ht="13.2">
       <c r="A826" s="9"/>
       <c r="B826" s="10"/>
       <c r="C826" s="11"/>
@@ -42484,7 +42541,7 @@
         <v/>
       </c>
     </row>
-    <row r="827" spans="1:19" ht="12.75">
+    <row r="827" spans="1:19" ht="13.2">
       <c r="A827" s="9"/>
       <c r="B827" s="10"/>
       <c r="C827" s="11"/>
@@ -42535,7 +42592,7 @@
         <v/>
       </c>
     </row>
-    <row r="828" spans="1:19" ht="12.75">
+    <row r="828" spans="1:19" ht="13.2">
       <c r="A828" s="9"/>
       <c r="B828" s="10"/>
       <c r="C828" s="11"/>
@@ -42586,7 +42643,7 @@
         <v/>
       </c>
     </row>
-    <row r="829" spans="1:19" ht="12.75">
+    <row r="829" spans="1:19" ht="13.2">
       <c r="A829" s="9"/>
       <c r="B829" s="10"/>
       <c r="C829" s="11"/>
@@ -42637,7 +42694,7 @@
         <v/>
       </c>
     </row>
-    <row r="830" spans="1:19" ht="12.75">
+    <row r="830" spans="1:19" ht="13.2">
       <c r="A830" s="9"/>
       <c r="B830" s="10"/>
       <c r="C830" s="11"/>
@@ -42688,7 +42745,7 @@
         <v/>
       </c>
     </row>
-    <row r="831" spans="1:19" ht="12.75">
+    <row r="831" spans="1:19" ht="13.2">
       <c r="A831" s="9"/>
       <c r="B831" s="10"/>
       <c r="C831" s="11"/>
@@ -42739,7 +42796,7 @@
         <v/>
       </c>
     </row>
-    <row r="832" spans="1:19" ht="12.75">
+    <row r="832" spans="1:19" ht="13.2">
       <c r="A832" s="9"/>
       <c r="B832" s="10"/>
       <c r="C832" s="11"/>
@@ -42790,7 +42847,7 @@
         <v/>
       </c>
     </row>
-    <row r="833" spans="1:19" ht="12.75">
+    <row r="833" spans="1:19" ht="13.2">
       <c r="A833" s="9"/>
       <c r="B833" s="10"/>
       <c r="C833" s="11"/>
@@ -42841,7 +42898,7 @@
         <v/>
       </c>
     </row>
-    <row r="834" spans="1:19" ht="12.75">
+    <row r="834" spans="1:19" ht="13.2">
       <c r="A834" s="9"/>
       <c r="B834" s="10"/>
       <c r="C834" s="11"/>
@@ -42892,7 +42949,7 @@
         <v/>
       </c>
     </row>
-    <row r="835" spans="1:19" ht="12.75">
+    <row r="835" spans="1:19" ht="13.2">
       <c r="A835" s="9"/>
       <c r="B835" s="10"/>
       <c r="C835" s="11"/>
@@ -42943,7 +43000,7 @@
         <v/>
       </c>
     </row>
-    <row r="836" spans="1:19" ht="12.75">
+    <row r="836" spans="1:19" ht="13.2">
       <c r="A836" s="9"/>
       <c r="B836" s="10"/>
       <c r="C836" s="11"/>
@@ -42994,7 +43051,7 @@
         <v/>
       </c>
     </row>
-    <row r="837" spans="1:19" ht="12.75">
+    <row r="837" spans="1:19" ht="13.2">
       <c r="A837" s="9"/>
       <c r="B837" s="10"/>
       <c r="C837" s="11"/>
@@ -43045,7 +43102,7 @@
         <v/>
       </c>
     </row>
-    <row r="838" spans="1:19" ht="12.75">
+    <row r="838" spans="1:19" ht="13.2">
       <c r="A838" s="9"/>
       <c r="B838" s="10"/>
       <c r="C838" s="11"/>
@@ -43096,7 +43153,7 @@
         <v/>
       </c>
     </row>
-    <row r="839" spans="1:19" ht="12.75">
+    <row r="839" spans="1:19" ht="13.2">
       <c r="A839" s="9"/>
       <c r="B839" s="10"/>
       <c r="C839" s="11"/>
@@ -43147,7 +43204,7 @@
         <v/>
       </c>
     </row>
-    <row r="840" spans="1:19" ht="12.75">
+    <row r="840" spans="1:19" ht="13.2">
       <c r="A840" s="9"/>
       <c r="B840" s="10"/>
       <c r="C840" s="11"/>
@@ -43198,7 +43255,7 @@
         <v/>
       </c>
     </row>
-    <row r="841" spans="1:19" ht="12.75">
+    <row r="841" spans="1:19" ht="13.2">
       <c r="A841" s="9"/>
       <c r="B841" s="10"/>
       <c r="C841" s="11"/>
@@ -43249,7 +43306,7 @@
         <v/>
       </c>
     </row>
-    <row r="842" spans="1:19" ht="12.75">
+    <row r="842" spans="1:19" ht="13.2">
       <c r="A842" s="9"/>
       <c r="B842" s="10"/>
       <c r="C842" s="11"/>
@@ -43300,7 +43357,7 @@
         <v/>
       </c>
     </row>
-    <row r="843" spans="1:19" ht="12.75">
+    <row r="843" spans="1:19" ht="13.2">
       <c r="A843" s="9"/>
       <c r="B843" s="10"/>
       <c r="C843" s="11"/>
@@ -43351,7 +43408,7 @@
         <v/>
       </c>
     </row>
-    <row r="844" spans="1:19" ht="12.75">
+    <row r="844" spans="1:19" ht="13.2">
       <c r="A844" s="9"/>
       <c r="B844" s="10"/>
       <c r="C844" s="11"/>
@@ -43402,7 +43459,7 @@
         <v/>
       </c>
     </row>
-    <row r="845" spans="1:19" ht="12.75">
+    <row r="845" spans="1:19" ht="13.2">
       <c r="A845" s="9"/>
       <c r="B845" s="10"/>
       <c r="C845" s="11"/>
@@ -43453,7 +43510,7 @@
         <v/>
       </c>
     </row>
-    <row r="846" spans="1:19" ht="12.75">
+    <row r="846" spans="1:19" ht="13.2">
       <c r="A846" s="9"/>
       <c r="B846" s="10"/>
       <c r="C846" s="11"/>
@@ -43504,7 +43561,7 @@
         <v/>
       </c>
     </row>
-    <row r="847" spans="1:19" ht="12.75">
+    <row r="847" spans="1:19" ht="13.2">
       <c r="A847" s="9"/>
       <c r="B847" s="10"/>
       <c r="C847" s="11"/>
@@ -43555,7 +43612,7 @@
         <v/>
       </c>
     </row>
-    <row r="848" spans="1:19" ht="12.75">
+    <row r="848" spans="1:19" ht="13.2">
       <c r="A848" s="9"/>
       <c r="B848" s="10"/>
       <c r="C848" s="11"/>
@@ -43606,7 +43663,7 @@
         <v/>
       </c>
     </row>
-    <row r="849" spans="1:19" ht="12.75">
+    <row r="849" spans="1:19" ht="13.2">
       <c r="A849" s="9"/>
       <c r="B849" s="10"/>
       <c r="C849" s="11"/>
@@ -43657,7 +43714,7 @@
         <v/>
       </c>
     </row>
-    <row r="850" spans="1:19" ht="12.75">
+    <row r="850" spans="1:19" ht="13.2">
       <c r="A850" s="9"/>
       <c r="B850" s="10"/>
       <c r="C850" s="11"/>
@@ -43708,7 +43765,7 @@
         <v/>
       </c>
     </row>
-    <row r="851" spans="1:19" ht="12.75">
+    <row r="851" spans="1:19" ht="13.2">
       <c r="A851" s="9"/>
       <c r="B851" s="10"/>
       <c r="C851" s="11"/>
@@ -43759,7 +43816,7 @@
         <v/>
       </c>
     </row>
-    <row r="852" spans="1:19" ht="12.75">
+    <row r="852" spans="1:19" ht="13.2">
       <c r="A852" s="9"/>
       <c r="B852" s="10"/>
       <c r="C852" s="11"/>
@@ -43810,7 +43867,7 @@
         <v/>
       </c>
     </row>
-    <row r="853" spans="1:19" ht="12.75">
+    <row r="853" spans="1:19" ht="13.2">
       <c r="A853" s="9"/>
       <c r="B853" s="10"/>
       <c r="C853" s="11"/>
@@ -43861,7 +43918,7 @@
         <v/>
       </c>
     </row>
-    <row r="854" spans="1:19" ht="12.75">
+    <row r="854" spans="1:19" ht="13.2">
       <c r="A854" s="9"/>
       <c r="B854" s="10"/>
       <c r="C854" s="11"/>
@@ -43912,7 +43969,7 @@
         <v/>
       </c>
     </row>
-    <row r="855" spans="1:19" ht="12.75">
+    <row r="855" spans="1:19" ht="13.2">
       <c r="A855" s="9"/>
       <c r="B855" s="10"/>
       <c r="C855" s="11"/>
@@ -43963,7 +44020,7 @@
         <v/>
       </c>
     </row>
-    <row r="856" spans="1:19" ht="12.75">
+    <row r="856" spans="1:19" ht="13.2">
       <c r="A856" s="9"/>
       <c r="B856" s="10"/>
       <c r="C856" s="11"/>
@@ -44014,7 +44071,7 @@
         <v/>
       </c>
     </row>
-    <row r="857" spans="1:19" ht="12.75">
+    <row r="857" spans="1:19" ht="13.2">
       <c r="A857" s="9"/>
       <c r="B857" s="10"/>
       <c r="C857" s="11"/>
@@ -44065,7 +44122,7 @@
         <v/>
       </c>
     </row>
-    <row r="858" spans="1:19" ht="12.75">
+    <row r="858" spans="1:19" ht="13.2">
       <c r="A858" s="9"/>
       <c r="B858" s="10"/>
       <c r="C858" s="11"/>
@@ -44116,7 +44173,7 @@
         <v/>
       </c>
     </row>
-    <row r="859" spans="1:19" ht="12.75">
+    <row r="859" spans="1:19" ht="13.2">
       <c r="A859" s="9"/>
       <c r="B859" s="10"/>
       <c r="C859" s="11"/>
@@ -44167,7 +44224,7 @@
         <v/>
       </c>
     </row>
-    <row r="860" spans="1:19" ht="12.75">
+    <row r="860" spans="1:19" ht="13.2">
       <c r="A860" s="9"/>
       <c r="B860" s="10"/>
       <c r="C860" s="11"/>
@@ -44218,7 +44275,7 @@
         <v/>
       </c>
     </row>
-    <row r="861" spans="1:19" ht="12.75">
+    <row r="861" spans="1:19" ht="13.2">
       <c r="A861" s="9"/>
       <c r="B861" s="10"/>
       <c r="C861" s="11"/>
@@ -44269,7 +44326,7 @@
         <v/>
       </c>
     </row>
-    <row r="862" spans="1:19" ht="12.75">
+    <row r="862" spans="1:19" ht="13.2">
       <c r="A862" s="9"/>
       <c r="B862" s="10"/>
       <c r="C862" s="11"/>
@@ -44320,7 +44377,7 @@
         <v/>
       </c>
     </row>
-    <row r="863" spans="1:19" ht="12.75">
+    <row r="863" spans="1:19" ht="13.2">
       <c r="A863" s="9"/>
       <c r="B863" s="10"/>
       <c r="C863" s="11"/>
@@ -44371,7 +44428,7 @@
         <v/>
       </c>
     </row>
-    <row r="864" spans="1:19" ht="12.75">
+    <row r="864" spans="1:19" ht="13.2">
       <c r="A864" s="9"/>
       <c r="B864" s="10"/>
       <c r="C864" s="11"/>
@@ -44422,7 +44479,7 @@
         <v/>
       </c>
     </row>
-    <row r="865" spans="1:19" ht="12.75">
+    <row r="865" spans="1:19" ht="13.2">
       <c r="A865" s="9"/>
       <c r="B865" s="10"/>
       <c r="C865" s="11"/>
@@ -44473,7 +44530,7 @@
         <v/>
       </c>
     </row>
-    <row r="866" spans="1:19" ht="12.75">
+    <row r="866" spans="1:19" ht="13.2">
       <c r="A866" s="9"/>
       <c r="B866" s="10"/>
       <c r="C866" s="11"/>
@@ -44524,7 +44581,7 @@
         <v/>
       </c>
     </row>
-    <row r="867" spans="1:19" ht="12.75">
+    <row r="867" spans="1:19" ht="13.2">
       <c r="A867" s="9"/>
       <c r="B867" s="10"/>
       <c r="C867" s="11"/>
@@ -44575,7 +44632,7 @@
         <v/>
       </c>
     </row>
-    <row r="868" spans="1:19" ht="12.75">
+    <row r="868" spans="1:19" ht="13.2">
       <c r="A868" s="9"/>
       <c r="B868" s="10"/>
       <c r="C868" s="11"/>
@@ -44626,7 +44683,7 @@
         <v/>
       </c>
     </row>
-    <row r="869" spans="1:19" ht="12.75">
+    <row r="869" spans="1:19" ht="13.2">
       <c r="A869" s="9"/>
       <c r="B869" s="10"/>
       <c r="C869" s="11"/>
@@ -44677,7 +44734,7 @@
         <v/>
       </c>
     </row>
-    <row r="870" spans="1:19" ht="12.75">
+    <row r="870" spans="1:19" ht="13.2">
       <c r="A870" s="9"/>
       <c r="B870" s="10"/>
       <c r="C870" s="11"/>
@@ -44728,7 +44785,7 @@
         <v/>
       </c>
     </row>
-    <row r="871" spans="1:19" ht="12.75">
+    <row r="871" spans="1:19" ht="13.2">
       <c r="A871" s="9"/>
       <c r="B871" s="10"/>
       <c r="C871" s="11"/>
@@ -44779,7 +44836,7 @@
         <v/>
       </c>
     </row>
-    <row r="872" spans="1:19" ht="12.75">
+    <row r="872" spans="1:19" ht="13.2">
       <c r="A872" s="9"/>
       <c r="B872" s="10"/>
       <c r="C872" s="11"/>
@@ -44830,7 +44887,7 @@
         <v/>
       </c>
     </row>
-    <row r="873" spans="1:19" ht="12.75">
+    <row r="873" spans="1:19" ht="13.2">
       <c r="A873" s="9"/>
       <c r="B873" s="10"/>
       <c r="C873" s="11"/>
@@ -44881,7 +44938,7 @@
         <v/>
       </c>
     </row>
-    <row r="874" spans="1:19" ht="12.75">
+    <row r="874" spans="1:19" ht="13.2">
       <c r="A874" s="9"/>
       <c r="B874" s="10"/>
       <c r="C874" s="11"/>
@@ -44932,7 +44989,7 @@
         <v/>
       </c>
     </row>
-    <row r="875" spans="1:19" ht="12.75">
+    <row r="875" spans="1:19" ht="13.2">
       <c r="A875" s="9"/>
       <c r="B875" s="10"/>
       <c r="C875" s="11"/>
@@ -44983,7 +45040,7 @@
         <v/>
       </c>
     </row>
-    <row r="876" spans="1:19" ht="12.75">
+    <row r="876" spans="1:19" ht="13.2">
       <c r="A876" s="9"/>
       <c r="B876" s="10"/>
       <c r="C876" s="11"/>
@@ -45034,7 +45091,7 @@
         <v/>
       </c>
     </row>
-    <row r="877" spans="1:19" ht="12.75">
+    <row r="877" spans="1:19" ht="13.2">
       <c r="A877" s="9"/>
       <c r="B877" s="10"/>
       <c r="C877" s="11"/>
@@ -45085,7 +45142,7 @@
         <v/>
       </c>
     </row>
-    <row r="878" spans="1:19" ht="12.75">
+    <row r="878" spans="1:19" ht="13.2">
       <c r="A878" s="9"/>
       <c r="B878" s="10"/>
       <c r="C878" s="11"/>
@@ -45136,7 +45193,7 @@
         <v/>
       </c>
     </row>
-    <row r="879" spans="1:19" ht="12.75">
+    <row r="879" spans="1:19" ht="13.2">
       <c r="A879" s="9"/>
       <c r="B879" s="10"/>
       <c r="C879" s="11"/>
@@ -45187,7 +45244,7 @@
         <v/>
       </c>
     </row>
-    <row r="880" spans="1:19" ht="12.75">
+    <row r="880" spans="1:19" ht="13.2">
       <c r="A880" s="9"/>
       <c r="B880" s="10"/>
       <c r="C880" s="11"/>
@@ -45238,7 +45295,7 @@
         <v/>
       </c>
     </row>
-    <row r="881" spans="1:19" ht="12.75">
+    <row r="881" spans="1:19" ht="13.2">
       <c r="A881" s="9"/>
       <c r="B881" s="10"/>
       <c r="C881" s="11"/>
@@ -45289,7 +45346,7 @@
         <v/>
       </c>
     </row>
-    <row r="882" spans="1:19" ht="12.75">
+    <row r="882" spans="1:19" ht="13.2">
       <c r="A882" s="9"/>
       <c r="B882" s="10"/>
       <c r="C882" s="11"/>
@@ -45340,7 +45397,7 @@
         <v/>
       </c>
     </row>
-    <row r="883" spans="1:19" ht="12.75">
+    <row r="883" spans="1:19" ht="13.2">
       <c r="A883" s="9"/>
       <c r="B883" s="10"/>
       <c r="C883" s="11"/>
@@ -45391,7 +45448,7 @@
         <v/>
       </c>
     </row>
-    <row r="884" spans="1:19" ht="12.75">
+    <row r="884" spans="1:19" ht="13.2">
       <c r="A884" s="9"/>
       <c r="B884" s="10"/>
       <c r="C884" s="11"/>
@@ -45442,7 +45499,7 @@
         <v/>
       </c>
     </row>
-    <row r="885" spans="1:19" ht="12.75">
+    <row r="885" spans="1:19" ht="13.2">
       <c r="A885" s="9"/>
       <c r="B885" s="10"/>
       <c r="C885" s="11"/>
@@ -45493,7 +45550,7 @@
         <v/>
       </c>
     </row>
-    <row r="886" spans="1:19" ht="12.75">
+    <row r="886" spans="1:19" ht="13.2">
       <c r="A886" s="9"/>
       <c r="B886" s="10"/>
       <c r="C886" s="11"/>
@@ -45544,7 +45601,7 @@
         <v/>
       </c>
     </row>
-    <row r="887" spans="1:19" ht="12.75">
+    <row r="887" spans="1:19" ht="13.2">
       <c r="A887" s="9"/>
       <c r="B887" s="10"/>
       <c r="C887" s="11"/>
@@ -45595,7 +45652,7 @@
         <v/>
       </c>
     </row>
-    <row r="888" spans="1:19" ht="12.75">
+    <row r="888" spans="1:19" ht="13.2">
       <c r="A888" s="9"/>
       <c r="B888" s="10"/>
       <c r="C888" s="11"/>
@@ -45646,7 +45703,7 @@
         <v/>
       </c>
     </row>
-    <row r="889" spans="1:19" ht="12.75">
+    <row r="889" spans="1:19" ht="13.2">
       <c r="A889" s="9"/>
       <c r="B889" s="10"/>
       <c r="C889" s="11"/>
@@ -45697,7 +45754,7 @@
         <v/>
       </c>
     </row>
-    <row r="890" spans="1:19" ht="12.75">
+    <row r="890" spans="1:19" ht="13.2">
       <c r="A890" s="9"/>
       <c r="B890" s="10"/>
       <c r="C890" s="11"/>
@@ -45748,7 +45805,7 @@
         <v/>
       </c>
     </row>
-    <row r="891" spans="1:19" ht="12.75">
+    <row r="891" spans="1:19" ht="13.2">
       <c r="A891" s="9"/>
       <c r="B891" s="10"/>
       <c r="C891" s="11"/>
@@ -45799,7 +45856,7 @@
         <v/>
       </c>
     </row>
-    <row r="892" spans="1:19" ht="12.75">
+    <row r="892" spans="1:19" ht="13.2">
       <c r="A892" s="9"/>
       <c r="B892" s="10"/>
       <c r="C892" s="11"/>
@@ -45850,7 +45907,7 @@
         <v/>
       </c>
     </row>
-    <row r="893" spans="1:19" ht="12.75">
+    <row r="893" spans="1:19" ht="13.2">
       <c r="A893" s="9"/>
       <c r="B893" s="10"/>
       <c r="C893" s="11"/>
@@ -45901,7 +45958,7 @@
         <v/>
       </c>
     </row>
-    <row r="894" spans="1:19" ht="12.75">
+    <row r="894" spans="1:19" ht="13.2">
       <c r="A894" s="9"/>
       <c r="B894" s="10"/>
       <c r="C894" s="11"/>
@@ -45952,7 +46009,7 @@
         <v/>
       </c>
     </row>
-    <row r="895" spans="1:19" ht="12.75">
+    <row r="895" spans="1:19" ht="13.2">
       <c r="A895" s="9"/>
       <c r="B895" s="10"/>
       <c r="C895" s="11"/>
@@ -46003,7 +46060,7 @@
         <v/>
       </c>
     </row>
-    <row r="896" spans="1:19" ht="12.75">
+    <row r="896" spans="1:19" ht="13.2">
       <c r="A896" s="9"/>
       <c r="B896" s="10"/>
       <c r="C896" s="11"/>
@@ -46054,7 +46111,7 @@
         <v/>
       </c>
     </row>
-    <row r="897" spans="1:19" ht="12.75">
+    <row r="897" spans="1:19" ht="13.2">
       <c r="A897" s="9"/>
       <c r="B897" s="10"/>
       <c r="C897" s="11"/>
@@ -46105,7 +46162,7 @@
         <v/>
       </c>
     </row>
-    <row r="898" spans="1:19" ht="12.75">
+    <row r="898" spans="1:19" ht="13.2">
       <c r="A898" s="9"/>
       <c r="B898" s="10"/>
       <c r="C898" s="11"/>
@@ -46156,7 +46213,7 @@
         <v/>
       </c>
     </row>
-    <row r="899" spans="1:19" ht="12.75">
+    <row r="899" spans="1:19" ht="13.2">
       <c r="A899" s="9"/>
       <c r="B899" s="10"/>
       <c r="C899" s="11"/>
@@ -46207,7 +46264,7 @@
         <v/>
       </c>
     </row>
-    <row r="900" spans="1:19" ht="12.75">
+    <row r="900" spans="1:19" ht="13.2">
       <c r="A900" s="9"/>
       <c r="B900" s="10"/>
       <c r="C900" s="11"/>
@@ -46258,7 +46315,7 @@
         <v/>
       </c>
     </row>
-    <row r="901" spans="1:19" ht="12.75">
+    <row r="901" spans="1:19" ht="13.2">
       <c r="A901" s="9"/>
       <c r="B901" s="10"/>
       <c r="C901" s="11"/>
@@ -46309,7 +46366,7 @@
         <v/>
       </c>
     </row>
-    <row r="902" spans="1:19" ht="12.75">
+    <row r="902" spans="1:19" ht="13.2">
       <c r="A902" s="9"/>
       <c r="B902" s="10"/>
       <c r="C902" s="11"/>
@@ -46360,7 +46417,7 @@
         <v/>
       </c>
     </row>
-    <row r="903" spans="1:19" ht="12.75">
+    <row r="903" spans="1:19" ht="13.2">
       <c r="A903" s="9"/>
       <c r="B903" s="10"/>
       <c r="C903" s="11"/>
@@ -46411,7 +46468,7 @@
         <v/>
       </c>
     </row>
-    <row r="904" spans="1:19" ht="12.75">
+    <row r="904" spans="1:19" ht="13.2">
       <c r="A904" s="9"/>
       <c r="B904" s="10"/>
       <c r="C904" s="11"/>
@@ -46462,7 +46519,7 @@
         <v/>
       </c>
     </row>
-    <row r="905" spans="1:19" ht="12.75">
+    <row r="905" spans="1:19" ht="13.2">
       <c r="A905" s="9"/>
       <c r="B905" s="10"/>
       <c r="C905" s="11"/>
@@ -46513,7 +46570,7 @@
         <v/>
       </c>
     </row>
-    <row r="906" spans="1:19" ht="12.75">
+    <row r="906" spans="1:19" ht="13.2">
       <c r="A906" s="9"/>
       <c r="B906" s="10"/>
       <c r="C906" s="11"/>
@@ -46564,7 +46621,7 @@
         <v/>
       </c>
     </row>
-    <row r="907" spans="1:19" ht="12.75">
+    <row r="907" spans="1:19" ht="13.2">
       <c r="A907" s="9"/>
       <c r="B907" s="10"/>
       <c r="C907" s="11"/>
@@ -46615,7 +46672,7 @@
         <v/>
       </c>
     </row>
-    <row r="908" spans="1:19" ht="12.75">
+    <row r="908" spans="1:19" ht="13.2">
       <c r="A908" s="9"/>
       <c r="B908" s="10"/>
       <c r="C908" s="11"/>
@@ -46666,7 +46723,7 @@
         <v/>
       </c>
     </row>
-    <row r="909" spans="1:19" ht="12.75">
+    <row r="909" spans="1:19" ht="13.2">
       <c r="A909" s="9"/>
       <c r="B909" s="10"/>
       <c r="C909" s="11"/>
@@ -46717,7 +46774,7 @@
         <v/>
       </c>
     </row>
-    <row r="910" spans="1:19" ht="12.75">
+    <row r="910" spans="1:19" ht="13.2">
       <c r="A910" s="9"/>
       <c r="B910" s="10"/>
       <c r="C910" s="11"/>
@@ -46768,7 +46825,7 @@
         <v/>
       </c>
     </row>
-    <row r="911" spans="1:19" ht="12.75">
+    <row r="911" spans="1:19" ht="13.2">
       <c r="A911" s="9"/>
       <c r="B911" s="10"/>
       <c r="C911" s="11"/>
@@ -46819,7 +46876,7 @@
         <v/>
       </c>
     </row>
-    <row r="912" spans="1:19" ht="12.75">
+    <row r="912" spans="1:19" ht="13.2">
       <c r="A912" s="9"/>
       <c r="B912" s="10"/>
       <c r="C912" s="11"/>
@@ -46870,7 +46927,7 @@
         <v/>
       </c>
     </row>
-    <row r="913" spans="1:19" ht="12.75">
+    <row r="913" spans="1:19" ht="13.2">
       <c r="A913" s="9"/>
       <c r="B913" s="10"/>
       <c r="C913" s="11"/>
@@ -46921,7 +46978,7 @@
         <v/>
       </c>
     </row>
-    <row r="914" spans="1:19" ht="12.75">
+    <row r="914" spans="1:19" ht="13.2">
       <c r="A914" s="9"/>
       <c r="B914" s="10"/>
       <c r="C914" s="11"/>
@@ -46972,7 +47029,7 @@
         <v/>
       </c>
     </row>
-    <row r="915" spans="1:19" ht="12.75">
+    <row r="915" spans="1:19" ht="13.2">
       <c r="A915" s="9"/>
       <c r="B915" s="10"/>
       <c r="C915" s="11"/>
@@ -47023,7 +47080,7 @@
         <v/>
       </c>
     </row>
-    <row r="916" spans="1:19" ht="12.75">
+    <row r="916" spans="1:19" ht="13.2">
       <c r="A916" s="9"/>
       <c r="B916" s="10"/>
       <c r="C916" s="11"/>
@@ -47074,7 +47131,7 @@
         <v/>
       </c>
     </row>
-    <row r="917" spans="1:19" ht="12.75">
+    <row r="917" spans="1:19" ht="13.2">
       <c r="A917" s="9"/>
       <c r="B917" s="10"/>
       <c r="C917" s="11"/>
@@ -47125,7 +47182,7 @@
         <v/>
       </c>
     </row>
-    <row r="918" spans="1:19" ht="12.75">
+    <row r="918" spans="1:19" ht="13.2">
       <c r="A918" s="9"/>
       <c r="B918" s="10"/>
       <c r="C918" s="11"/>
@@ -47176,7 +47233,7 @@
         <v/>
       </c>
     </row>
-    <row r="919" spans="1:19" ht="12.75">
+    <row r="919" spans="1:19" ht="13.2">
       <c r="A919" s="9"/>
       <c r="B919" s="10"/>
       <c r="C919" s="11"/>
@@ -47227,7 +47284,7 @@
         <v/>
       </c>
     </row>
-    <row r="920" spans="1:19" ht="12.75">
+    <row r="920" spans="1:19" ht="13.2">
       <c r="A920" s="9"/>
       <c r="B920" s="10"/>
       <c r="C920" s="11"/>
@@ -47278,7 +47335,7 @@
         <v/>
       </c>
     </row>
-    <row r="921" spans="1:19" ht="12.75">
+    <row r="921" spans="1:19" ht="13.2">
       <c r="A921" s="9"/>
       <c r="B921" s="10"/>
       <c r="C921" s="11"/>
@@ -47329,7 +47386,7 @@
         <v/>
       </c>
     </row>
-    <row r="922" spans="1:19" ht="12.75">
+    <row r="922" spans="1:19" ht="13.2">
       <c r="A922" s="9"/>
       <c r="B922" s="10"/>
       <c r="C922" s="11"/>
@@ -47380,7 +47437,7 @@
         <v/>
       </c>
     </row>
-    <row r="923" spans="1:19" ht="12.75">
+    <row r="923" spans="1:19" ht="13.2">
       <c r="A923" s="9"/>
       <c r="B923" s="10"/>
       <c r="C923" s="11"/>
@@ -47431,7 +47488,7 @@
         <v/>
       </c>
     </row>
-    <row r="924" spans="1:19" ht="12.75">
+    <row r="924" spans="1:19" ht="13.2">
       <c r="A924" s="9"/>
       <c r="B924" s="10"/>
       <c r="C924" s="11"/>
@@ -47482,7 +47539,7 @@
         <v/>
       </c>
     </row>
-    <row r="925" spans="1:19" ht="12.75">
+    <row r="925" spans="1:19" ht="13.2">
       <c r="A925" s="9"/>
       <c r="B925" s="10"/>
       <c r="C925" s="11"/>
@@ -47533,7 +47590,7 @@
         <v/>
       </c>
     </row>
-    <row r="926" spans="1:19" ht="12.75">
+    <row r="926" spans="1:19" ht="13.2">
       <c r="A926" s="9"/>
       <c r="B926" s="10"/>
       <c r="C926" s="11"/>
@@ -47584,7 +47641,7 @@
         <v/>
       </c>
     </row>
-    <row r="927" spans="1:19" ht="12.75">
+    <row r="927" spans="1:19" ht="13.2">
       <c r="A927" s="9"/>
       <c r="B927" s="10"/>
       <c r="C927" s="11"/>
@@ -47635,7 +47692,7 @@
         <v/>
       </c>
     </row>
-    <row r="928" spans="1:19" ht="12.75">
+    <row r="928" spans="1:19" ht="13.2">
       <c r="A928" s="9"/>
       <c r="B928" s="10"/>
       <c r="C928" s="11"/>
@@ -47686,7 +47743,7 @@
         <v/>
       </c>
     </row>
-    <row r="929" spans="1:19" ht="12.75">
+    <row r="929" spans="1:19" ht="13.2">
       <c r="A929" s="9"/>
       <c r="B929" s="10"/>
       <c r="C929" s="11"/>
@@ -47737,7 +47794,7 @@
         <v/>
       </c>
     </row>
-    <row r="930" spans="1:19" ht="12.75">
+    <row r="930" spans="1:19" ht="13.2">
       <c r="A930" s="9"/>
       <c r="B930" s="10"/>
       <c r="C930" s="11"/>
@@ -47788,7 +47845,7 @@
         <v/>
       </c>
     </row>
-    <row r="931" spans="1:19" ht="12.75">
+    <row r="931" spans="1:19" ht="13.2">
       <c r="A931" s="9"/>
       <c r="B931" s="10"/>
       <c r="C931" s="11"/>
@@ -47839,7 +47896,7 @@
         <v/>
       </c>
     </row>
-    <row r="932" spans="1:19" ht="12.75">
+    <row r="932" spans="1:19" ht="13.2">
       <c r="A932" s="9"/>
       <c r="B932" s="10"/>
       <c r="C932" s="11"/>
@@ -47890,7 +47947,7 @@
         <v/>
       </c>
     </row>
-    <row r="933" spans="1:19" ht="12.75">
+    <row r="933" spans="1:19" ht="13.2">
       <c r="A933" s="9"/>
       <c r="B933" s="10"/>
       <c r="C933" s="11"/>
@@ -47941,7 +47998,7 @@
         <v/>
       </c>
     </row>
-    <row r="934" spans="1:19" ht="12.75">
+    <row r="934" spans="1:19" ht="13.2">
       <c r="A934" s="9"/>
       <c r="B934" s="10"/>
       <c r="C934" s="11"/>
@@ -47992,7 +48049,7 @@
         <v/>
       </c>
     </row>
-    <row r="935" spans="1:19" ht="12.75">
+    <row r="935" spans="1:19" ht="13.2">
       <c r="A935" s="9"/>
       <c r="B935" s="10"/>
       <c r="C935" s="11"/>
@@ -48043,7 +48100,7 @@
         <v/>
       </c>
     </row>
-    <row r="936" spans="1:19" ht="12.75">
+    <row r="936" spans="1:19" ht="13.2">
       <c r="A936" s="9"/>
       <c r="B936" s="10"/>
       <c r="C936" s="11"/>
@@ -48094,7 +48151,7 @@
         <v/>
       </c>
     </row>
-    <row r="937" spans="1:19" ht="12.75">
+    <row r="937" spans="1:19" ht="13.2">
       <c r="A937" s="9"/>
       <c r="B937" s="10"/>
       <c r="C937" s="11"/>
@@ -48145,7 +48202,7 @@
         <v/>
       </c>
     </row>
-    <row r="938" spans="1:19" ht="12.75">
+    <row r="938" spans="1:19" ht="13.2">
       <c r="A938" s="9"/>
       <c r="B938" s="10"/>
       <c r="C938" s="11"/>
@@ -48196,7 +48253,7 @@
         <v/>
       </c>
     </row>
-    <row r="939" spans="1:19" ht="12.75">
+    <row r="939" spans="1:19" ht="13.2">
       <c r="A939" s="9"/>
       <c r="B939" s="10"/>
       <c r="C939" s="11"/>
@@ -48247,7 +48304,7 @@
         <v/>
       </c>
     </row>
-    <row r="940" spans="1:19" ht="12.75">
+    <row r="940" spans="1:19" ht="13.2">
       <c r="A940" s="9"/>
       <c r="B940" s="10"/>
       <c r="C940" s="11"/>
@@ -48298,7 +48355,7 @@
         <v/>
       </c>
     </row>
-    <row r="941" spans="1:19" ht="12.75">
+    <row r="941" spans="1:19" ht="13.2">
       <c r="A941" s="9"/>
       <c r="B941" s="10"/>
       <c r="C941" s="11"/>
@@ -48349,7 +48406,7 @@
         <v/>
       </c>
     </row>
-    <row r="942" spans="1:19" ht="12.75">
+    <row r="942" spans="1:19" ht="13.2">
       <c r="A942" s="9"/>
       <c r="B942" s="10"/>
       <c r="C942" s="11"/>
@@ -48400,7 +48457,7 @@
         <v/>
       </c>
     </row>
-    <row r="943" spans="1:19" ht="12.75">
+    <row r="943" spans="1:19" ht="13.2">
       <c r="A943" s="9"/>
       <c r="B943" s="10"/>
       <c r="C943" s="11"/>
@@ -48451,7 +48508,7 @@
         <v/>
       </c>
     </row>
-    <row r="944" spans="1:19" ht="12.75">
+    <row r="944" spans="1:19" ht="13.2">
       <c r="A944" s="9"/>
       <c r="B944" s="10"/>
       <c r="C944" s="11"/>
@@ -48502,7 +48559,7 @@
         <v/>
       </c>
     </row>
-    <row r="945" spans="1:19" ht="12.75">
+    <row r="945" spans="1:19" ht="13.2">
       <c r="A945" s="9"/>
       <c r="B945" s="10"/>
       <c r="C945" s="11"/>
@@ -48553,7 +48610,7 @@
         <v/>
       </c>
     </row>
-    <row r="946" spans="1:19" ht="12.75">
+    <row r="946" spans="1:19" ht="13.2">
       <c r="A946" s="9"/>
       <c r="B946" s="10"/>
       <c r="C946" s="11"/>
@@ -48604,7 +48661,7 @@
         <v/>
       </c>
     </row>
-    <row r="947" spans="1:19" ht="12.75">
+    <row r="947" spans="1:19" ht="13.2">
       <c r="A947" s="9"/>
       <c r="B947" s="10"/>
       <c r="C947" s="11"/>
@@ -48655,7 +48712,7 @@
         <v/>
       </c>
     </row>
-    <row r="948" spans="1:19" ht="12.75">
+    <row r="948" spans="1:19" ht="13.2">
       <c r="A948" s="9"/>
       <c r="B948" s="10"/>
       <c r="C948" s="11"/>
@@ -48706,7 +48763,7 @@
         <v/>
       </c>
     </row>
-    <row r="949" spans="1:19" ht="12.75">
+    <row r="949" spans="1:19" ht="13.2">
       <c r="A949" s="9"/>
       <c r="B949" s="10"/>
       <c r="C949" s="11"/>
@@ -48757,7 +48814,7 @@
         <v/>
       </c>
     </row>
-    <row r="950" spans="1:19" ht="12.75">
+    <row r="950" spans="1:19" ht="13.2">
       <c r="A950" s="9"/>
       <c r="B950" s="10"/>
       <c r="C950" s="11"/>
@@ -48808,7 +48865,7 @@
         <v/>
       </c>
     </row>
-    <row r="951" spans="1:19" ht="12.75">
+    <row r="951" spans="1:19" ht="13.2">
       <c r="A951" s="9"/>
       <c r="B951" s="10"/>
       <c r="C951" s="11"/>
@@ -48859,7 +48916,7 @@
         <v/>
       </c>
     </row>
-    <row r="952" spans="1:19" ht="12.75">
+    <row r="952" spans="1:19" ht="13.2">
       <c r="A952" s="9"/>
       <c r="B952" s="10"/>
       <c r="C952" s="11"/>
@@ -48910,7 +48967,7 @@
         <v/>
       </c>
     </row>
-    <row r="953" spans="1:19" ht="12.75">
+    <row r="953" spans="1:19" ht="13.2">
       <c r="A953" s="9"/>
       <c r="B953" s="10"/>
       <c r="C953" s="11"/>
@@ -48961,7 +49018,7 @@
         <v/>
       </c>
     </row>
-    <row r="954" spans="1:19" ht="12.75">
+    <row r="954" spans="1:19" ht="13.2">
       <c r="A954" s="9"/>
       <c r="B954" s="10"/>
       <c r="C954" s="11"/>
@@ -49012,7 +49069,7 @@
         <v/>
       </c>
     </row>
-    <row r="955" spans="1:19" ht="12.75">
+    <row r="955" spans="1:19" ht="13.2">
       <c r="A955" s="9"/>
       <c r="B955" s="10"/>
       <c r="C955" s="11"/>
@@ -49063,7 +49120,7 @@
         <v/>
       </c>
     </row>
-    <row r="956" spans="1:19" ht="12.75">
+    <row r="956" spans="1:19" ht="13.2">
       <c r="A956" s="9"/>
       <c r="B956" s="10"/>
       <c r="C956" s="11"/>
@@ -49114,7 +49171,7 @@
         <v/>
       </c>
     </row>
-    <row r="957" spans="1:19" ht="12.75">
+    <row r="957" spans="1:19" ht="13.2">
       <c r="A957" s="9"/>
       <c r="B957" s="10"/>
       <c r="C957" s="11"/>
@@ -49165,7 +49222,7 @@
         <v/>
       </c>
     </row>
-    <row r="958" spans="1:19" ht="12.75">
+    <row r="958" spans="1:19" ht="13.2">
       <c r="A958" s="9"/>
       <c r="B958" s="10"/>
       <c r="C958" s="11"/>
@@ -49216,7 +49273,7 @@
         <v/>
       </c>
     </row>
-    <row r="959" spans="1:19" ht="12.75">
+    <row r="959" spans="1:19" ht="13.2">
       <c r="A959" s="9"/>
       <c r="B959" s="10"/>
       <c r="C959" s="11"/>
@@ -49267,7 +49324,7 @@
         <v/>
       </c>
     </row>
-    <row r="960" spans="1:19" ht="12.75">
+    <row r="960" spans="1:19" ht="13.2">
       <c r="A960" s="9"/>
       <c r="B960" s="10"/>
       <c r="C960" s="11"/>
@@ -49318,7 +49375,7 @@
         <v/>
       </c>
     </row>
-    <row r="961" spans="1:19" ht="12.75">
+    <row r="961" spans="1:19" ht="13.2">
       <c r="A961" s="9"/>
       <c r="B961" s="10"/>
       <c r="C961" s="11"/>
@@ -49369,7 +49426,7 @@
         <v/>
       </c>
     </row>
-    <row r="962" spans="1:19" ht="12.75">
+    <row r="962" spans="1:19" ht="13.2">
       <c r="A962" s="9"/>
       <c r="B962" s="10"/>
       <c r="C962" s="11"/>
@@ -49420,7 +49477,7 @@
         <v/>
       </c>
     </row>
-    <row r="963" spans="1:19" ht="12.75">
+    <row r="963" spans="1:19" ht="13.2">
       <c r="A963" s="9"/>
       <c r="B963" s="10"/>
       <c r="C963" s="11"/>
@@ -49471,7 +49528,7 @@
         <v/>
       </c>
     </row>
-    <row r="964" spans="1:19" ht="12.75">
+    <row r="964" spans="1:19" ht="13.2">
       <c r="A964" s="9"/>
       <c r="B964" s="10"/>
       <c r="C964" s="11"/>
@@ -49522,7 +49579,7 @@
         <v/>
       </c>
     </row>
-    <row r="965" spans="1:19" ht="12.75">
+    <row r="965" spans="1:19" ht="13.2">
       <c r="A965" s="9"/>
       <c r="B965" s="10"/>
       <c r="C965" s="11"/>
@@ -49573,7 +49630,7 @@
         <v/>
       </c>
     </row>
-    <row r="966" spans="1:19" ht="12.75">
+    <row r="966" spans="1:19" ht="13.2">
       <c r="A966" s="9"/>
       <c r="B966" s="10"/>
       <c r="C966" s="11"/>
@@ -49624,7 +49681,7 @@
         <v/>
       </c>
     </row>
-    <row r="967" spans="1:19" ht="12.75">
+    <row r="967" spans="1:19" ht="13.2">
       <c r="A967" s="9"/>
       <c r="B967" s="10"/>
       <c r="C967" s="11"/>
@@ -49675,7 +49732,7 @@
         <v/>
       </c>
     </row>
-    <row r="968" spans="1:19" ht="12.75">
+    <row r="968" spans="1:19" ht="13.2">
       <c r="A968" s="9"/>
       <c r="B968" s="10"/>
       <c r="C968" s="11"/>
@@ -49726,7 +49783,7 @@
         <v/>
       </c>
     </row>
-    <row r="969" spans="1:19" ht="12.75">
+    <row r="969" spans="1:19" ht="13.2">
       <c r="A969" s="9"/>
       <c r="B969" s="10"/>
       <c r="C969" s="11"/>
@@ -49777,7 +49834,7 @@
         <v/>
       </c>
     </row>
-    <row r="970" spans="1:19" ht="12.75">
+    <row r="970" spans="1:19" ht="13.2">
       <c r="A970" s="9"/>
       <c r="B970" s="10"/>
       <c r="C970" s="11"/>
@@ -49828,7 +49885,7 @@
         <v/>
       </c>
     </row>
-    <row r="971" spans="1:19" ht="12.75">
+    <row r="971" spans="1:19" ht="13.2">
       <c r="A971" s="9"/>
       <c r="B971" s="10"/>
       <c r="C971" s="11"/>
@@ -49879,7 +49936,7 @@
         <v/>
       </c>
     </row>
-    <row r="972" spans="1:19" ht="12.75">
+    <row r="972" spans="1:19" ht="13.2">
       <c r="A972" s="9"/>
       <c r="B972" s="10"/>
       <c r="C972" s="11"/>
@@ -49930,7 +49987,7 @@
         <v/>
       </c>
     </row>
-    <row r="973" spans="1:19" ht="12.75">
+    <row r="973" spans="1:19" ht="13.2">
       <c r="A973" s="9"/>
       <c r="B973" s="10"/>
       <c r="C973" s="11"/>
@@ -49981,7 +50038,7 @@
         <v/>
       </c>
     </row>
-    <row r="974" spans="1:19" ht="12.75">
+    <row r="974" spans="1:19" ht="13.2">
       <c r="A974" s="9"/>
       <c r="B974" s="10"/>
       <c r="C974" s="11"/>
@@ -50032,7 +50089,7 @@
         <v/>
       </c>
     </row>
-    <row r="975" spans="1:19" ht="12.75">
+    <row r="975" spans="1:19" ht="13.2">
       <c r="A975" s="9"/>
       <c r="B975" s="10"/>
       <c r="C975" s="11"/>
@@ -50083,7 +50140,7 @@
         <v/>
       </c>
     </row>
-    <row r="976" spans="1:19" ht="12.75">
+    <row r="976" spans="1:19" ht="13.2">
       <c r="A976" s="9"/>
       <c r="B976" s="10"/>
       <c r="C976" s="11"/>
@@ -50134,7 +50191,7 @@
         <v/>
       </c>
     </row>
-    <row r="977" spans="1:19" ht="12.75">
+    <row r="977" spans="1:19" ht="13.2">
       <c r="A977" s="9"/>
       <c r="B977" s="10"/>
       <c r="C977" s="11"/>
@@ -50185,7 +50242,7 @@
         <v/>
       </c>
     </row>
-    <row r="978" spans="1:19" ht="12.75">
+    <row r="978" spans="1:19" ht="13.2">
       <c r="A978" s="9"/>
       <c r="B978" s="10"/>
       <c r="C978" s="11"/>
@@ -50236,7 +50293,7 @@
         <v/>
       </c>
     </row>
-    <row r="979" spans="1:19" ht="12.75">
+    <row r="979" spans="1:19" ht="13.2">
       <c r="A979" s="9"/>
       <c r="B979" s="10"/>
       <c r="C979" s="11"/>
@@ -50287,7 +50344,7 @@
         <v/>
       </c>
     </row>
-    <row r="980" spans="1:19" ht="12.75">
+    <row r="980" spans="1:19" ht="13.2">
       <c r="A980" s="9"/>
       <c r="B980" s="10"/>
       <c r="C980" s="11"/>
@@ -50338,7 +50395,7 @@
         <v/>
       </c>
     </row>
-    <row r="981" spans="1:19" ht="12.75">
+    <row r="981" spans="1:19" ht="13.2">
       <c r="A981" s="9"/>
       <c r="B981" s="10"/>
       <c r="C981" s="11"/>
@@ -50389,7 +50446,7 @@
         <v/>
       </c>
     </row>
-    <row r="982" spans="1:19" ht="12.75">
+    <row r="982" spans="1:19" ht="13.2">
       <c r="A982" s="9"/>
       <c r="B982" s="10"/>
       <c r="C982" s="11"/>
@@ -50440,7 +50497,7 @@
         <v/>
       </c>
     </row>
-    <row r="983" spans="1:19" ht="12.75">
+    <row r="983" spans="1:19" ht="13.2">
       <c r="A983" s="9"/>
       <c r="B983" s="10"/>
       <c r="C983" s="11"/>
@@ -50491,7 +50548,7 @@
         <v/>
       </c>
     </row>
-    <row r="984" spans="1:19" ht="12.75">
+    <row r="984" spans="1:19" ht="13.2">
       <c r="A984" s="9"/>
       <c r="B984" s="10"/>
       <c r="C984" s="11"/>
@@ -50542,7 +50599,7 @@
         <v/>
       </c>
     </row>
-    <row r="985" spans="1:19" ht="12.75">
+    <row r="985" spans="1:19" ht="13.2">
       <c r="A985" s="9"/>
       <c r="B985" s="10"/>
       <c r="C985" s="11"/>
@@ -50593,7 +50650,7 @@
         <v/>
       </c>
     </row>
-    <row r="986" spans="1:19" ht="12.75">
+    <row r="986" spans="1:19" ht="13.2">
       <c r="A986" s="9"/>
       <c r="B986" s="10"/>
       <c r="C986" s="11"/>
@@ -50644,7 +50701,7 @@
         <v/>
       </c>
     </row>
-    <row r="987" spans="1:19" ht="12.75">
+    <row r="987" spans="1:19" ht="13.2">
       <c r="A987" s="9"/>
       <c r="B987" s="10"/>
       <c r="C987" s="11"/>
@@ -50695,7 +50752,7 @@
         <v/>
       </c>
     </row>
-    <row r="988" spans="1:19" ht="12.75">
+    <row r="988" spans="1:19" ht="13.2">
       <c r="A988" s="9"/>
       <c r="B988" s="10"/>
       <c r="C988" s="11"/>
@@ -50746,7 +50803,7 @@
         <v/>
       </c>
     </row>
-    <row r="989" spans="1:19" ht="12.75">
+    <row r="989" spans="1:19" ht="13.2">
       <c r="A989" s="9"/>
       <c r="B989" s="10"/>
       <c r="C989" s="11"/>
@@ -50797,7 +50854,7 @@
         <v/>
       </c>
     </row>
-    <row r="990" spans="1:19" ht="12.75">
+    <row r="990" spans="1:19" ht="13.2">
       <c r="A990" s="9"/>
       <c r="B990" s="10"/>
       <c r="C990" s="11"/>
@@ -50848,7 +50905,7 @@
         <v/>
       </c>
     </row>
-    <row r="991" spans="1:19" ht="12.75">
+    <row r="991" spans="1:19" ht="13.2">
       <c r="A991" s="9"/>
       <c r="B991" s="10"/>
       <c r="C991" s="11"/>
@@ -50899,7 +50956,7 @@
         <v/>
       </c>
     </row>
-    <row r="992" spans="1:19" ht="12.75">
+    <row r="992" spans="1:19" ht="13.2">
       <c r="A992" s="9"/>
       <c r="B992" s="10"/>
       <c r="C992" s="11"/>
@@ -50950,7 +51007,7 @@
         <v/>
       </c>
     </row>
-    <row r="993" spans="1:19" ht="12.75">
+    <row r="993" spans="1:19" ht="13.2">
       <c r="A993" s="9"/>
       <c r="B993" s="10"/>
       <c r="C993" s="11"/>
@@ -51001,7 +51058,7 @@
         <v/>
       </c>
     </row>
-    <row r="994" spans="1:19" ht="12.75">
+    <row r="994" spans="1:19" ht="13.2">
       <c r="A994" s="9"/>
       <c r="B994" s="10"/>
       <c r="C994" s="11"/>
@@ -51052,7 +51109,7 @@
         <v/>
       </c>
     </row>
-    <row r="995" spans="1:19" ht="12.75">
+    <row r="995" spans="1:19" ht="13.2">
       <c r="A995" s="9"/>
       <c r="B995" s="10"/>
       <c r="C995" s="11"/>
@@ -51103,7 +51160,7 @@
         <v/>
       </c>
     </row>
-    <row r="996" spans="1:19" ht="12.75">
+    <row r="996" spans="1:19" ht="13.2">
       <c r="A996" s="9"/>
       <c r="B996" s="10"/>
       <c r="C996" s="11"/>
@@ -51154,7 +51211,7 @@
         <v/>
       </c>
     </row>
-    <row r="997" spans="1:19" ht="12.75">
+    <row r="997" spans="1:19" ht="13.2">
       <c r="A997" s="9"/>
       <c r="B997" s="10"/>
       <c r="C997" s="11"/>
@@ -51205,7 +51262,7 @@
         <v/>
       </c>
     </row>
-    <row r="998" spans="1:19" ht="12.75">
+    <row r="998" spans="1:19" ht="13.2">
       <c r="A998" s="9"/>
       <c r="B998" s="10"/>
       <c r="C998" s="11"/>
@@ -51256,7 +51313,7 @@
         <v/>
       </c>
     </row>
-    <row r="999" spans="1:19" ht="12.75">
+    <row r="999" spans="1:19" ht="13.2">
       <c r="A999" s="9"/>
       <c r="B999" s="10"/>
       <c r="C999" s="11"/>
@@ -51307,7 +51364,7 @@
         <v/>
       </c>
     </row>
-    <row r="1000" spans="1:19" ht="12.75">
+    <row r="1000" spans="1:19" ht="13.2">
       <c r="A1000" s="9"/>
       <c r="B1000" s="10"/>
       <c r="C1000" s="11"/>
@@ -51475,10 +51532,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1000">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 High,2 Med,3 Med,4 Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1000">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1000" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"XSM,SM,MD,LG,XLG,XXLG,0,0.5,1,2,3,5,8,13,21,34,55,89,?"</formula1>
     </dataValidation>
   </dataValidations>
@@ -51488,7 +51545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFA64D79"/>
   </sheetPr>
@@ -51496,7 +51553,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>As an Admin, I should access sessions in Public sessions.</t>
+  </si>
+  <si>
+    <t>3 Medium</t>
   </si>
 </sst>
 </file>
@@ -978,7 +981,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1403,7 +1406,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>30</v>
@@ -1459,7 +1462,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>33</v>

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -162,9 +162,6 @@
     <t>As a User , I want to rate the expert after the session in Public and Private sessions.</t>
   </si>
   <si>
-    <t>As a User , I want to enable/disable video during sessions in Private sessions.</t>
-  </si>
-  <si>
     <t>As an Expert , I can give a feedback regarding the whole experience in Public and Private sessions.</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>3 Medium</t>
+  </si>
+  <si>
+    <t>As a User , I want to enable/disable video during sessions in Private and Public sessions.</t>
   </si>
 </sst>
 </file>
@@ -981,7 +981,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1403,10 +1403,10 @@
     <row r="8" spans="1:19" ht="25.5">
       <c r="A8" s="22"/>
       <c r="B8" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>30</v>
@@ -1459,10 +1459,10 @@
     <row r="9" spans="1:19" ht="25.5">
       <c r="A9" s="22"/>
       <c r="B9" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>33</v>
@@ -1515,7 +1515,7 @@
     <row r="10" spans="1:19" ht="25.5">
       <c r="A10" s="22"/>
       <c r="B10" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>38</v>
@@ -1571,7 +1571,7 @@
     <row r="11" spans="1:19">
       <c r="A11" s="22"/>
       <c r="B11" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>38</v>

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -108,9 +108,6 @@
     <t xml:space="preserve"> [High Level Piece of Functionality]</t>
   </si>
   <si>
-    <t>As a User , I want to send text messages in chats in Public Sessions.</t>
-  </si>
-  <si>
     <t>LG</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>As a User , I want to enable/disable video during sessions in Private and Public sessions.</t>
+  </si>
+  <si>
+    <t>As a User , I want to send text messages in chats in Public and Private Sessions.</t>
   </si>
 </sst>
 </file>
@@ -981,7 +981,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1123,16 +1123,16 @@
     <row r="3" spans="1:19">
       <c r="A3" s="22"/>
       <c r="B3" s="10" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -1179,16 +1179,16 @@
     <row r="4" spans="1:19" ht="25.5">
       <c r="A4" s="22"/>
       <c r="B4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -1235,16 +1235,16 @@
     <row r="5" spans="1:19">
       <c r="A5" s="22"/>
       <c r="B5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="23" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>34</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -1291,16 +1291,16 @@
     <row r="6" spans="1:19">
       <c r="A6" s="22"/>
       <c r="B6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -1347,16 +1347,16 @@
     <row r="7" spans="1:19">
       <c r="A7" s="22"/>
       <c r="B7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1403,16 +1403,16 @@
     <row r="8" spans="1:19" ht="25.5">
       <c r="A8" s="22"/>
       <c r="B8" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -1459,16 +1459,16 @@
     <row r="9" spans="1:19" ht="25.5">
       <c r="A9" s="22"/>
       <c r="B9" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -1515,16 +1515,16 @@
     <row r="10" spans="1:19" ht="25.5">
       <c r="A10" s="22"/>
       <c r="B10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -1571,16 +1571,16 @@
     <row r="11" spans="1:19">
       <c r="A11" s="22"/>
       <c r="B11" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>1 High</t>
-  </si>
-  <si>
-    <t>XXLG</t>
   </si>
   <si>
     <t>Video and Audio icons available for toggling with corresponding actions.</t>
@@ -176,6 +173,9 @@
   <si>
     <t>As a User , I want to send text messages in chats in Public and Private Sessions.</t>
   </si>
+  <si>
+    <t>As a User , I can give a feedback regarding the whole experience in Public and Private sessions.</t>
+  </si>
 </sst>
 </file>
 
@@ -243,7 +243,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +286,12 @@
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -326,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -398,6 +404,7 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,7 +988,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1066,15 +1073,15 @@
         <v>21</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="16" t="e">
         <f>IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="1 High",#REF!="2 Med")),"Strategic",IF(AND(OR(#REF!="1 High",#REF!="2 Med"),OR(#REF!="3 Med",#REF!="4 Low")),"Leveraged",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="1 High",#REF!="2 Med")),"Focused",IF(AND(OR(#REF!="3 Med",#REF!="4 Low"),OR(#REF!="3 Med",#REF!="4 Low")),"Routine",""))))</f>
@@ -1109,7 +1116,7 @@
         <v>[Theme, Epic, or Dept]</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R2" s="20" t="e">
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
@@ -1123,16 +1130,16 @@
     <row r="3" spans="1:19">
       <c r="A3" s="22"/>
       <c r="B3" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -1179,16 +1186,16 @@
     <row r="4" spans="1:19" ht="25.5">
       <c r="A4" s="22"/>
       <c r="B4" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -1235,16 +1242,16 @@
     <row r="5" spans="1:19">
       <c r="A5" s="22"/>
       <c r="B5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="23" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>33</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -1291,16 +1298,16 @@
     <row r="6" spans="1:19">
       <c r="A6" s="22"/>
       <c r="B6" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -1347,16 +1354,16 @@
     <row r="7" spans="1:19">
       <c r="A7" s="22"/>
       <c r="B7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1403,16 +1410,16 @@
     <row r="8" spans="1:19" ht="25.5">
       <c r="A8" s="22"/>
       <c r="B8" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -1459,16 +1466,16 @@
     <row r="9" spans="1:19" ht="25.5">
       <c r="A9" s="22"/>
       <c r="B9" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -1515,23 +1522,20 @@
     <row r="10" spans="1:19" ht="25.5">
       <c r="A10" s="22"/>
       <c r="B10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
       <c r="I10" s="16"/>
       <c r="J10" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(C11="1 High",1,IF(C11="2 Med",2,IF(C11="3 Med",3,IF(C11="4 Low",4,""))))</f>
         <v>4</v>
       </c>
       <c r="K10" s="18" t="e">
@@ -1543,7 +1547,7 @@
         <v>#REF!</v>
       </c>
       <c r="M10" s="17">
-        <f t="shared" si="1"/>
+        <f>IF(C11="1 High",4,IF(C11="2 Med",3,IF(C11="3 Med",2,IF(C11="4 Low",1,""))))</f>
         <v>1</v>
       </c>
       <c r="N10" s="17" t="e">
@@ -1564,30 +1568,30 @@
         <v>#REF!</v>
       </c>
       <c r="S10" s="21">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISBLANK(B12)),ROW(),"")</f>
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="22"/>
       <c r="B11" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
       <c r="I11" s="16"/>
       <c r="J11" s="17">
-        <f t="shared" si="0"/>
+        <f>IF(C12="1 High",1,IF(C12="2 Med",2,IF(C12="3 Med",3,IF(C12="4 Low",4,""))))</f>
         <v>4</v>
       </c>
       <c r="K11" s="18" t="e">
@@ -1599,7 +1603,7 @@
         <v>#REF!</v>
       </c>
       <c r="M11" s="17">
-        <f t="shared" si="1"/>
+        <f>IF(C12="1 High",4,IF(C12="2 Med",3,IF(C12="3 Med",2,IF(C12="4 Low",1,""))))</f>
         <v>1</v>
       </c>
       <c r="N11" s="17" t="e">
@@ -1620,23 +1624,31 @@
         <v>#REF!</v>
       </c>
       <c r="S11" s="21">
-        <f t="shared" si="2"/>
+        <f>IF(NOT(ISBLANK(B11)),ROW(),"")</f>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" ht="25.5">
       <c r="A12" s="22"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="14"/>
+      <c r="B12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="J12" s="17" t="e">
+        <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
+        <v>#REF!</v>
       </c>
       <c r="K12" s="18" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1646,9 +1658,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M12" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="M12" s="17" t="e">
+        <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
+        <v>#REF!</v>
       </c>
       <c r="N12" s="17" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1667,14 +1679,14 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S12" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="S12" s="21">
+        <f>IF(NOT(ISBLANK(B10)),ROW(),"")</f>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="22"/>
-      <c r="B13" s="24"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
       <c r="E13" s="14"/>
@@ -1715,14 +1727,14 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S13" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="S13" s="21">
+        <f>IF(NOT(ISBLANK(#REF!)),ROW(),"")</f>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="22"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
       <c r="E14" s="14"/>
@@ -1763,9 +1775,9 @@
         <f>IF(#REF!="MVP","0.0 MVP",#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S14" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="S14" s="21">
+        <f>IF(NOT(ISBLANK(#REF!)),ROW(),"")</f>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -51542,16 +51554,16 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1000">
+  <conditionalFormatting sqref="C1:C9 C11:C1000">
     <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1000">
+  <conditionalFormatting sqref="C1:C9 C11:C1000">
     <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1000">
+  <conditionalFormatting sqref="C1:C9 C11:C1000">
     <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1000">
+  <conditionalFormatting sqref="C1:C9 C11:C1000">
     <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
@@ -51650,7 +51662,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1000">
+    <dataValidation type="list" allowBlank="1" sqref="C11:C1000 C2:C9">
       <formula1>"1 High,2 Med,3 Med,4 Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -409,7 +409,81 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEFF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEFF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666666"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA4C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA4C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D9EEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -988,7 +1062,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1524,6 +1598,9 @@
       <c r="B10" s="10" t="s">
         <v>48</v>
       </c>
+      <c r="C10" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="D10" s="12" t="s">
         <v>31</v>
       </c>
@@ -51555,114 +51632,126 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C9 C11:C1000">
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="1"/>
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C9 C11:C1000">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="2"/>
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C9 C11:C1000">
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="3"/>
+    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C9 C11:C1000">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="4"/>
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>55</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
       <formula>"XSM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
       <formula>"SM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="25" operator="equal">
       <formula>"MD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="26" operator="equal">
       <formula>"LG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="27" operator="equal">
       <formula>"XLG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="28" operator="equal">
       <formula>"XXLG"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="4"/>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="C11:C1000 C2:C9">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1000">
       <formula1>"1 High,2 Med,3 Med,4 Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\T17-Spint2C4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Desktop\T17-Sprint2C4\T17-Spint2C4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t xml:space="preserve"> EPIC</t>
   </si>
@@ -108,9 +108,6 @@
     <t>LG</t>
   </si>
   <si>
-    <t xml:space="preserve">View sent and received messages in session </t>
-  </si>
-  <si>
     <t>As a User , I want to exit the chat whenever I am done with my questions in Public and Private sessions.</t>
   </si>
   <si>
@@ -126,12 +123,6 @@
     <t>MD</t>
   </si>
   <si>
-    <t>Submit a rating on the rating bar displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of users never exceeds the limit I specififed </t>
-  </si>
-  <si>
     <t>Video icon available for toggling with corresponding actions.</t>
   </si>
   <si>
@@ -139,12 +130,6 @@
   </si>
   <si>
     <t>4 Low</t>
-  </si>
-  <si>
-    <t>Monitor on going conversations</t>
-  </si>
-  <si>
-    <t>Join vailability for each public session</t>
   </si>
   <si>
     <t>As an Expert , I want to rate the user in Public and Private sessions.</t>
@@ -162,9 +147,6 @@
     <t>As an Admin I want to have the access to see all chats if it is a message feature in Public sessions.</t>
   </si>
   <si>
-    <t>As an Admin, I should access sessions in Public sessions.</t>
-  </si>
-  <si>
     <t>3 Medium</t>
   </si>
   <si>
@@ -176,12 +158,36 @@
   <si>
     <t>As a User , I can give a feedback regarding the whole experience in Public and Private sessions.</t>
   </si>
+  <si>
+    <t>As an Admin, I should access all public sessions.</t>
+  </si>
+  <si>
+    <t>As an Expert, I have the access to exit the session at any time during Public and Private sessions.</t>
+  </si>
+  <si>
+    <t>Exiting the session with a re-direction to rating bar and feeback template.</t>
+  </si>
+  <si>
+    <t>Monitor on going conversations.</t>
+  </si>
+  <si>
+    <t>Join availability for each public session.</t>
+  </si>
+  <si>
+    <t>Submit a rating on the rating bar displayed.</t>
+  </si>
+  <si>
+    <t>Number of users never exceeds the limit I specififed.</t>
+  </si>
+  <si>
+    <t>View sent and received messages in session .</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -227,10 +233,6 @@
       <b/>
       <sz val="8"/>
       <color rgb="FF434343"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -332,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -388,20 +390,17 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -409,28 +408,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFEAEFF8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEFF8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666666"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC9DAF8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -451,26 +433,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFA4C2F4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA4C2F4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6D9EEB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1062,7 +1024,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1204,7 +1166,7 @@
     <row r="3" spans="1:19">
       <c r="A3" s="22"/>
       <c r="B3" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>21</v>
@@ -1213,7 +1175,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -1260,16 +1222,16 @@
     <row r="4" spans="1:19" ht="25.5">
       <c r="A4" s="22"/>
       <c r="B4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -1316,16 +1278,16 @@
     <row r="5" spans="1:19">
       <c r="A5" s="22"/>
       <c r="B5" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>32</v>
+      <c r="E5" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -1372,16 +1334,16 @@
     <row r="6" spans="1:19">
       <c r="A6" s="22"/>
       <c r="B6" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -1428,16 +1390,16 @@
     <row r="7" spans="1:19">
       <c r="A7" s="22"/>
       <c r="B7" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1483,17 +1445,17 @@
     </row>
     <row r="8" spans="1:19" ht="25.5">
       <c r="A8" s="22"/>
-      <c r="B8" s="27" t="s">
-        <v>46</v>
+      <c r="B8" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -1539,17 +1501,17 @@
     </row>
     <row r="9" spans="1:19" ht="25.5">
       <c r="A9" s="22"/>
-      <c r="B9" s="27" t="s">
-        <v>42</v>
+      <c r="B9" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -1596,16 +1558,16 @@
     <row r="10" spans="1:19" ht="25.5">
       <c r="A10" s="22"/>
       <c r="B10" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -1652,16 +1614,16 @@
     <row r="11" spans="1:19">
       <c r="A11" s="22"/>
       <c r="B11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -1708,16 +1670,16 @@
     <row r="12" spans="1:19" ht="25.5">
       <c r="A12" s="22"/>
       <c r="B12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -1761,19 +1723,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" ht="25.5">
       <c r="A13" s="22"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="14"/>
+      <c r="B13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="17" t="str">
+      <c r="J13" s="17">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="K13" s="18" t="e">
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
@@ -1783,9 +1753,9 @@
         <f>IF(#REF!="1 High",1,IF(#REF!="2 Med",2,IF(#REF!="3 Med",3,IF(#REF!="4 Low",4,""))))</f>
         <v>#REF!</v>
       </c>
-      <c r="M13" s="17" t="str">
+      <c r="M13" s="17">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="N13" s="17" t="e">
         <f>IF(#REF!="1 High",4,IF(#REF!="2 Med",3,IF(#REF!="3 Med",2,IF(#REF!="4 Low",1,""))))</f>
@@ -1811,7 +1781,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="22"/>
-      <c r="B14" s="29"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
       <c r="E14" s="14"/>
@@ -1859,10 +1829,10 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="22"/>
-      <c r="B15" s="24"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="26"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
@@ -1907,7 +1877,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="22"/>
-      <c r="B16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
       <c r="E16" s="14"/>
@@ -1955,7 +1925,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="22"/>
-      <c r="B17" s="24"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="E17" s="14"/>
@@ -2003,7 +1973,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="22"/>
-      <c r="B18" s="24"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
       <c r="E18" s="14"/>
@@ -2051,7 +2021,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="22"/>
-      <c r="B19" s="24"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
       <c r="E19" s="14"/>
@@ -2099,7 +2069,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="22"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
       <c r="E20" s="14"/>
@@ -2147,7 +2117,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="22"/>
-      <c r="B21" s="24"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="14"/>
@@ -2195,7 +2165,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="22"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
       <c r="E22" s="14"/>
@@ -2243,7 +2213,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="22"/>
-      <c r="B23" s="24"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
       <c r="E23" s="14"/>
@@ -2291,7 +2261,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="22"/>
-      <c r="B24" s="24"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="14"/>
@@ -2339,7 +2309,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="22"/>
-      <c r="B25" s="24"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
       <c r="E25" s="14"/>
@@ -2387,7 +2357,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="22"/>
-      <c r="B26" s="24"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="14"/>
@@ -2435,7 +2405,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="22"/>
-      <c r="B27" s="24"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="E27" s="14"/>
@@ -2483,7 +2453,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="22"/>
-      <c r="B28" s="24"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="14"/>
@@ -2531,7 +2501,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="22"/>
-      <c r="B29" s="24"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="14"/>
@@ -2579,7 +2549,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="22"/>
-      <c r="B30" s="24"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
       <c r="E30" s="14"/>
@@ -2627,7 +2597,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="22"/>
-      <c r="B31" s="24"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
       <c r="E31" s="14"/>
@@ -2675,7 +2645,7 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="22"/>
-      <c r="B32" s="24"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
       <c r="E32" s="14"/>
@@ -2723,7 +2693,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="22"/>
-      <c r="B33" s="24"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
       <c r="E33" s="14"/>
@@ -2771,7 +2741,7 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="22"/>
-      <c r="B34" s="24"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
       <c r="E34" s="14"/>
@@ -2819,7 +2789,7 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="22"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
       <c r="E35" s="14"/>
@@ -2867,7 +2837,7 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="22"/>
-      <c r="B36" s="24"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
       <c r="E36" s="14"/>
@@ -2915,7 +2885,7 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="22"/>
-      <c r="B37" s="24"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
       <c r="E37" s="14"/>
@@ -2963,7 +2933,7 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="22"/>
-      <c r="B38" s="24"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
       <c r="E38" s="14"/>
@@ -3011,7 +2981,7 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="22"/>
-      <c r="B39" s="24"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="11"/>
       <c r="D39" s="12"/>
       <c r="E39" s="14"/>
@@ -3059,7 +3029,7 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="22"/>
-      <c r="B40" s="24"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="11"/>
       <c r="D40" s="12"/>
       <c r="E40" s="14"/>
@@ -3107,7 +3077,7 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="22"/>
-      <c r="B41" s="24"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
       <c r="E41" s="14"/>
@@ -3155,7 +3125,7 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="22"/>
-      <c r="B42" s="24"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
       <c r="E42" s="14"/>
@@ -3203,7 +3173,7 @@
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="22"/>
-      <c r="B43" s="24"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
       <c r="E43" s="14"/>
@@ -3251,7 +3221,7 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="22"/>
-      <c r="B44" s="24"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
       <c r="E44" s="14"/>
@@ -3299,7 +3269,7 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="22"/>
-      <c r="B45" s="24"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="E45" s="14"/>
@@ -3347,7 +3317,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="22"/>
-      <c r="B46" s="24"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="11"/>
       <c r="D46" s="12"/>
       <c r="E46" s="14"/>
@@ -3395,7 +3365,7 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="22"/>
-      <c r="B47" s="24"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="11"/>
       <c r="D47" s="12"/>
       <c r="E47" s="14"/>
@@ -3443,7 +3413,7 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="22"/>
-      <c r="B48" s="24"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="11"/>
       <c r="D48" s="12"/>
       <c r="E48" s="14"/>
@@ -3491,7 +3461,7 @@
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="22"/>
-      <c r="B49" s="24"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="11"/>
       <c r="D49" s="12"/>
       <c r="E49" s="14"/>
@@ -3539,7 +3509,7 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="22"/>
-      <c r="B50" s="24"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="11"/>
       <c r="D50" s="12"/>
       <c r="E50" s="14"/>
@@ -3587,7 +3557,7 @@
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="22"/>
-      <c r="B51" s="24"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="11"/>
       <c r="D51" s="12"/>
       <c r="E51" s="14"/>
@@ -3635,7 +3605,7 @@
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="22"/>
-      <c r="B52" s="24"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="11"/>
       <c r="D52" s="12"/>
       <c r="E52" s="14"/>
@@ -3683,7 +3653,7 @@
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="22"/>
-      <c r="B53" s="24"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="11"/>
       <c r="D53" s="12"/>
       <c r="E53" s="14"/>
@@ -3731,7 +3701,7 @@
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="22"/>
-      <c r="B54" s="24"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="11"/>
       <c r="D54" s="12"/>
       <c r="E54" s="14"/>
@@ -3779,7 +3749,7 @@
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="22"/>
-      <c r="B55" s="24"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="11"/>
       <c r="D55" s="12"/>
       <c r="E55" s="14"/>
@@ -3827,7 +3797,7 @@
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="22"/>
-      <c r="B56" s="24"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="11"/>
       <c r="D56" s="12"/>
       <c r="E56" s="14"/>
@@ -3875,7 +3845,7 @@
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="22"/>
-      <c r="B57" s="24"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="11"/>
       <c r="D57" s="12"/>
       <c r="E57" s="14"/>
@@ -3923,7 +3893,7 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="22"/>
-      <c r="B58" s="24"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="11"/>
       <c r="D58" s="12"/>
       <c r="E58" s="14"/>
@@ -3971,7 +3941,7 @@
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="22"/>
-      <c r="B59" s="24"/>
+      <c r="B59" s="23"/>
       <c r="C59" s="11"/>
       <c r="D59" s="12"/>
       <c r="E59" s="14"/>
@@ -4019,7 +3989,7 @@
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="22"/>
-      <c r="B60" s="24"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="11"/>
       <c r="D60" s="12"/>
       <c r="E60" s="14"/>
@@ -4067,7 +4037,7 @@
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="22"/>
-      <c r="B61" s="24"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="11"/>
       <c r="D61" s="12"/>
       <c r="E61" s="14"/>
@@ -4115,7 +4085,7 @@
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="22"/>
-      <c r="B62" s="24"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="11"/>
       <c r="D62" s="12"/>
       <c r="E62" s="14"/>
@@ -4163,7 +4133,7 @@
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="22"/>
-      <c r="B63" s="24"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="11"/>
       <c r="D63" s="12"/>
       <c r="E63" s="14"/>
@@ -4211,7 +4181,7 @@
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="22"/>
-      <c r="B64" s="24"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="11"/>
       <c r="D64" s="12"/>
       <c r="E64" s="14"/>
@@ -4259,7 +4229,7 @@
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="22"/>
-      <c r="B65" s="24"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="11"/>
       <c r="D65" s="12"/>
       <c r="E65" s="14"/>
@@ -4307,7 +4277,7 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="22"/>
-      <c r="B66" s="24"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="11"/>
       <c r="D66" s="12"/>
       <c r="E66" s="14"/>
@@ -4355,7 +4325,7 @@
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="22"/>
-      <c r="B67" s="24"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="11"/>
       <c r="D67" s="12"/>
       <c r="E67" s="14"/>
@@ -4403,7 +4373,7 @@
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="22"/>
-      <c r="B68" s="24"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="11"/>
       <c r="D68" s="12"/>
       <c r="E68" s="14"/>
@@ -4451,7 +4421,7 @@
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="22"/>
-      <c r="B69" s="24"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="11"/>
       <c r="D69" s="12"/>
       <c r="E69" s="14"/>
@@ -4499,7 +4469,7 @@
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="22"/>
-      <c r="B70" s="24"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="11"/>
       <c r="D70" s="12"/>
       <c r="E70" s="14"/>
@@ -4547,7 +4517,7 @@
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="22"/>
-      <c r="B71" s="24"/>
+      <c r="B71" s="23"/>
       <c r="C71" s="11"/>
       <c r="D71" s="12"/>
       <c r="E71" s="14"/>
@@ -4595,7 +4565,7 @@
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="22"/>
-      <c r="B72" s="24"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="11"/>
       <c r="D72" s="12"/>
       <c r="E72" s="14"/>
@@ -4643,7 +4613,7 @@
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="22"/>
-      <c r="B73" s="24"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="11"/>
       <c r="D73" s="12"/>
       <c r="E73" s="14"/>
@@ -4691,7 +4661,7 @@
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="22"/>
-      <c r="B74" s="24"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="11"/>
       <c r="D74" s="12"/>
       <c r="E74" s="14"/>
@@ -4739,7 +4709,7 @@
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="22"/>
-      <c r="B75" s="24"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="11"/>
       <c r="D75" s="12"/>
       <c r="E75" s="14"/>
@@ -4787,7 +4757,7 @@
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="22"/>
-      <c r="B76" s="24"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="11"/>
       <c r="D76" s="12"/>
       <c r="E76" s="14"/>
@@ -4835,7 +4805,7 @@
     </row>
     <row r="77" spans="1:19">
       <c r="A77" s="22"/>
-      <c r="B77" s="24"/>
+      <c r="B77" s="23"/>
       <c r="C77" s="11"/>
       <c r="D77" s="12"/>
       <c r="E77" s="14"/>
@@ -4883,7 +4853,7 @@
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="22"/>
-      <c r="B78" s="24"/>
+      <c r="B78" s="23"/>
       <c r="C78" s="11"/>
       <c r="D78" s="12"/>
       <c r="E78" s="14"/>
@@ -4931,7 +4901,7 @@
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="22"/>
-      <c r="B79" s="24"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="11"/>
       <c r="D79" s="12"/>
       <c r="E79" s="14"/>
@@ -4979,7 +4949,7 @@
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="22"/>
-      <c r="B80" s="24"/>
+      <c r="B80" s="23"/>
       <c r="C80" s="11"/>
       <c r="D80" s="12"/>
       <c r="E80" s="14"/>
@@ -5027,7 +4997,7 @@
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="22"/>
-      <c r="B81" s="24"/>
+      <c r="B81" s="23"/>
       <c r="C81" s="11"/>
       <c r="D81" s="12"/>
       <c r="E81" s="14"/>
@@ -5075,7 +5045,7 @@
     </row>
     <row r="82" spans="1:19">
       <c r="A82" s="22"/>
-      <c r="B82" s="24"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="11"/>
       <c r="D82" s="12"/>
       <c r="E82" s="14"/>
@@ -5123,7 +5093,7 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="22"/>
-      <c r="B83" s="24"/>
+      <c r="B83" s="23"/>
       <c r="C83" s="11"/>
       <c r="D83" s="12"/>
       <c r="E83" s="14"/>
@@ -5171,7 +5141,7 @@
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="22"/>
-      <c r="B84" s="24"/>
+      <c r="B84" s="23"/>
       <c r="C84" s="11"/>
       <c r="D84" s="12"/>
       <c r="E84" s="14"/>
@@ -5219,7 +5189,7 @@
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="22"/>
-      <c r="B85" s="24"/>
+      <c r="B85" s="23"/>
       <c r="C85" s="11"/>
       <c r="D85" s="12"/>
       <c r="E85" s="14"/>
@@ -5267,7 +5237,7 @@
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="22"/>
-      <c r="B86" s="24"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="11"/>
       <c r="D86" s="12"/>
       <c r="E86" s="14"/>
@@ -5315,7 +5285,7 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="22"/>
-      <c r="B87" s="24"/>
+      <c r="B87" s="23"/>
       <c r="C87" s="11"/>
       <c r="D87" s="12"/>
       <c r="E87" s="14"/>
@@ -5363,7 +5333,7 @@
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="22"/>
-      <c r="B88" s="24"/>
+      <c r="B88" s="23"/>
       <c r="C88" s="11"/>
       <c r="D88" s="12"/>
       <c r="E88" s="14"/>
@@ -5411,7 +5381,7 @@
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="22"/>
-      <c r="B89" s="24"/>
+      <c r="B89" s="23"/>
       <c r="C89" s="11"/>
       <c r="D89" s="12"/>
       <c r="E89" s="14"/>
@@ -5459,7 +5429,7 @@
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="22"/>
-      <c r="B90" s="24"/>
+      <c r="B90" s="23"/>
       <c r="C90" s="11"/>
       <c r="D90" s="12"/>
       <c r="E90" s="14"/>
@@ -5507,7 +5477,7 @@
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="22"/>
-      <c r="B91" s="24"/>
+      <c r="B91" s="23"/>
       <c r="C91" s="11"/>
       <c r="D91" s="12"/>
       <c r="E91" s="14"/>
@@ -5555,7 +5525,7 @@
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="22"/>
-      <c r="B92" s="24"/>
+      <c r="B92" s="23"/>
       <c r="C92" s="11"/>
       <c r="D92" s="12"/>
       <c r="E92" s="14"/>
@@ -5603,7 +5573,7 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="22"/>
-      <c r="B93" s="24"/>
+      <c r="B93" s="23"/>
       <c r="C93" s="11"/>
       <c r="D93" s="12"/>
       <c r="E93" s="14"/>
@@ -5651,7 +5621,7 @@
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="22"/>
-      <c r="B94" s="24"/>
+      <c r="B94" s="23"/>
       <c r="C94" s="11"/>
       <c r="D94" s="12"/>
       <c r="E94" s="14"/>
@@ -5699,7 +5669,7 @@
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="22"/>
-      <c r="B95" s="24"/>
+      <c r="B95" s="23"/>
       <c r="C95" s="11"/>
       <c r="D95" s="12"/>
       <c r="E95" s="14"/>
@@ -5747,7 +5717,7 @@
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="22"/>
-      <c r="B96" s="24"/>
+      <c r="B96" s="23"/>
       <c r="C96" s="11"/>
       <c r="D96" s="12"/>
       <c r="E96" s="14"/>
@@ -5795,7 +5765,7 @@
     </row>
     <row r="97" spans="1:19">
       <c r="A97" s="22"/>
-      <c r="B97" s="24"/>
+      <c r="B97" s="23"/>
       <c r="C97" s="11"/>
       <c r="D97" s="12"/>
       <c r="E97" s="14"/>
@@ -5843,7 +5813,7 @@
     </row>
     <row r="98" spans="1:19">
       <c r="A98" s="22"/>
-      <c r="B98" s="24"/>
+      <c r="B98" s="23"/>
       <c r="C98" s="11"/>
       <c r="D98" s="12"/>
       <c r="E98" s="14"/>
@@ -5891,7 +5861,7 @@
     </row>
     <row r="99" spans="1:19">
       <c r="A99" s="22"/>
-      <c r="B99" s="24"/>
+      <c r="B99" s="23"/>
       <c r="C99" s="11"/>
       <c r="D99" s="12"/>
       <c r="E99" s="14"/>
@@ -5939,7 +5909,7 @@
     </row>
     <row r="100" spans="1:19">
       <c r="A100" s="22"/>
-      <c r="B100" s="24"/>
+      <c r="B100" s="23"/>
       <c r="C100" s="11"/>
       <c r="D100" s="12"/>
       <c r="E100" s="14"/>
@@ -5987,7 +5957,7 @@
     </row>
     <row r="101" spans="1:19">
       <c r="A101" s="22"/>
-      <c r="B101" s="24"/>
+      <c r="B101" s="23"/>
       <c r="C101" s="11"/>
       <c r="D101" s="12"/>
       <c r="E101" s="14"/>
@@ -6035,7 +6005,7 @@
     </row>
     <row r="102" spans="1:19">
       <c r="A102" s="22"/>
-      <c r="B102" s="24"/>
+      <c r="B102" s="23"/>
       <c r="C102" s="11"/>
       <c r="D102" s="12"/>
       <c r="E102" s="14"/>
@@ -6083,7 +6053,7 @@
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="22"/>
-      <c r="B103" s="24"/>
+      <c r="B103" s="23"/>
       <c r="C103" s="11"/>
       <c r="D103" s="12"/>
       <c r="E103" s="14"/>
@@ -6131,7 +6101,7 @@
     </row>
     <row r="104" spans="1:19">
       <c r="A104" s="22"/>
-      <c r="B104" s="24"/>
+      <c r="B104" s="23"/>
       <c r="C104" s="11"/>
       <c r="D104" s="12"/>
       <c r="E104" s="14"/>
@@ -6179,7 +6149,7 @@
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="22"/>
-      <c r="B105" s="24"/>
+      <c r="B105" s="23"/>
       <c r="C105" s="11"/>
       <c r="D105" s="12"/>
       <c r="E105" s="14"/>
@@ -6227,7 +6197,7 @@
     </row>
     <row r="106" spans="1:19">
       <c r="A106" s="22"/>
-      <c r="B106" s="24"/>
+      <c r="B106" s="23"/>
       <c r="C106" s="11"/>
       <c r="D106" s="12"/>
       <c r="E106" s="14"/>
@@ -6275,7 +6245,7 @@
     </row>
     <row r="107" spans="1:19">
       <c r="A107" s="22"/>
-      <c r="B107" s="24"/>
+      <c r="B107" s="23"/>
       <c r="C107" s="11"/>
       <c r="D107" s="12"/>
       <c r="E107" s="14"/>
@@ -6323,7 +6293,7 @@
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="22"/>
-      <c r="B108" s="24"/>
+      <c r="B108" s="23"/>
       <c r="C108" s="11"/>
       <c r="D108" s="12"/>
       <c r="E108" s="14"/>
@@ -6371,7 +6341,7 @@
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="22"/>
-      <c r="B109" s="24"/>
+      <c r="B109" s="23"/>
       <c r="C109" s="11"/>
       <c r="D109" s="12"/>
       <c r="E109" s="14"/>
@@ -6419,7 +6389,7 @@
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="22"/>
-      <c r="B110" s="24"/>
+      <c r="B110" s="23"/>
       <c r="C110" s="11"/>
       <c r="D110" s="12"/>
       <c r="E110" s="14"/>
@@ -6467,7 +6437,7 @@
     </row>
     <row r="111" spans="1:19">
       <c r="A111" s="22"/>
-      <c r="B111" s="24"/>
+      <c r="B111" s="23"/>
       <c r="C111" s="11"/>
       <c r="D111" s="12"/>
       <c r="E111" s="14"/>
@@ -6515,7 +6485,7 @@
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="22"/>
-      <c r="B112" s="24"/>
+      <c r="B112" s="23"/>
       <c r="C112" s="11"/>
       <c r="D112" s="12"/>
       <c r="E112" s="14"/>
@@ -6563,7 +6533,7 @@
     </row>
     <row r="113" spans="1:19">
       <c r="A113" s="22"/>
-      <c r="B113" s="24"/>
+      <c r="B113" s="23"/>
       <c r="C113" s="11"/>
       <c r="D113" s="12"/>
       <c r="E113" s="14"/>
@@ -6611,7 +6581,7 @@
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="22"/>
-      <c r="B114" s="24"/>
+      <c r="B114" s="23"/>
       <c r="C114" s="11"/>
       <c r="D114" s="12"/>
       <c r="E114" s="14"/>
@@ -6659,7 +6629,7 @@
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="22"/>
-      <c r="B115" s="24"/>
+      <c r="B115" s="23"/>
       <c r="C115" s="11"/>
       <c r="D115" s="12"/>
       <c r="E115" s="14"/>
@@ -6707,7 +6677,7 @@
     </row>
     <row r="116" spans="1:19">
       <c r="A116" s="22"/>
-      <c r="B116" s="24"/>
+      <c r="B116" s="23"/>
       <c r="C116" s="11"/>
       <c r="D116" s="12"/>
       <c r="E116" s="14"/>
@@ -6755,7 +6725,7 @@
     </row>
     <row r="117" spans="1:19">
       <c r="A117" s="22"/>
-      <c r="B117" s="24"/>
+      <c r="B117" s="23"/>
       <c r="C117" s="11"/>
       <c r="D117" s="12"/>
       <c r="E117" s="14"/>
@@ -6803,7 +6773,7 @@
     </row>
     <row r="118" spans="1:19">
       <c r="A118" s="22"/>
-      <c r="B118" s="24"/>
+      <c r="B118" s="23"/>
       <c r="C118" s="11"/>
       <c r="D118" s="12"/>
       <c r="E118" s="14"/>
@@ -6851,7 +6821,7 @@
     </row>
     <row r="119" spans="1:19">
       <c r="A119" s="22"/>
-      <c r="B119" s="24"/>
+      <c r="B119" s="23"/>
       <c r="C119" s="11"/>
       <c r="D119" s="12"/>
       <c r="E119" s="14"/>
@@ -6899,7 +6869,7 @@
     </row>
     <row r="120" spans="1:19">
       <c r="A120" s="22"/>
-      <c r="B120" s="24"/>
+      <c r="B120" s="23"/>
       <c r="C120" s="11"/>
       <c r="D120" s="12"/>
       <c r="E120" s="14"/>
@@ -6947,7 +6917,7 @@
     </row>
     <row r="121" spans="1:19">
       <c r="A121" s="22"/>
-      <c r="B121" s="24"/>
+      <c r="B121" s="23"/>
       <c r="C121" s="11"/>
       <c r="D121" s="12"/>
       <c r="E121" s="14"/>
@@ -6995,7 +6965,7 @@
     </row>
     <row r="122" spans="1:19">
       <c r="A122" s="22"/>
-      <c r="B122" s="24"/>
+      <c r="B122" s="23"/>
       <c r="C122" s="11"/>
       <c r="D122" s="12"/>
       <c r="E122" s="14"/>
@@ -7043,7 +7013,7 @@
     </row>
     <row r="123" spans="1:19">
       <c r="A123" s="22"/>
-      <c r="B123" s="24"/>
+      <c r="B123" s="23"/>
       <c r="C123" s="11"/>
       <c r="D123" s="12"/>
       <c r="E123" s="14"/>
@@ -7091,7 +7061,7 @@
     </row>
     <row r="124" spans="1:19">
       <c r="A124" s="22"/>
-      <c r="B124" s="24"/>
+      <c r="B124" s="23"/>
       <c r="C124" s="11"/>
       <c r="D124" s="12"/>
       <c r="E124" s="14"/>
@@ -7139,7 +7109,7 @@
     </row>
     <row r="125" spans="1:19">
       <c r="A125" s="22"/>
-      <c r="B125" s="24"/>
+      <c r="B125" s="23"/>
       <c r="C125" s="11"/>
       <c r="D125" s="12"/>
       <c r="E125" s="14"/>
@@ -7187,7 +7157,7 @@
     </row>
     <row r="126" spans="1:19">
       <c r="A126" s="22"/>
-      <c r="B126" s="24"/>
+      <c r="B126" s="23"/>
       <c r="C126" s="11"/>
       <c r="D126" s="12"/>
       <c r="E126" s="14"/>
@@ -7235,7 +7205,7 @@
     </row>
     <row r="127" spans="1:19">
       <c r="A127" s="22"/>
-      <c r="B127" s="24"/>
+      <c r="B127" s="23"/>
       <c r="C127" s="11"/>
       <c r="D127" s="12"/>
       <c r="E127" s="14"/>
@@ -7283,7 +7253,7 @@
     </row>
     <row r="128" spans="1:19">
       <c r="A128" s="22"/>
-      <c r="B128" s="24"/>
+      <c r="B128" s="23"/>
       <c r="C128" s="11"/>
       <c r="D128" s="12"/>
       <c r="E128" s="14"/>
@@ -7331,7 +7301,7 @@
     </row>
     <row r="129" spans="1:19">
       <c r="A129" s="22"/>
-      <c r="B129" s="24"/>
+      <c r="B129" s="23"/>
       <c r="C129" s="11"/>
       <c r="D129" s="12"/>
       <c r="E129" s="14"/>
@@ -7379,7 +7349,7 @@
     </row>
     <row r="130" spans="1:19">
       <c r="A130" s="22"/>
-      <c r="B130" s="24"/>
+      <c r="B130" s="23"/>
       <c r="C130" s="11"/>
       <c r="D130" s="12"/>
       <c r="E130" s="14"/>
@@ -7427,7 +7397,7 @@
     </row>
     <row r="131" spans="1:19">
       <c r="A131" s="22"/>
-      <c r="B131" s="24"/>
+      <c r="B131" s="23"/>
       <c r="C131" s="11"/>
       <c r="D131" s="12"/>
       <c r="E131" s="14"/>
@@ -7475,7 +7445,7 @@
     </row>
     <row r="132" spans="1:19">
       <c r="A132" s="22"/>
-      <c r="B132" s="24"/>
+      <c r="B132" s="23"/>
       <c r="C132" s="11"/>
       <c r="D132" s="12"/>
       <c r="E132" s="14"/>
@@ -7523,7 +7493,7 @@
     </row>
     <row r="133" spans="1:19">
       <c r="A133" s="22"/>
-      <c r="B133" s="24"/>
+      <c r="B133" s="23"/>
       <c r="C133" s="11"/>
       <c r="D133" s="12"/>
       <c r="E133" s="14"/>
@@ -7571,7 +7541,7 @@
     </row>
     <row r="134" spans="1:19">
       <c r="A134" s="22"/>
-      <c r="B134" s="24"/>
+      <c r="B134" s="23"/>
       <c r="C134" s="11"/>
       <c r="D134" s="12"/>
       <c r="E134" s="14"/>
@@ -7619,7 +7589,7 @@
     </row>
     <row r="135" spans="1:19">
       <c r="A135" s="22"/>
-      <c r="B135" s="24"/>
+      <c r="B135" s="23"/>
       <c r="C135" s="11"/>
       <c r="D135" s="12"/>
       <c r="E135" s="14"/>
@@ -7667,7 +7637,7 @@
     </row>
     <row r="136" spans="1:19">
       <c r="A136" s="22"/>
-      <c r="B136" s="24"/>
+      <c r="B136" s="23"/>
       <c r="C136" s="11"/>
       <c r="D136" s="12"/>
       <c r="E136" s="14"/>
@@ -7715,7 +7685,7 @@
     </row>
     <row r="137" spans="1:19">
       <c r="A137" s="22"/>
-      <c r="B137" s="24"/>
+      <c r="B137" s="23"/>
       <c r="C137" s="11"/>
       <c r="D137" s="12"/>
       <c r="E137" s="14"/>
@@ -7763,7 +7733,7 @@
     </row>
     <row r="138" spans="1:19">
       <c r="A138" s="22"/>
-      <c r="B138" s="24"/>
+      <c r="B138" s="23"/>
       <c r="C138" s="11"/>
       <c r="D138" s="12"/>
       <c r="E138" s="14"/>
@@ -7811,7 +7781,7 @@
     </row>
     <row r="139" spans="1:19">
       <c r="A139" s="22"/>
-      <c r="B139" s="24"/>
+      <c r="B139" s="23"/>
       <c r="C139" s="11"/>
       <c r="D139" s="12"/>
       <c r="E139" s="14"/>
@@ -7859,7 +7829,7 @@
     </row>
     <row r="140" spans="1:19">
       <c r="A140" s="22"/>
-      <c r="B140" s="24"/>
+      <c r="B140" s="23"/>
       <c r="C140" s="11"/>
       <c r="D140" s="12"/>
       <c r="E140" s="14"/>
@@ -7907,7 +7877,7 @@
     </row>
     <row r="141" spans="1:19">
       <c r="A141" s="22"/>
-      <c r="B141" s="24"/>
+      <c r="B141" s="23"/>
       <c r="C141" s="11"/>
       <c r="D141" s="12"/>
       <c r="E141" s="14"/>
@@ -7955,7 +7925,7 @@
     </row>
     <row r="142" spans="1:19">
       <c r="A142" s="22"/>
-      <c r="B142" s="24"/>
+      <c r="B142" s="23"/>
       <c r="C142" s="11"/>
       <c r="D142" s="12"/>
       <c r="E142" s="14"/>
@@ -8003,7 +7973,7 @@
     </row>
     <row r="143" spans="1:19">
       <c r="A143" s="22"/>
-      <c r="B143" s="24"/>
+      <c r="B143" s="23"/>
       <c r="C143" s="11"/>
       <c r="D143" s="12"/>
       <c r="E143" s="14"/>
@@ -8051,7 +8021,7 @@
     </row>
     <row r="144" spans="1:19">
       <c r="A144" s="22"/>
-      <c r="B144" s="24"/>
+      <c r="B144" s="23"/>
       <c r="C144" s="11"/>
       <c r="D144" s="12"/>
       <c r="E144" s="14"/>
@@ -8099,7 +8069,7 @@
     </row>
     <row r="145" spans="1:19">
       <c r="A145" s="22"/>
-      <c r="B145" s="24"/>
+      <c r="B145" s="23"/>
       <c r="C145" s="11"/>
       <c r="D145" s="12"/>
       <c r="E145" s="14"/>
@@ -8147,7 +8117,7 @@
     </row>
     <row r="146" spans="1:19">
       <c r="A146" s="22"/>
-      <c r="B146" s="24"/>
+      <c r="B146" s="23"/>
       <c r="C146" s="11"/>
       <c r="D146" s="12"/>
       <c r="E146" s="14"/>
@@ -8195,7 +8165,7 @@
     </row>
     <row r="147" spans="1:19">
       <c r="A147" s="22"/>
-      <c r="B147" s="24"/>
+      <c r="B147" s="23"/>
       <c r="C147" s="11"/>
       <c r="D147" s="12"/>
       <c r="E147" s="14"/>
@@ -8243,7 +8213,7 @@
     </row>
     <row r="148" spans="1:19">
       <c r="A148" s="22"/>
-      <c r="B148" s="24"/>
+      <c r="B148" s="23"/>
       <c r="C148" s="11"/>
       <c r="D148" s="12"/>
       <c r="E148" s="14"/>
@@ -8291,7 +8261,7 @@
     </row>
     <row r="149" spans="1:19">
       <c r="A149" s="22"/>
-      <c r="B149" s="24"/>
+      <c r="B149" s="23"/>
       <c r="C149" s="11"/>
       <c r="D149" s="12"/>
       <c r="E149" s="14"/>
@@ -8339,7 +8309,7 @@
     </row>
     <row r="150" spans="1:19">
       <c r="A150" s="22"/>
-      <c r="B150" s="24"/>
+      <c r="B150" s="23"/>
       <c r="C150" s="11"/>
       <c r="D150" s="12"/>
       <c r="E150" s="14"/>
@@ -8387,7 +8357,7 @@
     </row>
     <row r="151" spans="1:19">
       <c r="A151" s="22"/>
-      <c r="B151" s="24"/>
+      <c r="B151" s="23"/>
       <c r="C151" s="11"/>
       <c r="D151" s="12"/>
       <c r="E151" s="14"/>
@@ -8435,7 +8405,7 @@
     </row>
     <row r="152" spans="1:19">
       <c r="A152" s="22"/>
-      <c r="B152" s="24"/>
+      <c r="B152" s="23"/>
       <c r="C152" s="11"/>
       <c r="D152" s="12"/>
       <c r="E152" s="14"/>
@@ -8483,7 +8453,7 @@
     </row>
     <row r="153" spans="1:19">
       <c r="A153" s="22"/>
-      <c r="B153" s="24"/>
+      <c r="B153" s="23"/>
       <c r="C153" s="11"/>
       <c r="D153" s="12"/>
       <c r="E153" s="14"/>
@@ -8531,7 +8501,7 @@
     </row>
     <row r="154" spans="1:19">
       <c r="A154" s="22"/>
-      <c r="B154" s="24"/>
+      <c r="B154" s="23"/>
       <c r="C154" s="11"/>
       <c r="D154" s="12"/>
       <c r="E154" s="14"/>
@@ -8579,7 +8549,7 @@
     </row>
     <row r="155" spans="1:19">
       <c r="A155" s="22"/>
-      <c r="B155" s="24"/>
+      <c r="B155" s="23"/>
       <c r="C155" s="11"/>
       <c r="D155" s="12"/>
       <c r="E155" s="14"/>
@@ -8627,7 +8597,7 @@
     </row>
     <row r="156" spans="1:19">
       <c r="A156" s="22"/>
-      <c r="B156" s="24"/>
+      <c r="B156" s="23"/>
       <c r="C156" s="11"/>
       <c r="D156" s="12"/>
       <c r="E156" s="14"/>
@@ -8675,7 +8645,7 @@
     </row>
     <row r="157" spans="1:19">
       <c r="A157" s="22"/>
-      <c r="B157" s="24"/>
+      <c r="B157" s="23"/>
       <c r="C157" s="11"/>
       <c r="D157" s="12"/>
       <c r="E157" s="14"/>
@@ -8723,7 +8693,7 @@
     </row>
     <row r="158" spans="1:19">
       <c r="A158" s="22"/>
-      <c r="B158" s="24"/>
+      <c r="B158" s="23"/>
       <c r="C158" s="11"/>
       <c r="D158" s="12"/>
       <c r="E158" s="14"/>
@@ -8771,7 +8741,7 @@
     </row>
     <row r="159" spans="1:19">
       <c r="A159" s="22"/>
-      <c r="B159" s="24"/>
+      <c r="B159" s="23"/>
       <c r="C159" s="11"/>
       <c r="D159" s="12"/>
       <c r="E159" s="14"/>
@@ -8819,7 +8789,7 @@
     </row>
     <row r="160" spans="1:19">
       <c r="A160" s="22"/>
-      <c r="B160" s="24"/>
+      <c r="B160" s="23"/>
       <c r="C160" s="11"/>
       <c r="D160" s="12"/>
       <c r="E160" s="14"/>
@@ -8867,7 +8837,7 @@
     </row>
     <row r="161" spans="1:19">
       <c r="A161" s="22"/>
-      <c r="B161" s="24"/>
+      <c r="B161" s="23"/>
       <c r="C161" s="11"/>
       <c r="D161" s="12"/>
       <c r="E161" s="14"/>
@@ -8915,7 +8885,7 @@
     </row>
     <row r="162" spans="1:19">
       <c r="A162" s="22"/>
-      <c r="B162" s="24"/>
+      <c r="B162" s="23"/>
       <c r="C162" s="11"/>
       <c r="D162" s="12"/>
       <c r="E162" s="14"/>
@@ -8963,7 +8933,7 @@
     </row>
     <row r="163" spans="1:19">
       <c r="A163" s="22"/>
-      <c r="B163" s="24"/>
+      <c r="B163" s="23"/>
       <c r="C163" s="11"/>
       <c r="D163" s="12"/>
       <c r="E163" s="14"/>
@@ -9011,7 +8981,7 @@
     </row>
     <row r="164" spans="1:19">
       <c r="A164" s="22"/>
-      <c r="B164" s="24"/>
+      <c r="B164" s="23"/>
       <c r="C164" s="11"/>
       <c r="D164" s="12"/>
       <c r="E164" s="14"/>
@@ -9059,7 +9029,7 @@
     </row>
     <row r="165" spans="1:19">
       <c r="A165" s="22"/>
-      <c r="B165" s="24"/>
+      <c r="B165" s="23"/>
       <c r="C165" s="11"/>
       <c r="D165" s="12"/>
       <c r="E165" s="14"/>
@@ -9107,7 +9077,7 @@
     </row>
     <row r="166" spans="1:19">
       <c r="A166" s="22"/>
-      <c r="B166" s="24"/>
+      <c r="B166" s="23"/>
       <c r="C166" s="11"/>
       <c r="D166" s="12"/>
       <c r="E166" s="14"/>
@@ -9155,7 +9125,7 @@
     </row>
     <row r="167" spans="1:19">
       <c r="A167" s="22"/>
-      <c r="B167" s="24"/>
+      <c r="B167" s="23"/>
       <c r="C167" s="11"/>
       <c r="D167" s="12"/>
       <c r="E167" s="14"/>
@@ -9203,7 +9173,7 @@
     </row>
     <row r="168" spans="1:19">
       <c r="A168" s="22"/>
-      <c r="B168" s="24"/>
+      <c r="B168" s="23"/>
       <c r="C168" s="11"/>
       <c r="D168" s="12"/>
       <c r="E168" s="14"/>
@@ -9251,7 +9221,7 @@
     </row>
     <row r="169" spans="1:19">
       <c r="A169" s="22"/>
-      <c r="B169" s="24"/>
+      <c r="B169" s="23"/>
       <c r="C169" s="11"/>
       <c r="D169" s="12"/>
       <c r="E169" s="14"/>
@@ -9299,7 +9269,7 @@
     </row>
     <row r="170" spans="1:19">
       <c r="A170" s="22"/>
-      <c r="B170" s="24"/>
+      <c r="B170" s="23"/>
       <c r="C170" s="11"/>
       <c r="D170" s="12"/>
       <c r="E170" s="14"/>
@@ -9347,7 +9317,7 @@
     </row>
     <row r="171" spans="1:19">
       <c r="A171" s="22"/>
-      <c r="B171" s="24"/>
+      <c r="B171" s="23"/>
       <c r="C171" s="11"/>
       <c r="D171" s="12"/>
       <c r="E171" s="14"/>
@@ -9395,7 +9365,7 @@
     </row>
     <row r="172" spans="1:19">
       <c r="A172" s="22"/>
-      <c r="B172" s="24"/>
+      <c r="B172" s="23"/>
       <c r="C172" s="11"/>
       <c r="D172" s="12"/>
       <c r="E172" s="14"/>
@@ -9443,7 +9413,7 @@
     </row>
     <row r="173" spans="1:19">
       <c r="A173" s="22"/>
-      <c r="B173" s="24"/>
+      <c r="B173" s="23"/>
       <c r="C173" s="11"/>
       <c r="D173" s="12"/>
       <c r="E173" s="14"/>
@@ -9491,7 +9461,7 @@
     </row>
     <row r="174" spans="1:19">
       <c r="A174" s="22"/>
-      <c r="B174" s="24"/>
+      <c r="B174" s="23"/>
       <c r="C174" s="11"/>
       <c r="D174" s="12"/>
       <c r="E174" s="14"/>
@@ -9539,7 +9509,7 @@
     </row>
     <row r="175" spans="1:19">
       <c r="A175" s="22"/>
-      <c r="B175" s="24"/>
+      <c r="B175" s="23"/>
       <c r="C175" s="11"/>
       <c r="D175" s="12"/>
       <c r="E175" s="14"/>
@@ -9587,7 +9557,7 @@
     </row>
     <row r="176" spans="1:19">
       <c r="A176" s="22"/>
-      <c r="B176" s="24"/>
+      <c r="B176" s="23"/>
       <c r="C176" s="11"/>
       <c r="D176" s="12"/>
       <c r="E176" s="14"/>
@@ -9635,7 +9605,7 @@
     </row>
     <row r="177" spans="1:19">
       <c r="A177" s="22"/>
-      <c r="B177" s="24"/>
+      <c r="B177" s="23"/>
       <c r="C177" s="11"/>
       <c r="D177" s="12"/>
       <c r="E177" s="14"/>
@@ -9683,7 +9653,7 @@
     </row>
     <row r="178" spans="1:19">
       <c r="A178" s="22"/>
-      <c r="B178" s="24"/>
+      <c r="B178" s="23"/>
       <c r="C178" s="11"/>
       <c r="D178" s="12"/>
       <c r="E178" s="14"/>
@@ -9731,7 +9701,7 @@
     </row>
     <row r="179" spans="1:19">
       <c r="A179" s="22"/>
-      <c r="B179" s="24"/>
+      <c r="B179" s="23"/>
       <c r="C179" s="11"/>
       <c r="D179" s="12"/>
       <c r="E179" s="14"/>
@@ -9779,7 +9749,7 @@
     </row>
     <row r="180" spans="1:19">
       <c r="A180" s="22"/>
-      <c r="B180" s="24"/>
+      <c r="B180" s="23"/>
       <c r="C180" s="11"/>
       <c r="D180" s="12"/>
       <c r="E180" s="14"/>
@@ -9827,7 +9797,7 @@
     </row>
     <row r="181" spans="1:19">
       <c r="A181" s="22"/>
-      <c r="B181" s="24"/>
+      <c r="B181" s="23"/>
       <c r="C181" s="11"/>
       <c r="D181" s="12"/>
       <c r="E181" s="14"/>
@@ -9875,7 +9845,7 @@
     </row>
     <row r="182" spans="1:19">
       <c r="A182" s="22"/>
-      <c r="B182" s="24"/>
+      <c r="B182" s="23"/>
       <c r="C182" s="11"/>
       <c r="D182" s="12"/>
       <c r="E182" s="14"/>
@@ -9923,7 +9893,7 @@
     </row>
     <row r="183" spans="1:19">
       <c r="A183" s="22"/>
-      <c r="B183" s="24"/>
+      <c r="B183" s="23"/>
       <c r="C183" s="11"/>
       <c r="D183" s="12"/>
       <c r="E183" s="14"/>
@@ -9971,7 +9941,7 @@
     </row>
     <row r="184" spans="1:19">
       <c r="A184" s="22"/>
-      <c r="B184" s="24"/>
+      <c r="B184" s="23"/>
       <c r="C184" s="11"/>
       <c r="D184" s="12"/>
       <c r="E184" s="14"/>
@@ -10019,7 +9989,7 @@
     </row>
     <row r="185" spans="1:19">
       <c r="A185" s="22"/>
-      <c r="B185" s="24"/>
+      <c r="B185" s="23"/>
       <c r="C185" s="11"/>
       <c r="D185" s="12"/>
       <c r="E185" s="14"/>
@@ -10067,7 +10037,7 @@
     </row>
     <row r="186" spans="1:19">
       <c r="A186" s="22"/>
-      <c r="B186" s="24"/>
+      <c r="B186" s="23"/>
       <c r="C186" s="11"/>
       <c r="D186" s="12"/>
       <c r="E186" s="14"/>
@@ -10118,7 +10088,7 @@
     </row>
     <row r="187" spans="1:19">
       <c r="A187" s="22"/>
-      <c r="B187" s="24"/>
+      <c r="B187" s="23"/>
       <c r="C187" s="11"/>
       <c r="D187" s="12"/>
       <c r="E187" s="14"/>
@@ -10169,7 +10139,7 @@
     </row>
     <row r="188" spans="1:19">
       <c r="A188" s="22"/>
-      <c r="B188" s="24"/>
+      <c r="B188" s="23"/>
       <c r="C188" s="11"/>
       <c r="D188" s="12"/>
       <c r="E188" s="14"/>
@@ -10220,7 +10190,7 @@
     </row>
     <row r="189" spans="1:19">
       <c r="A189" s="22"/>
-      <c r="B189" s="24"/>
+      <c r="B189" s="23"/>
       <c r="C189" s="11"/>
       <c r="D189" s="12"/>
       <c r="E189" s="14"/>
@@ -10271,7 +10241,7 @@
     </row>
     <row r="190" spans="1:19">
       <c r="A190" s="22"/>
-      <c r="B190" s="24"/>
+      <c r="B190" s="23"/>
       <c r="C190" s="11"/>
       <c r="D190" s="12"/>
       <c r="E190" s="14"/>
@@ -10322,7 +10292,7 @@
     </row>
     <row r="191" spans="1:19">
       <c r="A191" s="22"/>
-      <c r="B191" s="24"/>
+      <c r="B191" s="23"/>
       <c r="C191" s="11"/>
       <c r="D191" s="12"/>
       <c r="E191" s="14"/>
@@ -10373,7 +10343,7 @@
     </row>
     <row r="192" spans="1:19">
       <c r="A192" s="22"/>
-      <c r="B192" s="24"/>
+      <c r="B192" s="23"/>
       <c r="C192" s="11"/>
       <c r="D192" s="12"/>
       <c r="E192" s="14"/>
@@ -10424,7 +10394,7 @@
     </row>
     <row r="193" spans="1:19">
       <c r="A193" s="22"/>
-      <c r="B193" s="24"/>
+      <c r="B193" s="23"/>
       <c r="C193" s="11"/>
       <c r="D193" s="12"/>
       <c r="E193" s="14"/>
@@ -10475,7 +10445,7 @@
     </row>
     <row r="194" spans="1:19">
       <c r="A194" s="22"/>
-      <c r="B194" s="24"/>
+      <c r="B194" s="23"/>
       <c r="C194" s="11"/>
       <c r="D194" s="12"/>
       <c r="E194" s="14"/>
@@ -10526,7 +10496,7 @@
     </row>
     <row r="195" spans="1:19">
       <c r="A195" s="22"/>
-      <c r="B195" s="24"/>
+      <c r="B195" s="23"/>
       <c r="C195" s="11"/>
       <c r="D195" s="12"/>
       <c r="E195" s="14"/>
@@ -10577,7 +10547,7 @@
     </row>
     <row r="196" spans="1:19">
       <c r="A196" s="22"/>
-      <c r="B196" s="24"/>
+      <c r="B196" s="23"/>
       <c r="C196" s="11"/>
       <c r="D196" s="12"/>
       <c r="E196" s="14"/>
@@ -10628,7 +10598,7 @@
     </row>
     <row r="197" spans="1:19">
       <c r="A197" s="22"/>
-      <c r="B197" s="24"/>
+      <c r="B197" s="23"/>
       <c r="C197" s="11"/>
       <c r="D197" s="12"/>
       <c r="E197" s="14"/>
@@ -10679,7 +10649,7 @@
     </row>
     <row r="198" spans="1:19">
       <c r="A198" s="22"/>
-      <c r="B198" s="24"/>
+      <c r="B198" s="23"/>
       <c r="C198" s="11"/>
       <c r="D198" s="12"/>
       <c r="E198" s="14"/>
@@ -10730,7 +10700,7 @@
     </row>
     <row r="199" spans="1:19">
       <c r="A199" s="22"/>
-      <c r="B199" s="24"/>
+      <c r="B199" s="23"/>
       <c r="C199" s="11"/>
       <c r="D199" s="12"/>
       <c r="E199" s="14"/>
@@ -10781,7 +10751,7 @@
     </row>
     <row r="200" spans="1:19">
       <c r="A200" s="22"/>
-      <c r="B200" s="24"/>
+      <c r="B200" s="23"/>
       <c r="C200" s="11"/>
       <c r="D200" s="12"/>
       <c r="E200" s="14"/>
@@ -10832,7 +10802,7 @@
     </row>
     <row r="201" spans="1:19">
       <c r="A201" s="22"/>
-      <c r="B201" s="24"/>
+      <c r="B201" s="23"/>
       <c r="C201" s="11"/>
       <c r="D201" s="12"/>
       <c r="E201" s="14"/>
@@ -10883,7 +10853,7 @@
     </row>
     <row r="202" spans="1:19">
       <c r="A202" s="22"/>
-      <c r="B202" s="24"/>
+      <c r="B202" s="23"/>
       <c r="C202" s="11"/>
       <c r="D202" s="12"/>
       <c r="E202" s="14"/>
@@ -10934,7 +10904,7 @@
     </row>
     <row r="203" spans="1:19">
       <c r="A203" s="22"/>
-      <c r="B203" s="24"/>
+      <c r="B203" s="23"/>
       <c r="C203" s="11"/>
       <c r="D203" s="12"/>
       <c r="E203" s="14"/>
@@ -10985,7 +10955,7 @@
     </row>
     <row r="204" spans="1:19">
       <c r="A204" s="22"/>
-      <c r="B204" s="24"/>
+      <c r="B204" s="23"/>
       <c r="C204" s="11"/>
       <c r="D204" s="12"/>
       <c r="E204" s="14"/>
@@ -11036,7 +11006,7 @@
     </row>
     <row r="205" spans="1:19">
       <c r="A205" s="22"/>
-      <c r="B205" s="24"/>
+      <c r="B205" s="23"/>
       <c r="C205" s="11"/>
       <c r="D205" s="12"/>
       <c r="E205" s="14"/>
@@ -11087,7 +11057,7 @@
     </row>
     <row r="206" spans="1:19">
       <c r="A206" s="22"/>
-      <c r="B206" s="24"/>
+      <c r="B206" s="23"/>
       <c r="C206" s="11"/>
       <c r="D206" s="12"/>
       <c r="E206" s="14"/>
@@ -11138,7 +11108,7 @@
     </row>
     <row r="207" spans="1:19">
       <c r="A207" s="22"/>
-      <c r="B207" s="24"/>
+      <c r="B207" s="23"/>
       <c r="C207" s="11"/>
       <c r="D207" s="12"/>
       <c r="E207" s="14"/>
@@ -11189,7 +11159,7 @@
     </row>
     <row r="208" spans="1:19">
       <c r="A208" s="22"/>
-      <c r="B208" s="24"/>
+      <c r="B208" s="23"/>
       <c r="C208" s="11"/>
       <c r="D208" s="12"/>
       <c r="E208" s="14"/>
@@ -11240,7 +11210,7 @@
     </row>
     <row r="209" spans="1:19">
       <c r="A209" s="22"/>
-      <c r="B209" s="24"/>
+      <c r="B209" s="23"/>
       <c r="C209" s="11"/>
       <c r="D209" s="12"/>
       <c r="E209" s="14"/>
@@ -11291,7 +11261,7 @@
     </row>
     <row r="210" spans="1:19">
       <c r="A210" s="22"/>
-      <c r="B210" s="24"/>
+      <c r="B210" s="23"/>
       <c r="C210" s="11"/>
       <c r="D210" s="12"/>
       <c r="E210" s="14"/>
@@ -11342,7 +11312,7 @@
     </row>
     <row r="211" spans="1:19">
       <c r="A211" s="22"/>
-      <c r="B211" s="24"/>
+      <c r="B211" s="23"/>
       <c r="C211" s="11"/>
       <c r="D211" s="12"/>
       <c r="E211" s="14"/>
@@ -11393,7 +11363,7 @@
     </row>
     <row r="212" spans="1:19">
       <c r="A212" s="22"/>
-      <c r="B212" s="24"/>
+      <c r="B212" s="23"/>
       <c r="C212" s="11"/>
       <c r="D212" s="12"/>
       <c r="E212" s="14"/>
@@ -11444,7 +11414,7 @@
     </row>
     <row r="213" spans="1:19">
       <c r="A213" s="22"/>
-      <c r="B213" s="24"/>
+      <c r="B213" s="23"/>
       <c r="C213" s="11"/>
       <c r="D213" s="12"/>
       <c r="E213" s="14"/>
@@ -11495,7 +11465,7 @@
     </row>
     <row r="214" spans="1:19">
       <c r="A214" s="22"/>
-      <c r="B214" s="24"/>
+      <c r="B214" s="23"/>
       <c r="C214" s="11"/>
       <c r="D214" s="12"/>
       <c r="E214" s="14"/>
@@ -11546,7 +11516,7 @@
     </row>
     <row r="215" spans="1:19">
       <c r="A215" s="22"/>
-      <c r="B215" s="24"/>
+      <c r="B215" s="23"/>
       <c r="C215" s="11"/>
       <c r="D215" s="12"/>
       <c r="E215" s="14"/>
@@ -11597,7 +11567,7 @@
     </row>
     <row r="216" spans="1:19">
       <c r="A216" s="22"/>
-      <c r="B216" s="24"/>
+      <c r="B216" s="23"/>
       <c r="C216" s="11"/>
       <c r="D216" s="12"/>
       <c r="E216" s="14"/>
@@ -11648,7 +11618,7 @@
     </row>
     <row r="217" spans="1:19">
       <c r="A217" s="22"/>
-      <c r="B217" s="24"/>
+      <c r="B217" s="23"/>
       <c r="C217" s="11"/>
       <c r="D217" s="12"/>
       <c r="E217" s="14"/>
@@ -11699,7 +11669,7 @@
     </row>
     <row r="218" spans="1:19">
       <c r="A218" s="22"/>
-      <c r="B218" s="24"/>
+      <c r="B218" s="23"/>
       <c r="C218" s="11"/>
       <c r="D218" s="12"/>
       <c r="E218" s="14"/>
@@ -11750,7 +11720,7 @@
     </row>
     <row r="219" spans="1:19">
       <c r="A219" s="22"/>
-      <c r="B219" s="24"/>
+      <c r="B219" s="23"/>
       <c r="C219" s="11"/>
       <c r="D219" s="12"/>
       <c r="E219" s="14"/>
@@ -11801,7 +11771,7 @@
     </row>
     <row r="220" spans="1:19">
       <c r="A220" s="22"/>
-      <c r="B220" s="24"/>
+      <c r="B220" s="23"/>
       <c r="C220" s="11"/>
       <c r="D220" s="12"/>
       <c r="E220" s="14"/>
@@ -11852,7 +11822,7 @@
     </row>
     <row r="221" spans="1:19">
       <c r="A221" s="22"/>
-      <c r="B221" s="24"/>
+      <c r="B221" s="23"/>
       <c r="C221" s="11"/>
       <c r="D221" s="12"/>
       <c r="E221" s="14"/>
@@ -11903,7 +11873,7 @@
     </row>
     <row r="222" spans="1:19">
       <c r="A222" s="22"/>
-      <c r="B222" s="24"/>
+      <c r="B222" s="23"/>
       <c r="C222" s="11"/>
       <c r="D222" s="12"/>
       <c r="E222" s="14"/>
@@ -11954,7 +11924,7 @@
     </row>
     <row r="223" spans="1:19">
       <c r="A223" s="22"/>
-      <c r="B223" s="24"/>
+      <c r="B223" s="23"/>
       <c r="C223" s="11"/>
       <c r="D223" s="12"/>
       <c r="E223" s="14"/>
@@ -12005,7 +11975,7 @@
     </row>
     <row r="224" spans="1:19">
       <c r="A224" s="22"/>
-      <c r="B224" s="24"/>
+      <c r="B224" s="23"/>
       <c r="C224" s="11"/>
       <c r="D224" s="12"/>
       <c r="E224" s="14"/>
@@ -12056,7 +12026,7 @@
     </row>
     <row r="225" spans="1:19">
       <c r="A225" s="22"/>
-      <c r="B225" s="24"/>
+      <c r="B225" s="23"/>
       <c r="C225" s="11"/>
       <c r="D225" s="12"/>
       <c r="E225" s="14"/>
@@ -12107,7 +12077,7 @@
     </row>
     <row r="226" spans="1:19">
       <c r="A226" s="22"/>
-      <c r="B226" s="24"/>
+      <c r="B226" s="23"/>
       <c r="C226" s="11"/>
       <c r="D226" s="12"/>
       <c r="E226" s="14"/>
@@ -12158,7 +12128,7 @@
     </row>
     <row r="227" spans="1:19">
       <c r="A227" s="22"/>
-      <c r="B227" s="24"/>
+      <c r="B227" s="23"/>
       <c r="C227" s="11"/>
       <c r="D227" s="12"/>
       <c r="E227" s="14"/>
@@ -12209,7 +12179,7 @@
     </row>
     <row r="228" spans="1:19">
       <c r="A228" s="22"/>
-      <c r="B228" s="24"/>
+      <c r="B228" s="23"/>
       <c r="C228" s="11"/>
       <c r="D228" s="12"/>
       <c r="E228" s="14"/>
@@ -12260,7 +12230,7 @@
     </row>
     <row r="229" spans="1:19">
       <c r="A229" s="22"/>
-      <c r="B229" s="24"/>
+      <c r="B229" s="23"/>
       <c r="C229" s="11"/>
       <c r="D229" s="12"/>
       <c r="E229" s="14"/>
@@ -12311,7 +12281,7 @@
     </row>
     <row r="230" spans="1:19">
       <c r="A230" s="22"/>
-      <c r="B230" s="24"/>
+      <c r="B230" s="23"/>
       <c r="C230" s="11"/>
       <c r="D230" s="12"/>
       <c r="E230" s="14"/>
@@ -12362,7 +12332,7 @@
     </row>
     <row r="231" spans="1:19">
       <c r="A231" s="22"/>
-      <c r="B231" s="24"/>
+      <c r="B231" s="23"/>
       <c r="C231" s="11"/>
       <c r="D231" s="12"/>
       <c r="E231" s="14"/>
@@ -12413,7 +12383,7 @@
     </row>
     <row r="232" spans="1:19">
       <c r="A232" s="22"/>
-      <c r="B232" s="24"/>
+      <c r="B232" s="23"/>
       <c r="C232" s="11"/>
       <c r="D232" s="12"/>
       <c r="E232" s="14"/>
@@ -12464,7 +12434,7 @@
     </row>
     <row r="233" spans="1:19">
       <c r="A233" s="22"/>
-      <c r="B233" s="24"/>
+      <c r="B233" s="23"/>
       <c r="C233" s="11"/>
       <c r="D233" s="12"/>
       <c r="E233" s="14"/>
@@ -12515,7 +12485,7 @@
     </row>
     <row r="234" spans="1:19">
       <c r="A234" s="22"/>
-      <c r="B234" s="24"/>
+      <c r="B234" s="23"/>
       <c r="C234" s="11"/>
       <c r="D234" s="12"/>
       <c r="E234" s="14"/>
@@ -12566,7 +12536,7 @@
     </row>
     <row r="235" spans="1:19">
       <c r="A235" s="22"/>
-      <c r="B235" s="24"/>
+      <c r="B235" s="23"/>
       <c r="C235" s="11"/>
       <c r="D235" s="12"/>
       <c r="E235" s="14"/>
@@ -12617,7 +12587,7 @@
     </row>
     <row r="236" spans="1:19">
       <c r="A236" s="22"/>
-      <c r="B236" s="24"/>
+      <c r="B236" s="23"/>
       <c r="C236" s="11"/>
       <c r="D236" s="12"/>
       <c r="E236" s="14"/>
@@ -12668,7 +12638,7 @@
     </row>
     <row r="237" spans="1:19">
       <c r="A237" s="22"/>
-      <c r="B237" s="24"/>
+      <c r="B237" s="23"/>
       <c r="C237" s="11"/>
       <c r="D237" s="12"/>
       <c r="E237" s="14"/>
@@ -12719,7 +12689,7 @@
     </row>
     <row r="238" spans="1:19">
       <c r="A238" s="22"/>
-      <c r="B238" s="24"/>
+      <c r="B238" s="23"/>
       <c r="C238" s="11"/>
       <c r="D238" s="12"/>
       <c r="E238" s="14"/>
@@ -12770,7 +12740,7 @@
     </row>
     <row r="239" spans="1:19">
       <c r="A239" s="22"/>
-      <c r="B239" s="24"/>
+      <c r="B239" s="23"/>
       <c r="C239" s="11"/>
       <c r="D239" s="12"/>
       <c r="E239" s="14"/>
@@ -12821,7 +12791,7 @@
     </row>
     <row r="240" spans="1:19">
       <c r="A240" s="22"/>
-      <c r="B240" s="24"/>
+      <c r="B240" s="23"/>
       <c r="C240" s="11"/>
       <c r="D240" s="12"/>
       <c r="E240" s="14"/>
@@ -12872,7 +12842,7 @@
     </row>
     <row r="241" spans="1:19">
       <c r="A241" s="22"/>
-      <c r="B241" s="24"/>
+      <c r="B241" s="23"/>
       <c r="C241" s="11"/>
       <c r="D241" s="12"/>
       <c r="E241" s="14"/>
@@ -12923,7 +12893,7 @@
     </row>
     <row r="242" spans="1:19">
       <c r="A242" s="22"/>
-      <c r="B242" s="24"/>
+      <c r="B242" s="23"/>
       <c r="C242" s="11"/>
       <c r="D242" s="12"/>
       <c r="E242" s="14"/>
@@ -12974,7 +12944,7 @@
     </row>
     <row r="243" spans="1:19">
       <c r="A243" s="22"/>
-      <c r="B243" s="24"/>
+      <c r="B243" s="23"/>
       <c r="C243" s="11"/>
       <c r="D243" s="12"/>
       <c r="E243" s="14"/>
@@ -13025,7 +12995,7 @@
     </row>
     <row r="244" spans="1:19">
       <c r="A244" s="22"/>
-      <c r="B244" s="24"/>
+      <c r="B244" s="23"/>
       <c r="C244" s="11"/>
       <c r="D244" s="12"/>
       <c r="E244" s="14"/>
@@ -13076,7 +13046,7 @@
     </row>
     <row r="245" spans="1:19">
       <c r="A245" s="22"/>
-      <c r="B245" s="24"/>
+      <c r="B245" s="23"/>
       <c r="C245" s="11"/>
       <c r="D245" s="12"/>
       <c r="E245" s="14"/>
@@ -13127,7 +13097,7 @@
     </row>
     <row r="246" spans="1:19">
       <c r="A246" s="22"/>
-      <c r="B246" s="24"/>
+      <c r="B246" s="23"/>
       <c r="C246" s="11"/>
       <c r="D246" s="12"/>
       <c r="E246" s="14"/>
@@ -13178,7 +13148,7 @@
     </row>
     <row r="247" spans="1:19">
       <c r="A247" s="22"/>
-      <c r="B247" s="24"/>
+      <c r="B247" s="23"/>
       <c r="C247" s="11"/>
       <c r="D247" s="12"/>
       <c r="E247" s="14"/>
@@ -13229,7 +13199,7 @@
     </row>
     <row r="248" spans="1:19">
       <c r="A248" s="22"/>
-      <c r="B248" s="24"/>
+      <c r="B248" s="23"/>
       <c r="C248" s="11"/>
       <c r="D248" s="12"/>
       <c r="E248" s="14"/>
@@ -13280,7 +13250,7 @@
     </row>
     <row r="249" spans="1:19">
       <c r="A249" s="22"/>
-      <c r="B249" s="24"/>
+      <c r="B249" s="23"/>
       <c r="C249" s="11"/>
       <c r="D249" s="12"/>
       <c r="E249" s="14"/>
@@ -13331,7 +13301,7 @@
     </row>
     <row r="250" spans="1:19">
       <c r="A250" s="22"/>
-      <c r="B250" s="24"/>
+      <c r="B250" s="23"/>
       <c r="C250" s="11"/>
       <c r="D250" s="12"/>
       <c r="E250" s="14"/>
@@ -13382,7 +13352,7 @@
     </row>
     <row r="251" spans="1:19">
       <c r="A251" s="22"/>
-      <c r="B251" s="24"/>
+      <c r="B251" s="23"/>
       <c r="C251" s="11"/>
       <c r="D251" s="12"/>
       <c r="E251" s="14"/>
@@ -13433,7 +13403,7 @@
     </row>
     <row r="252" spans="1:19">
       <c r="A252" s="22"/>
-      <c r="B252" s="24"/>
+      <c r="B252" s="23"/>
       <c r="C252" s="11"/>
       <c r="D252" s="12"/>
       <c r="E252" s="14"/>
@@ -13484,7 +13454,7 @@
     </row>
     <row r="253" spans="1:19">
       <c r="A253" s="22"/>
-      <c r="B253" s="24"/>
+      <c r="B253" s="23"/>
       <c r="C253" s="11"/>
       <c r="D253" s="12"/>
       <c r="E253" s="14"/>
@@ -13535,7 +13505,7 @@
     </row>
     <row r="254" spans="1:19">
       <c r="A254" s="22"/>
-      <c r="B254" s="24"/>
+      <c r="B254" s="23"/>
       <c r="C254" s="11"/>
       <c r="D254" s="12"/>
       <c r="E254" s="14"/>
@@ -13586,7 +13556,7 @@
     </row>
     <row r="255" spans="1:19">
       <c r="A255" s="22"/>
-      <c r="B255" s="24"/>
+      <c r="B255" s="23"/>
       <c r="C255" s="11"/>
       <c r="D255" s="12"/>
       <c r="E255" s="14"/>
@@ -13637,7 +13607,7 @@
     </row>
     <row r="256" spans="1:19">
       <c r="A256" s="22"/>
-      <c r="B256" s="24"/>
+      <c r="B256" s="23"/>
       <c r="C256" s="11"/>
       <c r="D256" s="12"/>
       <c r="E256" s="14"/>
@@ -13688,7 +13658,7 @@
     </row>
     <row r="257" spans="1:19">
       <c r="A257" s="22"/>
-      <c r="B257" s="24"/>
+      <c r="B257" s="23"/>
       <c r="C257" s="11"/>
       <c r="D257" s="12"/>
       <c r="E257" s="14"/>
@@ -13739,7 +13709,7 @@
     </row>
     <row r="258" spans="1:19">
       <c r="A258" s="22"/>
-      <c r="B258" s="24"/>
+      <c r="B258" s="23"/>
       <c r="C258" s="11"/>
       <c r="D258" s="12"/>
       <c r="E258" s="14"/>
@@ -13790,7 +13760,7 @@
     </row>
     <row r="259" spans="1:19">
       <c r="A259" s="22"/>
-      <c r="B259" s="24"/>
+      <c r="B259" s="23"/>
       <c r="C259" s="11"/>
       <c r="D259" s="12"/>
       <c r="E259" s="14"/>
@@ -13841,7 +13811,7 @@
     </row>
     <row r="260" spans="1:19">
       <c r="A260" s="22"/>
-      <c r="B260" s="24"/>
+      <c r="B260" s="23"/>
       <c r="C260" s="11"/>
       <c r="D260" s="12"/>
       <c r="E260" s="14"/>
@@ -13892,7 +13862,7 @@
     </row>
     <row r="261" spans="1:19">
       <c r="A261" s="22"/>
-      <c r="B261" s="24"/>
+      <c r="B261" s="23"/>
       <c r="C261" s="11"/>
       <c r="D261" s="12"/>
       <c r="E261" s="14"/>
@@ -13943,7 +13913,7 @@
     </row>
     <row r="262" spans="1:19">
       <c r="A262" s="22"/>
-      <c r="B262" s="24"/>
+      <c r="B262" s="23"/>
       <c r="C262" s="11"/>
       <c r="D262" s="12"/>
       <c r="E262" s="14"/>
@@ -13994,7 +13964,7 @@
     </row>
     <row r="263" spans="1:19">
       <c r="A263" s="22"/>
-      <c r="B263" s="24"/>
+      <c r="B263" s="23"/>
       <c r="C263" s="11"/>
       <c r="D263" s="12"/>
       <c r="E263" s="14"/>
@@ -14045,7 +14015,7 @@
     </row>
     <row r="264" spans="1:19">
       <c r="A264" s="22"/>
-      <c r="B264" s="24"/>
+      <c r="B264" s="23"/>
       <c r="C264" s="11"/>
       <c r="D264" s="12"/>
       <c r="E264" s="14"/>
@@ -14096,7 +14066,7 @@
     </row>
     <row r="265" spans="1:19">
       <c r="A265" s="22"/>
-      <c r="B265" s="24"/>
+      <c r="B265" s="23"/>
       <c r="C265" s="11"/>
       <c r="D265" s="12"/>
       <c r="E265" s="14"/>
@@ -14147,7 +14117,7 @@
     </row>
     <row r="266" spans="1:19">
       <c r="A266" s="22"/>
-      <c r="B266" s="24"/>
+      <c r="B266" s="23"/>
       <c r="C266" s="11"/>
       <c r="D266" s="12"/>
       <c r="E266" s="14"/>
@@ -14198,7 +14168,7 @@
     </row>
     <row r="267" spans="1:19">
       <c r="A267" s="22"/>
-      <c r="B267" s="24"/>
+      <c r="B267" s="23"/>
       <c r="C267" s="11"/>
       <c r="D267" s="12"/>
       <c r="E267" s="14"/>
@@ -14249,7 +14219,7 @@
     </row>
     <row r="268" spans="1:19">
       <c r="A268" s="22"/>
-      <c r="B268" s="24"/>
+      <c r="B268" s="23"/>
       <c r="C268" s="11"/>
       <c r="D268" s="12"/>
       <c r="E268" s="14"/>
@@ -14300,7 +14270,7 @@
     </row>
     <row r="269" spans="1:19">
       <c r="A269" s="22"/>
-      <c r="B269" s="24"/>
+      <c r="B269" s="23"/>
       <c r="C269" s="11"/>
       <c r="D269" s="12"/>
       <c r="E269" s="14"/>
@@ -14351,7 +14321,7 @@
     </row>
     <row r="270" spans="1:19">
       <c r="A270" s="22"/>
-      <c r="B270" s="24"/>
+      <c r="B270" s="23"/>
       <c r="C270" s="11"/>
       <c r="D270" s="12"/>
       <c r="E270" s="14"/>
@@ -14402,7 +14372,7 @@
     </row>
     <row r="271" spans="1:19">
       <c r="A271" s="22"/>
-      <c r="B271" s="24"/>
+      <c r="B271" s="23"/>
       <c r="C271" s="11"/>
       <c r="D271" s="12"/>
       <c r="E271" s="14"/>
@@ -14453,7 +14423,7 @@
     </row>
     <row r="272" spans="1:19">
       <c r="A272" s="22"/>
-      <c r="B272" s="24"/>
+      <c r="B272" s="23"/>
       <c r="C272" s="11"/>
       <c r="D272" s="12"/>
       <c r="E272" s="14"/>
@@ -14504,7 +14474,7 @@
     </row>
     <row r="273" spans="1:19">
       <c r="A273" s="22"/>
-      <c r="B273" s="24"/>
+      <c r="B273" s="23"/>
       <c r="C273" s="11"/>
       <c r="D273" s="12"/>
       <c r="E273" s="14"/>
@@ -14555,7 +14525,7 @@
     </row>
     <row r="274" spans="1:19">
       <c r="A274" s="22"/>
-      <c r="B274" s="24"/>
+      <c r="B274" s="23"/>
       <c r="C274" s="11"/>
       <c r="D274" s="12"/>
       <c r="E274" s="14"/>
@@ -14606,7 +14576,7 @@
     </row>
     <row r="275" spans="1:19">
       <c r="A275" s="22"/>
-      <c r="B275" s="24"/>
+      <c r="B275" s="23"/>
       <c r="C275" s="11"/>
       <c r="D275" s="12"/>
       <c r="E275" s="14"/>
@@ -14657,7 +14627,7 @@
     </row>
     <row r="276" spans="1:19">
       <c r="A276" s="22"/>
-      <c r="B276" s="24"/>
+      <c r="B276" s="23"/>
       <c r="C276" s="11"/>
       <c r="D276" s="12"/>
       <c r="E276" s="14"/>
@@ -14708,7 +14678,7 @@
     </row>
     <row r="277" spans="1:19">
       <c r="A277" s="22"/>
-      <c r="B277" s="24"/>
+      <c r="B277" s="23"/>
       <c r="C277" s="11"/>
       <c r="D277" s="12"/>
       <c r="E277" s="14"/>
@@ -14759,7 +14729,7 @@
     </row>
     <row r="278" spans="1:19">
       <c r="A278" s="22"/>
-      <c r="B278" s="24"/>
+      <c r="B278" s="23"/>
       <c r="C278" s="11"/>
       <c r="D278" s="12"/>
       <c r="E278" s="14"/>
@@ -14810,7 +14780,7 @@
     </row>
     <row r="279" spans="1:19">
       <c r="A279" s="22"/>
-      <c r="B279" s="24"/>
+      <c r="B279" s="23"/>
       <c r="C279" s="11"/>
       <c r="D279" s="12"/>
       <c r="E279" s="14"/>
@@ -14861,7 +14831,7 @@
     </row>
     <row r="280" spans="1:19">
       <c r="A280" s="22"/>
-      <c r="B280" s="24"/>
+      <c r="B280" s="23"/>
       <c r="C280" s="11"/>
       <c r="D280" s="12"/>
       <c r="E280" s="14"/>
@@ -14912,7 +14882,7 @@
     </row>
     <row r="281" spans="1:19">
       <c r="A281" s="22"/>
-      <c r="B281" s="24"/>
+      <c r="B281" s="23"/>
       <c r="C281" s="11"/>
       <c r="D281" s="12"/>
       <c r="E281" s="14"/>
@@ -14963,7 +14933,7 @@
     </row>
     <row r="282" spans="1:19">
       <c r="A282" s="22"/>
-      <c r="B282" s="24"/>
+      <c r="B282" s="23"/>
       <c r="C282" s="11"/>
       <c r="D282" s="12"/>
       <c r="E282" s="14"/>
@@ -15014,7 +14984,7 @@
     </row>
     <row r="283" spans="1:19">
       <c r="A283" s="22"/>
-      <c r="B283" s="24"/>
+      <c r="B283" s="23"/>
       <c r="C283" s="11"/>
       <c r="D283" s="12"/>
       <c r="E283" s="14"/>
@@ -15065,7 +15035,7 @@
     </row>
     <row r="284" spans="1:19">
       <c r="A284" s="22"/>
-      <c r="B284" s="24"/>
+      <c r="B284" s="23"/>
       <c r="C284" s="11"/>
       <c r="D284" s="12"/>
       <c r="E284" s="14"/>
@@ -15116,7 +15086,7 @@
     </row>
     <row r="285" spans="1:19">
       <c r="A285" s="22"/>
-      <c r="B285" s="24"/>
+      <c r="B285" s="23"/>
       <c r="C285" s="11"/>
       <c r="D285" s="12"/>
       <c r="E285" s="14"/>
@@ -15167,7 +15137,7 @@
     </row>
     <row r="286" spans="1:19">
       <c r="A286" s="22"/>
-      <c r="B286" s="24"/>
+      <c r="B286" s="23"/>
       <c r="C286" s="11"/>
       <c r="D286" s="12"/>
       <c r="E286" s="14"/>
@@ -15218,7 +15188,7 @@
     </row>
     <row r="287" spans="1:19">
       <c r="A287" s="22"/>
-      <c r="B287" s="24"/>
+      <c r="B287" s="23"/>
       <c r="C287" s="11"/>
       <c r="D287" s="12"/>
       <c r="E287" s="14"/>
@@ -15269,7 +15239,7 @@
     </row>
     <row r="288" spans="1:19">
       <c r="A288" s="22"/>
-      <c r="B288" s="24"/>
+      <c r="B288" s="23"/>
       <c r="C288" s="11"/>
       <c r="D288" s="12"/>
       <c r="E288" s="14"/>
@@ -15320,7 +15290,7 @@
     </row>
     <row r="289" spans="1:19">
       <c r="A289" s="22"/>
-      <c r="B289" s="24"/>
+      <c r="B289" s="23"/>
       <c r="C289" s="11"/>
       <c r="D289" s="12"/>
       <c r="E289" s="14"/>
@@ -15371,7 +15341,7 @@
     </row>
     <row r="290" spans="1:19">
       <c r="A290" s="22"/>
-      <c r="B290" s="24"/>
+      <c r="B290" s="23"/>
       <c r="C290" s="11"/>
       <c r="D290" s="12"/>
       <c r="E290" s="14"/>
@@ -15422,7 +15392,7 @@
     </row>
     <row r="291" spans="1:19">
       <c r="A291" s="22"/>
-      <c r="B291" s="24"/>
+      <c r="B291" s="23"/>
       <c r="C291" s="11"/>
       <c r="D291" s="12"/>
       <c r="E291" s="14"/>
@@ -15473,7 +15443,7 @@
     </row>
     <row r="292" spans="1:19">
       <c r="A292" s="22"/>
-      <c r="B292" s="24"/>
+      <c r="B292" s="23"/>
       <c r="C292" s="11"/>
       <c r="D292" s="12"/>
       <c r="E292" s="14"/>
@@ -15524,7 +15494,7 @@
     </row>
     <row r="293" spans="1:19">
       <c r="A293" s="22"/>
-      <c r="B293" s="24"/>
+      <c r="B293" s="23"/>
       <c r="C293" s="11"/>
       <c r="D293" s="12"/>
       <c r="E293" s="14"/>
@@ -15575,7 +15545,7 @@
     </row>
     <row r="294" spans="1:19">
       <c r="A294" s="22"/>
-      <c r="B294" s="24"/>
+      <c r="B294" s="23"/>
       <c r="C294" s="11"/>
       <c r="D294" s="12"/>
       <c r="E294" s="14"/>
@@ -15626,7 +15596,7 @@
     </row>
     <row r="295" spans="1:19">
       <c r="A295" s="22"/>
-      <c r="B295" s="24"/>
+      <c r="B295" s="23"/>
       <c r="C295" s="11"/>
       <c r="D295" s="12"/>
       <c r="E295" s="14"/>
@@ -15677,7 +15647,7 @@
     </row>
     <row r="296" spans="1:19">
       <c r="A296" s="22"/>
-      <c r="B296" s="24"/>
+      <c r="B296" s="23"/>
       <c r="C296" s="11"/>
       <c r="D296" s="12"/>
       <c r="E296" s="14"/>
@@ -15728,7 +15698,7 @@
     </row>
     <row r="297" spans="1:19">
       <c r="A297" s="22"/>
-      <c r="B297" s="24"/>
+      <c r="B297" s="23"/>
       <c r="C297" s="11"/>
       <c r="D297" s="12"/>
       <c r="E297" s="14"/>
@@ -15779,7 +15749,7 @@
     </row>
     <row r="298" spans="1:19">
       <c r="A298" s="22"/>
-      <c r="B298" s="24"/>
+      <c r="B298" s="23"/>
       <c r="C298" s="11"/>
       <c r="D298" s="12"/>
       <c r="E298" s="14"/>
@@ -15830,7 +15800,7 @@
     </row>
     <row r="299" spans="1:19">
       <c r="A299" s="22"/>
-      <c r="B299" s="24"/>
+      <c r="B299" s="23"/>
       <c r="C299" s="11"/>
       <c r="D299" s="12"/>
       <c r="E299" s="14"/>
@@ -15881,7 +15851,7 @@
     </row>
     <row r="300" spans="1:19">
       <c r="A300" s="22"/>
-      <c r="B300" s="24"/>
+      <c r="B300" s="23"/>
       <c r="C300" s="11"/>
       <c r="D300" s="12"/>
       <c r="E300" s="14"/>
@@ -15932,7 +15902,7 @@
     </row>
     <row r="301" spans="1:19">
       <c r="A301" s="22"/>
-      <c r="B301" s="24"/>
+      <c r="B301" s="23"/>
       <c r="C301" s="11"/>
       <c r="D301" s="12"/>
       <c r="E301" s="14"/>
@@ -15983,7 +15953,7 @@
     </row>
     <row r="302" spans="1:19">
       <c r="A302" s="22"/>
-      <c r="B302" s="24"/>
+      <c r="B302" s="23"/>
       <c r="C302" s="11"/>
       <c r="D302" s="12"/>
       <c r="E302" s="14"/>
@@ -16034,7 +16004,7 @@
     </row>
     <row r="303" spans="1:19">
       <c r="A303" s="22"/>
-      <c r="B303" s="24"/>
+      <c r="B303" s="23"/>
       <c r="C303" s="11"/>
       <c r="D303" s="12"/>
       <c r="E303" s="14"/>
@@ -16085,7 +16055,7 @@
     </row>
     <row r="304" spans="1:19">
       <c r="A304" s="22"/>
-      <c r="B304" s="24"/>
+      <c r="B304" s="23"/>
       <c r="C304" s="11"/>
       <c r="D304" s="12"/>
       <c r="E304" s="14"/>
@@ -16136,7 +16106,7 @@
     </row>
     <row r="305" spans="1:19">
       <c r="A305" s="22"/>
-      <c r="B305" s="24"/>
+      <c r="B305" s="23"/>
       <c r="C305" s="11"/>
       <c r="D305" s="12"/>
       <c r="E305" s="14"/>
@@ -16187,7 +16157,7 @@
     </row>
     <row r="306" spans="1:19">
       <c r="A306" s="22"/>
-      <c r="B306" s="24"/>
+      <c r="B306" s="23"/>
       <c r="C306" s="11"/>
       <c r="D306" s="12"/>
       <c r="E306" s="14"/>
@@ -16238,7 +16208,7 @@
     </row>
     <row r="307" spans="1:19">
       <c r="A307" s="22"/>
-      <c r="B307" s="24"/>
+      <c r="B307" s="23"/>
       <c r="C307" s="11"/>
       <c r="D307" s="12"/>
       <c r="E307" s="14"/>
@@ -16289,7 +16259,7 @@
     </row>
     <row r="308" spans="1:19">
       <c r="A308" s="22"/>
-      <c r="B308" s="24"/>
+      <c r="B308" s="23"/>
       <c r="C308" s="11"/>
       <c r="D308" s="12"/>
       <c r="E308" s="14"/>
@@ -16340,7 +16310,7 @@
     </row>
     <row r="309" spans="1:19">
       <c r="A309" s="22"/>
-      <c r="B309" s="24"/>
+      <c r="B309" s="23"/>
       <c r="C309" s="11"/>
       <c r="D309" s="12"/>
       <c r="E309" s="14"/>
@@ -16391,7 +16361,7 @@
     </row>
     <row r="310" spans="1:19">
       <c r="A310" s="22"/>
-      <c r="B310" s="24"/>
+      <c r="B310" s="23"/>
       <c r="C310" s="11"/>
       <c r="D310" s="12"/>
       <c r="E310" s="14"/>
@@ -16442,7 +16412,7 @@
     </row>
     <row r="311" spans="1:19">
       <c r="A311" s="22"/>
-      <c r="B311" s="24"/>
+      <c r="B311" s="23"/>
       <c r="C311" s="11"/>
       <c r="D311" s="12"/>
       <c r="E311" s="14"/>
@@ -16493,7 +16463,7 @@
     </row>
     <row r="312" spans="1:19">
       <c r="A312" s="22"/>
-      <c r="B312" s="24"/>
+      <c r="B312" s="23"/>
       <c r="C312" s="11"/>
       <c r="D312" s="12"/>
       <c r="E312" s="14"/>
@@ -16544,7 +16514,7 @@
     </row>
     <row r="313" spans="1:19">
       <c r="A313" s="22"/>
-      <c r="B313" s="24"/>
+      <c r="B313" s="23"/>
       <c r="C313" s="11"/>
       <c r="D313" s="12"/>
       <c r="E313" s="14"/>
@@ -16595,7 +16565,7 @@
     </row>
     <row r="314" spans="1:19">
       <c r="A314" s="22"/>
-      <c r="B314" s="24"/>
+      <c r="B314" s="23"/>
       <c r="C314" s="11"/>
       <c r="D314" s="12"/>
       <c r="E314" s="14"/>
@@ -16646,7 +16616,7 @@
     </row>
     <row r="315" spans="1:19">
       <c r="A315" s="22"/>
-      <c r="B315" s="24"/>
+      <c r="B315" s="23"/>
       <c r="C315" s="11"/>
       <c r="D315" s="12"/>
       <c r="E315" s="14"/>
@@ -16697,7 +16667,7 @@
     </row>
     <row r="316" spans="1:19">
       <c r="A316" s="22"/>
-      <c r="B316" s="24"/>
+      <c r="B316" s="23"/>
       <c r="C316" s="11"/>
       <c r="D316" s="12"/>
       <c r="E316" s="14"/>
@@ -16748,7 +16718,7 @@
     </row>
     <row r="317" spans="1:19">
       <c r="A317" s="22"/>
-      <c r="B317" s="24"/>
+      <c r="B317" s="23"/>
       <c r="C317" s="11"/>
       <c r="D317" s="12"/>
       <c r="E317" s="14"/>
@@ -16799,7 +16769,7 @@
     </row>
     <row r="318" spans="1:19">
       <c r="A318" s="22"/>
-      <c r="B318" s="24"/>
+      <c r="B318" s="23"/>
       <c r="C318" s="11"/>
       <c r="D318" s="12"/>
       <c r="E318" s="14"/>
@@ -16850,7 +16820,7 @@
     </row>
     <row r="319" spans="1:19">
       <c r="A319" s="22"/>
-      <c r="B319" s="24"/>
+      <c r="B319" s="23"/>
       <c r="C319" s="11"/>
       <c r="D319" s="12"/>
       <c r="E319" s="14"/>
@@ -16901,7 +16871,7 @@
     </row>
     <row r="320" spans="1:19">
       <c r="A320" s="22"/>
-      <c r="B320" s="24"/>
+      <c r="B320" s="23"/>
       <c r="C320" s="11"/>
       <c r="D320" s="12"/>
       <c r="E320" s="14"/>
@@ -16952,7 +16922,7 @@
     </row>
     <row r="321" spans="1:19">
       <c r="A321" s="22"/>
-      <c r="B321" s="24"/>
+      <c r="B321" s="23"/>
       <c r="C321" s="11"/>
       <c r="D321" s="12"/>
       <c r="E321" s="14"/>
@@ -17003,7 +16973,7 @@
     </row>
     <row r="322" spans="1:19">
       <c r="A322" s="22"/>
-      <c r="B322" s="24"/>
+      <c r="B322" s="23"/>
       <c r="C322" s="11"/>
       <c r="D322" s="12"/>
       <c r="E322" s="14"/>
@@ -17054,7 +17024,7 @@
     </row>
     <row r="323" spans="1:19">
       <c r="A323" s="22"/>
-      <c r="B323" s="24"/>
+      <c r="B323" s="23"/>
       <c r="C323" s="11"/>
       <c r="D323" s="12"/>
       <c r="E323" s="14"/>
@@ -17105,7 +17075,7 @@
     </row>
     <row r="324" spans="1:19">
       <c r="A324" s="22"/>
-      <c r="B324" s="24"/>
+      <c r="B324" s="23"/>
       <c r="C324" s="11"/>
       <c r="D324" s="12"/>
       <c r="E324" s="14"/>
@@ -17156,7 +17126,7 @@
     </row>
     <row r="325" spans="1:19">
       <c r="A325" s="22"/>
-      <c r="B325" s="24"/>
+      <c r="B325" s="23"/>
       <c r="C325" s="11"/>
       <c r="D325" s="12"/>
       <c r="E325" s="14"/>
@@ -17207,7 +17177,7 @@
     </row>
     <row r="326" spans="1:19">
       <c r="A326" s="22"/>
-      <c r="B326" s="24"/>
+      <c r="B326" s="23"/>
       <c r="C326" s="11"/>
       <c r="D326" s="12"/>
       <c r="E326" s="14"/>
@@ -17258,7 +17228,7 @@
     </row>
     <row r="327" spans="1:19">
       <c r="A327" s="22"/>
-      <c r="B327" s="24"/>
+      <c r="B327" s="23"/>
       <c r="C327" s="11"/>
       <c r="D327" s="12"/>
       <c r="E327" s="14"/>
@@ -17309,7 +17279,7 @@
     </row>
     <row r="328" spans="1:19">
       <c r="A328" s="22"/>
-      <c r="B328" s="24"/>
+      <c r="B328" s="23"/>
       <c r="C328" s="11"/>
       <c r="D328" s="12"/>
       <c r="E328" s="14"/>
@@ -17360,7 +17330,7 @@
     </row>
     <row r="329" spans="1:19">
       <c r="A329" s="22"/>
-      <c r="B329" s="24"/>
+      <c r="B329" s="23"/>
       <c r="C329" s="11"/>
       <c r="D329" s="12"/>
       <c r="E329" s="14"/>
@@ -17411,7 +17381,7 @@
     </row>
     <row r="330" spans="1:19">
       <c r="A330" s="22"/>
-      <c r="B330" s="24"/>
+      <c r="B330" s="23"/>
       <c r="C330" s="11"/>
       <c r="D330" s="12"/>
       <c r="E330" s="14"/>
@@ -17462,7 +17432,7 @@
     </row>
     <row r="331" spans="1:19">
       <c r="A331" s="22"/>
-      <c r="B331" s="24"/>
+      <c r="B331" s="23"/>
       <c r="C331" s="11"/>
       <c r="D331" s="12"/>
       <c r="E331" s="14"/>
@@ -17513,7 +17483,7 @@
     </row>
     <row r="332" spans="1:19">
       <c r="A332" s="22"/>
-      <c r="B332" s="24"/>
+      <c r="B332" s="23"/>
       <c r="C332" s="11"/>
       <c r="D332" s="12"/>
       <c r="E332" s="14"/>
@@ -17564,7 +17534,7 @@
     </row>
     <row r="333" spans="1:19">
       <c r="A333" s="22"/>
-      <c r="B333" s="24"/>
+      <c r="B333" s="23"/>
       <c r="C333" s="11"/>
       <c r="D333" s="12"/>
       <c r="E333" s="14"/>
@@ -17615,7 +17585,7 @@
     </row>
     <row r="334" spans="1:19">
       <c r="A334" s="22"/>
-      <c r="B334" s="24"/>
+      <c r="B334" s="23"/>
       <c r="C334" s="11"/>
       <c r="D334" s="12"/>
       <c r="E334" s="14"/>
@@ -17666,7 +17636,7 @@
     </row>
     <row r="335" spans="1:19">
       <c r="A335" s="22"/>
-      <c r="B335" s="24"/>
+      <c r="B335" s="23"/>
       <c r="C335" s="11"/>
       <c r="D335" s="12"/>
       <c r="E335" s="14"/>
@@ -17717,7 +17687,7 @@
     </row>
     <row r="336" spans="1:19">
       <c r="A336" s="22"/>
-      <c r="B336" s="24"/>
+      <c r="B336" s="23"/>
       <c r="C336" s="11"/>
       <c r="D336" s="12"/>
       <c r="E336" s="14"/>
@@ -17768,7 +17738,7 @@
     </row>
     <row r="337" spans="1:19">
       <c r="A337" s="22"/>
-      <c r="B337" s="24"/>
+      <c r="B337" s="23"/>
       <c r="C337" s="11"/>
       <c r="D337" s="12"/>
       <c r="E337" s="14"/>
@@ -17819,7 +17789,7 @@
     </row>
     <row r="338" spans="1:19">
       <c r="A338" s="22"/>
-      <c r="B338" s="24"/>
+      <c r="B338" s="23"/>
       <c r="C338" s="11"/>
       <c r="D338" s="12"/>
       <c r="E338" s="14"/>
@@ -17870,7 +17840,7 @@
     </row>
     <row r="339" spans="1:19">
       <c r="A339" s="22"/>
-      <c r="B339" s="24"/>
+      <c r="B339" s="23"/>
       <c r="C339" s="11"/>
       <c r="D339" s="12"/>
       <c r="E339" s="14"/>
@@ -17921,7 +17891,7 @@
     </row>
     <row r="340" spans="1:19">
       <c r="A340" s="22"/>
-      <c r="B340" s="24"/>
+      <c r="B340" s="23"/>
       <c r="C340" s="11"/>
       <c r="D340" s="12"/>
       <c r="E340" s="14"/>
@@ -17972,7 +17942,7 @@
     </row>
     <row r="341" spans="1:19">
       <c r="A341" s="22"/>
-      <c r="B341" s="24"/>
+      <c r="B341" s="23"/>
       <c r="C341" s="11"/>
       <c r="D341" s="12"/>
       <c r="E341" s="14"/>
@@ -18023,7 +17993,7 @@
     </row>
     <row r="342" spans="1:19">
       <c r="A342" s="22"/>
-      <c r="B342" s="24"/>
+      <c r="B342" s="23"/>
       <c r="C342" s="11"/>
       <c r="D342" s="12"/>
       <c r="E342" s="14"/>
@@ -18074,7 +18044,7 @@
     </row>
     <row r="343" spans="1:19">
       <c r="A343" s="22"/>
-      <c r="B343" s="24"/>
+      <c r="B343" s="23"/>
       <c r="C343" s="11"/>
       <c r="D343" s="12"/>
       <c r="E343" s="14"/>
@@ -18125,7 +18095,7 @@
     </row>
     <row r="344" spans="1:19">
       <c r="A344" s="22"/>
-      <c r="B344" s="24"/>
+      <c r="B344" s="23"/>
       <c r="C344" s="11"/>
       <c r="D344" s="12"/>
       <c r="E344" s="14"/>
@@ -18176,7 +18146,7 @@
     </row>
     <row r="345" spans="1:19">
       <c r="A345" s="22"/>
-      <c r="B345" s="24"/>
+      <c r="B345" s="23"/>
       <c r="C345" s="11"/>
       <c r="D345" s="12"/>
       <c r="E345" s="14"/>
@@ -18227,7 +18197,7 @@
     </row>
     <row r="346" spans="1:19">
       <c r="A346" s="22"/>
-      <c r="B346" s="24"/>
+      <c r="B346" s="23"/>
       <c r="C346" s="11"/>
       <c r="D346" s="12"/>
       <c r="E346" s="14"/>
@@ -18278,7 +18248,7 @@
     </row>
     <row r="347" spans="1:19">
       <c r="A347" s="22"/>
-      <c r="B347" s="24"/>
+      <c r="B347" s="23"/>
       <c r="C347" s="11"/>
       <c r="D347" s="12"/>
       <c r="E347" s="14"/>
@@ -18329,7 +18299,7 @@
     </row>
     <row r="348" spans="1:19">
       <c r="A348" s="22"/>
-      <c r="B348" s="24"/>
+      <c r="B348" s="23"/>
       <c r="C348" s="11"/>
       <c r="D348" s="12"/>
       <c r="E348" s="14"/>
@@ -18380,7 +18350,7 @@
     </row>
     <row r="349" spans="1:19">
       <c r="A349" s="22"/>
-      <c r="B349" s="24"/>
+      <c r="B349" s="23"/>
       <c r="C349" s="11"/>
       <c r="D349" s="12"/>
       <c r="E349" s="14"/>
@@ -18431,7 +18401,7 @@
     </row>
     <row r="350" spans="1:19">
       <c r="A350" s="22"/>
-      <c r="B350" s="24"/>
+      <c r="B350" s="23"/>
       <c r="C350" s="11"/>
       <c r="D350" s="12"/>
       <c r="E350" s="14"/>
@@ -18482,7 +18452,7 @@
     </row>
     <row r="351" spans="1:19">
       <c r="A351" s="22"/>
-      <c r="B351" s="24"/>
+      <c r="B351" s="23"/>
       <c r="C351" s="11"/>
       <c r="D351" s="12"/>
       <c r="E351" s="14"/>
@@ -18533,7 +18503,7 @@
     </row>
     <row r="352" spans="1:19">
       <c r="A352" s="22"/>
-      <c r="B352" s="24"/>
+      <c r="B352" s="23"/>
       <c r="C352" s="11"/>
       <c r="D352" s="12"/>
       <c r="E352" s="14"/>
@@ -18584,7 +18554,7 @@
     </row>
     <row r="353" spans="1:19">
       <c r="A353" s="22"/>
-      <c r="B353" s="24"/>
+      <c r="B353" s="23"/>
       <c r="C353" s="11"/>
       <c r="D353" s="12"/>
       <c r="E353" s="14"/>
@@ -18635,7 +18605,7 @@
     </row>
     <row r="354" spans="1:19">
       <c r="A354" s="22"/>
-      <c r="B354" s="24"/>
+      <c r="B354" s="23"/>
       <c r="C354" s="11"/>
       <c r="D354" s="12"/>
       <c r="E354" s="14"/>
@@ -18686,7 +18656,7 @@
     </row>
     <row r="355" spans="1:19">
       <c r="A355" s="22"/>
-      <c r="B355" s="24"/>
+      <c r="B355" s="23"/>
       <c r="C355" s="11"/>
       <c r="D355" s="12"/>
       <c r="E355" s="14"/>
@@ -18737,7 +18707,7 @@
     </row>
     <row r="356" spans="1:19">
       <c r="A356" s="22"/>
-      <c r="B356" s="24"/>
+      <c r="B356" s="23"/>
       <c r="C356" s="11"/>
       <c r="D356" s="12"/>
       <c r="E356" s="14"/>
@@ -18788,7 +18758,7 @@
     </row>
     <row r="357" spans="1:19">
       <c r="A357" s="22"/>
-      <c r="B357" s="24"/>
+      <c r="B357" s="23"/>
       <c r="C357" s="11"/>
       <c r="D357" s="12"/>
       <c r="E357" s="14"/>
@@ -18839,7 +18809,7 @@
     </row>
     <row r="358" spans="1:19">
       <c r="A358" s="22"/>
-      <c r="B358" s="24"/>
+      <c r="B358" s="23"/>
       <c r="C358" s="11"/>
       <c r="D358" s="12"/>
       <c r="E358" s="14"/>
@@ -18890,7 +18860,7 @@
     </row>
     <row r="359" spans="1:19">
       <c r="A359" s="22"/>
-      <c r="B359" s="24"/>
+      <c r="B359" s="23"/>
       <c r="C359" s="11"/>
       <c r="D359" s="12"/>
       <c r="E359" s="14"/>
@@ -18941,7 +18911,7 @@
     </row>
     <row r="360" spans="1:19">
       <c r="A360" s="22"/>
-      <c r="B360" s="24"/>
+      <c r="B360" s="23"/>
       <c r="C360" s="11"/>
       <c r="D360" s="12"/>
       <c r="E360" s="14"/>
@@ -18992,7 +18962,7 @@
     </row>
     <row r="361" spans="1:19">
       <c r="A361" s="22"/>
-      <c r="B361" s="24"/>
+      <c r="B361" s="23"/>
       <c r="C361" s="11"/>
       <c r="D361" s="12"/>
       <c r="E361" s="14"/>
@@ -19043,7 +19013,7 @@
     </row>
     <row r="362" spans="1:19">
       <c r="A362" s="22"/>
-      <c r="B362" s="24"/>
+      <c r="B362" s="23"/>
       <c r="C362" s="11"/>
       <c r="D362" s="12"/>
       <c r="E362" s="14"/>
@@ -19094,7 +19064,7 @@
     </row>
     <row r="363" spans="1:19">
       <c r="A363" s="22"/>
-      <c r="B363" s="24"/>
+      <c r="B363" s="23"/>
       <c r="C363" s="11"/>
       <c r="D363" s="12"/>
       <c r="E363" s="14"/>
@@ -19145,7 +19115,7 @@
     </row>
     <row r="364" spans="1:19">
       <c r="A364" s="22"/>
-      <c r="B364" s="24"/>
+      <c r="B364" s="23"/>
       <c r="C364" s="11"/>
       <c r="D364" s="12"/>
       <c r="E364" s="14"/>
@@ -19196,7 +19166,7 @@
     </row>
     <row r="365" spans="1:19">
       <c r="A365" s="22"/>
-      <c r="B365" s="24"/>
+      <c r="B365" s="23"/>
       <c r="C365" s="11"/>
       <c r="D365" s="12"/>
       <c r="E365" s="14"/>
@@ -19247,7 +19217,7 @@
     </row>
     <row r="366" spans="1:19">
       <c r="A366" s="22"/>
-      <c r="B366" s="24"/>
+      <c r="B366" s="23"/>
       <c r="C366" s="11"/>
       <c r="D366" s="12"/>
       <c r="E366" s="14"/>
@@ -19298,7 +19268,7 @@
     </row>
     <row r="367" spans="1:19">
       <c r="A367" s="22"/>
-      <c r="B367" s="24"/>
+      <c r="B367" s="23"/>
       <c r="C367" s="11"/>
       <c r="D367" s="12"/>
       <c r="E367" s="14"/>
@@ -19349,7 +19319,7 @@
     </row>
     <row r="368" spans="1:19">
       <c r="A368" s="22"/>
-      <c r="B368" s="24"/>
+      <c r="B368" s="23"/>
       <c r="C368" s="11"/>
       <c r="D368" s="12"/>
       <c r="E368" s="14"/>
@@ -19400,7 +19370,7 @@
     </row>
     <row r="369" spans="1:19">
       <c r="A369" s="22"/>
-      <c r="B369" s="24"/>
+      <c r="B369" s="23"/>
       <c r="C369" s="11"/>
       <c r="D369" s="12"/>
       <c r="E369" s="14"/>
@@ -19451,7 +19421,7 @@
     </row>
     <row r="370" spans="1:19">
       <c r="A370" s="22"/>
-      <c r="B370" s="24"/>
+      <c r="B370" s="23"/>
       <c r="C370" s="11"/>
       <c r="D370" s="12"/>
       <c r="E370" s="14"/>
@@ -19502,7 +19472,7 @@
     </row>
     <row r="371" spans="1:19">
       <c r="A371" s="22"/>
-      <c r="B371" s="24"/>
+      <c r="B371" s="23"/>
       <c r="C371" s="11"/>
       <c r="D371" s="12"/>
       <c r="E371" s="14"/>
@@ -19553,7 +19523,7 @@
     </row>
     <row r="372" spans="1:19">
       <c r="A372" s="22"/>
-      <c r="B372" s="24"/>
+      <c r="B372" s="23"/>
       <c r="C372" s="11"/>
       <c r="D372" s="12"/>
       <c r="E372" s="14"/>
@@ -19604,7 +19574,7 @@
     </row>
     <row r="373" spans="1:19">
       <c r="A373" s="22"/>
-      <c r="B373" s="24"/>
+      <c r="B373" s="23"/>
       <c r="C373" s="11"/>
       <c r="D373" s="12"/>
       <c r="E373" s="14"/>
@@ -19655,7 +19625,7 @@
     </row>
     <row r="374" spans="1:19">
       <c r="A374" s="22"/>
-      <c r="B374" s="24"/>
+      <c r="B374" s="23"/>
       <c r="C374" s="11"/>
       <c r="D374" s="12"/>
       <c r="E374" s="14"/>
@@ -19706,7 +19676,7 @@
     </row>
     <row r="375" spans="1:19">
       <c r="A375" s="22"/>
-      <c r="B375" s="24"/>
+      <c r="B375" s="23"/>
       <c r="C375" s="11"/>
       <c r="D375" s="12"/>
       <c r="E375" s="14"/>
@@ -19757,7 +19727,7 @@
     </row>
     <row r="376" spans="1:19">
       <c r="A376" s="22"/>
-      <c r="B376" s="24"/>
+      <c r="B376" s="23"/>
       <c r="C376" s="11"/>
       <c r="D376" s="12"/>
       <c r="E376" s="14"/>
@@ -19808,7 +19778,7 @@
     </row>
     <row r="377" spans="1:19">
       <c r="A377" s="22"/>
-      <c r="B377" s="24"/>
+      <c r="B377" s="23"/>
       <c r="C377" s="11"/>
       <c r="D377" s="12"/>
       <c r="E377" s="14"/>
@@ -19859,7 +19829,7 @@
     </row>
     <row r="378" spans="1:19">
       <c r="A378" s="22"/>
-      <c r="B378" s="24"/>
+      <c r="B378" s="23"/>
       <c r="C378" s="11"/>
       <c r="D378" s="12"/>
       <c r="E378" s="14"/>
@@ -19910,7 +19880,7 @@
     </row>
     <row r="379" spans="1:19">
       <c r="A379" s="22"/>
-      <c r="B379" s="24"/>
+      <c r="B379" s="23"/>
       <c r="C379" s="11"/>
       <c r="D379" s="12"/>
       <c r="E379" s="14"/>
@@ -19961,7 +19931,7 @@
     </row>
     <row r="380" spans="1:19">
       <c r="A380" s="22"/>
-      <c r="B380" s="24"/>
+      <c r="B380" s="23"/>
       <c r="C380" s="11"/>
       <c r="D380" s="12"/>
       <c r="E380" s="14"/>
@@ -20012,7 +19982,7 @@
     </row>
     <row r="381" spans="1:19">
       <c r="A381" s="22"/>
-      <c r="B381" s="24"/>
+      <c r="B381" s="23"/>
       <c r="C381" s="11"/>
       <c r="D381" s="12"/>
       <c r="E381" s="14"/>
@@ -20063,7 +20033,7 @@
     </row>
     <row r="382" spans="1:19">
       <c r="A382" s="22"/>
-      <c r="B382" s="24"/>
+      <c r="B382" s="23"/>
       <c r="C382" s="11"/>
       <c r="D382" s="12"/>
       <c r="E382" s="14"/>
@@ -20114,7 +20084,7 @@
     </row>
     <row r="383" spans="1:19">
       <c r="A383" s="22"/>
-      <c r="B383" s="24"/>
+      <c r="B383" s="23"/>
       <c r="C383" s="11"/>
       <c r="D383" s="12"/>
       <c r="E383" s="14"/>
@@ -20165,7 +20135,7 @@
     </row>
     <row r="384" spans="1:19">
       <c r="A384" s="22"/>
-      <c r="B384" s="24"/>
+      <c r="B384" s="23"/>
       <c r="C384" s="11"/>
       <c r="D384" s="12"/>
       <c r="E384" s="14"/>
@@ -20216,7 +20186,7 @@
     </row>
     <row r="385" spans="1:19">
       <c r="A385" s="22"/>
-      <c r="B385" s="24"/>
+      <c r="B385" s="23"/>
       <c r="C385" s="11"/>
       <c r="D385" s="12"/>
       <c r="E385" s="14"/>
@@ -20267,7 +20237,7 @@
     </row>
     <row r="386" spans="1:19">
       <c r="A386" s="22"/>
-      <c r="B386" s="24"/>
+      <c r="B386" s="23"/>
       <c r="C386" s="11"/>
       <c r="D386" s="12"/>
       <c r="E386" s="14"/>
@@ -20318,7 +20288,7 @@
     </row>
     <row r="387" spans="1:19">
       <c r="A387" s="22"/>
-      <c r="B387" s="24"/>
+      <c r="B387" s="23"/>
       <c r="C387" s="11"/>
       <c r="D387" s="12"/>
       <c r="E387" s="14"/>
@@ -20369,7 +20339,7 @@
     </row>
     <row r="388" spans="1:19">
       <c r="A388" s="22"/>
-      <c r="B388" s="24"/>
+      <c r="B388" s="23"/>
       <c r="C388" s="11"/>
       <c r="D388" s="12"/>
       <c r="E388" s="14"/>
@@ -20420,7 +20390,7 @@
     </row>
     <row r="389" spans="1:19">
       <c r="A389" s="22"/>
-      <c r="B389" s="24"/>
+      <c r="B389" s="23"/>
       <c r="C389" s="11"/>
       <c r="D389" s="12"/>
       <c r="E389" s="14"/>
@@ -20471,7 +20441,7 @@
     </row>
     <row r="390" spans="1:19">
       <c r="A390" s="22"/>
-      <c r="B390" s="24"/>
+      <c r="B390" s="23"/>
       <c r="C390" s="11"/>
       <c r="D390" s="12"/>
       <c r="E390" s="14"/>
@@ -20522,7 +20492,7 @@
     </row>
     <row r="391" spans="1:19">
       <c r="A391" s="22"/>
-      <c r="B391" s="24"/>
+      <c r="B391" s="23"/>
       <c r="C391" s="11"/>
       <c r="D391" s="12"/>
       <c r="E391" s="14"/>
@@ -20573,7 +20543,7 @@
     </row>
     <row r="392" spans="1:19">
       <c r="A392" s="22"/>
-      <c r="B392" s="24"/>
+      <c r="B392" s="23"/>
       <c r="C392" s="11"/>
       <c r="D392" s="12"/>
       <c r="E392" s="14"/>
@@ -20624,7 +20594,7 @@
     </row>
     <row r="393" spans="1:19">
       <c r="A393" s="22"/>
-      <c r="B393" s="24"/>
+      <c r="B393" s="23"/>
       <c r="C393" s="11"/>
       <c r="D393" s="12"/>
       <c r="E393" s="14"/>
@@ -20675,7 +20645,7 @@
     </row>
     <row r="394" spans="1:19">
       <c r="A394" s="22"/>
-      <c r="B394" s="24"/>
+      <c r="B394" s="23"/>
       <c r="C394" s="11"/>
       <c r="D394" s="12"/>
       <c r="E394" s="14"/>
@@ -20726,7 +20696,7 @@
     </row>
     <row r="395" spans="1:19">
       <c r="A395" s="22"/>
-      <c r="B395" s="24"/>
+      <c r="B395" s="23"/>
       <c r="C395" s="11"/>
       <c r="D395" s="12"/>
       <c r="E395" s="14"/>
@@ -20777,7 +20747,7 @@
     </row>
     <row r="396" spans="1:19">
       <c r="A396" s="22"/>
-      <c r="B396" s="24"/>
+      <c r="B396" s="23"/>
       <c r="C396" s="11"/>
       <c r="D396" s="12"/>
       <c r="E396" s="14"/>
@@ -20828,7 +20798,7 @@
     </row>
     <row r="397" spans="1:19">
       <c r="A397" s="22"/>
-      <c r="B397" s="24"/>
+      <c r="B397" s="23"/>
       <c r="C397" s="11"/>
       <c r="D397" s="12"/>
       <c r="E397" s="14"/>
@@ -20879,7 +20849,7 @@
     </row>
     <row r="398" spans="1:19">
       <c r="A398" s="22"/>
-      <c r="B398" s="24"/>
+      <c r="B398" s="23"/>
       <c r="C398" s="11"/>
       <c r="D398" s="12"/>
       <c r="E398" s="14"/>
@@ -20930,7 +20900,7 @@
     </row>
     <row r="399" spans="1:19">
       <c r="A399" s="22"/>
-      <c r="B399" s="24"/>
+      <c r="B399" s="23"/>
       <c r="C399" s="11"/>
       <c r="D399" s="12"/>
       <c r="E399" s="14"/>
@@ -20981,7 +20951,7 @@
     </row>
     <row r="400" spans="1:19">
       <c r="A400" s="22"/>
-      <c r="B400" s="24"/>
+      <c r="B400" s="23"/>
       <c r="C400" s="11"/>
       <c r="D400" s="12"/>
       <c r="E400" s="14"/>
@@ -21032,7 +21002,7 @@
     </row>
     <row r="401" spans="1:19">
       <c r="A401" s="22"/>
-      <c r="B401" s="24"/>
+      <c r="B401" s="23"/>
       <c r="C401" s="11"/>
       <c r="D401" s="12"/>
       <c r="E401" s="14"/>
@@ -21083,7 +21053,7 @@
     </row>
     <row r="402" spans="1:19">
       <c r="A402" s="22"/>
-      <c r="B402" s="24"/>
+      <c r="B402" s="23"/>
       <c r="C402" s="11"/>
       <c r="D402" s="12"/>
       <c r="E402" s="14"/>
@@ -21134,7 +21104,7 @@
     </row>
     <row r="403" spans="1:19">
       <c r="A403" s="22"/>
-      <c r="B403" s="24"/>
+      <c r="B403" s="23"/>
       <c r="C403" s="11"/>
       <c r="D403" s="12"/>
       <c r="E403" s="14"/>
@@ -21185,7 +21155,7 @@
     </row>
     <row r="404" spans="1:19">
       <c r="A404" s="22"/>
-      <c r="B404" s="24"/>
+      <c r="B404" s="23"/>
       <c r="C404" s="11"/>
       <c r="D404" s="12"/>
       <c r="E404" s="14"/>
@@ -21236,7 +21206,7 @@
     </row>
     <row r="405" spans="1:19">
       <c r="A405" s="22"/>
-      <c r="B405" s="24"/>
+      <c r="B405" s="23"/>
       <c r="C405" s="11"/>
       <c r="D405" s="12"/>
       <c r="E405" s="14"/>
@@ -21287,7 +21257,7 @@
     </row>
     <row r="406" spans="1:19">
       <c r="A406" s="22"/>
-      <c r="B406" s="24"/>
+      <c r="B406" s="23"/>
       <c r="C406" s="11"/>
       <c r="D406" s="12"/>
       <c r="E406" s="14"/>
@@ -21338,7 +21308,7 @@
     </row>
     <row r="407" spans="1:19">
       <c r="A407" s="22"/>
-      <c r="B407" s="24"/>
+      <c r="B407" s="23"/>
       <c r="C407" s="11"/>
       <c r="D407" s="12"/>
       <c r="E407" s="14"/>
@@ -21389,7 +21359,7 @@
     </row>
     <row r="408" spans="1:19">
       <c r="A408" s="22"/>
-      <c r="B408" s="24"/>
+      <c r="B408" s="23"/>
       <c r="C408" s="11"/>
       <c r="D408" s="12"/>
       <c r="E408" s="14"/>
@@ -21440,7 +21410,7 @@
     </row>
     <row r="409" spans="1:19">
       <c r="A409" s="22"/>
-      <c r="B409" s="24"/>
+      <c r="B409" s="23"/>
       <c r="C409" s="11"/>
       <c r="D409" s="12"/>
       <c r="E409" s="14"/>
@@ -21491,7 +21461,7 @@
     </row>
     <row r="410" spans="1:19">
       <c r="A410" s="22"/>
-      <c r="B410" s="24"/>
+      <c r="B410" s="23"/>
       <c r="C410" s="11"/>
       <c r="D410" s="12"/>
       <c r="E410" s="14"/>
@@ -21542,7 +21512,7 @@
     </row>
     <row r="411" spans="1:19">
       <c r="A411" s="22"/>
-      <c r="B411" s="24"/>
+      <c r="B411" s="23"/>
       <c r="C411" s="11"/>
       <c r="D411" s="12"/>
       <c r="E411" s="14"/>
@@ -21593,7 +21563,7 @@
     </row>
     <row r="412" spans="1:19">
       <c r="A412" s="22"/>
-      <c r="B412" s="24"/>
+      <c r="B412" s="23"/>
       <c r="C412" s="11"/>
       <c r="D412" s="12"/>
       <c r="E412" s="14"/>
@@ -21644,7 +21614,7 @@
     </row>
     <row r="413" spans="1:19">
       <c r="A413" s="22"/>
-      <c r="B413" s="24"/>
+      <c r="B413" s="23"/>
       <c r="C413" s="11"/>
       <c r="D413" s="12"/>
       <c r="E413" s="14"/>
@@ -21695,7 +21665,7 @@
     </row>
     <row r="414" spans="1:19">
       <c r="A414" s="22"/>
-      <c r="B414" s="24"/>
+      <c r="B414" s="23"/>
       <c r="C414" s="11"/>
       <c r="D414" s="12"/>
       <c r="E414" s="14"/>
@@ -21746,7 +21716,7 @@
     </row>
     <row r="415" spans="1:19">
       <c r="A415" s="22"/>
-      <c r="B415" s="24"/>
+      <c r="B415" s="23"/>
       <c r="C415" s="11"/>
       <c r="D415" s="12"/>
       <c r="E415" s="14"/>
@@ -21797,7 +21767,7 @@
     </row>
     <row r="416" spans="1:19">
       <c r="A416" s="22"/>
-      <c r="B416" s="24"/>
+      <c r="B416" s="23"/>
       <c r="C416" s="11"/>
       <c r="D416" s="12"/>
       <c r="E416" s="14"/>
@@ -21848,7 +21818,7 @@
     </row>
     <row r="417" spans="1:19">
       <c r="A417" s="22"/>
-      <c r="B417" s="24"/>
+      <c r="B417" s="23"/>
       <c r="C417" s="11"/>
       <c r="D417" s="12"/>
       <c r="E417" s="14"/>
@@ -21899,7 +21869,7 @@
     </row>
     <row r="418" spans="1:19">
       <c r="A418" s="22"/>
-      <c r="B418" s="24"/>
+      <c r="B418" s="23"/>
       <c r="C418" s="11"/>
       <c r="D418" s="12"/>
       <c r="E418" s="14"/>
@@ -21950,7 +21920,7 @@
     </row>
     <row r="419" spans="1:19">
       <c r="A419" s="22"/>
-      <c r="B419" s="24"/>
+      <c r="B419" s="23"/>
       <c r="C419" s="11"/>
       <c r="D419" s="12"/>
       <c r="E419" s="14"/>
@@ -22001,7 +21971,7 @@
     </row>
     <row r="420" spans="1:19">
       <c r="A420" s="22"/>
-      <c r="B420" s="24"/>
+      <c r="B420" s="23"/>
       <c r="C420" s="11"/>
       <c r="D420" s="12"/>
       <c r="E420" s="14"/>
@@ -22052,7 +22022,7 @@
     </row>
     <row r="421" spans="1:19">
       <c r="A421" s="22"/>
-      <c r="B421" s="24"/>
+      <c r="B421" s="23"/>
       <c r="C421" s="11"/>
       <c r="D421" s="12"/>
       <c r="E421" s="14"/>
@@ -22103,7 +22073,7 @@
     </row>
     <row r="422" spans="1:19">
       <c r="A422" s="22"/>
-      <c r="B422" s="24"/>
+      <c r="B422" s="23"/>
       <c r="C422" s="11"/>
       <c r="D422" s="12"/>
       <c r="E422" s="14"/>
@@ -22154,7 +22124,7 @@
     </row>
     <row r="423" spans="1:19">
       <c r="A423" s="22"/>
-      <c r="B423" s="24"/>
+      <c r="B423" s="23"/>
       <c r="C423" s="11"/>
       <c r="D423" s="12"/>
       <c r="E423" s="14"/>
@@ -22205,7 +22175,7 @@
     </row>
     <row r="424" spans="1:19">
       <c r="A424" s="22"/>
-      <c r="B424" s="24"/>
+      <c r="B424" s="23"/>
       <c r="C424" s="11"/>
       <c r="D424" s="12"/>
       <c r="E424" s="14"/>
@@ -22256,7 +22226,7 @@
     </row>
     <row r="425" spans="1:19">
       <c r="A425" s="22"/>
-      <c r="B425" s="24"/>
+      <c r="B425" s="23"/>
       <c r="C425" s="11"/>
       <c r="D425" s="12"/>
       <c r="E425" s="14"/>
@@ -22307,7 +22277,7 @@
     </row>
     <row r="426" spans="1:19">
       <c r="A426" s="22"/>
-      <c r="B426" s="24"/>
+      <c r="B426" s="23"/>
       <c r="C426" s="11"/>
       <c r="D426" s="12"/>
       <c r="E426" s="14"/>
@@ -22358,7 +22328,7 @@
     </row>
     <row r="427" spans="1:19">
       <c r="A427" s="22"/>
-      <c r="B427" s="24"/>
+      <c r="B427" s="23"/>
       <c r="C427" s="11"/>
       <c r="D427" s="12"/>
       <c r="E427" s="14"/>
@@ -22409,7 +22379,7 @@
     </row>
     <row r="428" spans="1:19">
       <c r="A428" s="22"/>
-      <c r="B428" s="24"/>
+      <c r="B428" s="23"/>
       <c r="C428" s="11"/>
       <c r="D428" s="12"/>
       <c r="E428" s="14"/>
@@ -22460,7 +22430,7 @@
     </row>
     <row r="429" spans="1:19">
       <c r="A429" s="22"/>
-      <c r="B429" s="24"/>
+      <c r="B429" s="23"/>
       <c r="C429" s="11"/>
       <c r="D429" s="12"/>
       <c r="E429" s="14"/>
@@ -22511,7 +22481,7 @@
     </row>
     <row r="430" spans="1:19">
       <c r="A430" s="22"/>
-      <c r="B430" s="24"/>
+      <c r="B430" s="23"/>
       <c r="C430" s="11"/>
       <c r="D430" s="12"/>
       <c r="E430" s="14"/>
@@ -22562,7 +22532,7 @@
     </row>
     <row r="431" spans="1:19">
       <c r="A431" s="22"/>
-      <c r="B431" s="24"/>
+      <c r="B431" s="23"/>
       <c r="C431" s="11"/>
       <c r="D431" s="12"/>
       <c r="E431" s="14"/>
@@ -22613,7 +22583,7 @@
     </row>
     <row r="432" spans="1:19">
       <c r="A432" s="22"/>
-      <c r="B432" s="24"/>
+      <c r="B432" s="23"/>
       <c r="C432" s="11"/>
       <c r="D432" s="12"/>
       <c r="E432" s="14"/>
@@ -22664,7 +22634,7 @@
     </row>
     <row r="433" spans="1:19">
       <c r="A433" s="22"/>
-      <c r="B433" s="24"/>
+      <c r="B433" s="23"/>
       <c r="C433" s="11"/>
       <c r="D433" s="12"/>
       <c r="E433" s="14"/>
@@ -22715,7 +22685,7 @@
     </row>
     <row r="434" spans="1:19">
       <c r="A434" s="22"/>
-      <c r="B434" s="24"/>
+      <c r="B434" s="23"/>
       <c r="C434" s="11"/>
       <c r="D434" s="12"/>
       <c r="E434" s="14"/>
@@ -22766,7 +22736,7 @@
     </row>
     <row r="435" spans="1:19">
       <c r="A435" s="22"/>
-      <c r="B435" s="24"/>
+      <c r="B435" s="23"/>
       <c r="C435" s="11"/>
       <c r="D435" s="12"/>
       <c r="E435" s="14"/>
@@ -22817,7 +22787,7 @@
     </row>
     <row r="436" spans="1:19">
       <c r="A436" s="22"/>
-      <c r="B436" s="24"/>
+      <c r="B436" s="23"/>
       <c r="C436" s="11"/>
       <c r="D436" s="12"/>
       <c r="E436" s="14"/>
@@ -22868,7 +22838,7 @@
     </row>
     <row r="437" spans="1:19">
       <c r="A437" s="22"/>
-      <c r="B437" s="24"/>
+      <c r="B437" s="23"/>
       <c r="C437" s="11"/>
       <c r="D437" s="12"/>
       <c r="E437" s="14"/>
@@ -22919,7 +22889,7 @@
     </row>
     <row r="438" spans="1:19">
       <c r="A438" s="22"/>
-      <c r="B438" s="24"/>
+      <c r="B438" s="23"/>
       <c r="C438" s="11"/>
       <c r="D438" s="12"/>
       <c r="E438" s="14"/>
@@ -22970,7 +22940,7 @@
     </row>
     <row r="439" spans="1:19">
       <c r="A439" s="22"/>
-      <c r="B439" s="24"/>
+      <c r="B439" s="23"/>
       <c r="C439" s="11"/>
       <c r="D439" s="12"/>
       <c r="E439" s="14"/>
@@ -23021,7 +22991,7 @@
     </row>
     <row r="440" spans="1:19">
       <c r="A440" s="22"/>
-      <c r="B440" s="24"/>
+      <c r="B440" s="23"/>
       <c r="C440" s="11"/>
       <c r="D440" s="12"/>
       <c r="E440" s="14"/>
@@ -23072,7 +23042,7 @@
     </row>
     <row r="441" spans="1:19">
       <c r="A441" s="22"/>
-      <c r="B441" s="24"/>
+      <c r="B441" s="23"/>
       <c r="C441" s="11"/>
       <c r="D441" s="12"/>
       <c r="E441" s="14"/>
@@ -23123,7 +23093,7 @@
     </row>
     <row r="442" spans="1:19">
       <c r="A442" s="22"/>
-      <c r="B442" s="24"/>
+      <c r="B442" s="23"/>
       <c r="C442" s="11"/>
       <c r="D442" s="12"/>
       <c r="E442" s="14"/>
@@ -23174,7 +23144,7 @@
     </row>
     <row r="443" spans="1:19">
       <c r="A443" s="22"/>
-      <c r="B443" s="24"/>
+      <c r="B443" s="23"/>
       <c r="C443" s="11"/>
       <c r="D443" s="12"/>
       <c r="E443" s="14"/>
@@ -23225,7 +23195,7 @@
     </row>
     <row r="444" spans="1:19">
       <c r="A444" s="22"/>
-      <c r="B444" s="24"/>
+      <c r="B444" s="23"/>
       <c r="C444" s="11"/>
       <c r="D444" s="12"/>
       <c r="E444" s="14"/>
@@ -23276,7 +23246,7 @@
     </row>
     <row r="445" spans="1:19">
       <c r="A445" s="22"/>
-      <c r="B445" s="24"/>
+      <c r="B445" s="23"/>
       <c r="C445" s="11"/>
       <c r="D445" s="12"/>
       <c r="E445" s="14"/>
@@ -23327,7 +23297,7 @@
     </row>
     <row r="446" spans="1:19">
       <c r="A446" s="22"/>
-      <c r="B446" s="24"/>
+      <c r="B446" s="23"/>
       <c r="C446" s="11"/>
       <c r="D446" s="12"/>
       <c r="E446" s="14"/>
@@ -23378,7 +23348,7 @@
     </row>
     <row r="447" spans="1:19">
       <c r="A447" s="22"/>
-      <c r="B447" s="24"/>
+      <c r="B447" s="23"/>
       <c r="C447" s="11"/>
       <c r="D447" s="12"/>
       <c r="E447" s="14"/>
@@ -23429,7 +23399,7 @@
     </row>
     <row r="448" spans="1:19">
       <c r="A448" s="22"/>
-      <c r="B448" s="24"/>
+      <c r="B448" s="23"/>
       <c r="C448" s="11"/>
       <c r="D448" s="12"/>
       <c r="E448" s="14"/>
@@ -23480,7 +23450,7 @@
     </row>
     <row r="449" spans="1:19">
       <c r="A449" s="22"/>
-      <c r="B449" s="24"/>
+      <c r="B449" s="23"/>
       <c r="C449" s="11"/>
       <c r="D449" s="12"/>
       <c r="E449" s="14"/>
@@ -23531,7 +23501,7 @@
     </row>
     <row r="450" spans="1:19">
       <c r="A450" s="22"/>
-      <c r="B450" s="24"/>
+      <c r="B450" s="23"/>
       <c r="C450" s="11"/>
       <c r="D450" s="12"/>
       <c r="E450" s="14"/>
@@ -23582,7 +23552,7 @@
     </row>
     <row r="451" spans="1:19">
       <c r="A451" s="22"/>
-      <c r="B451" s="24"/>
+      <c r="B451" s="23"/>
       <c r="C451" s="11"/>
       <c r="D451" s="12"/>
       <c r="E451" s="14"/>
@@ -23633,7 +23603,7 @@
     </row>
     <row r="452" spans="1:19">
       <c r="A452" s="22"/>
-      <c r="B452" s="24"/>
+      <c r="B452" s="23"/>
       <c r="C452" s="11"/>
       <c r="D452" s="12"/>
       <c r="E452" s="14"/>
@@ -23684,7 +23654,7 @@
     </row>
     <row r="453" spans="1:19">
       <c r="A453" s="22"/>
-      <c r="B453" s="24"/>
+      <c r="B453" s="23"/>
       <c r="C453" s="11"/>
       <c r="D453" s="12"/>
       <c r="E453" s="14"/>
@@ -23735,7 +23705,7 @@
     </row>
     <row r="454" spans="1:19">
       <c r="A454" s="22"/>
-      <c r="B454" s="24"/>
+      <c r="B454" s="23"/>
       <c r="C454" s="11"/>
       <c r="D454" s="12"/>
       <c r="E454" s="14"/>
@@ -23786,7 +23756,7 @@
     </row>
     <row r="455" spans="1:19">
       <c r="A455" s="22"/>
-      <c r="B455" s="24"/>
+      <c r="B455" s="23"/>
       <c r="C455" s="11"/>
       <c r="D455" s="12"/>
       <c r="E455" s="14"/>
@@ -23837,7 +23807,7 @@
     </row>
     <row r="456" spans="1:19">
       <c r="A456" s="22"/>
-      <c r="B456" s="24"/>
+      <c r="B456" s="23"/>
       <c r="C456" s="11"/>
       <c r="D456" s="12"/>
       <c r="E456" s="14"/>
@@ -23888,7 +23858,7 @@
     </row>
     <row r="457" spans="1:19">
       <c r="A457" s="22"/>
-      <c r="B457" s="24"/>
+      <c r="B457" s="23"/>
       <c r="C457" s="11"/>
       <c r="D457" s="12"/>
       <c r="E457" s="14"/>
@@ -23939,7 +23909,7 @@
     </row>
     <row r="458" spans="1:19">
       <c r="A458" s="22"/>
-      <c r="B458" s="24"/>
+      <c r="B458" s="23"/>
       <c r="C458" s="11"/>
       <c r="D458" s="12"/>
       <c r="E458" s="14"/>
@@ -23990,7 +23960,7 @@
     </row>
     <row r="459" spans="1:19">
       <c r="A459" s="22"/>
-      <c r="B459" s="24"/>
+      <c r="B459" s="23"/>
       <c r="C459" s="11"/>
       <c r="D459" s="12"/>
       <c r="E459" s="14"/>
@@ -24041,7 +24011,7 @@
     </row>
     <row r="460" spans="1:19">
       <c r="A460" s="22"/>
-      <c r="B460" s="24"/>
+      <c r="B460" s="23"/>
       <c r="C460" s="11"/>
       <c r="D460" s="12"/>
       <c r="E460" s="14"/>
@@ -24092,7 +24062,7 @@
     </row>
     <row r="461" spans="1:19">
       <c r="A461" s="22"/>
-      <c r="B461" s="24"/>
+      <c r="B461" s="23"/>
       <c r="C461" s="11"/>
       <c r="D461" s="12"/>
       <c r="E461" s="14"/>
@@ -24143,7 +24113,7 @@
     </row>
     <row r="462" spans="1:19">
       <c r="A462" s="22"/>
-      <c r="B462" s="24"/>
+      <c r="B462" s="23"/>
       <c r="C462" s="11"/>
       <c r="D462" s="12"/>
       <c r="E462" s="14"/>
@@ -24194,7 +24164,7 @@
     </row>
     <row r="463" spans="1:19">
       <c r="A463" s="22"/>
-      <c r="B463" s="24"/>
+      <c r="B463" s="23"/>
       <c r="C463" s="11"/>
       <c r="D463" s="12"/>
       <c r="E463" s="14"/>
@@ -24245,7 +24215,7 @@
     </row>
     <row r="464" spans="1:19">
       <c r="A464" s="22"/>
-      <c r="B464" s="24"/>
+      <c r="B464" s="23"/>
       <c r="C464" s="11"/>
       <c r="D464" s="12"/>
       <c r="E464" s="14"/>
@@ -24296,7 +24266,7 @@
     </row>
     <row r="465" spans="1:19">
       <c r="A465" s="22"/>
-      <c r="B465" s="24"/>
+      <c r="B465" s="23"/>
       <c r="C465" s="11"/>
       <c r="D465" s="12"/>
       <c r="E465" s="14"/>
@@ -24347,7 +24317,7 @@
     </row>
     <row r="466" spans="1:19">
       <c r="A466" s="22"/>
-      <c r="B466" s="24"/>
+      <c r="B466" s="23"/>
       <c r="C466" s="11"/>
       <c r="D466" s="12"/>
       <c r="E466" s="14"/>
@@ -24398,7 +24368,7 @@
     </row>
     <row r="467" spans="1:19">
       <c r="A467" s="22"/>
-      <c r="B467" s="24"/>
+      <c r="B467" s="23"/>
       <c r="C467" s="11"/>
       <c r="D467" s="12"/>
       <c r="E467" s="14"/>
@@ -24449,7 +24419,7 @@
     </row>
     <row r="468" spans="1:19">
       <c r="A468" s="22"/>
-      <c r="B468" s="24"/>
+      <c r="B468" s="23"/>
       <c r="C468" s="11"/>
       <c r="D468" s="12"/>
       <c r="E468" s="14"/>
@@ -24500,7 +24470,7 @@
     </row>
     <row r="469" spans="1:19">
       <c r="A469" s="22"/>
-      <c r="B469" s="24"/>
+      <c r="B469" s="23"/>
       <c r="C469" s="11"/>
       <c r="D469" s="12"/>
       <c r="E469" s="14"/>
@@ -24551,7 +24521,7 @@
     </row>
     <row r="470" spans="1:19">
       <c r="A470" s="22"/>
-      <c r="B470" s="24"/>
+      <c r="B470" s="23"/>
       <c r="C470" s="11"/>
       <c r="D470" s="12"/>
       <c r="E470" s="14"/>
@@ -24602,7 +24572,7 @@
     </row>
     <row r="471" spans="1:19">
       <c r="A471" s="22"/>
-      <c r="B471" s="24"/>
+      <c r="B471" s="23"/>
       <c r="C471" s="11"/>
       <c r="D471" s="12"/>
       <c r="E471" s="14"/>
@@ -24653,7 +24623,7 @@
     </row>
     <row r="472" spans="1:19">
       <c r="A472" s="22"/>
-      <c r="B472" s="24"/>
+      <c r="B472" s="23"/>
       <c r="C472" s="11"/>
       <c r="D472" s="12"/>
       <c r="E472" s="14"/>
@@ -24704,7 +24674,7 @@
     </row>
     <row r="473" spans="1:19">
       <c r="A473" s="22"/>
-      <c r="B473" s="24"/>
+      <c r="B473" s="23"/>
       <c r="C473" s="11"/>
       <c r="D473" s="12"/>
       <c r="E473" s="14"/>
@@ -24755,7 +24725,7 @@
     </row>
     <row r="474" spans="1:19">
       <c r="A474" s="22"/>
-      <c r="B474" s="24"/>
+      <c r="B474" s="23"/>
       <c r="C474" s="11"/>
       <c r="D474" s="12"/>
       <c r="E474" s="14"/>
@@ -24806,7 +24776,7 @@
     </row>
     <row r="475" spans="1:19">
       <c r="A475" s="22"/>
-      <c r="B475" s="24"/>
+      <c r="B475" s="23"/>
       <c r="C475" s="11"/>
       <c r="D475" s="12"/>
       <c r="E475" s="14"/>
@@ -24857,7 +24827,7 @@
     </row>
     <row r="476" spans="1:19">
       <c r="A476" s="22"/>
-      <c r="B476" s="24"/>
+      <c r="B476" s="23"/>
       <c r="C476" s="11"/>
       <c r="D476" s="12"/>
       <c r="E476" s="14"/>
@@ -24908,7 +24878,7 @@
     </row>
     <row r="477" spans="1:19">
       <c r="A477" s="22"/>
-      <c r="B477" s="24"/>
+      <c r="B477" s="23"/>
       <c r="C477" s="11"/>
       <c r="D477" s="12"/>
       <c r="E477" s="14"/>
@@ -24959,7 +24929,7 @@
     </row>
     <row r="478" spans="1:19">
       <c r="A478" s="22"/>
-      <c r="B478" s="24"/>
+      <c r="B478" s="23"/>
       <c r="C478" s="11"/>
       <c r="D478" s="12"/>
       <c r="E478" s="14"/>
@@ -25010,7 +24980,7 @@
     </row>
     <row r="479" spans="1:19">
       <c r="A479" s="22"/>
-      <c r="B479" s="24"/>
+      <c r="B479" s="23"/>
       <c r="C479" s="11"/>
       <c r="D479" s="12"/>
       <c r="E479" s="14"/>
@@ -25061,7 +25031,7 @@
     </row>
     <row r="480" spans="1:19">
       <c r="A480" s="22"/>
-      <c r="B480" s="24"/>
+      <c r="B480" s="23"/>
       <c r="C480" s="11"/>
       <c r="D480" s="12"/>
       <c r="E480" s="14"/>
@@ -25112,7 +25082,7 @@
     </row>
     <row r="481" spans="1:19">
       <c r="A481" s="22"/>
-      <c r="B481" s="24"/>
+      <c r="B481" s="23"/>
       <c r="C481" s="11"/>
       <c r="D481" s="12"/>
       <c r="E481" s="14"/>
@@ -25163,7 +25133,7 @@
     </row>
     <row r="482" spans="1:19">
       <c r="A482" s="22"/>
-      <c r="B482" s="24"/>
+      <c r="B482" s="23"/>
       <c r="C482" s="11"/>
       <c r="D482" s="12"/>
       <c r="E482" s="14"/>
@@ -25214,7 +25184,7 @@
     </row>
     <row r="483" spans="1:19">
       <c r="A483" s="22"/>
-      <c r="B483" s="24"/>
+      <c r="B483" s="23"/>
       <c r="C483" s="11"/>
       <c r="D483" s="12"/>
       <c r="E483" s="14"/>
@@ -25265,7 +25235,7 @@
     </row>
     <row r="484" spans="1:19">
       <c r="A484" s="22"/>
-      <c r="B484" s="24"/>
+      <c r="B484" s="23"/>
       <c r="C484" s="11"/>
       <c r="D484" s="12"/>
       <c r="E484" s="14"/>
@@ -25316,7 +25286,7 @@
     </row>
     <row r="485" spans="1:19">
       <c r="A485" s="22"/>
-      <c r="B485" s="24"/>
+      <c r="B485" s="23"/>
       <c r="C485" s="11"/>
       <c r="D485" s="12"/>
       <c r="E485" s="14"/>
@@ -25367,7 +25337,7 @@
     </row>
     <row r="486" spans="1:19">
       <c r="A486" s="22"/>
-      <c r="B486" s="24"/>
+      <c r="B486" s="23"/>
       <c r="C486" s="11"/>
       <c r="D486" s="12"/>
       <c r="E486" s="14"/>
@@ -25418,7 +25388,7 @@
     </row>
     <row r="487" spans="1:19">
       <c r="A487" s="22"/>
-      <c r="B487" s="24"/>
+      <c r="B487" s="23"/>
       <c r="C487" s="11"/>
       <c r="D487" s="12"/>
       <c r="E487" s="14"/>
@@ -25469,7 +25439,7 @@
     </row>
     <row r="488" spans="1:19">
       <c r="A488" s="22"/>
-      <c r="B488" s="24"/>
+      <c r="B488" s="23"/>
       <c r="C488" s="11"/>
       <c r="D488" s="12"/>
       <c r="E488" s="14"/>
@@ -25520,7 +25490,7 @@
     </row>
     <row r="489" spans="1:19">
       <c r="A489" s="22"/>
-      <c r="B489" s="24"/>
+      <c r="B489" s="23"/>
       <c r="C489" s="11"/>
       <c r="D489" s="12"/>
       <c r="E489" s="14"/>
@@ -25571,7 +25541,7 @@
     </row>
     <row r="490" spans="1:19">
       <c r="A490" s="22"/>
-      <c r="B490" s="24"/>
+      <c r="B490" s="23"/>
       <c r="C490" s="11"/>
       <c r="D490" s="12"/>
       <c r="E490" s="14"/>
@@ -25622,7 +25592,7 @@
     </row>
     <row r="491" spans="1:19">
       <c r="A491" s="22"/>
-      <c r="B491" s="24"/>
+      <c r="B491" s="23"/>
       <c r="C491" s="11"/>
       <c r="D491" s="12"/>
       <c r="E491" s="14"/>
@@ -25673,7 +25643,7 @@
     </row>
     <row r="492" spans="1:19">
       <c r="A492" s="22"/>
-      <c r="B492" s="24"/>
+      <c r="B492" s="23"/>
       <c r="C492" s="11"/>
       <c r="D492" s="12"/>
       <c r="E492" s="14"/>
@@ -25724,7 +25694,7 @@
     </row>
     <row r="493" spans="1:19">
       <c r="A493" s="22"/>
-      <c r="B493" s="24"/>
+      <c r="B493" s="23"/>
       <c r="C493" s="11"/>
       <c r="D493" s="12"/>
       <c r="E493" s="14"/>
@@ -25775,7 +25745,7 @@
     </row>
     <row r="494" spans="1:19">
       <c r="A494" s="22"/>
-      <c r="B494" s="24"/>
+      <c r="B494" s="23"/>
       <c r="C494" s="11"/>
       <c r="D494" s="12"/>
       <c r="E494" s="14"/>
@@ -25826,7 +25796,7 @@
     </row>
     <row r="495" spans="1:19">
       <c r="A495" s="22"/>
-      <c r="B495" s="24"/>
+      <c r="B495" s="23"/>
       <c r="C495" s="11"/>
       <c r="D495" s="12"/>
       <c r="E495" s="14"/>
@@ -25877,7 +25847,7 @@
     </row>
     <row r="496" spans="1:19">
       <c r="A496" s="22"/>
-      <c r="B496" s="24"/>
+      <c r="B496" s="23"/>
       <c r="C496" s="11"/>
       <c r="D496" s="12"/>
       <c r="E496" s="14"/>
@@ -25928,7 +25898,7 @@
     </row>
     <row r="497" spans="1:19">
       <c r="A497" s="22"/>
-      <c r="B497" s="24"/>
+      <c r="B497" s="23"/>
       <c r="C497" s="11"/>
       <c r="D497" s="12"/>
       <c r="E497" s="14"/>
@@ -25979,7 +25949,7 @@
     </row>
     <row r="498" spans="1:19">
       <c r="A498" s="22"/>
-      <c r="B498" s="24"/>
+      <c r="B498" s="23"/>
       <c r="C498" s="11"/>
       <c r="D498" s="12"/>
       <c r="E498" s="14"/>
@@ -26030,7 +26000,7 @@
     </row>
     <row r="499" spans="1:19">
       <c r="A499" s="22"/>
-      <c r="B499" s="24"/>
+      <c r="B499" s="23"/>
       <c r="C499" s="11"/>
       <c r="D499" s="12"/>
       <c r="E499" s="14"/>
@@ -26081,7 +26051,7 @@
     </row>
     <row r="500" spans="1:19">
       <c r="A500" s="22"/>
-      <c r="B500" s="24"/>
+      <c r="B500" s="23"/>
       <c r="C500" s="11"/>
       <c r="D500" s="12"/>
       <c r="E500" s="14"/>
@@ -26132,7 +26102,7 @@
     </row>
     <row r="501" spans="1:19">
       <c r="A501" s="22"/>
-      <c r="B501" s="24"/>
+      <c r="B501" s="23"/>
       <c r="C501" s="11"/>
       <c r="D501" s="12"/>
       <c r="E501" s="14"/>
@@ -26183,7 +26153,7 @@
     </row>
     <row r="502" spans="1:19">
       <c r="A502" s="22"/>
-      <c r="B502" s="24"/>
+      <c r="B502" s="23"/>
       <c r="C502" s="11"/>
       <c r="D502" s="12"/>
       <c r="E502" s="14"/>
@@ -26234,7 +26204,7 @@
     </row>
     <row r="503" spans="1:19">
       <c r="A503" s="22"/>
-      <c r="B503" s="24"/>
+      <c r="B503" s="23"/>
       <c r="C503" s="11"/>
       <c r="D503" s="12"/>
       <c r="E503" s="14"/>
@@ -26285,7 +26255,7 @@
     </row>
     <row r="504" spans="1:19">
       <c r="A504" s="22"/>
-      <c r="B504" s="24"/>
+      <c r="B504" s="23"/>
       <c r="C504" s="11"/>
       <c r="D504" s="12"/>
       <c r="E504" s="14"/>
@@ -26336,7 +26306,7 @@
     </row>
     <row r="505" spans="1:19">
       <c r="A505" s="22"/>
-      <c r="B505" s="24"/>
+      <c r="B505" s="23"/>
       <c r="C505" s="11"/>
       <c r="D505" s="12"/>
       <c r="E505" s="14"/>
@@ -26387,7 +26357,7 @@
     </row>
     <row r="506" spans="1:19">
       <c r="A506" s="22"/>
-      <c r="B506" s="24"/>
+      <c r="B506" s="23"/>
       <c r="C506" s="11"/>
       <c r="D506" s="12"/>
       <c r="E506" s="14"/>
@@ -26438,7 +26408,7 @@
     </row>
     <row r="507" spans="1:19">
       <c r="A507" s="22"/>
-      <c r="B507" s="24"/>
+      <c r="B507" s="23"/>
       <c r="C507" s="11"/>
       <c r="D507" s="12"/>
       <c r="E507" s="14"/>
@@ -26489,7 +26459,7 @@
     </row>
     <row r="508" spans="1:19">
       <c r="A508" s="22"/>
-      <c r="B508" s="24"/>
+      <c r="B508" s="23"/>
       <c r="C508" s="11"/>
       <c r="D508" s="12"/>
       <c r="E508" s="14"/>
@@ -26540,7 +26510,7 @@
     </row>
     <row r="509" spans="1:19">
       <c r="A509" s="22"/>
-      <c r="B509" s="24"/>
+      <c r="B509" s="23"/>
       <c r="C509" s="11"/>
       <c r="D509" s="12"/>
       <c r="E509" s="14"/>
@@ -26591,7 +26561,7 @@
     </row>
     <row r="510" spans="1:19">
       <c r="A510" s="22"/>
-      <c r="B510" s="24"/>
+      <c r="B510" s="23"/>
       <c r="C510" s="11"/>
       <c r="D510" s="12"/>
       <c r="E510" s="14"/>
@@ -26642,7 +26612,7 @@
     </row>
     <row r="511" spans="1:19">
       <c r="A511" s="22"/>
-      <c r="B511" s="24"/>
+      <c r="B511" s="23"/>
       <c r="C511" s="11"/>
       <c r="D511" s="12"/>
       <c r="E511" s="14"/>
@@ -26693,7 +26663,7 @@
     </row>
     <row r="512" spans="1:19">
       <c r="A512" s="22"/>
-      <c r="B512" s="24"/>
+      <c r="B512" s="23"/>
       <c r="C512" s="11"/>
       <c r="D512" s="12"/>
       <c r="E512" s="14"/>
@@ -26744,7 +26714,7 @@
     </row>
     <row r="513" spans="1:19">
       <c r="A513" s="22"/>
-      <c r="B513" s="24"/>
+      <c r="B513" s="23"/>
       <c r="C513" s="11"/>
       <c r="D513" s="12"/>
       <c r="E513" s="14"/>
@@ -26795,7 +26765,7 @@
     </row>
     <row r="514" spans="1:19">
       <c r="A514" s="22"/>
-      <c r="B514" s="24"/>
+      <c r="B514" s="23"/>
       <c r="C514" s="11"/>
       <c r="D514" s="12"/>
       <c r="E514" s="14"/>
@@ -26846,7 +26816,7 @@
     </row>
     <row r="515" spans="1:19">
       <c r="A515" s="22"/>
-      <c r="B515" s="24"/>
+      <c r="B515" s="23"/>
       <c r="C515" s="11"/>
       <c r="D515" s="12"/>
       <c r="E515" s="14"/>
@@ -26897,7 +26867,7 @@
     </row>
     <row r="516" spans="1:19">
       <c r="A516" s="22"/>
-      <c r="B516" s="24"/>
+      <c r="B516" s="23"/>
       <c r="C516" s="11"/>
       <c r="D516" s="12"/>
       <c r="E516" s="14"/>
@@ -26948,7 +26918,7 @@
     </row>
     <row r="517" spans="1:19">
       <c r="A517" s="22"/>
-      <c r="B517" s="24"/>
+      <c r="B517" s="23"/>
       <c r="C517" s="11"/>
       <c r="D517" s="12"/>
       <c r="E517" s="14"/>
@@ -26999,7 +26969,7 @@
     </row>
     <row r="518" spans="1:19">
       <c r="A518" s="22"/>
-      <c r="B518" s="24"/>
+      <c r="B518" s="23"/>
       <c r="C518" s="11"/>
       <c r="D518" s="12"/>
       <c r="E518" s="14"/>
@@ -27050,7 +27020,7 @@
     </row>
     <row r="519" spans="1:19">
       <c r="A519" s="22"/>
-      <c r="B519" s="24"/>
+      <c r="B519" s="23"/>
       <c r="C519" s="11"/>
       <c r="D519" s="12"/>
       <c r="E519" s="14"/>
@@ -27101,7 +27071,7 @@
     </row>
     <row r="520" spans="1:19">
       <c r="A520" s="22"/>
-      <c r="B520" s="24"/>
+      <c r="B520" s="23"/>
       <c r="C520" s="11"/>
       <c r="D520" s="12"/>
       <c r="E520" s="14"/>
@@ -27152,7 +27122,7 @@
     </row>
     <row r="521" spans="1:19">
       <c r="A521" s="22"/>
-      <c r="B521" s="24"/>
+      <c r="B521" s="23"/>
       <c r="C521" s="11"/>
       <c r="D521" s="12"/>
       <c r="E521" s="14"/>
@@ -27203,7 +27173,7 @@
     </row>
     <row r="522" spans="1:19">
       <c r="A522" s="22"/>
-      <c r="B522" s="24"/>
+      <c r="B522" s="23"/>
       <c r="C522" s="11"/>
       <c r="D522" s="12"/>
       <c r="E522" s="14"/>
@@ -27254,7 +27224,7 @@
     </row>
     <row r="523" spans="1:19">
       <c r="A523" s="22"/>
-      <c r="B523" s="24"/>
+      <c r="B523" s="23"/>
       <c r="C523" s="11"/>
       <c r="D523" s="12"/>
       <c r="E523" s="14"/>
@@ -27305,7 +27275,7 @@
     </row>
     <row r="524" spans="1:19">
       <c r="A524" s="22"/>
-      <c r="B524" s="24"/>
+      <c r="B524" s="23"/>
       <c r="C524" s="11"/>
       <c r="D524" s="12"/>
       <c r="E524" s="14"/>
@@ -27356,7 +27326,7 @@
     </row>
     <row r="525" spans="1:19">
       <c r="A525" s="22"/>
-      <c r="B525" s="24"/>
+      <c r="B525" s="23"/>
       <c r="C525" s="11"/>
       <c r="D525" s="12"/>
       <c r="E525" s="14"/>
@@ -27407,7 +27377,7 @@
     </row>
     <row r="526" spans="1:19">
       <c r="A526" s="22"/>
-      <c r="B526" s="24"/>
+      <c r="B526" s="23"/>
       <c r="C526" s="11"/>
       <c r="D526" s="12"/>
       <c r="E526" s="14"/>
@@ -27458,7 +27428,7 @@
     </row>
     <row r="527" spans="1:19">
       <c r="A527" s="22"/>
-      <c r="B527" s="24"/>
+      <c r="B527" s="23"/>
       <c r="C527" s="11"/>
       <c r="D527" s="12"/>
       <c r="E527" s="14"/>
@@ -27509,7 +27479,7 @@
     </row>
     <row r="528" spans="1:19">
       <c r="A528" s="22"/>
-      <c r="B528" s="24"/>
+      <c r="B528" s="23"/>
       <c r="C528" s="11"/>
       <c r="D528" s="12"/>
       <c r="E528" s="14"/>
@@ -27560,7 +27530,7 @@
     </row>
     <row r="529" spans="1:19">
       <c r="A529" s="22"/>
-      <c r="B529" s="24"/>
+      <c r="B529" s="23"/>
       <c r="C529" s="11"/>
       <c r="D529" s="12"/>
       <c r="E529" s="14"/>
@@ -27611,7 +27581,7 @@
     </row>
     <row r="530" spans="1:19">
       <c r="A530" s="22"/>
-      <c r="B530" s="24"/>
+      <c r="B530" s="23"/>
       <c r="C530" s="11"/>
       <c r="D530" s="12"/>
       <c r="E530" s="14"/>
@@ -27662,7 +27632,7 @@
     </row>
     <row r="531" spans="1:19">
       <c r="A531" s="22"/>
-      <c r="B531" s="24"/>
+      <c r="B531" s="23"/>
       <c r="C531" s="11"/>
       <c r="D531" s="12"/>
       <c r="E531" s="14"/>
@@ -27713,7 +27683,7 @@
     </row>
     <row r="532" spans="1:19">
       <c r="A532" s="22"/>
-      <c r="B532" s="24"/>
+      <c r="B532" s="23"/>
       <c r="C532" s="11"/>
       <c r="D532" s="12"/>
       <c r="E532" s="14"/>
@@ -27764,7 +27734,7 @@
     </row>
     <row r="533" spans="1:19">
       <c r="A533" s="22"/>
-      <c r="B533" s="24"/>
+      <c r="B533" s="23"/>
       <c r="C533" s="11"/>
       <c r="D533" s="12"/>
       <c r="E533" s="14"/>
@@ -27815,7 +27785,7 @@
     </row>
     <row r="534" spans="1:19">
       <c r="A534" s="22"/>
-      <c r="B534" s="24"/>
+      <c r="B534" s="23"/>
       <c r="C534" s="11"/>
       <c r="D534" s="12"/>
       <c r="E534" s="14"/>
@@ -27866,7 +27836,7 @@
     </row>
     <row r="535" spans="1:19">
       <c r="A535" s="22"/>
-      <c r="B535" s="24"/>
+      <c r="B535" s="23"/>
       <c r="C535" s="11"/>
       <c r="D535" s="12"/>
       <c r="E535" s="14"/>
@@ -27917,7 +27887,7 @@
     </row>
     <row r="536" spans="1:19">
       <c r="A536" s="22"/>
-      <c r="B536" s="24"/>
+      <c r="B536" s="23"/>
       <c r="C536" s="11"/>
       <c r="D536" s="12"/>
       <c r="E536" s="14"/>
@@ -27968,7 +27938,7 @@
     </row>
     <row r="537" spans="1:19">
       <c r="A537" s="22"/>
-      <c r="B537" s="24"/>
+      <c r="B537" s="23"/>
       <c r="C537" s="11"/>
       <c r="D537" s="12"/>
       <c r="E537" s="14"/>
@@ -28019,7 +27989,7 @@
     </row>
     <row r="538" spans="1:19">
       <c r="A538" s="22"/>
-      <c r="B538" s="24"/>
+      <c r="B538" s="23"/>
       <c r="C538" s="11"/>
       <c r="D538" s="12"/>
       <c r="E538" s="14"/>
@@ -28070,7 +28040,7 @@
     </row>
     <row r="539" spans="1:19">
       <c r="A539" s="22"/>
-      <c r="B539" s="24"/>
+      <c r="B539" s="23"/>
       <c r="C539" s="11"/>
       <c r="D539" s="12"/>
       <c r="E539" s="14"/>
@@ -28121,7 +28091,7 @@
     </row>
     <row r="540" spans="1:19">
       <c r="A540" s="22"/>
-      <c r="B540" s="24"/>
+      <c r="B540" s="23"/>
       <c r="C540" s="11"/>
       <c r="D540" s="12"/>
       <c r="E540" s="14"/>
@@ -28172,7 +28142,7 @@
     </row>
     <row r="541" spans="1:19">
       <c r="A541" s="22"/>
-      <c r="B541" s="24"/>
+      <c r="B541" s="23"/>
       <c r="C541" s="11"/>
       <c r="D541" s="12"/>
       <c r="E541" s="14"/>
@@ -28223,7 +28193,7 @@
     </row>
     <row r="542" spans="1:19">
       <c r="A542" s="22"/>
-      <c r="B542" s="24"/>
+      <c r="B542" s="23"/>
       <c r="C542" s="11"/>
       <c r="D542" s="12"/>
       <c r="E542" s="14"/>
@@ -28274,7 +28244,7 @@
     </row>
     <row r="543" spans="1:19">
       <c r="A543" s="22"/>
-      <c r="B543" s="24"/>
+      <c r="B543" s="23"/>
       <c r="C543" s="11"/>
       <c r="D543" s="12"/>
       <c r="E543" s="14"/>
@@ -28325,7 +28295,7 @@
     </row>
     <row r="544" spans="1:19">
       <c r="A544" s="22"/>
-      <c r="B544" s="24"/>
+      <c r="B544" s="23"/>
       <c r="C544" s="11"/>
       <c r="D544" s="12"/>
       <c r="E544" s="14"/>
@@ -28376,7 +28346,7 @@
     </row>
     <row r="545" spans="1:19">
       <c r="A545" s="22"/>
-      <c r="B545" s="24"/>
+      <c r="B545" s="23"/>
       <c r="C545" s="11"/>
       <c r="D545" s="12"/>
       <c r="E545" s="14"/>
@@ -28427,7 +28397,7 @@
     </row>
     <row r="546" spans="1:19">
       <c r="A546" s="22"/>
-      <c r="B546" s="24"/>
+      <c r="B546" s="23"/>
       <c r="C546" s="11"/>
       <c r="D546" s="12"/>
       <c r="E546" s="14"/>
@@ -28478,7 +28448,7 @@
     </row>
     <row r="547" spans="1:19">
       <c r="A547" s="22"/>
-      <c r="B547" s="24"/>
+      <c r="B547" s="23"/>
       <c r="C547" s="11"/>
       <c r="D547" s="12"/>
       <c r="E547" s="14"/>
@@ -28529,7 +28499,7 @@
     </row>
     <row r="548" spans="1:19">
       <c r="A548" s="22"/>
-      <c r="B548" s="24"/>
+      <c r="B548" s="23"/>
       <c r="C548" s="11"/>
       <c r="D548" s="12"/>
       <c r="E548" s="14"/>
@@ -28580,7 +28550,7 @@
     </row>
     <row r="549" spans="1:19">
       <c r="A549" s="22"/>
-      <c r="B549" s="24"/>
+      <c r="B549" s="23"/>
       <c r="C549" s="11"/>
       <c r="D549" s="12"/>
       <c r="E549" s="14"/>
@@ -28631,7 +28601,7 @@
     </row>
     <row r="550" spans="1:19">
       <c r="A550" s="22"/>
-      <c r="B550" s="24"/>
+      <c r="B550" s="23"/>
       <c r="C550" s="11"/>
       <c r="D550" s="12"/>
       <c r="E550" s="14"/>
@@ -28682,7 +28652,7 @@
     </row>
     <row r="551" spans="1:19">
       <c r="A551" s="22"/>
-      <c r="B551" s="24"/>
+      <c r="B551" s="23"/>
       <c r="C551" s="11"/>
       <c r="D551" s="12"/>
       <c r="E551" s="14"/>
@@ -28733,7 +28703,7 @@
     </row>
     <row r="552" spans="1:19">
       <c r="A552" s="22"/>
-      <c r="B552" s="24"/>
+      <c r="B552" s="23"/>
       <c r="C552" s="11"/>
       <c r="D552" s="12"/>
       <c r="E552" s="14"/>
@@ -28784,7 +28754,7 @@
     </row>
     <row r="553" spans="1:19">
       <c r="A553" s="22"/>
-      <c r="B553" s="24"/>
+      <c r="B553" s="23"/>
       <c r="C553" s="11"/>
       <c r="D553" s="12"/>
       <c r="E553" s="14"/>
@@ -28835,7 +28805,7 @@
     </row>
     <row r="554" spans="1:19">
       <c r="A554" s="22"/>
-      <c r="B554" s="24"/>
+      <c r="B554" s="23"/>
       <c r="C554" s="11"/>
       <c r="D554" s="12"/>
       <c r="E554" s="14"/>
@@ -28886,7 +28856,7 @@
     </row>
     <row r="555" spans="1:19">
       <c r="A555" s="22"/>
-      <c r="B555" s="24"/>
+      <c r="B555" s="23"/>
       <c r="C555" s="11"/>
       <c r="D555" s="12"/>
       <c r="E555" s="14"/>
@@ -28937,7 +28907,7 @@
     </row>
     <row r="556" spans="1:19">
       <c r="A556" s="22"/>
-      <c r="B556" s="24"/>
+      <c r="B556" s="23"/>
       <c r="C556" s="11"/>
       <c r="D556" s="12"/>
       <c r="E556" s="14"/>
@@ -28988,7 +28958,7 @@
     </row>
     <row r="557" spans="1:19">
       <c r="A557" s="22"/>
-      <c r="B557" s="24"/>
+      <c r="B557" s="23"/>
       <c r="C557" s="11"/>
       <c r="D557" s="12"/>
       <c r="E557" s="14"/>
@@ -29039,7 +29009,7 @@
     </row>
     <row r="558" spans="1:19">
       <c r="A558" s="22"/>
-      <c r="B558" s="24"/>
+      <c r="B558" s="23"/>
       <c r="C558" s="11"/>
       <c r="D558" s="12"/>
       <c r="E558" s="14"/>
@@ -29090,7 +29060,7 @@
     </row>
     <row r="559" spans="1:19">
       <c r="A559" s="22"/>
-      <c r="B559" s="24"/>
+      <c r="B559" s="23"/>
       <c r="C559" s="11"/>
       <c r="D559" s="12"/>
       <c r="E559" s="14"/>
@@ -29141,7 +29111,7 @@
     </row>
     <row r="560" spans="1:19">
       <c r="A560" s="22"/>
-      <c r="B560" s="24"/>
+      <c r="B560" s="23"/>
       <c r="C560" s="11"/>
       <c r="D560" s="12"/>
       <c r="E560" s="14"/>
@@ -29192,7 +29162,7 @@
     </row>
     <row r="561" spans="1:19">
       <c r="A561" s="22"/>
-      <c r="B561" s="24"/>
+      <c r="B561" s="23"/>
       <c r="C561" s="11"/>
       <c r="D561" s="12"/>
       <c r="E561" s="14"/>
@@ -29243,7 +29213,7 @@
     </row>
     <row r="562" spans="1:19">
       <c r="A562" s="22"/>
-      <c r="B562" s="24"/>
+      <c r="B562" s="23"/>
       <c r="C562" s="11"/>
       <c r="D562" s="12"/>
       <c r="E562" s="14"/>
@@ -29294,7 +29264,7 @@
     </row>
     <row r="563" spans="1:19">
       <c r="A563" s="22"/>
-      <c r="B563" s="24"/>
+      <c r="B563" s="23"/>
       <c r="C563" s="11"/>
       <c r="D563" s="12"/>
       <c r="E563" s="14"/>
@@ -29345,7 +29315,7 @@
     </row>
     <row r="564" spans="1:19">
       <c r="A564" s="22"/>
-      <c r="B564" s="24"/>
+      <c r="B564" s="23"/>
       <c r="C564" s="11"/>
       <c r="D564" s="12"/>
       <c r="E564" s="14"/>
@@ -29396,7 +29366,7 @@
     </row>
     <row r="565" spans="1:19">
       <c r="A565" s="22"/>
-      <c r="B565" s="24"/>
+      <c r="B565" s="23"/>
       <c r="C565" s="11"/>
       <c r="D565" s="12"/>
       <c r="E565" s="14"/>
@@ -29447,7 +29417,7 @@
     </row>
     <row r="566" spans="1:19">
       <c r="A566" s="22"/>
-      <c r="B566" s="24"/>
+      <c r="B566" s="23"/>
       <c r="C566" s="11"/>
       <c r="D566" s="12"/>
       <c r="E566" s="14"/>
@@ -29498,7 +29468,7 @@
     </row>
     <row r="567" spans="1:19">
       <c r="A567" s="22"/>
-      <c r="B567" s="24"/>
+      <c r="B567" s="23"/>
       <c r="C567" s="11"/>
       <c r="D567" s="12"/>
       <c r="E567" s="14"/>
@@ -29549,7 +29519,7 @@
     </row>
     <row r="568" spans="1:19">
       <c r="A568" s="22"/>
-      <c r="B568" s="24"/>
+      <c r="B568" s="23"/>
       <c r="C568" s="11"/>
       <c r="D568" s="12"/>
       <c r="E568" s="14"/>
@@ -29600,7 +29570,7 @@
     </row>
     <row r="569" spans="1:19">
       <c r="A569" s="22"/>
-      <c r="B569" s="24"/>
+      <c r="B569" s="23"/>
       <c r="C569" s="11"/>
       <c r="D569" s="12"/>
       <c r="E569" s="14"/>
@@ -29651,7 +29621,7 @@
     </row>
     <row r="570" spans="1:19">
       <c r="A570" s="22"/>
-      <c r="B570" s="24"/>
+      <c r="B570" s="23"/>
       <c r="C570" s="11"/>
       <c r="D570" s="12"/>
       <c r="E570" s="14"/>
@@ -29702,7 +29672,7 @@
     </row>
     <row r="571" spans="1:19">
       <c r="A571" s="22"/>
-      <c r="B571" s="24"/>
+      <c r="B571" s="23"/>
       <c r="C571" s="11"/>
       <c r="D571" s="12"/>
       <c r="E571" s="14"/>
@@ -29753,7 +29723,7 @@
     </row>
     <row r="572" spans="1:19">
       <c r="A572" s="22"/>
-      <c r="B572" s="24"/>
+      <c r="B572" s="23"/>
       <c r="C572" s="11"/>
       <c r="D572" s="12"/>
       <c r="E572" s="14"/>
@@ -29804,7 +29774,7 @@
     </row>
     <row r="573" spans="1:19">
       <c r="A573" s="22"/>
-      <c r="B573" s="24"/>
+      <c r="B573" s="23"/>
       <c r="C573" s="11"/>
       <c r="D573" s="12"/>
       <c r="E573" s="14"/>
@@ -29855,7 +29825,7 @@
     </row>
     <row r="574" spans="1:19">
       <c r="A574" s="22"/>
-      <c r="B574" s="24"/>
+      <c r="B574" s="23"/>
       <c r="C574" s="11"/>
       <c r="D574" s="12"/>
       <c r="E574" s="14"/>
@@ -29906,7 +29876,7 @@
     </row>
     <row r="575" spans="1:19">
       <c r="A575" s="22"/>
-      <c r="B575" s="24"/>
+      <c r="B575" s="23"/>
       <c r="C575" s="11"/>
       <c r="D575" s="12"/>
       <c r="E575" s="14"/>
@@ -29957,7 +29927,7 @@
     </row>
     <row r="576" spans="1:19">
       <c r="A576" s="22"/>
-      <c r="B576" s="24"/>
+      <c r="B576" s="23"/>
       <c r="C576" s="11"/>
       <c r="D576" s="12"/>
       <c r="E576" s="14"/>
@@ -30008,7 +29978,7 @@
     </row>
     <row r="577" spans="1:19">
       <c r="A577" s="22"/>
-      <c r="B577" s="24"/>
+      <c r="B577" s="23"/>
       <c r="C577" s="11"/>
       <c r="D577" s="12"/>
       <c r="E577" s="14"/>
@@ -30059,7 +30029,7 @@
     </row>
     <row r="578" spans="1:19">
       <c r="A578" s="22"/>
-      <c r="B578" s="24"/>
+      <c r="B578" s="23"/>
       <c r="C578" s="11"/>
       <c r="D578" s="12"/>
       <c r="E578" s="14"/>
@@ -30110,7 +30080,7 @@
     </row>
     <row r="579" spans="1:19">
       <c r="A579" s="22"/>
-      <c r="B579" s="24"/>
+      <c r="B579" s="23"/>
       <c r="C579" s="11"/>
       <c r="D579" s="12"/>
       <c r="E579" s="14"/>
@@ -30161,7 +30131,7 @@
     </row>
     <row r="580" spans="1:19">
       <c r="A580" s="22"/>
-      <c r="B580" s="24"/>
+      <c r="B580" s="23"/>
       <c r="C580" s="11"/>
       <c r="D580" s="12"/>
       <c r="E580" s="14"/>
@@ -30212,7 +30182,7 @@
     </row>
     <row r="581" spans="1:19">
       <c r="A581" s="22"/>
-      <c r="B581" s="24"/>
+      <c r="B581" s="23"/>
       <c r="C581" s="11"/>
       <c r="D581" s="12"/>
       <c r="E581" s="14"/>
@@ -30263,7 +30233,7 @@
     </row>
     <row r="582" spans="1:19">
       <c r="A582" s="22"/>
-      <c r="B582" s="24"/>
+      <c r="B582" s="23"/>
       <c r="C582" s="11"/>
       <c r="D582" s="12"/>
       <c r="E582" s="14"/>
@@ -30314,7 +30284,7 @@
     </row>
     <row r="583" spans="1:19">
       <c r="A583" s="22"/>
-      <c r="B583" s="24"/>
+      <c r="B583" s="23"/>
       <c r="C583" s="11"/>
       <c r="D583" s="12"/>
       <c r="E583" s="14"/>
@@ -30365,7 +30335,7 @@
     </row>
     <row r="584" spans="1:19">
       <c r="A584" s="22"/>
-      <c r="B584" s="24"/>
+      <c r="B584" s="23"/>
       <c r="C584" s="11"/>
       <c r="D584" s="12"/>
       <c r="E584" s="14"/>
@@ -30416,7 +30386,7 @@
     </row>
     <row r="585" spans="1:19">
       <c r="A585" s="22"/>
-      <c r="B585" s="24"/>
+      <c r="B585" s="23"/>
       <c r="C585" s="11"/>
       <c r="D585" s="12"/>
       <c r="E585" s="14"/>
@@ -30467,7 +30437,7 @@
     </row>
     <row r="586" spans="1:19">
       <c r="A586" s="22"/>
-      <c r="B586" s="24"/>
+      <c r="B586" s="23"/>
       <c r="C586" s="11"/>
       <c r="D586" s="12"/>
       <c r="E586" s="14"/>
@@ -30518,7 +30488,7 @@
     </row>
     <row r="587" spans="1:19">
       <c r="A587" s="22"/>
-      <c r="B587" s="24"/>
+      <c r="B587" s="23"/>
       <c r="C587" s="11"/>
       <c r="D587" s="12"/>
       <c r="E587" s="14"/>
@@ -30569,7 +30539,7 @@
     </row>
     <row r="588" spans="1:19">
       <c r="A588" s="22"/>
-      <c r="B588" s="24"/>
+      <c r="B588" s="23"/>
       <c r="C588" s="11"/>
       <c r="D588" s="12"/>
       <c r="E588" s="14"/>
@@ -30620,7 +30590,7 @@
     </row>
     <row r="589" spans="1:19">
       <c r="A589" s="22"/>
-      <c r="B589" s="24"/>
+      <c r="B589" s="23"/>
       <c r="C589" s="11"/>
       <c r="D589" s="12"/>
       <c r="E589" s="14"/>
@@ -30671,7 +30641,7 @@
     </row>
     <row r="590" spans="1:19">
       <c r="A590" s="22"/>
-      <c r="B590" s="24"/>
+      <c r="B590" s="23"/>
       <c r="C590" s="11"/>
       <c r="D590" s="12"/>
       <c r="E590" s="14"/>
@@ -30722,7 +30692,7 @@
     </row>
     <row r="591" spans="1:19">
       <c r="A591" s="22"/>
-      <c r="B591" s="24"/>
+      <c r="B591" s="23"/>
       <c r="C591" s="11"/>
       <c r="D591" s="12"/>
       <c r="E591" s="14"/>
@@ -30773,7 +30743,7 @@
     </row>
     <row r="592" spans="1:19">
       <c r="A592" s="22"/>
-      <c r="B592" s="24"/>
+      <c r="B592" s="23"/>
       <c r="C592" s="11"/>
       <c r="D592" s="12"/>
       <c r="E592" s="14"/>
@@ -30824,7 +30794,7 @@
     </row>
     <row r="593" spans="1:19">
       <c r="A593" s="22"/>
-      <c r="B593" s="24"/>
+      <c r="B593" s="23"/>
       <c r="C593" s="11"/>
       <c r="D593" s="12"/>
       <c r="E593" s="14"/>
@@ -30875,7 +30845,7 @@
     </row>
     <row r="594" spans="1:19">
       <c r="A594" s="22"/>
-      <c r="B594" s="24"/>
+      <c r="B594" s="23"/>
       <c r="C594" s="11"/>
       <c r="D594" s="12"/>
       <c r="E594" s="14"/>
@@ -30926,7 +30896,7 @@
     </row>
     <row r="595" spans="1:19">
       <c r="A595" s="22"/>
-      <c r="B595" s="24"/>
+      <c r="B595" s="23"/>
       <c r="C595" s="11"/>
       <c r="D595" s="12"/>
       <c r="E595" s="14"/>
@@ -30977,7 +30947,7 @@
     </row>
     <row r="596" spans="1:19">
       <c r="A596" s="22"/>
-      <c r="B596" s="24"/>
+      <c r="B596" s="23"/>
       <c r="C596" s="11"/>
       <c r="D596" s="12"/>
       <c r="E596" s="14"/>
@@ -31028,7 +30998,7 @@
     </row>
     <row r="597" spans="1:19">
       <c r="A597" s="22"/>
-      <c r="B597" s="24"/>
+      <c r="B597" s="23"/>
       <c r="C597" s="11"/>
       <c r="D597" s="12"/>
       <c r="E597" s="14"/>
@@ -31079,7 +31049,7 @@
     </row>
     <row r="598" spans="1:19">
       <c r="A598" s="22"/>
-      <c r="B598" s="24"/>
+      <c r="B598" s="23"/>
       <c r="C598" s="11"/>
       <c r="D598" s="12"/>
       <c r="E598" s="14"/>
@@ -31130,7 +31100,7 @@
     </row>
     <row r="599" spans="1:19">
       <c r="A599" s="22"/>
-      <c r="B599" s="24"/>
+      <c r="B599" s="23"/>
       <c r="C599" s="11"/>
       <c r="D599" s="12"/>
       <c r="E599" s="14"/>
@@ -31181,7 +31151,7 @@
     </row>
     <row r="600" spans="1:19">
       <c r="A600" s="22"/>
-      <c r="B600" s="24"/>
+      <c r="B600" s="23"/>
       <c r="C600" s="11"/>
       <c r="D600" s="12"/>
       <c r="E600" s="14"/>
@@ -31232,7 +31202,7 @@
     </row>
     <row r="601" spans="1:19">
       <c r="A601" s="22"/>
-      <c r="B601" s="24"/>
+      <c r="B601" s="23"/>
       <c r="C601" s="11"/>
       <c r="D601" s="12"/>
       <c r="E601" s="14"/>
@@ -31283,7 +31253,7 @@
     </row>
     <row r="602" spans="1:19">
       <c r="A602" s="22"/>
-      <c r="B602" s="24"/>
+      <c r="B602" s="23"/>
       <c r="C602" s="11"/>
       <c r="D602" s="12"/>
       <c r="E602" s="14"/>
@@ -31334,7 +31304,7 @@
     </row>
     <row r="603" spans="1:19">
       <c r="A603" s="22"/>
-      <c r="B603" s="24"/>
+      <c r="B603" s="23"/>
       <c r="C603" s="11"/>
       <c r="D603" s="12"/>
       <c r="E603" s="14"/>
@@ -31385,7 +31355,7 @@
     </row>
     <row r="604" spans="1:19">
       <c r="A604" s="22"/>
-      <c r="B604" s="24"/>
+      <c r="B604" s="23"/>
       <c r="C604" s="11"/>
       <c r="D604" s="12"/>
       <c r="E604" s="14"/>
@@ -31436,7 +31406,7 @@
     </row>
     <row r="605" spans="1:19">
       <c r="A605" s="22"/>
-      <c r="B605" s="24"/>
+      <c r="B605" s="23"/>
       <c r="C605" s="11"/>
       <c r="D605" s="12"/>
       <c r="E605" s="14"/>
@@ -31487,7 +31457,7 @@
     </row>
     <row r="606" spans="1:19">
       <c r="A606" s="22"/>
-      <c r="B606" s="24"/>
+      <c r="B606" s="23"/>
       <c r="C606" s="11"/>
       <c r="D606" s="12"/>
       <c r="E606" s="14"/>
@@ -31538,7 +31508,7 @@
     </row>
     <row r="607" spans="1:19">
       <c r="A607" s="22"/>
-      <c r="B607" s="24"/>
+      <c r="B607" s="23"/>
       <c r="C607" s="11"/>
       <c r="D607" s="12"/>
       <c r="E607" s="14"/>
@@ -31589,7 +31559,7 @@
     </row>
     <row r="608" spans="1:19">
       <c r="A608" s="22"/>
-      <c r="B608" s="24"/>
+      <c r="B608" s="23"/>
       <c r="C608" s="11"/>
       <c r="D608" s="12"/>
       <c r="E608" s="14"/>
@@ -31640,7 +31610,7 @@
     </row>
     <row r="609" spans="1:19">
       <c r="A609" s="22"/>
-      <c r="B609" s="24"/>
+      <c r="B609" s="23"/>
       <c r="C609" s="11"/>
       <c r="D609" s="12"/>
       <c r="E609" s="14"/>
@@ -31691,7 +31661,7 @@
     </row>
     <row r="610" spans="1:19">
       <c r="A610" s="22"/>
-      <c r="B610" s="24"/>
+      <c r="B610" s="23"/>
       <c r="C610" s="11"/>
       <c r="D610" s="12"/>
       <c r="E610" s="14"/>
@@ -31742,7 +31712,7 @@
     </row>
     <row r="611" spans="1:19">
       <c r="A611" s="22"/>
-      <c r="B611" s="24"/>
+      <c r="B611" s="23"/>
       <c r="C611" s="11"/>
       <c r="D611" s="12"/>
       <c r="E611" s="14"/>
@@ -31793,7 +31763,7 @@
     </row>
     <row r="612" spans="1:19">
       <c r="A612" s="22"/>
-      <c r="B612" s="24"/>
+      <c r="B612" s="23"/>
       <c r="C612" s="11"/>
       <c r="D612" s="12"/>
       <c r="E612" s="14"/>
@@ -31844,7 +31814,7 @@
     </row>
     <row r="613" spans="1:19">
       <c r="A613" s="22"/>
-      <c r="B613" s="24"/>
+      <c r="B613" s="23"/>
       <c r="C613" s="11"/>
       <c r="D613" s="12"/>
       <c r="E613" s="14"/>
@@ -31895,7 +31865,7 @@
     </row>
     <row r="614" spans="1:19">
       <c r="A614" s="22"/>
-      <c r="B614" s="24"/>
+      <c r="B614" s="23"/>
       <c r="C614" s="11"/>
       <c r="D614" s="12"/>
       <c r="E614" s="14"/>
@@ -31946,7 +31916,7 @@
     </row>
     <row r="615" spans="1:19">
       <c r="A615" s="22"/>
-      <c r="B615" s="24"/>
+      <c r="B615" s="23"/>
       <c r="C615" s="11"/>
       <c r="D615" s="12"/>
       <c r="E615" s="14"/>
@@ -31997,7 +31967,7 @@
     </row>
     <row r="616" spans="1:19">
       <c r="A616" s="22"/>
-      <c r="B616" s="24"/>
+      <c r="B616" s="23"/>
       <c r="C616" s="11"/>
       <c r="D616" s="12"/>
       <c r="E616" s="14"/>
@@ -32048,7 +32018,7 @@
     </row>
     <row r="617" spans="1:19">
       <c r="A617" s="22"/>
-      <c r="B617" s="24"/>
+      <c r="B617" s="23"/>
       <c r="C617" s="11"/>
       <c r="D617" s="12"/>
       <c r="E617" s="14"/>
@@ -32099,7 +32069,7 @@
     </row>
     <row r="618" spans="1:19">
       <c r="A618" s="22"/>
-      <c r="B618" s="24"/>
+      <c r="B618" s="23"/>
       <c r="C618" s="11"/>
       <c r="D618" s="12"/>
       <c r="E618" s="14"/>
@@ -32150,7 +32120,7 @@
     </row>
     <row r="619" spans="1:19">
       <c r="A619" s="22"/>
-      <c r="B619" s="24"/>
+      <c r="B619" s="23"/>
       <c r="C619" s="11"/>
       <c r="D619" s="12"/>
       <c r="E619" s="14"/>
@@ -32201,7 +32171,7 @@
     </row>
     <row r="620" spans="1:19">
       <c r="A620" s="22"/>
-      <c r="B620" s="24"/>
+      <c r="B620" s="23"/>
       <c r="C620" s="11"/>
       <c r="D620" s="12"/>
       <c r="E620" s="14"/>
@@ -32252,7 +32222,7 @@
     </row>
     <row r="621" spans="1:19">
       <c r="A621" s="22"/>
-      <c r="B621" s="24"/>
+      <c r="B621" s="23"/>
       <c r="C621" s="11"/>
       <c r="D621" s="12"/>
       <c r="E621" s="14"/>
@@ -32303,7 +32273,7 @@
     </row>
     <row r="622" spans="1:19">
       <c r="A622" s="22"/>
-      <c r="B622" s="24"/>
+      <c r="B622" s="23"/>
       <c r="C622" s="11"/>
       <c r="D622" s="12"/>
       <c r="E622" s="14"/>
@@ -32354,7 +32324,7 @@
     </row>
     <row r="623" spans="1:19">
       <c r="A623" s="22"/>
-      <c r="B623" s="24"/>
+      <c r="B623" s="23"/>
       <c r="C623" s="11"/>
       <c r="D623" s="12"/>
       <c r="E623" s="14"/>
@@ -32405,7 +32375,7 @@
     </row>
     <row r="624" spans="1:19">
       <c r="A624" s="22"/>
-      <c r="B624" s="24"/>
+      <c r="B624" s="23"/>
       <c r="C624" s="11"/>
       <c r="D624" s="12"/>
       <c r="E624" s="14"/>
@@ -32456,7 +32426,7 @@
     </row>
     <row r="625" spans="1:19">
       <c r="A625" s="22"/>
-      <c r="B625" s="24"/>
+      <c r="B625" s="23"/>
       <c r="C625" s="11"/>
       <c r="D625" s="12"/>
       <c r="E625" s="14"/>
@@ -32507,7 +32477,7 @@
     </row>
     <row r="626" spans="1:19">
       <c r="A626" s="22"/>
-      <c r="B626" s="24"/>
+      <c r="B626" s="23"/>
       <c r="C626" s="11"/>
       <c r="D626" s="12"/>
       <c r="E626" s="14"/>
@@ -32558,7 +32528,7 @@
     </row>
     <row r="627" spans="1:19">
       <c r="A627" s="22"/>
-      <c r="B627" s="24"/>
+      <c r="B627" s="23"/>
       <c r="C627" s="11"/>
       <c r="D627" s="12"/>
       <c r="E627" s="14"/>
@@ -32609,7 +32579,7 @@
     </row>
     <row r="628" spans="1:19">
       <c r="A628" s="22"/>
-      <c r="B628" s="24"/>
+      <c r="B628" s="23"/>
       <c r="C628" s="11"/>
       <c r="D628" s="12"/>
       <c r="E628" s="14"/>
@@ -32660,7 +32630,7 @@
     </row>
     <row r="629" spans="1:19">
       <c r="A629" s="22"/>
-      <c r="B629" s="24"/>
+      <c r="B629" s="23"/>
       <c r="C629" s="11"/>
       <c r="D629" s="12"/>
       <c r="E629" s="14"/>
@@ -32711,7 +32681,7 @@
     </row>
     <row r="630" spans="1:19">
       <c r="A630" s="22"/>
-      <c r="B630" s="24"/>
+      <c r="B630" s="23"/>
       <c r="C630" s="11"/>
       <c r="D630" s="12"/>
       <c r="E630" s="14"/>
@@ -32762,7 +32732,7 @@
     </row>
     <row r="631" spans="1:19">
       <c r="A631" s="22"/>
-      <c r="B631" s="24"/>
+      <c r="B631" s="23"/>
       <c r="C631" s="11"/>
       <c r="D631" s="12"/>
       <c r="E631" s="14"/>
@@ -32813,7 +32783,7 @@
     </row>
     <row r="632" spans="1:19">
       <c r="A632" s="22"/>
-      <c r="B632" s="24"/>
+      <c r="B632" s="23"/>
       <c r="C632" s="11"/>
       <c r="D632" s="12"/>
       <c r="E632" s="14"/>
@@ -32864,7 +32834,7 @@
     </row>
     <row r="633" spans="1:19">
       <c r="A633" s="22"/>
-      <c r="B633" s="24"/>
+      <c r="B633" s="23"/>
       <c r="C633" s="11"/>
       <c r="D633" s="12"/>
       <c r="E633" s="14"/>
@@ -32915,7 +32885,7 @@
     </row>
     <row r="634" spans="1:19">
       <c r="A634" s="22"/>
-      <c r="B634" s="24"/>
+      <c r="B634" s="23"/>
       <c r="C634" s="11"/>
       <c r="D634" s="12"/>
       <c r="E634" s="14"/>
@@ -32966,7 +32936,7 @@
     </row>
     <row r="635" spans="1:19">
       <c r="A635" s="22"/>
-      <c r="B635" s="24"/>
+      <c r="B635" s="23"/>
       <c r="C635" s="11"/>
       <c r="D635" s="12"/>
       <c r="E635" s="14"/>
@@ -33017,7 +32987,7 @@
     </row>
     <row r="636" spans="1:19">
       <c r="A636" s="22"/>
-      <c r="B636" s="24"/>
+      <c r="B636" s="23"/>
       <c r="C636" s="11"/>
       <c r="D636" s="12"/>
       <c r="E636" s="14"/>
@@ -33068,7 +33038,7 @@
     </row>
     <row r="637" spans="1:19">
       <c r="A637" s="22"/>
-      <c r="B637" s="24"/>
+      <c r="B637" s="23"/>
       <c r="C637" s="11"/>
       <c r="D637" s="12"/>
       <c r="E637" s="14"/>
@@ -33119,7 +33089,7 @@
     </row>
     <row r="638" spans="1:19">
       <c r="A638" s="22"/>
-      <c r="B638" s="24"/>
+      <c r="B638" s="23"/>
       <c r="C638" s="11"/>
       <c r="D638" s="12"/>
       <c r="E638" s="14"/>
@@ -33170,7 +33140,7 @@
     </row>
     <row r="639" spans="1:19">
       <c r="A639" s="22"/>
-      <c r="B639" s="24"/>
+      <c r="B639" s="23"/>
       <c r="C639" s="11"/>
       <c r="D639" s="12"/>
       <c r="E639" s="14"/>
@@ -33221,7 +33191,7 @@
     </row>
     <row r="640" spans="1:19">
       <c r="A640" s="22"/>
-      <c r="B640" s="24"/>
+      <c r="B640" s="23"/>
       <c r="C640" s="11"/>
       <c r="D640" s="12"/>
       <c r="E640" s="14"/>
@@ -33272,7 +33242,7 @@
     </row>
     <row r="641" spans="1:19">
       <c r="A641" s="22"/>
-      <c r="B641" s="24"/>
+      <c r="B641" s="23"/>
       <c r="C641" s="11"/>
       <c r="D641" s="12"/>
       <c r="E641" s="14"/>
@@ -33323,7 +33293,7 @@
     </row>
     <row r="642" spans="1:19">
       <c r="A642" s="22"/>
-      <c r="B642" s="24"/>
+      <c r="B642" s="23"/>
       <c r="C642" s="11"/>
       <c r="D642" s="12"/>
       <c r="E642" s="14"/>
@@ -33374,7 +33344,7 @@
     </row>
     <row r="643" spans="1:19">
       <c r="A643" s="22"/>
-      <c r="B643" s="24"/>
+      <c r="B643" s="23"/>
       <c r="C643" s="11"/>
       <c r="D643" s="12"/>
       <c r="E643" s="14"/>
@@ -33425,7 +33395,7 @@
     </row>
     <row r="644" spans="1:19">
       <c r="A644" s="22"/>
-      <c r="B644" s="24"/>
+      <c r="B644" s="23"/>
       <c r="C644" s="11"/>
       <c r="D644" s="12"/>
       <c r="E644" s="14"/>
@@ -33476,7 +33446,7 @@
     </row>
     <row r="645" spans="1:19">
       <c r="A645" s="22"/>
-      <c r="B645" s="24"/>
+      <c r="B645" s="23"/>
       <c r="C645" s="11"/>
       <c r="D645" s="12"/>
       <c r="E645" s="14"/>
@@ -33527,7 +33497,7 @@
     </row>
     <row r="646" spans="1:19">
       <c r="A646" s="22"/>
-      <c r="B646" s="24"/>
+      <c r="B646" s="23"/>
       <c r="C646" s="11"/>
       <c r="D646" s="12"/>
       <c r="E646" s="14"/>
@@ -33578,7 +33548,7 @@
     </row>
     <row r="647" spans="1:19">
       <c r="A647" s="22"/>
-      <c r="B647" s="24"/>
+      <c r="B647" s="23"/>
       <c r="C647" s="11"/>
       <c r="D647" s="12"/>
       <c r="E647" s="14"/>
@@ -33629,7 +33599,7 @@
     </row>
     <row r="648" spans="1:19">
       <c r="A648" s="22"/>
-      <c r="B648" s="24"/>
+      <c r="B648" s="23"/>
       <c r="C648" s="11"/>
       <c r="D648" s="12"/>
       <c r="E648" s="14"/>
@@ -33680,7 +33650,7 @@
     </row>
     <row r="649" spans="1:19">
       <c r="A649" s="22"/>
-      <c r="B649" s="24"/>
+      <c r="B649" s="23"/>
       <c r="C649" s="11"/>
       <c r="D649" s="12"/>
       <c r="E649" s="14"/>
@@ -33731,7 +33701,7 @@
     </row>
     <row r="650" spans="1:19">
       <c r="A650" s="22"/>
-      <c r="B650" s="24"/>
+      <c r="B650" s="23"/>
       <c r="C650" s="11"/>
       <c r="D650" s="12"/>
       <c r="E650" s="14"/>
@@ -33782,7 +33752,7 @@
     </row>
     <row r="651" spans="1:19">
       <c r="A651" s="22"/>
-      <c r="B651" s="24"/>
+      <c r="B651" s="23"/>
       <c r="C651" s="11"/>
       <c r="D651" s="12"/>
       <c r="E651" s="14"/>
@@ -33833,7 +33803,7 @@
     </row>
     <row r="652" spans="1:19">
       <c r="A652" s="22"/>
-      <c r="B652" s="24"/>
+      <c r="B652" s="23"/>
       <c r="C652" s="11"/>
       <c r="D652" s="12"/>
       <c r="E652" s="14"/>
@@ -33884,7 +33854,7 @@
     </row>
     <row r="653" spans="1:19">
       <c r="A653" s="22"/>
-      <c r="B653" s="24"/>
+      <c r="B653" s="23"/>
       <c r="C653" s="11"/>
       <c r="D653" s="12"/>
       <c r="E653" s="14"/>
@@ -33935,7 +33905,7 @@
     </row>
     <row r="654" spans="1:19">
       <c r="A654" s="22"/>
-      <c r="B654" s="24"/>
+      <c r="B654" s="23"/>
       <c r="C654" s="11"/>
       <c r="D654" s="12"/>
       <c r="E654" s="14"/>
@@ -33986,7 +33956,7 @@
     </row>
     <row r="655" spans="1:19">
       <c r="A655" s="22"/>
-      <c r="B655" s="24"/>
+      <c r="B655" s="23"/>
       <c r="C655" s="11"/>
       <c r="D655" s="12"/>
       <c r="E655" s="14"/>
@@ -34037,7 +34007,7 @@
     </row>
     <row r="656" spans="1:19">
       <c r="A656" s="22"/>
-      <c r="B656" s="24"/>
+      <c r="B656" s="23"/>
       <c r="C656" s="11"/>
       <c r="D656" s="12"/>
       <c r="E656" s="14"/>
@@ -34088,7 +34058,7 @@
     </row>
     <row r="657" spans="1:19">
       <c r="A657" s="22"/>
-      <c r="B657" s="24"/>
+      <c r="B657" s="23"/>
       <c r="C657" s="11"/>
       <c r="D657" s="12"/>
       <c r="E657" s="14"/>
@@ -34139,7 +34109,7 @@
     </row>
     <row r="658" spans="1:19">
       <c r="A658" s="22"/>
-      <c r="B658" s="24"/>
+      <c r="B658" s="23"/>
       <c r="C658" s="11"/>
       <c r="D658" s="12"/>
       <c r="E658" s="14"/>
@@ -34190,7 +34160,7 @@
     </row>
     <row r="659" spans="1:19">
       <c r="A659" s="22"/>
-      <c r="B659" s="24"/>
+      <c r="B659" s="23"/>
       <c r="C659" s="11"/>
       <c r="D659" s="12"/>
       <c r="E659" s="14"/>
@@ -34241,7 +34211,7 @@
     </row>
     <row r="660" spans="1:19">
       <c r="A660" s="22"/>
-      <c r="B660" s="24"/>
+      <c r="B660" s="23"/>
       <c r="C660" s="11"/>
       <c r="D660" s="12"/>
       <c r="E660" s="14"/>
@@ -34292,7 +34262,7 @@
     </row>
     <row r="661" spans="1:19">
       <c r="A661" s="22"/>
-      <c r="B661" s="24"/>
+      <c r="B661" s="23"/>
       <c r="C661" s="11"/>
       <c r="D661" s="12"/>
       <c r="E661" s="14"/>
@@ -34343,7 +34313,7 @@
     </row>
     <row r="662" spans="1:19">
       <c r="A662" s="22"/>
-      <c r="B662" s="24"/>
+      <c r="B662" s="23"/>
       <c r="C662" s="11"/>
       <c r="D662" s="12"/>
       <c r="E662" s="14"/>
@@ -34394,7 +34364,7 @@
     </row>
     <row r="663" spans="1:19">
       <c r="A663" s="22"/>
-      <c r="B663" s="24"/>
+      <c r="B663" s="23"/>
       <c r="C663" s="11"/>
       <c r="D663" s="12"/>
       <c r="E663" s="14"/>
@@ -34445,7 +34415,7 @@
     </row>
     <row r="664" spans="1:19">
       <c r="A664" s="22"/>
-      <c r="B664" s="24"/>
+      <c r="B664" s="23"/>
       <c r="C664" s="11"/>
       <c r="D664" s="12"/>
       <c r="E664" s="14"/>
@@ -34496,7 +34466,7 @@
     </row>
     <row r="665" spans="1:19">
       <c r="A665" s="22"/>
-      <c r="B665" s="24"/>
+      <c r="B665" s="23"/>
       <c r="C665" s="11"/>
       <c r="D665" s="12"/>
       <c r="E665" s="14"/>
@@ -34547,7 +34517,7 @@
     </row>
     <row r="666" spans="1:19">
       <c r="A666" s="22"/>
-      <c r="B666" s="24"/>
+      <c r="B666" s="23"/>
       <c r="C666" s="11"/>
       <c r="D666" s="12"/>
       <c r="E666" s="14"/>
@@ -34598,7 +34568,7 @@
     </row>
     <row r="667" spans="1:19">
       <c r="A667" s="22"/>
-      <c r="B667" s="24"/>
+      <c r="B667" s="23"/>
       <c r="C667" s="11"/>
       <c r="D667" s="12"/>
       <c r="E667" s="14"/>
@@ -34649,7 +34619,7 @@
     </row>
     <row r="668" spans="1:19">
       <c r="A668" s="22"/>
-      <c r="B668" s="24"/>
+      <c r="B668" s="23"/>
       <c r="C668" s="11"/>
       <c r="D668" s="12"/>
       <c r="E668" s="14"/>
@@ -34700,7 +34670,7 @@
     </row>
     <row r="669" spans="1:19">
       <c r="A669" s="22"/>
-      <c r="B669" s="24"/>
+      <c r="B669" s="23"/>
       <c r="C669" s="11"/>
       <c r="D669" s="12"/>
       <c r="E669" s="14"/>
@@ -34751,7 +34721,7 @@
     </row>
     <row r="670" spans="1:19">
       <c r="A670" s="22"/>
-      <c r="B670" s="24"/>
+      <c r="B670" s="23"/>
       <c r="C670" s="11"/>
       <c r="D670" s="12"/>
       <c r="E670" s="14"/>
@@ -34802,7 +34772,7 @@
     </row>
     <row r="671" spans="1:19">
       <c r="A671" s="22"/>
-      <c r="B671" s="24"/>
+      <c r="B671" s="23"/>
       <c r="C671" s="11"/>
       <c r="D671" s="12"/>
       <c r="E671" s="14"/>
@@ -34853,7 +34823,7 @@
     </row>
     <row r="672" spans="1:19">
       <c r="A672" s="22"/>
-      <c r="B672" s="24"/>
+      <c r="B672" s="23"/>
       <c r="C672" s="11"/>
       <c r="D672" s="12"/>
       <c r="E672" s="14"/>
@@ -34904,7 +34874,7 @@
     </row>
     <row r="673" spans="1:19">
       <c r="A673" s="22"/>
-      <c r="B673" s="24"/>
+      <c r="B673" s="23"/>
       <c r="C673" s="11"/>
       <c r="D673" s="12"/>
       <c r="E673" s="14"/>
@@ -34955,7 +34925,7 @@
     </row>
     <row r="674" spans="1:19">
       <c r="A674" s="22"/>
-      <c r="B674" s="24"/>
+      <c r="B674" s="23"/>
       <c r="C674" s="11"/>
       <c r="D674" s="12"/>
       <c r="E674" s="14"/>
@@ -35006,7 +34976,7 @@
     </row>
     <row r="675" spans="1:19">
       <c r="A675" s="22"/>
-      <c r="B675" s="24"/>
+      <c r="B675" s="23"/>
       <c r="C675" s="11"/>
       <c r="D675" s="12"/>
       <c r="E675" s="14"/>
@@ -35057,7 +35027,7 @@
     </row>
     <row r="676" spans="1:19">
       <c r="A676" s="22"/>
-      <c r="B676" s="24"/>
+      <c r="B676" s="23"/>
       <c r="C676" s="11"/>
       <c r="D676" s="12"/>
       <c r="E676" s="14"/>
@@ -35108,7 +35078,7 @@
     </row>
     <row r="677" spans="1:19">
       <c r="A677" s="22"/>
-      <c r="B677" s="24"/>
+      <c r="B677" s="23"/>
       <c r="C677" s="11"/>
       <c r="D677" s="12"/>
       <c r="E677" s="14"/>
@@ -35159,7 +35129,7 @@
     </row>
     <row r="678" spans="1:19">
       <c r="A678" s="22"/>
-      <c r="B678" s="24"/>
+      <c r="B678" s="23"/>
       <c r="C678" s="11"/>
       <c r="D678" s="12"/>
       <c r="E678" s="14"/>
@@ -35210,7 +35180,7 @@
     </row>
     <row r="679" spans="1:19">
       <c r="A679" s="22"/>
-      <c r="B679" s="24"/>
+      <c r="B679" s="23"/>
       <c r="C679" s="11"/>
       <c r="D679" s="12"/>
       <c r="E679" s="14"/>
@@ -35261,7 +35231,7 @@
     </row>
     <row r="680" spans="1:19">
       <c r="A680" s="22"/>
-      <c r="B680" s="24"/>
+      <c r="B680" s="23"/>
       <c r="C680" s="11"/>
       <c r="D680" s="12"/>
       <c r="E680" s="14"/>
@@ -35312,7 +35282,7 @@
     </row>
     <row r="681" spans="1:19">
       <c r="A681" s="22"/>
-      <c r="B681" s="24"/>
+      <c r="B681" s="23"/>
       <c r="C681" s="11"/>
       <c r="D681" s="12"/>
       <c r="E681" s="14"/>
@@ -35363,7 +35333,7 @@
     </row>
     <row r="682" spans="1:19">
       <c r="A682" s="22"/>
-      <c r="B682" s="24"/>
+      <c r="B682" s="23"/>
       <c r="C682" s="11"/>
       <c r="D682" s="12"/>
       <c r="E682" s="14"/>
@@ -35414,7 +35384,7 @@
     </row>
     <row r="683" spans="1:19">
       <c r="A683" s="22"/>
-      <c r="B683" s="24"/>
+      <c r="B683" s="23"/>
       <c r="C683" s="11"/>
       <c r="D683" s="12"/>
       <c r="E683" s="14"/>
@@ -35465,7 +35435,7 @@
     </row>
     <row r="684" spans="1:19">
       <c r="A684" s="22"/>
-      <c r="B684" s="24"/>
+      <c r="B684" s="23"/>
       <c r="C684" s="11"/>
       <c r="D684" s="12"/>
       <c r="E684" s="14"/>
@@ -35516,7 +35486,7 @@
     </row>
     <row r="685" spans="1:19">
       <c r="A685" s="22"/>
-      <c r="B685" s="24"/>
+      <c r="B685" s="23"/>
       <c r="C685" s="11"/>
       <c r="D685" s="12"/>
       <c r="E685" s="14"/>
@@ -35567,7 +35537,7 @@
     </row>
     <row r="686" spans="1:19">
       <c r="A686" s="22"/>
-      <c r="B686" s="24"/>
+      <c r="B686" s="23"/>
       <c r="C686" s="11"/>
       <c r="D686" s="12"/>
       <c r="E686" s="14"/>
@@ -35618,7 +35588,7 @@
     </row>
     <row r="687" spans="1:19">
       <c r="A687" s="22"/>
-      <c r="B687" s="24"/>
+      <c r="B687" s="23"/>
       <c r="C687" s="11"/>
       <c r="D687" s="12"/>
       <c r="E687" s="14"/>
@@ -35669,7 +35639,7 @@
     </row>
     <row r="688" spans="1:19">
       <c r="A688" s="22"/>
-      <c r="B688" s="24"/>
+      <c r="B688" s="23"/>
       <c r="C688" s="11"/>
       <c r="D688" s="12"/>
       <c r="E688" s="14"/>
@@ -35720,7 +35690,7 @@
     </row>
     <row r="689" spans="1:19">
       <c r="A689" s="22"/>
-      <c r="B689" s="24"/>
+      <c r="B689" s="23"/>
       <c r="C689" s="11"/>
       <c r="D689" s="12"/>
       <c r="E689" s="14"/>
@@ -35771,7 +35741,7 @@
     </row>
     <row r="690" spans="1:19">
       <c r="A690" s="22"/>
-      <c r="B690" s="24"/>
+      <c r="B690" s="23"/>
       <c r="C690" s="11"/>
       <c r="D690" s="12"/>
       <c r="E690" s="14"/>
@@ -35822,7 +35792,7 @@
     </row>
     <row r="691" spans="1:19">
       <c r="A691" s="22"/>
-      <c r="B691" s="24"/>
+      <c r="B691" s="23"/>
       <c r="C691" s="11"/>
       <c r="D691" s="12"/>
       <c r="E691" s="14"/>
@@ -35873,7 +35843,7 @@
     </row>
     <row r="692" spans="1:19">
       <c r="A692" s="22"/>
-      <c r="B692" s="24"/>
+      <c r="B692" s="23"/>
       <c r="C692" s="11"/>
       <c r="D692" s="12"/>
       <c r="E692" s="14"/>
@@ -35924,7 +35894,7 @@
     </row>
     <row r="693" spans="1:19">
       <c r="A693" s="22"/>
-      <c r="B693" s="24"/>
+      <c r="B693" s="23"/>
       <c r="C693" s="11"/>
       <c r="D693" s="12"/>
       <c r="E693" s="14"/>
@@ -35975,7 +35945,7 @@
     </row>
     <row r="694" spans="1:19">
       <c r="A694" s="22"/>
-      <c r="B694" s="24"/>
+      <c r="B694" s="23"/>
       <c r="C694" s="11"/>
       <c r="D694" s="12"/>
       <c r="E694" s="14"/>
@@ -36026,7 +35996,7 @@
     </row>
     <row r="695" spans="1:19">
       <c r="A695" s="22"/>
-      <c r="B695" s="24"/>
+      <c r="B695" s="23"/>
       <c r="C695" s="11"/>
       <c r="D695" s="12"/>
       <c r="E695" s="14"/>
@@ -36077,7 +36047,7 @@
     </row>
     <row r="696" spans="1:19">
       <c r="A696" s="22"/>
-      <c r="B696" s="24"/>
+      <c r="B696" s="23"/>
       <c r="C696" s="11"/>
       <c r="D696" s="12"/>
       <c r="E696" s="14"/>
@@ -36128,7 +36098,7 @@
     </row>
     <row r="697" spans="1:19">
       <c r="A697" s="22"/>
-      <c r="B697" s="24"/>
+      <c r="B697" s="23"/>
       <c r="C697" s="11"/>
       <c r="D697" s="12"/>
       <c r="E697" s="14"/>
@@ -36179,7 +36149,7 @@
     </row>
     <row r="698" spans="1:19">
       <c r="A698" s="22"/>
-      <c r="B698" s="24"/>
+      <c r="B698" s="23"/>
       <c r="C698" s="11"/>
       <c r="D698" s="12"/>
       <c r="E698" s="14"/>
@@ -36230,7 +36200,7 @@
     </row>
     <row r="699" spans="1:19">
       <c r="A699" s="22"/>
-      <c r="B699" s="24"/>
+      <c r="B699" s="23"/>
       <c r="C699" s="11"/>
       <c r="D699" s="12"/>
       <c r="E699" s="14"/>
@@ -36281,7 +36251,7 @@
     </row>
     <row r="700" spans="1:19">
       <c r="A700" s="22"/>
-      <c r="B700" s="24"/>
+      <c r="B700" s="23"/>
       <c r="C700" s="11"/>
       <c r="D700" s="12"/>
       <c r="E700" s="14"/>
@@ -36332,7 +36302,7 @@
     </row>
     <row r="701" spans="1:19">
       <c r="A701" s="22"/>
-      <c r="B701" s="24"/>
+      <c r="B701" s="23"/>
       <c r="C701" s="11"/>
       <c r="D701" s="12"/>
       <c r="E701" s="14"/>
@@ -36383,7 +36353,7 @@
     </row>
     <row r="702" spans="1:19">
       <c r="A702" s="22"/>
-      <c r="B702" s="24"/>
+      <c r="B702" s="23"/>
       <c r="C702" s="11"/>
       <c r="D702" s="12"/>
       <c r="E702" s="14"/>
@@ -36434,7 +36404,7 @@
     </row>
     <row r="703" spans="1:19">
       <c r="A703" s="22"/>
-      <c r="B703" s="24"/>
+      <c r="B703" s="23"/>
       <c r="C703" s="11"/>
       <c r="D703" s="12"/>
       <c r="E703" s="14"/>
@@ -36485,7 +36455,7 @@
     </row>
     <row r="704" spans="1:19">
       <c r="A704" s="22"/>
-      <c r="B704" s="24"/>
+      <c r="B704" s="23"/>
       <c r="C704" s="11"/>
       <c r="D704" s="12"/>
       <c r="E704" s="14"/>
@@ -36536,7 +36506,7 @@
     </row>
     <row r="705" spans="1:19">
       <c r="A705" s="22"/>
-      <c r="B705" s="24"/>
+      <c r="B705" s="23"/>
       <c r="C705" s="11"/>
       <c r="D705" s="12"/>
       <c r="E705" s="14"/>
@@ -36587,7 +36557,7 @@
     </row>
     <row r="706" spans="1:19">
       <c r="A706" s="22"/>
-      <c r="B706" s="24"/>
+      <c r="B706" s="23"/>
       <c r="C706" s="11"/>
       <c r="D706" s="12"/>
       <c r="E706" s="14"/>
@@ -36638,7 +36608,7 @@
     </row>
     <row r="707" spans="1:19">
       <c r="A707" s="22"/>
-      <c r="B707" s="24"/>
+      <c r="B707" s="23"/>
       <c r="C707" s="11"/>
       <c r="D707" s="12"/>
       <c r="E707" s="14"/>
@@ -36689,7 +36659,7 @@
     </row>
     <row r="708" spans="1:19">
       <c r="A708" s="22"/>
-      <c r="B708" s="24"/>
+      <c r="B708" s="23"/>
       <c r="C708" s="11"/>
       <c r="D708" s="12"/>
       <c r="E708" s="14"/>
@@ -36740,7 +36710,7 @@
     </row>
     <row r="709" spans="1:19">
       <c r="A709" s="22"/>
-      <c r="B709" s="24"/>
+      <c r="B709" s="23"/>
       <c r="C709" s="11"/>
       <c r="D709" s="12"/>
       <c r="E709" s="14"/>
@@ -36791,7 +36761,7 @@
     </row>
     <row r="710" spans="1:19">
       <c r="A710" s="22"/>
-      <c r="B710" s="24"/>
+      <c r="B710" s="23"/>
       <c r="C710" s="11"/>
       <c r="D710" s="12"/>
       <c r="E710" s="14"/>
@@ -36842,7 +36812,7 @@
     </row>
     <row r="711" spans="1:19">
       <c r="A711" s="22"/>
-      <c r="B711" s="24"/>
+      <c r="B711" s="23"/>
       <c r="C711" s="11"/>
       <c r="D711" s="12"/>
       <c r="E711" s="14"/>
@@ -36893,7 +36863,7 @@
     </row>
     <row r="712" spans="1:19">
       <c r="A712" s="22"/>
-      <c r="B712" s="24"/>
+      <c r="B712" s="23"/>
       <c r="C712" s="11"/>
       <c r="D712" s="12"/>
       <c r="E712" s="14"/>
@@ -36944,7 +36914,7 @@
     </row>
     <row r="713" spans="1:19">
       <c r="A713" s="22"/>
-      <c r="B713" s="24"/>
+      <c r="B713" s="23"/>
       <c r="C713" s="11"/>
       <c r="D713" s="12"/>
       <c r="E713" s="14"/>
@@ -36995,7 +36965,7 @@
     </row>
     <row r="714" spans="1:19">
       <c r="A714" s="22"/>
-      <c r="B714" s="24"/>
+      <c r="B714" s="23"/>
       <c r="C714" s="11"/>
       <c r="D714" s="12"/>
       <c r="E714" s="14"/>
@@ -37046,7 +37016,7 @@
     </row>
     <row r="715" spans="1:19">
       <c r="A715" s="22"/>
-      <c r="B715" s="24"/>
+      <c r="B715" s="23"/>
       <c r="C715" s="11"/>
       <c r="D715" s="12"/>
       <c r="E715" s="14"/>
@@ -37097,7 +37067,7 @@
     </row>
     <row r="716" spans="1:19">
       <c r="A716" s="22"/>
-      <c r="B716" s="24"/>
+      <c r="B716" s="23"/>
       <c r="C716" s="11"/>
       <c r="D716" s="12"/>
       <c r="E716" s="14"/>
@@ -37148,7 +37118,7 @@
     </row>
     <row r="717" spans="1:19">
       <c r="A717" s="22"/>
-      <c r="B717" s="24"/>
+      <c r="B717" s="23"/>
       <c r="C717" s="11"/>
       <c r="D717" s="12"/>
       <c r="E717" s="14"/>
@@ -37199,7 +37169,7 @@
     </row>
     <row r="718" spans="1:19">
       <c r="A718" s="22"/>
-      <c r="B718" s="24"/>
+      <c r="B718" s="23"/>
       <c r="C718" s="11"/>
       <c r="D718" s="12"/>
       <c r="E718" s="14"/>
@@ -37250,7 +37220,7 @@
     </row>
     <row r="719" spans="1:19">
       <c r="A719" s="22"/>
-      <c r="B719" s="24"/>
+      <c r="B719" s="23"/>
       <c r="C719" s="11"/>
       <c r="D719" s="12"/>
       <c r="E719" s="14"/>
@@ -37301,7 +37271,7 @@
     </row>
     <row r="720" spans="1:19">
       <c r="A720" s="22"/>
-      <c r="B720" s="24"/>
+      <c r="B720" s="23"/>
       <c r="C720" s="11"/>
       <c r="D720" s="12"/>
       <c r="E720" s="14"/>
@@ -37352,7 +37322,7 @@
     </row>
     <row r="721" spans="1:19">
       <c r="A721" s="22"/>
-      <c r="B721" s="24"/>
+      <c r="B721" s="23"/>
       <c r="C721" s="11"/>
       <c r="D721" s="12"/>
       <c r="E721" s="14"/>
@@ -37403,7 +37373,7 @@
     </row>
     <row r="722" spans="1:19">
       <c r="A722" s="22"/>
-      <c r="B722" s="24"/>
+      <c r="B722" s="23"/>
       <c r="C722" s="11"/>
       <c r="D722" s="12"/>
       <c r="E722" s="14"/>
@@ -37454,7 +37424,7 @@
     </row>
     <row r="723" spans="1:19">
       <c r="A723" s="22"/>
-      <c r="B723" s="24"/>
+      <c r="B723" s="23"/>
       <c r="C723" s="11"/>
       <c r="D723" s="12"/>
       <c r="E723" s="14"/>
@@ -37505,7 +37475,7 @@
     </row>
     <row r="724" spans="1:19">
       <c r="A724" s="22"/>
-      <c r="B724" s="24"/>
+      <c r="B724" s="23"/>
       <c r="C724" s="11"/>
       <c r="D724" s="12"/>
       <c r="E724" s="14"/>
@@ -37556,7 +37526,7 @@
     </row>
     <row r="725" spans="1:19">
       <c r="A725" s="22"/>
-      <c r="B725" s="24"/>
+      <c r="B725" s="23"/>
       <c r="C725" s="11"/>
       <c r="D725" s="12"/>
       <c r="E725" s="14"/>
@@ -37607,7 +37577,7 @@
     </row>
     <row r="726" spans="1:19">
       <c r="A726" s="22"/>
-      <c r="B726" s="24"/>
+      <c r="B726" s="23"/>
       <c r="C726" s="11"/>
       <c r="D726" s="12"/>
       <c r="E726" s="14"/>
@@ -37658,7 +37628,7 @@
     </row>
     <row r="727" spans="1:19">
       <c r="A727" s="22"/>
-      <c r="B727" s="24"/>
+      <c r="B727" s="23"/>
       <c r="C727" s="11"/>
       <c r="D727" s="12"/>
       <c r="E727" s="14"/>
@@ -37709,7 +37679,7 @@
     </row>
     <row r="728" spans="1:19">
       <c r="A728" s="22"/>
-      <c r="B728" s="24"/>
+      <c r="B728" s="23"/>
       <c r="C728" s="11"/>
       <c r="D728" s="12"/>
       <c r="E728" s="14"/>
@@ -37760,7 +37730,7 @@
     </row>
     <row r="729" spans="1:19">
       <c r="A729" s="22"/>
-      <c r="B729" s="24"/>
+      <c r="B729" s="23"/>
       <c r="C729" s="11"/>
       <c r="D729" s="12"/>
       <c r="E729" s="14"/>
@@ -37811,7 +37781,7 @@
     </row>
     <row r="730" spans="1:19">
       <c r="A730" s="22"/>
-      <c r="B730" s="24"/>
+      <c r="B730" s="23"/>
       <c r="C730" s="11"/>
       <c r="D730" s="12"/>
       <c r="E730" s="14"/>
@@ -37862,7 +37832,7 @@
     </row>
     <row r="731" spans="1:19">
       <c r="A731" s="22"/>
-      <c r="B731" s="24"/>
+      <c r="B731" s="23"/>
       <c r="C731" s="11"/>
       <c r="D731" s="12"/>
       <c r="E731" s="14"/>
@@ -37913,7 +37883,7 @@
     </row>
     <row r="732" spans="1:19">
       <c r="A732" s="22"/>
-      <c r="B732" s="24"/>
+      <c r="B732" s="23"/>
       <c r="C732" s="11"/>
       <c r="D732" s="12"/>
       <c r="E732" s="14"/>
@@ -37964,7 +37934,7 @@
     </row>
     <row r="733" spans="1:19">
       <c r="A733" s="22"/>
-      <c r="B733" s="24"/>
+      <c r="B733" s="23"/>
       <c r="C733" s="11"/>
       <c r="D733" s="12"/>
       <c r="E733" s="14"/>
@@ -38015,7 +37985,7 @@
     </row>
     <row r="734" spans="1:19">
       <c r="A734" s="22"/>
-      <c r="B734" s="24"/>
+      <c r="B734" s="23"/>
       <c r="C734" s="11"/>
       <c r="D734" s="12"/>
       <c r="E734" s="14"/>
@@ -38066,7 +38036,7 @@
     </row>
     <row r="735" spans="1:19">
       <c r="A735" s="22"/>
-      <c r="B735" s="24"/>
+      <c r="B735" s="23"/>
       <c r="C735" s="11"/>
       <c r="D735" s="12"/>
       <c r="E735" s="14"/>
@@ -38117,7 +38087,7 @@
     </row>
     <row r="736" spans="1:19">
       <c r="A736" s="22"/>
-      <c r="B736" s="24"/>
+      <c r="B736" s="23"/>
       <c r="C736" s="11"/>
       <c r="D736" s="12"/>
       <c r="E736" s="14"/>
@@ -38168,7 +38138,7 @@
     </row>
     <row r="737" spans="1:19">
       <c r="A737" s="22"/>
-      <c r="B737" s="24"/>
+      <c r="B737" s="23"/>
       <c r="C737" s="11"/>
       <c r="D737" s="12"/>
       <c r="E737" s="14"/>
@@ -38219,7 +38189,7 @@
     </row>
     <row r="738" spans="1:19">
       <c r="A738" s="22"/>
-      <c r="B738" s="24"/>
+      <c r="B738" s="23"/>
       <c r="C738" s="11"/>
       <c r="D738" s="12"/>
       <c r="E738" s="14"/>
@@ -38270,7 +38240,7 @@
     </row>
     <row r="739" spans="1:19">
       <c r="A739" s="22"/>
-      <c r="B739" s="24"/>
+      <c r="B739" s="23"/>
       <c r="C739" s="11"/>
       <c r="D739" s="12"/>
       <c r="E739" s="14"/>
@@ -38321,7 +38291,7 @@
     </row>
     <row r="740" spans="1:19">
       <c r="A740" s="22"/>
-      <c r="B740" s="24"/>
+      <c r="B740" s="23"/>
       <c r="C740" s="11"/>
       <c r="D740" s="12"/>
       <c r="E740" s="14"/>
@@ -38372,7 +38342,7 @@
     </row>
     <row r="741" spans="1:19">
       <c r="A741" s="22"/>
-      <c r="B741" s="24"/>
+      <c r="B741" s="23"/>
       <c r="C741" s="11"/>
       <c r="D741" s="12"/>
       <c r="E741" s="14"/>
@@ -38423,7 +38393,7 @@
     </row>
     <row r="742" spans="1:19">
       <c r="A742" s="22"/>
-      <c r="B742" s="24"/>
+      <c r="B742" s="23"/>
       <c r="C742" s="11"/>
       <c r="D742" s="12"/>
       <c r="E742" s="14"/>
@@ -38474,7 +38444,7 @@
     </row>
     <row r="743" spans="1:19">
       <c r="A743" s="22"/>
-      <c r="B743" s="24"/>
+      <c r="B743" s="23"/>
       <c r="C743" s="11"/>
       <c r="D743" s="12"/>
       <c r="E743" s="14"/>
@@ -38525,7 +38495,7 @@
     </row>
     <row r="744" spans="1:19">
       <c r="A744" s="22"/>
-      <c r="B744" s="24"/>
+      <c r="B744" s="23"/>
       <c r="C744" s="11"/>
       <c r="D744" s="12"/>
       <c r="E744" s="14"/>
@@ -38576,7 +38546,7 @@
     </row>
     <row r="745" spans="1:19">
       <c r="A745" s="22"/>
-      <c r="B745" s="24"/>
+      <c r="B745" s="23"/>
       <c r="C745" s="11"/>
       <c r="D745" s="12"/>
       <c r="E745" s="14"/>
@@ -38627,7 +38597,7 @@
     </row>
     <row r="746" spans="1:19">
       <c r="A746" s="22"/>
-      <c r="B746" s="24"/>
+      <c r="B746" s="23"/>
       <c r="C746" s="11"/>
       <c r="D746" s="12"/>
       <c r="E746" s="14"/>
@@ -38678,7 +38648,7 @@
     </row>
     <row r="747" spans="1:19">
       <c r="A747" s="22"/>
-      <c r="B747" s="24"/>
+      <c r="B747" s="23"/>
       <c r="C747" s="11"/>
       <c r="D747" s="12"/>
       <c r="E747" s="14"/>
@@ -38729,7 +38699,7 @@
     </row>
     <row r="748" spans="1:19">
       <c r="A748" s="22"/>
-      <c r="B748" s="24"/>
+      <c r="B748" s="23"/>
       <c r="C748" s="11"/>
       <c r="D748" s="12"/>
       <c r="E748" s="14"/>
@@ -38780,7 +38750,7 @@
     </row>
     <row r="749" spans="1:19">
       <c r="A749" s="22"/>
-      <c r="B749" s="24"/>
+      <c r="B749" s="23"/>
       <c r="C749" s="11"/>
       <c r="D749" s="12"/>
       <c r="E749" s="14"/>
@@ -38831,7 +38801,7 @@
     </row>
     <row r="750" spans="1:19">
       <c r="A750" s="22"/>
-      <c r="B750" s="24"/>
+      <c r="B750" s="23"/>
       <c r="C750" s="11"/>
       <c r="D750" s="12"/>
       <c r="E750" s="14"/>
@@ -38882,7 +38852,7 @@
     </row>
     <row r="751" spans="1:19">
       <c r="A751" s="22"/>
-      <c r="B751" s="24"/>
+      <c r="B751" s="23"/>
       <c r="C751" s="11"/>
       <c r="D751" s="12"/>
       <c r="E751" s="14"/>
@@ -38933,7 +38903,7 @@
     </row>
     <row r="752" spans="1:19">
       <c r="A752" s="22"/>
-      <c r="B752" s="24"/>
+      <c r="B752" s="23"/>
       <c r="C752" s="11"/>
       <c r="D752" s="12"/>
       <c r="E752" s="14"/>
@@ -38984,7 +38954,7 @@
     </row>
     <row r="753" spans="1:19">
       <c r="A753" s="22"/>
-      <c r="B753" s="24"/>
+      <c r="B753" s="23"/>
       <c r="C753" s="11"/>
       <c r="D753" s="12"/>
       <c r="E753" s="14"/>
@@ -39035,7 +39005,7 @@
     </row>
     <row r="754" spans="1:19">
       <c r="A754" s="22"/>
-      <c r="B754" s="24"/>
+      <c r="B754" s="23"/>
       <c r="C754" s="11"/>
       <c r="D754" s="12"/>
       <c r="E754" s="14"/>
@@ -39086,7 +39056,7 @@
     </row>
     <row r="755" spans="1:19">
       <c r="A755" s="22"/>
-      <c r="B755" s="24"/>
+      <c r="B755" s="23"/>
       <c r="C755" s="11"/>
       <c r="D755" s="12"/>
       <c r="E755" s="14"/>
@@ -39137,7 +39107,7 @@
     </row>
     <row r="756" spans="1:19">
       <c r="A756" s="22"/>
-      <c r="B756" s="24"/>
+      <c r="B756" s="23"/>
       <c r="C756" s="11"/>
       <c r="D756" s="12"/>
       <c r="E756" s="14"/>
@@ -39188,7 +39158,7 @@
     </row>
     <row r="757" spans="1:19">
       <c r="A757" s="22"/>
-      <c r="B757" s="24"/>
+      <c r="B757" s="23"/>
       <c r="C757" s="11"/>
       <c r="D757" s="12"/>
       <c r="E757" s="14"/>
@@ -39239,7 +39209,7 @@
     </row>
     <row r="758" spans="1:19">
       <c r="A758" s="22"/>
-      <c r="B758" s="24"/>
+      <c r="B758" s="23"/>
       <c r="C758" s="11"/>
       <c r="D758" s="12"/>
       <c r="E758" s="14"/>
@@ -39290,7 +39260,7 @@
     </row>
     <row r="759" spans="1:19">
       <c r="A759" s="22"/>
-      <c r="B759" s="24"/>
+      <c r="B759" s="23"/>
       <c r="C759" s="11"/>
       <c r="D759" s="12"/>
       <c r="E759" s="14"/>
@@ -39341,7 +39311,7 @@
     </row>
     <row r="760" spans="1:19">
       <c r="A760" s="22"/>
-      <c r="B760" s="24"/>
+      <c r="B760" s="23"/>
       <c r="C760" s="11"/>
       <c r="D760" s="12"/>
       <c r="E760" s="14"/>
@@ -39392,7 +39362,7 @@
     </row>
     <row r="761" spans="1:19">
       <c r="A761" s="22"/>
-      <c r="B761" s="24"/>
+      <c r="B761" s="23"/>
       <c r="C761" s="11"/>
       <c r="D761" s="12"/>
       <c r="E761" s="14"/>
@@ -39443,7 +39413,7 @@
     </row>
     <row r="762" spans="1:19">
       <c r="A762" s="22"/>
-      <c r="B762" s="24"/>
+      <c r="B762" s="23"/>
       <c r="C762" s="11"/>
       <c r="D762" s="12"/>
       <c r="E762" s="14"/>
@@ -39494,7 +39464,7 @@
     </row>
     <row r="763" spans="1:19">
       <c r="A763" s="22"/>
-      <c r="B763" s="24"/>
+      <c r="B763" s="23"/>
       <c r="C763" s="11"/>
       <c r="D763" s="12"/>
       <c r="E763" s="14"/>
@@ -39545,7 +39515,7 @@
     </row>
     <row r="764" spans="1:19">
       <c r="A764" s="22"/>
-      <c r="B764" s="24"/>
+      <c r="B764" s="23"/>
       <c r="C764" s="11"/>
       <c r="D764" s="12"/>
       <c r="E764" s="14"/>
@@ -39596,7 +39566,7 @@
     </row>
     <row r="765" spans="1:19">
       <c r="A765" s="22"/>
-      <c r="B765" s="24"/>
+      <c r="B765" s="23"/>
       <c r="C765" s="11"/>
       <c r="D765" s="12"/>
       <c r="E765" s="14"/>
@@ -39647,7 +39617,7 @@
     </row>
     <row r="766" spans="1:19">
       <c r="A766" s="22"/>
-      <c r="B766" s="24"/>
+      <c r="B766" s="23"/>
       <c r="C766" s="11"/>
       <c r="D766" s="12"/>
       <c r="E766" s="14"/>
@@ -39698,7 +39668,7 @@
     </row>
     <row r="767" spans="1:19">
       <c r="A767" s="22"/>
-      <c r="B767" s="24"/>
+      <c r="B767" s="23"/>
       <c r="C767" s="11"/>
       <c r="D767" s="12"/>
       <c r="E767" s="14"/>
@@ -39749,7 +39719,7 @@
     </row>
     <row r="768" spans="1:19">
       <c r="A768" s="22"/>
-      <c r="B768" s="24"/>
+      <c r="B768" s="23"/>
       <c r="C768" s="11"/>
       <c r="D768" s="12"/>
       <c r="E768" s="14"/>
@@ -39800,7 +39770,7 @@
     </row>
     <row r="769" spans="1:19">
       <c r="A769" s="22"/>
-      <c r="B769" s="24"/>
+      <c r="B769" s="23"/>
       <c r="C769" s="11"/>
       <c r="D769" s="12"/>
       <c r="E769" s="14"/>
@@ -39851,7 +39821,7 @@
     </row>
     <row r="770" spans="1:19">
       <c r="A770" s="22"/>
-      <c r="B770" s="24"/>
+      <c r="B770" s="23"/>
       <c r="C770" s="11"/>
       <c r="D770" s="12"/>
       <c r="E770" s="14"/>
@@ -39902,7 +39872,7 @@
     </row>
     <row r="771" spans="1:19">
       <c r="A771" s="22"/>
-      <c r="B771" s="24"/>
+      <c r="B771" s="23"/>
       <c r="C771" s="11"/>
       <c r="D771" s="12"/>
       <c r="E771" s="14"/>
@@ -39953,7 +39923,7 @@
     </row>
     <row r="772" spans="1:19">
       <c r="A772" s="22"/>
-      <c r="B772" s="24"/>
+      <c r="B772" s="23"/>
       <c r="C772" s="11"/>
       <c r="D772" s="12"/>
       <c r="E772" s="14"/>
@@ -40004,7 +39974,7 @@
     </row>
     <row r="773" spans="1:19">
       <c r="A773" s="22"/>
-      <c r="B773" s="24"/>
+      <c r="B773" s="23"/>
       <c r="C773" s="11"/>
       <c r="D773" s="12"/>
       <c r="E773" s="14"/>
@@ -40055,7 +40025,7 @@
     </row>
     <row r="774" spans="1:19">
       <c r="A774" s="22"/>
-      <c r="B774" s="24"/>
+      <c r="B774" s="23"/>
       <c r="C774" s="11"/>
       <c r="D774" s="12"/>
       <c r="E774" s="14"/>
@@ -40106,7 +40076,7 @@
     </row>
     <row r="775" spans="1:19">
       <c r="A775" s="22"/>
-      <c r="B775" s="24"/>
+      <c r="B775" s="23"/>
       <c r="C775" s="11"/>
       <c r="D775" s="12"/>
       <c r="E775" s="14"/>
@@ -40157,7 +40127,7 @@
     </row>
     <row r="776" spans="1:19">
       <c r="A776" s="22"/>
-      <c r="B776" s="24"/>
+      <c r="B776" s="23"/>
       <c r="C776" s="11"/>
       <c r="D776" s="12"/>
       <c r="E776" s="14"/>
@@ -40208,7 +40178,7 @@
     </row>
     <row r="777" spans="1:19">
       <c r="A777" s="22"/>
-      <c r="B777" s="24"/>
+      <c r="B777" s="23"/>
       <c r="C777" s="11"/>
       <c r="D777" s="12"/>
       <c r="E777" s="14"/>
@@ -40259,7 +40229,7 @@
     </row>
     <row r="778" spans="1:19">
       <c r="A778" s="22"/>
-      <c r="B778" s="24"/>
+      <c r="B778" s="23"/>
       <c r="C778" s="11"/>
       <c r="D778" s="12"/>
       <c r="E778" s="14"/>
@@ -40310,7 +40280,7 @@
     </row>
     <row r="779" spans="1:19">
       <c r="A779" s="22"/>
-      <c r="B779" s="24"/>
+      <c r="B779" s="23"/>
       <c r="C779" s="11"/>
       <c r="D779" s="12"/>
       <c r="E779" s="14"/>
@@ -40361,7 +40331,7 @@
     </row>
     <row r="780" spans="1:19">
       <c r="A780" s="22"/>
-      <c r="B780" s="24"/>
+      <c r="B780" s="23"/>
       <c r="C780" s="11"/>
       <c r="D780" s="12"/>
       <c r="E780" s="14"/>
@@ -40412,7 +40382,7 @@
     </row>
     <row r="781" spans="1:19">
       <c r="A781" s="22"/>
-      <c r="B781" s="24"/>
+      <c r="B781" s="23"/>
       <c r="C781" s="11"/>
       <c r="D781" s="12"/>
       <c r="E781" s="14"/>
@@ -40463,7 +40433,7 @@
     </row>
     <row r="782" spans="1:19">
       <c r="A782" s="22"/>
-      <c r="B782" s="24"/>
+      <c r="B782" s="23"/>
       <c r="C782" s="11"/>
       <c r="D782" s="12"/>
       <c r="E782" s="14"/>
@@ -40514,7 +40484,7 @@
     </row>
     <row r="783" spans="1:19">
       <c r="A783" s="22"/>
-      <c r="B783" s="24"/>
+      <c r="B783" s="23"/>
       <c r="C783" s="11"/>
       <c r="D783" s="12"/>
       <c r="E783" s="14"/>
@@ -40565,7 +40535,7 @@
     </row>
     <row r="784" spans="1:19">
       <c r="A784" s="22"/>
-      <c r="B784" s="24"/>
+      <c r="B784" s="23"/>
       <c r="C784" s="11"/>
       <c r="D784" s="12"/>
       <c r="E784" s="14"/>
@@ -40616,7 +40586,7 @@
     </row>
     <row r="785" spans="1:19">
       <c r="A785" s="22"/>
-      <c r="B785" s="24"/>
+      <c r="B785" s="23"/>
       <c r="C785" s="11"/>
       <c r="D785" s="12"/>
       <c r="E785" s="14"/>
@@ -40667,7 +40637,7 @@
     </row>
     <row r="786" spans="1:19">
       <c r="A786" s="22"/>
-      <c r="B786" s="24"/>
+      <c r="B786" s="23"/>
       <c r="C786" s="11"/>
       <c r="D786" s="12"/>
       <c r="E786" s="14"/>
@@ -40718,7 +40688,7 @@
     </row>
     <row r="787" spans="1:19">
       <c r="A787" s="22"/>
-      <c r="B787" s="24"/>
+      <c r="B787" s="23"/>
       <c r="C787" s="11"/>
       <c r="D787" s="12"/>
       <c r="E787" s="14"/>
@@ -40769,7 +40739,7 @@
     </row>
     <row r="788" spans="1:19">
       <c r="A788" s="22"/>
-      <c r="B788" s="24"/>
+      <c r="B788" s="23"/>
       <c r="C788" s="11"/>
       <c r="D788" s="12"/>
       <c r="E788" s="14"/>
@@ -40820,7 +40790,7 @@
     </row>
     <row r="789" spans="1:19">
       <c r="A789" s="22"/>
-      <c r="B789" s="24"/>
+      <c r="B789" s="23"/>
       <c r="C789" s="11"/>
       <c r="D789" s="12"/>
       <c r="E789" s="14"/>
@@ -40871,7 +40841,7 @@
     </row>
     <row r="790" spans="1:19">
       <c r="A790" s="22"/>
-      <c r="B790" s="24"/>
+      <c r="B790" s="23"/>
       <c r="C790" s="11"/>
       <c r="D790" s="12"/>
       <c r="E790" s="14"/>
@@ -40922,7 +40892,7 @@
     </row>
     <row r="791" spans="1:19">
       <c r="A791" s="22"/>
-      <c r="B791" s="24"/>
+      <c r="B791" s="23"/>
       <c r="C791" s="11"/>
       <c r="D791" s="12"/>
       <c r="E791" s="14"/>
@@ -40973,7 +40943,7 @@
     </row>
     <row r="792" spans="1:19">
       <c r="A792" s="22"/>
-      <c r="B792" s="24"/>
+      <c r="B792" s="23"/>
       <c r="C792" s="11"/>
       <c r="D792" s="12"/>
       <c r="E792" s="14"/>
@@ -41024,7 +40994,7 @@
     </row>
     <row r="793" spans="1:19">
       <c r="A793" s="22"/>
-      <c r="B793" s="24"/>
+      <c r="B793" s="23"/>
       <c r="C793" s="11"/>
       <c r="D793" s="12"/>
       <c r="E793" s="14"/>
@@ -41075,7 +41045,7 @@
     </row>
     <row r="794" spans="1:19">
       <c r="A794" s="22"/>
-      <c r="B794" s="24"/>
+      <c r="B794" s="23"/>
       <c r="C794" s="11"/>
       <c r="D794" s="12"/>
       <c r="E794" s="14"/>
@@ -41126,7 +41096,7 @@
     </row>
     <row r="795" spans="1:19">
       <c r="A795" s="22"/>
-      <c r="B795" s="24"/>
+      <c r="B795" s="23"/>
       <c r="C795" s="11"/>
       <c r="D795" s="12"/>
       <c r="E795" s="14"/>
@@ -41177,7 +41147,7 @@
     </row>
     <row r="796" spans="1:19">
       <c r="A796" s="22"/>
-      <c r="B796" s="24"/>
+      <c r="B796" s="23"/>
       <c r="C796" s="11"/>
       <c r="D796" s="12"/>
       <c r="E796" s="14"/>
@@ -41228,7 +41198,7 @@
     </row>
     <row r="797" spans="1:19">
       <c r="A797" s="22"/>
-      <c r="B797" s="24"/>
+      <c r="B797" s="23"/>
       <c r="C797" s="11"/>
       <c r="D797" s="12"/>
       <c r="E797" s="14"/>
@@ -41279,7 +41249,7 @@
     </row>
     <row r="798" spans="1:19">
       <c r="A798" s="22"/>
-      <c r="B798" s="24"/>
+      <c r="B798" s="23"/>
       <c r="C798" s="11"/>
       <c r="D798" s="12"/>
       <c r="E798" s="14"/>
@@ -41330,7 +41300,7 @@
     </row>
     <row r="799" spans="1:19">
       <c r="A799" s="22"/>
-      <c r="B799" s="24"/>
+      <c r="B799" s="23"/>
       <c r="C799" s="11"/>
       <c r="D799" s="12"/>
       <c r="E799" s="14"/>
@@ -41381,7 +41351,7 @@
     </row>
     <row r="800" spans="1:19">
       <c r="A800" s="22"/>
-      <c r="B800" s="24"/>
+      <c r="B800" s="23"/>
       <c r="C800" s="11"/>
       <c r="D800" s="12"/>
       <c r="E800" s="14"/>
@@ -41432,7 +41402,7 @@
     </row>
     <row r="801" spans="1:19">
       <c r="A801" s="22"/>
-      <c r="B801" s="24"/>
+      <c r="B801" s="23"/>
       <c r="C801" s="11"/>
       <c r="D801" s="12"/>
       <c r="E801" s="14"/>
@@ -41483,7 +41453,7 @@
     </row>
     <row r="802" spans="1:19">
       <c r="A802" s="22"/>
-      <c r="B802" s="24"/>
+      <c r="B802" s="23"/>
       <c r="C802" s="11"/>
       <c r="D802" s="12"/>
       <c r="E802" s="14"/>
@@ -41534,7 +41504,7 @@
     </row>
     <row r="803" spans="1:19">
       <c r="A803" s="22"/>
-      <c r="B803" s="24"/>
+      <c r="B803" s="23"/>
       <c r="C803" s="11"/>
       <c r="D803" s="12"/>
       <c r="E803" s="14"/>
@@ -41585,7 +41555,7 @@
     </row>
     <row r="804" spans="1:19">
       <c r="A804" s="22"/>
-      <c r="B804" s="24"/>
+      <c r="B804" s="23"/>
       <c r="C804" s="11"/>
       <c r="D804" s="12"/>
       <c r="E804" s="14"/>
@@ -41636,7 +41606,7 @@
     </row>
     <row r="805" spans="1:19">
       <c r="A805" s="22"/>
-      <c r="B805" s="24"/>
+      <c r="B805" s="23"/>
       <c r="C805" s="11"/>
       <c r="D805" s="12"/>
       <c r="E805" s="14"/>
@@ -41687,7 +41657,7 @@
     </row>
     <row r="806" spans="1:19">
       <c r="A806" s="22"/>
-      <c r="B806" s="24"/>
+      <c r="B806" s="23"/>
       <c r="C806" s="11"/>
       <c r="D806" s="12"/>
       <c r="E806" s="14"/>
@@ -41738,7 +41708,7 @@
     </row>
     <row r="807" spans="1:19">
       <c r="A807" s="22"/>
-      <c r="B807" s="24"/>
+      <c r="B807" s="23"/>
       <c r="C807" s="11"/>
       <c r="D807" s="12"/>
       <c r="E807" s="14"/>
@@ -41789,7 +41759,7 @@
     </row>
     <row r="808" spans="1:19">
       <c r="A808" s="22"/>
-      <c r="B808" s="24"/>
+      <c r="B808" s="23"/>
       <c r="C808" s="11"/>
       <c r="D808" s="12"/>
       <c r="E808" s="14"/>
@@ -41840,7 +41810,7 @@
     </row>
     <row r="809" spans="1:19">
       <c r="A809" s="22"/>
-      <c r="B809" s="24"/>
+      <c r="B809" s="23"/>
       <c r="C809" s="11"/>
       <c r="D809" s="12"/>
       <c r="E809" s="14"/>
@@ -41891,7 +41861,7 @@
     </row>
     <row r="810" spans="1:19">
       <c r="A810" s="22"/>
-      <c r="B810" s="24"/>
+      <c r="B810" s="23"/>
       <c r="C810" s="11"/>
       <c r="D810" s="12"/>
       <c r="E810" s="14"/>
@@ -41942,7 +41912,7 @@
     </row>
     <row r="811" spans="1:19">
       <c r="A811" s="22"/>
-      <c r="B811" s="24"/>
+      <c r="B811" s="23"/>
       <c r="C811" s="11"/>
       <c r="D811" s="12"/>
       <c r="E811" s="14"/>
@@ -41993,7 +41963,7 @@
     </row>
     <row r="812" spans="1:19">
       <c r="A812" s="22"/>
-      <c r="B812" s="24"/>
+      <c r="B812" s="23"/>
       <c r="C812" s="11"/>
       <c r="D812" s="12"/>
       <c r="E812" s="14"/>
@@ -42044,7 +42014,7 @@
     </row>
     <row r="813" spans="1:19">
       <c r="A813" s="22"/>
-      <c r="B813" s="24"/>
+      <c r="B813" s="23"/>
       <c r="C813" s="11"/>
       <c r="D813" s="12"/>
       <c r="E813" s="14"/>
@@ -42095,7 +42065,7 @@
     </row>
     <row r="814" spans="1:19">
       <c r="A814" s="22"/>
-      <c r="B814" s="24"/>
+      <c r="B814" s="23"/>
       <c r="C814" s="11"/>
       <c r="D814" s="12"/>
       <c r="E814" s="14"/>
@@ -42146,7 +42116,7 @@
     </row>
     <row r="815" spans="1:19">
       <c r="A815" s="22"/>
-      <c r="B815" s="24"/>
+      <c r="B815" s="23"/>
       <c r="C815" s="11"/>
       <c r="D815" s="12"/>
       <c r="E815" s="14"/>
@@ -42197,7 +42167,7 @@
     </row>
     <row r="816" spans="1:19">
       <c r="A816" s="22"/>
-      <c r="B816" s="24"/>
+      <c r="B816" s="23"/>
       <c r="C816" s="11"/>
       <c r="D816" s="12"/>
       <c r="E816" s="14"/>
@@ -42248,7 +42218,7 @@
     </row>
     <row r="817" spans="1:19">
       <c r="A817" s="22"/>
-      <c r="B817" s="24"/>
+      <c r="B817" s="23"/>
       <c r="C817" s="11"/>
       <c r="D817" s="12"/>
       <c r="E817" s="14"/>
@@ -42299,7 +42269,7 @@
     </row>
     <row r="818" spans="1:19">
       <c r="A818" s="22"/>
-      <c r="B818" s="24"/>
+      <c r="B818" s="23"/>
       <c r="C818" s="11"/>
       <c r="D818" s="12"/>
       <c r="E818" s="14"/>
@@ -42350,7 +42320,7 @@
     </row>
     <row r="819" spans="1:19">
       <c r="A819" s="22"/>
-      <c r="B819" s="24"/>
+      <c r="B819" s="23"/>
       <c r="C819" s="11"/>
       <c r="D819" s="12"/>
       <c r="E819" s="14"/>
@@ -42401,7 +42371,7 @@
     </row>
     <row r="820" spans="1:19">
       <c r="A820" s="22"/>
-      <c r="B820" s="24"/>
+      <c r="B820" s="23"/>
       <c r="C820" s="11"/>
       <c r="D820" s="12"/>
       <c r="E820" s="14"/>
@@ -42452,7 +42422,7 @@
     </row>
     <row r="821" spans="1:19">
       <c r="A821" s="22"/>
-      <c r="B821" s="24"/>
+      <c r="B821" s="23"/>
       <c r="C821" s="11"/>
       <c r="D821" s="12"/>
       <c r="E821" s="14"/>
@@ -42503,7 +42473,7 @@
     </row>
     <row r="822" spans="1:19">
       <c r="A822" s="22"/>
-      <c r="B822" s="24"/>
+      <c r="B822" s="23"/>
       <c r="C822" s="11"/>
       <c r="D822" s="12"/>
       <c r="E822" s="14"/>
@@ -42554,7 +42524,7 @@
     </row>
     <row r="823" spans="1:19">
       <c r="A823" s="22"/>
-      <c r="B823" s="24"/>
+      <c r="B823" s="23"/>
       <c r="C823" s="11"/>
       <c r="D823" s="12"/>
       <c r="E823" s="14"/>
@@ -42605,7 +42575,7 @@
     </row>
     <row r="824" spans="1:19">
       <c r="A824" s="22"/>
-      <c r="B824" s="24"/>
+      <c r="B824" s="23"/>
       <c r="C824" s="11"/>
       <c r="D824" s="12"/>
       <c r="E824" s="14"/>
@@ -42656,7 +42626,7 @@
     </row>
     <row r="825" spans="1:19">
       <c r="A825" s="22"/>
-      <c r="B825" s="24"/>
+      <c r="B825" s="23"/>
       <c r="C825" s="11"/>
       <c r="D825" s="12"/>
       <c r="E825" s="14"/>
@@ -42707,7 +42677,7 @@
     </row>
     <row r="826" spans="1:19">
       <c r="A826" s="22"/>
-      <c r="B826" s="24"/>
+      <c r="B826" s="23"/>
       <c r="C826" s="11"/>
       <c r="D826" s="12"/>
       <c r="E826" s="14"/>
@@ -42758,7 +42728,7 @@
     </row>
     <row r="827" spans="1:19">
       <c r="A827" s="22"/>
-      <c r="B827" s="24"/>
+      <c r="B827" s="23"/>
       <c r="C827" s="11"/>
       <c r="D827" s="12"/>
       <c r="E827" s="14"/>
@@ -42809,7 +42779,7 @@
     </row>
     <row r="828" spans="1:19">
       <c r="A828" s="22"/>
-      <c r="B828" s="24"/>
+      <c r="B828" s="23"/>
       <c r="C828" s="11"/>
       <c r="D828" s="12"/>
       <c r="E828" s="14"/>
@@ -42860,7 +42830,7 @@
     </row>
     <row r="829" spans="1:19">
       <c r="A829" s="22"/>
-      <c r="B829" s="24"/>
+      <c r="B829" s="23"/>
       <c r="C829" s="11"/>
       <c r="D829" s="12"/>
       <c r="E829" s="14"/>
@@ -42911,7 +42881,7 @@
     </row>
     <row r="830" spans="1:19">
       <c r="A830" s="22"/>
-      <c r="B830" s="24"/>
+      <c r="B830" s="23"/>
       <c r="C830" s="11"/>
       <c r="D830" s="12"/>
       <c r="E830" s="14"/>
@@ -42962,7 +42932,7 @@
     </row>
     <row r="831" spans="1:19">
       <c r="A831" s="22"/>
-      <c r="B831" s="24"/>
+      <c r="B831" s="23"/>
       <c r="C831" s="11"/>
       <c r="D831" s="12"/>
       <c r="E831" s="14"/>
@@ -43013,7 +42983,7 @@
     </row>
     <row r="832" spans="1:19">
       <c r="A832" s="22"/>
-      <c r="B832" s="24"/>
+      <c r="B832" s="23"/>
       <c r="C832" s="11"/>
       <c r="D832" s="12"/>
       <c r="E832" s="14"/>
@@ -43064,7 +43034,7 @@
     </row>
     <row r="833" spans="1:19">
       <c r="A833" s="22"/>
-      <c r="B833" s="24"/>
+      <c r="B833" s="23"/>
       <c r="C833" s="11"/>
       <c r="D833" s="12"/>
       <c r="E833" s="14"/>
@@ -43115,7 +43085,7 @@
     </row>
     <row r="834" spans="1:19">
       <c r="A834" s="22"/>
-      <c r="B834" s="24"/>
+      <c r="B834" s="23"/>
       <c r="C834" s="11"/>
       <c r="D834" s="12"/>
       <c r="E834" s="14"/>
@@ -43166,7 +43136,7 @@
     </row>
     <row r="835" spans="1:19">
       <c r="A835" s="22"/>
-      <c r="B835" s="24"/>
+      <c r="B835" s="23"/>
       <c r="C835" s="11"/>
       <c r="D835" s="12"/>
       <c r="E835" s="14"/>
@@ -43217,7 +43187,7 @@
     </row>
     <row r="836" spans="1:19">
       <c r="A836" s="22"/>
-      <c r="B836" s="24"/>
+      <c r="B836" s="23"/>
       <c r="C836" s="11"/>
       <c r="D836" s="12"/>
       <c r="E836" s="14"/>
@@ -43268,7 +43238,7 @@
     </row>
     <row r="837" spans="1:19">
       <c r="A837" s="22"/>
-      <c r="B837" s="24"/>
+      <c r="B837" s="23"/>
       <c r="C837" s="11"/>
       <c r="D837" s="12"/>
       <c r="E837" s="14"/>
@@ -43319,7 +43289,7 @@
     </row>
     <row r="838" spans="1:19">
       <c r="A838" s="22"/>
-      <c r="B838" s="24"/>
+      <c r="B838" s="23"/>
       <c r="C838" s="11"/>
       <c r="D838" s="12"/>
       <c r="E838" s="14"/>
@@ -43370,7 +43340,7 @@
     </row>
     <row r="839" spans="1:19">
       <c r="A839" s="22"/>
-      <c r="B839" s="24"/>
+      <c r="B839" s="23"/>
       <c r="C839" s="11"/>
       <c r="D839" s="12"/>
       <c r="E839" s="14"/>
@@ -43421,7 +43391,7 @@
     </row>
     <row r="840" spans="1:19">
       <c r="A840" s="22"/>
-      <c r="B840" s="24"/>
+      <c r="B840" s="23"/>
       <c r="C840" s="11"/>
       <c r="D840" s="12"/>
       <c r="E840" s="14"/>
@@ -43472,7 +43442,7 @@
     </row>
     <row r="841" spans="1:19">
       <c r="A841" s="22"/>
-      <c r="B841" s="24"/>
+      <c r="B841" s="23"/>
       <c r="C841" s="11"/>
       <c r="D841" s="12"/>
       <c r="E841" s="14"/>
@@ -43523,7 +43493,7 @@
     </row>
     <row r="842" spans="1:19">
       <c r="A842" s="22"/>
-      <c r="B842" s="24"/>
+      <c r="B842" s="23"/>
       <c r="C842" s="11"/>
       <c r="D842" s="12"/>
       <c r="E842" s="14"/>
@@ -43574,7 +43544,7 @@
     </row>
     <row r="843" spans="1:19">
       <c r="A843" s="22"/>
-      <c r="B843" s="24"/>
+      <c r="B843" s="23"/>
       <c r="C843" s="11"/>
       <c r="D843" s="12"/>
       <c r="E843" s="14"/>
@@ -43625,7 +43595,7 @@
     </row>
     <row r="844" spans="1:19">
       <c r="A844" s="22"/>
-      <c r="B844" s="24"/>
+      <c r="B844" s="23"/>
       <c r="C844" s="11"/>
       <c r="D844" s="12"/>
       <c r="E844" s="14"/>
@@ -43676,7 +43646,7 @@
     </row>
     <row r="845" spans="1:19">
       <c r="A845" s="22"/>
-      <c r="B845" s="24"/>
+      <c r="B845" s="23"/>
       <c r="C845" s="11"/>
       <c r="D845" s="12"/>
       <c r="E845" s="14"/>
@@ -43727,7 +43697,7 @@
     </row>
     <row r="846" spans="1:19">
       <c r="A846" s="22"/>
-      <c r="B846" s="24"/>
+      <c r="B846" s="23"/>
       <c r="C846" s="11"/>
       <c r="D846" s="12"/>
       <c r="E846" s="14"/>
@@ -43778,7 +43748,7 @@
     </row>
     <row r="847" spans="1:19">
       <c r="A847" s="22"/>
-      <c r="B847" s="24"/>
+      <c r="B847" s="23"/>
       <c r="C847" s="11"/>
       <c r="D847" s="12"/>
       <c r="E847" s="14"/>
@@ -43829,7 +43799,7 @@
     </row>
     <row r="848" spans="1:19">
       <c r="A848" s="22"/>
-      <c r="B848" s="24"/>
+      <c r="B848" s="23"/>
       <c r="C848" s="11"/>
       <c r="D848" s="12"/>
       <c r="E848" s="14"/>
@@ -43880,7 +43850,7 @@
     </row>
     <row r="849" spans="1:19">
       <c r="A849" s="22"/>
-      <c r="B849" s="24"/>
+      <c r="B849" s="23"/>
       <c r="C849" s="11"/>
       <c r="D849" s="12"/>
       <c r="E849" s="14"/>
@@ -43931,7 +43901,7 @@
     </row>
     <row r="850" spans="1:19">
       <c r="A850" s="22"/>
-      <c r="B850" s="24"/>
+      <c r="B850" s="23"/>
       <c r="C850" s="11"/>
       <c r="D850" s="12"/>
       <c r="E850" s="14"/>
@@ -43982,7 +43952,7 @@
     </row>
     <row r="851" spans="1:19">
       <c r="A851" s="22"/>
-      <c r="B851" s="24"/>
+      <c r="B851" s="23"/>
       <c r="C851" s="11"/>
       <c r="D851" s="12"/>
       <c r="E851" s="14"/>
@@ -44033,7 +44003,7 @@
     </row>
     <row r="852" spans="1:19">
       <c r="A852" s="22"/>
-      <c r="B852" s="24"/>
+      <c r="B852" s="23"/>
       <c r="C852" s="11"/>
       <c r="D852" s="12"/>
       <c r="E852" s="14"/>
@@ -44084,7 +44054,7 @@
     </row>
     <row r="853" spans="1:19">
       <c r="A853" s="22"/>
-      <c r="B853" s="24"/>
+      <c r="B853" s="23"/>
       <c r="C853" s="11"/>
       <c r="D853" s="12"/>
       <c r="E853" s="14"/>
@@ -44135,7 +44105,7 @@
     </row>
     <row r="854" spans="1:19">
       <c r="A854" s="22"/>
-      <c r="B854" s="24"/>
+      <c r="B854" s="23"/>
       <c r="C854" s="11"/>
       <c r="D854" s="12"/>
       <c r="E854" s="14"/>
@@ -44186,7 +44156,7 @@
     </row>
     <row r="855" spans="1:19">
       <c r="A855" s="22"/>
-      <c r="B855" s="24"/>
+      <c r="B855" s="23"/>
       <c r="C855" s="11"/>
       <c r="D855" s="12"/>
       <c r="E855" s="14"/>
@@ -44237,7 +44207,7 @@
     </row>
     <row r="856" spans="1:19">
       <c r="A856" s="22"/>
-      <c r="B856" s="24"/>
+      <c r="B856" s="23"/>
       <c r="C856" s="11"/>
       <c r="D856" s="12"/>
       <c r="E856" s="14"/>
@@ -44288,7 +44258,7 @@
     </row>
     <row r="857" spans="1:19">
       <c r="A857" s="22"/>
-      <c r="B857" s="24"/>
+      <c r="B857" s="23"/>
       <c r="C857" s="11"/>
       <c r="D857" s="12"/>
       <c r="E857" s="14"/>
@@ -44339,7 +44309,7 @@
     </row>
     <row r="858" spans="1:19">
       <c r="A858" s="22"/>
-      <c r="B858" s="24"/>
+      <c r="B858" s="23"/>
       <c r="C858" s="11"/>
       <c r="D858" s="12"/>
       <c r="E858" s="14"/>
@@ -44390,7 +44360,7 @@
     </row>
     <row r="859" spans="1:19">
       <c r="A859" s="22"/>
-      <c r="B859" s="24"/>
+      <c r="B859" s="23"/>
       <c r="C859" s="11"/>
       <c r="D859" s="12"/>
       <c r="E859" s="14"/>
@@ -44441,7 +44411,7 @@
     </row>
     <row r="860" spans="1:19">
       <c r="A860" s="22"/>
-      <c r="B860" s="24"/>
+      <c r="B860" s="23"/>
       <c r="C860" s="11"/>
       <c r="D860" s="12"/>
       <c r="E860" s="14"/>
@@ -44492,7 +44462,7 @@
     </row>
     <row r="861" spans="1:19">
       <c r="A861" s="22"/>
-      <c r="B861" s="24"/>
+      <c r="B861" s="23"/>
       <c r="C861" s="11"/>
       <c r="D861" s="12"/>
       <c r="E861" s="14"/>
@@ -44543,7 +44513,7 @@
     </row>
     <row r="862" spans="1:19">
       <c r="A862" s="22"/>
-      <c r="B862" s="24"/>
+      <c r="B862" s="23"/>
       <c r="C862" s="11"/>
       <c r="D862" s="12"/>
       <c r="E862" s="14"/>
@@ -44594,7 +44564,7 @@
     </row>
     <row r="863" spans="1:19">
       <c r="A863" s="22"/>
-      <c r="B863" s="24"/>
+      <c r="B863" s="23"/>
       <c r="C863" s="11"/>
       <c r="D863" s="12"/>
       <c r="E863" s="14"/>
@@ -44645,7 +44615,7 @@
     </row>
     <row r="864" spans="1:19">
       <c r="A864" s="22"/>
-      <c r="B864" s="24"/>
+      <c r="B864" s="23"/>
       <c r="C864" s="11"/>
       <c r="D864" s="12"/>
       <c r="E864" s="14"/>
@@ -44696,7 +44666,7 @@
     </row>
     <row r="865" spans="1:19">
       <c r="A865" s="22"/>
-      <c r="B865" s="24"/>
+      <c r="B865" s="23"/>
       <c r="C865" s="11"/>
       <c r="D865" s="12"/>
       <c r="E865" s="14"/>
@@ -44747,7 +44717,7 @@
     </row>
     <row r="866" spans="1:19">
       <c r="A866" s="22"/>
-      <c r="B866" s="24"/>
+      <c r="B866" s="23"/>
       <c r="C866" s="11"/>
       <c r="D866" s="12"/>
       <c r="E866" s="14"/>
@@ -44798,7 +44768,7 @@
     </row>
     <row r="867" spans="1:19">
       <c r="A867" s="22"/>
-      <c r="B867" s="24"/>
+      <c r="B867" s="23"/>
       <c r="C867" s="11"/>
       <c r="D867" s="12"/>
       <c r="E867" s="14"/>
@@ -44849,7 +44819,7 @@
     </row>
     <row r="868" spans="1:19">
       <c r="A868" s="22"/>
-      <c r="B868" s="24"/>
+      <c r="B868" s="23"/>
       <c r="C868" s="11"/>
       <c r="D868" s="12"/>
       <c r="E868" s="14"/>
@@ -44900,7 +44870,7 @@
     </row>
     <row r="869" spans="1:19">
       <c r="A869" s="22"/>
-      <c r="B869" s="24"/>
+      <c r="B869" s="23"/>
       <c r="C869" s="11"/>
       <c r="D869" s="12"/>
       <c r="E869" s="14"/>
@@ -44951,7 +44921,7 @@
     </row>
     <row r="870" spans="1:19">
       <c r="A870" s="22"/>
-      <c r="B870" s="24"/>
+      <c r="B870" s="23"/>
       <c r="C870" s="11"/>
       <c r="D870" s="12"/>
       <c r="E870" s="14"/>
@@ -45002,7 +44972,7 @@
     </row>
     <row r="871" spans="1:19">
       <c r="A871" s="22"/>
-      <c r="B871" s="24"/>
+      <c r="B871" s="23"/>
       <c r="C871" s="11"/>
       <c r="D871" s="12"/>
       <c r="E871" s="14"/>
@@ -45053,7 +45023,7 @@
     </row>
     <row r="872" spans="1:19">
       <c r="A872" s="22"/>
-      <c r="B872" s="24"/>
+      <c r="B872" s="23"/>
       <c r="C872" s="11"/>
       <c r="D872" s="12"/>
       <c r="E872" s="14"/>
@@ -45104,7 +45074,7 @@
     </row>
     <row r="873" spans="1:19">
       <c r="A873" s="22"/>
-      <c r="B873" s="24"/>
+      <c r="B873" s="23"/>
       <c r="C873" s="11"/>
       <c r="D873" s="12"/>
       <c r="E873" s="14"/>
@@ -45155,7 +45125,7 @@
     </row>
     <row r="874" spans="1:19">
       <c r="A874" s="22"/>
-      <c r="B874" s="24"/>
+      <c r="B874" s="23"/>
       <c r="C874" s="11"/>
       <c r="D874" s="12"/>
       <c r="E874" s="14"/>
@@ -45206,7 +45176,7 @@
     </row>
     <row r="875" spans="1:19">
       <c r="A875" s="22"/>
-      <c r="B875" s="24"/>
+      <c r="B875" s="23"/>
       <c r="C875" s="11"/>
       <c r="D875" s="12"/>
       <c r="E875" s="14"/>
@@ -45257,7 +45227,7 @@
     </row>
     <row r="876" spans="1:19">
       <c r="A876" s="22"/>
-      <c r="B876" s="24"/>
+      <c r="B876" s="23"/>
       <c r="C876" s="11"/>
       <c r="D876" s="12"/>
       <c r="E876" s="14"/>
@@ -45308,7 +45278,7 @@
     </row>
     <row r="877" spans="1:19">
       <c r="A877" s="22"/>
-      <c r="B877" s="24"/>
+      <c r="B877" s="23"/>
       <c r="C877" s="11"/>
       <c r="D877" s="12"/>
       <c r="E877" s="14"/>
@@ -45359,7 +45329,7 @@
     </row>
     <row r="878" spans="1:19">
       <c r="A878" s="22"/>
-      <c r="B878" s="24"/>
+      <c r="B878" s="23"/>
       <c r="C878" s="11"/>
       <c r="D878" s="12"/>
       <c r="E878" s="14"/>
@@ -45410,7 +45380,7 @@
     </row>
     <row r="879" spans="1:19">
       <c r="A879" s="22"/>
-      <c r="B879" s="24"/>
+      <c r="B879" s="23"/>
       <c r="C879" s="11"/>
       <c r="D879" s="12"/>
       <c r="E879" s="14"/>
@@ -45461,7 +45431,7 @@
     </row>
     <row r="880" spans="1:19">
       <c r="A880" s="22"/>
-      <c r="B880" s="24"/>
+      <c r="B880" s="23"/>
       <c r="C880" s="11"/>
       <c r="D880" s="12"/>
       <c r="E880" s="14"/>
@@ -45512,7 +45482,7 @@
     </row>
     <row r="881" spans="1:19">
       <c r="A881" s="22"/>
-      <c r="B881" s="24"/>
+      <c r="B881" s="23"/>
       <c r="C881" s="11"/>
       <c r="D881" s="12"/>
       <c r="E881" s="14"/>
@@ -45563,7 +45533,7 @@
     </row>
     <row r="882" spans="1:19">
       <c r="A882" s="22"/>
-      <c r="B882" s="24"/>
+      <c r="B882" s="23"/>
       <c r="C882" s="11"/>
       <c r="D882" s="12"/>
       <c r="E882" s="14"/>
@@ -45614,7 +45584,7 @@
     </row>
     <row r="883" spans="1:19">
       <c r="A883" s="22"/>
-      <c r="B883" s="24"/>
+      <c r="B883" s="23"/>
       <c r="C883" s="11"/>
       <c r="D883" s="12"/>
       <c r="E883" s="14"/>
@@ -45665,7 +45635,7 @@
     </row>
     <row r="884" spans="1:19">
       <c r="A884" s="22"/>
-      <c r="B884" s="24"/>
+      <c r="B884" s="23"/>
       <c r="C884" s="11"/>
       <c r="D884" s="12"/>
       <c r="E884" s="14"/>
@@ -45716,7 +45686,7 @@
     </row>
     <row r="885" spans="1:19">
       <c r="A885" s="22"/>
-      <c r="B885" s="24"/>
+      <c r="B885" s="23"/>
       <c r="C885" s="11"/>
       <c r="D885" s="12"/>
       <c r="E885" s="14"/>
@@ -45767,7 +45737,7 @@
     </row>
     <row r="886" spans="1:19">
       <c r="A886" s="22"/>
-      <c r="B886" s="24"/>
+      <c r="B886" s="23"/>
       <c r="C886" s="11"/>
       <c r="D886" s="12"/>
       <c r="E886" s="14"/>
@@ -45818,7 +45788,7 @@
     </row>
     <row r="887" spans="1:19">
       <c r="A887" s="22"/>
-      <c r="B887" s="24"/>
+      <c r="B887" s="23"/>
       <c r="C887" s="11"/>
       <c r="D887" s="12"/>
       <c r="E887" s="14"/>
@@ -45869,7 +45839,7 @@
     </row>
     <row r="888" spans="1:19">
       <c r="A888" s="22"/>
-      <c r="B888" s="24"/>
+      <c r="B888" s="23"/>
       <c r="C888" s="11"/>
       <c r="D888" s="12"/>
       <c r="E888" s="14"/>
@@ -45920,7 +45890,7 @@
     </row>
     <row r="889" spans="1:19">
       <c r="A889" s="22"/>
-      <c r="B889" s="24"/>
+      <c r="B889" s="23"/>
       <c r="C889" s="11"/>
       <c r="D889" s="12"/>
       <c r="E889" s="14"/>
@@ -45971,7 +45941,7 @@
     </row>
     <row r="890" spans="1:19">
       <c r="A890" s="22"/>
-      <c r="B890" s="24"/>
+      <c r="B890" s="23"/>
       <c r="C890" s="11"/>
       <c r="D890" s="12"/>
       <c r="E890" s="14"/>
@@ -46022,7 +45992,7 @@
     </row>
     <row r="891" spans="1:19">
       <c r="A891" s="22"/>
-      <c r="B891" s="24"/>
+      <c r="B891" s="23"/>
       <c r="C891" s="11"/>
       <c r="D891" s="12"/>
       <c r="E891" s="14"/>
@@ -46073,7 +46043,7 @@
     </row>
     <row r="892" spans="1:19">
       <c r="A892" s="22"/>
-      <c r="B892" s="24"/>
+      <c r="B892" s="23"/>
       <c r="C892" s="11"/>
       <c r="D892" s="12"/>
       <c r="E892" s="14"/>
@@ -46124,7 +46094,7 @@
     </row>
     <row r="893" spans="1:19">
       <c r="A893" s="22"/>
-      <c r="B893" s="24"/>
+      <c r="B893" s="23"/>
       <c r="C893" s="11"/>
       <c r="D893" s="12"/>
       <c r="E893" s="14"/>
@@ -46175,7 +46145,7 @@
     </row>
     <row r="894" spans="1:19">
       <c r="A894" s="22"/>
-      <c r="B894" s="24"/>
+      <c r="B894" s="23"/>
       <c r="C894" s="11"/>
       <c r="D894" s="12"/>
       <c r="E894" s="14"/>
@@ -46226,7 +46196,7 @@
     </row>
     <row r="895" spans="1:19">
       <c r="A895" s="22"/>
-      <c r="B895" s="24"/>
+      <c r="B895" s="23"/>
       <c r="C895" s="11"/>
       <c r="D895" s="12"/>
       <c r="E895" s="14"/>
@@ -46277,7 +46247,7 @@
     </row>
     <row r="896" spans="1:19">
       <c r="A896" s="22"/>
-      <c r="B896" s="24"/>
+      <c r="B896" s="23"/>
       <c r="C896" s="11"/>
       <c r="D896" s="12"/>
       <c r="E896" s="14"/>
@@ -46328,7 +46298,7 @@
     </row>
     <row r="897" spans="1:19">
       <c r="A897" s="22"/>
-      <c r="B897" s="24"/>
+      <c r="B897" s="23"/>
       <c r="C897" s="11"/>
       <c r="D897" s="12"/>
       <c r="E897" s="14"/>
@@ -46379,7 +46349,7 @@
     </row>
     <row r="898" spans="1:19">
       <c r="A898" s="22"/>
-      <c r="B898" s="24"/>
+      <c r="B898" s="23"/>
       <c r="C898" s="11"/>
       <c r="D898" s="12"/>
       <c r="E898" s="14"/>
@@ -46430,7 +46400,7 @@
     </row>
     <row r="899" spans="1:19">
       <c r="A899" s="22"/>
-      <c r="B899" s="24"/>
+      <c r="B899" s="23"/>
       <c r="C899" s="11"/>
       <c r="D899" s="12"/>
       <c r="E899" s="14"/>
@@ -46481,7 +46451,7 @@
     </row>
     <row r="900" spans="1:19">
       <c r="A900" s="22"/>
-      <c r="B900" s="24"/>
+      <c r="B900" s="23"/>
       <c r="C900" s="11"/>
       <c r="D900" s="12"/>
       <c r="E900" s="14"/>
@@ -46532,7 +46502,7 @@
     </row>
     <row r="901" spans="1:19">
       <c r="A901" s="22"/>
-      <c r="B901" s="24"/>
+      <c r="B901" s="23"/>
       <c r="C901" s="11"/>
       <c r="D901" s="12"/>
       <c r="E901" s="14"/>
@@ -46583,7 +46553,7 @@
     </row>
     <row r="902" spans="1:19">
       <c r="A902" s="22"/>
-      <c r="B902" s="24"/>
+      <c r="B902" s="23"/>
       <c r="C902" s="11"/>
       <c r="D902" s="12"/>
       <c r="E902" s="14"/>
@@ -46634,7 +46604,7 @@
     </row>
     <row r="903" spans="1:19">
       <c r="A903" s="22"/>
-      <c r="B903" s="24"/>
+      <c r="B903" s="23"/>
       <c r="C903" s="11"/>
       <c r="D903" s="12"/>
       <c r="E903" s="14"/>
@@ -46685,7 +46655,7 @@
     </row>
     <row r="904" spans="1:19">
       <c r="A904" s="22"/>
-      <c r="B904" s="24"/>
+      <c r="B904" s="23"/>
       <c r="C904" s="11"/>
       <c r="D904" s="12"/>
       <c r="E904" s="14"/>
@@ -46736,7 +46706,7 @@
     </row>
     <row r="905" spans="1:19">
       <c r="A905" s="22"/>
-      <c r="B905" s="24"/>
+      <c r="B905" s="23"/>
       <c r="C905" s="11"/>
       <c r="D905" s="12"/>
       <c r="E905" s="14"/>
@@ -46787,7 +46757,7 @@
     </row>
     <row r="906" spans="1:19">
       <c r="A906" s="22"/>
-      <c r="B906" s="24"/>
+      <c r="B906" s="23"/>
       <c r="C906" s="11"/>
       <c r="D906" s="12"/>
       <c r="E906" s="14"/>
@@ -46838,7 +46808,7 @@
     </row>
     <row r="907" spans="1:19">
       <c r="A907" s="22"/>
-      <c r="B907" s="24"/>
+      <c r="B907" s="23"/>
       <c r="C907" s="11"/>
       <c r="D907" s="12"/>
       <c r="E907" s="14"/>
@@ -46889,7 +46859,7 @@
     </row>
     <row r="908" spans="1:19">
       <c r="A908" s="22"/>
-      <c r="B908" s="24"/>
+      <c r="B908" s="23"/>
       <c r="C908" s="11"/>
       <c r="D908" s="12"/>
       <c r="E908" s="14"/>
@@ -46940,7 +46910,7 @@
     </row>
     <row r="909" spans="1:19">
       <c r="A909" s="22"/>
-      <c r="B909" s="24"/>
+      <c r="B909" s="23"/>
       <c r="C909" s="11"/>
       <c r="D909" s="12"/>
       <c r="E909" s="14"/>
@@ -46991,7 +46961,7 @@
     </row>
     <row r="910" spans="1:19">
       <c r="A910" s="22"/>
-      <c r="B910" s="24"/>
+      <c r="B910" s="23"/>
       <c r="C910" s="11"/>
       <c r="D910" s="12"/>
       <c r="E910" s="14"/>
@@ -47042,7 +47012,7 @@
     </row>
     <row r="911" spans="1:19">
       <c r="A911" s="22"/>
-      <c r="B911" s="24"/>
+      <c r="B911" s="23"/>
       <c r="C911" s="11"/>
       <c r="D911" s="12"/>
       <c r="E911" s="14"/>
@@ -47093,7 +47063,7 @@
     </row>
     <row r="912" spans="1:19">
       <c r="A912" s="22"/>
-      <c r="B912" s="24"/>
+      <c r="B912" s="23"/>
       <c r="C912" s="11"/>
       <c r="D912" s="12"/>
       <c r="E912" s="14"/>
@@ -47144,7 +47114,7 @@
     </row>
     <row r="913" spans="1:19">
       <c r="A913" s="22"/>
-      <c r="B913" s="24"/>
+      <c r="B913" s="23"/>
       <c r="C913" s="11"/>
       <c r="D913" s="12"/>
       <c r="E913" s="14"/>
@@ -47195,7 +47165,7 @@
     </row>
     <row r="914" spans="1:19">
       <c r="A914" s="22"/>
-      <c r="B914" s="24"/>
+      <c r="B914" s="23"/>
       <c r="C914" s="11"/>
       <c r="D914" s="12"/>
       <c r="E914" s="14"/>
@@ -47246,7 +47216,7 @@
     </row>
     <row r="915" spans="1:19">
       <c r="A915" s="22"/>
-      <c r="B915" s="24"/>
+      <c r="B915" s="23"/>
       <c r="C915" s="11"/>
       <c r="D915" s="12"/>
       <c r="E915" s="14"/>
@@ -47297,7 +47267,7 @@
     </row>
     <row r="916" spans="1:19">
       <c r="A916" s="22"/>
-      <c r="B916" s="24"/>
+      <c r="B916" s="23"/>
       <c r="C916" s="11"/>
       <c r="D916" s="12"/>
       <c r="E916" s="14"/>
@@ -47348,7 +47318,7 @@
     </row>
     <row r="917" spans="1:19">
       <c r="A917" s="22"/>
-      <c r="B917" s="24"/>
+      <c r="B917" s="23"/>
       <c r="C917" s="11"/>
       <c r="D917" s="12"/>
       <c r="E917" s="14"/>
@@ -47399,7 +47369,7 @@
     </row>
     <row r="918" spans="1:19">
       <c r="A918" s="22"/>
-      <c r="B918" s="24"/>
+      <c r="B918" s="23"/>
       <c r="C918" s="11"/>
       <c r="D918" s="12"/>
       <c r="E918" s="14"/>
@@ -47450,7 +47420,7 @@
     </row>
     <row r="919" spans="1:19">
       <c r="A919" s="22"/>
-      <c r="B919" s="24"/>
+      <c r="B919" s="23"/>
       <c r="C919" s="11"/>
       <c r="D919" s="12"/>
       <c r="E919" s="14"/>
@@ -47501,7 +47471,7 @@
     </row>
     <row r="920" spans="1:19">
       <c r="A920" s="22"/>
-      <c r="B920" s="24"/>
+      <c r="B920" s="23"/>
       <c r="C920" s="11"/>
       <c r="D920" s="12"/>
       <c r="E920" s="14"/>
@@ -47552,7 +47522,7 @@
     </row>
     <row r="921" spans="1:19">
       <c r="A921" s="22"/>
-      <c r="B921" s="24"/>
+      <c r="B921" s="23"/>
       <c r="C921" s="11"/>
       <c r="D921" s="12"/>
       <c r="E921" s="14"/>
@@ -47603,7 +47573,7 @@
     </row>
     <row r="922" spans="1:19">
       <c r="A922" s="22"/>
-      <c r="B922" s="24"/>
+      <c r="B922" s="23"/>
       <c r="C922" s="11"/>
       <c r="D922" s="12"/>
       <c r="E922" s="14"/>
@@ -47654,7 +47624,7 @@
     </row>
     <row r="923" spans="1:19">
       <c r="A923" s="22"/>
-      <c r="B923" s="24"/>
+      <c r="B923" s="23"/>
       <c r="C923" s="11"/>
       <c r="D923" s="12"/>
       <c r="E923" s="14"/>
@@ -47705,7 +47675,7 @@
     </row>
     <row r="924" spans="1:19">
       <c r="A924" s="22"/>
-      <c r="B924" s="24"/>
+      <c r="B924" s="23"/>
       <c r="C924" s="11"/>
       <c r="D924" s="12"/>
       <c r="E924" s="14"/>
@@ -47756,7 +47726,7 @@
     </row>
     <row r="925" spans="1:19">
       <c r="A925" s="22"/>
-      <c r="B925" s="24"/>
+      <c r="B925" s="23"/>
       <c r="C925" s="11"/>
       <c r="D925" s="12"/>
       <c r="E925" s="14"/>
@@ -47807,7 +47777,7 @@
     </row>
     <row r="926" spans="1:19">
       <c r="A926" s="22"/>
-      <c r="B926" s="24"/>
+      <c r="B926" s="23"/>
       <c r="C926" s="11"/>
       <c r="D926" s="12"/>
       <c r="E926" s="14"/>
@@ -47858,7 +47828,7 @@
     </row>
     <row r="927" spans="1:19">
       <c r="A927" s="22"/>
-      <c r="B927" s="24"/>
+      <c r="B927" s="23"/>
       <c r="C927" s="11"/>
       <c r="D927" s="12"/>
       <c r="E927" s="14"/>
@@ -47909,7 +47879,7 @@
     </row>
     <row r="928" spans="1:19">
       <c r="A928" s="22"/>
-      <c r="B928" s="24"/>
+      <c r="B928" s="23"/>
       <c r="C928" s="11"/>
       <c r="D928" s="12"/>
       <c r="E928" s="14"/>
@@ -47960,7 +47930,7 @@
     </row>
     <row r="929" spans="1:19">
       <c r="A929" s="22"/>
-      <c r="B929" s="24"/>
+      <c r="B929" s="23"/>
       <c r="C929" s="11"/>
       <c r="D929" s="12"/>
       <c r="E929" s="14"/>
@@ -48011,7 +47981,7 @@
     </row>
     <row r="930" spans="1:19">
       <c r="A930" s="22"/>
-      <c r="B930" s="24"/>
+      <c r="B930" s="23"/>
       <c r="C930" s="11"/>
       <c r="D930" s="12"/>
       <c r="E930" s="14"/>
@@ -48062,7 +48032,7 @@
     </row>
     <row r="931" spans="1:19">
       <c r="A931" s="22"/>
-      <c r="B931" s="24"/>
+      <c r="B931" s="23"/>
       <c r="C931" s="11"/>
       <c r="D931" s="12"/>
       <c r="E931" s="14"/>
@@ -48113,7 +48083,7 @@
     </row>
     <row r="932" spans="1:19">
       <c r="A932" s="22"/>
-      <c r="B932" s="24"/>
+      <c r="B932" s="23"/>
       <c r="C932" s="11"/>
       <c r="D932" s="12"/>
       <c r="E932" s="14"/>
@@ -48164,7 +48134,7 @@
     </row>
     <row r="933" spans="1:19">
       <c r="A933" s="22"/>
-      <c r="B933" s="24"/>
+      <c r="B933" s="23"/>
       <c r="C933" s="11"/>
       <c r="D933" s="12"/>
       <c r="E933" s="14"/>
@@ -48215,7 +48185,7 @@
     </row>
     <row r="934" spans="1:19">
       <c r="A934" s="22"/>
-      <c r="B934" s="24"/>
+      <c r="B934" s="23"/>
       <c r="C934" s="11"/>
       <c r="D934" s="12"/>
       <c r="E934" s="14"/>
@@ -48266,7 +48236,7 @@
     </row>
     <row r="935" spans="1:19">
       <c r="A935" s="22"/>
-      <c r="B935" s="24"/>
+      <c r="B935" s="23"/>
       <c r="C935" s="11"/>
       <c r="D935" s="12"/>
       <c r="E935" s="14"/>
@@ -48317,7 +48287,7 @@
     </row>
     <row r="936" spans="1:19">
       <c r="A936" s="22"/>
-      <c r="B936" s="24"/>
+      <c r="B936" s="23"/>
       <c r="C936" s="11"/>
       <c r="D936" s="12"/>
       <c r="E936" s="14"/>
@@ -48368,7 +48338,7 @@
     </row>
     <row r="937" spans="1:19">
       <c r="A937" s="22"/>
-      <c r="B937" s="24"/>
+      <c r="B937" s="23"/>
       <c r="C937" s="11"/>
       <c r="D937" s="12"/>
       <c r="E937" s="14"/>
@@ -48419,7 +48389,7 @@
     </row>
     <row r="938" spans="1:19">
       <c r="A938" s="22"/>
-      <c r="B938" s="24"/>
+      <c r="B938" s="23"/>
       <c r="C938" s="11"/>
       <c r="D938" s="12"/>
       <c r="E938" s="14"/>
@@ -48470,7 +48440,7 @@
     </row>
     <row r="939" spans="1:19">
       <c r="A939" s="22"/>
-      <c r="B939" s="24"/>
+      <c r="B939" s="23"/>
       <c r="C939" s="11"/>
       <c r="D939" s="12"/>
       <c r="E939" s="14"/>
@@ -48521,7 +48491,7 @@
     </row>
     <row r="940" spans="1:19">
       <c r="A940" s="22"/>
-      <c r="B940" s="24"/>
+      <c r="B940" s="23"/>
       <c r="C940" s="11"/>
       <c r="D940" s="12"/>
       <c r="E940" s="14"/>
@@ -48572,7 +48542,7 @@
     </row>
     <row r="941" spans="1:19">
       <c r="A941" s="22"/>
-      <c r="B941" s="24"/>
+      <c r="B941" s="23"/>
       <c r="C941" s="11"/>
       <c r="D941" s="12"/>
       <c r="E941" s="14"/>
@@ -48623,7 +48593,7 @@
     </row>
     <row r="942" spans="1:19">
       <c r="A942" s="22"/>
-      <c r="B942" s="24"/>
+      <c r="B942" s="23"/>
       <c r="C942" s="11"/>
       <c r="D942" s="12"/>
       <c r="E942" s="14"/>
@@ -48674,7 +48644,7 @@
     </row>
     <row r="943" spans="1:19">
       <c r="A943" s="22"/>
-      <c r="B943" s="24"/>
+      <c r="B943" s="23"/>
       <c r="C943" s="11"/>
       <c r="D943" s="12"/>
       <c r="E943" s="14"/>
@@ -48725,7 +48695,7 @@
     </row>
     <row r="944" spans="1:19">
       <c r="A944" s="22"/>
-      <c r="B944" s="24"/>
+      <c r="B944" s="23"/>
       <c r="C944" s="11"/>
       <c r="D944" s="12"/>
       <c r="E944" s="14"/>
@@ -48776,7 +48746,7 @@
     </row>
     <row r="945" spans="1:19">
       <c r="A945" s="22"/>
-      <c r="B945" s="24"/>
+      <c r="B945" s="23"/>
       <c r="C945" s="11"/>
       <c r="D945" s="12"/>
       <c r="E945" s="14"/>
@@ -48827,7 +48797,7 @@
     </row>
     <row r="946" spans="1:19">
       <c r="A946" s="22"/>
-      <c r="B946" s="24"/>
+      <c r="B946" s="23"/>
       <c r="C946" s="11"/>
       <c r="D946" s="12"/>
       <c r="E946" s="14"/>
@@ -48878,7 +48848,7 @@
     </row>
     <row r="947" spans="1:19">
       <c r="A947" s="22"/>
-      <c r="B947" s="24"/>
+      <c r="B947" s="23"/>
       <c r="C947" s="11"/>
       <c r="D947" s="12"/>
       <c r="E947" s="14"/>
@@ -48929,7 +48899,7 @@
     </row>
     <row r="948" spans="1:19">
       <c r="A948" s="22"/>
-      <c r="B948" s="24"/>
+      <c r="B948" s="23"/>
       <c r="C948" s="11"/>
       <c r="D948" s="12"/>
       <c r="E948" s="14"/>
@@ -48980,7 +48950,7 @@
     </row>
     <row r="949" spans="1:19">
       <c r="A949" s="22"/>
-      <c r="B949" s="24"/>
+      <c r="B949" s="23"/>
       <c r="C949" s="11"/>
       <c r="D949" s="12"/>
       <c r="E949" s="14"/>
@@ -49031,7 +49001,7 @@
     </row>
     <row r="950" spans="1:19">
       <c r="A950" s="22"/>
-      <c r="B950" s="24"/>
+      <c r="B950" s="23"/>
       <c r="C950" s="11"/>
       <c r="D950" s="12"/>
       <c r="E950" s="14"/>
@@ -49082,7 +49052,7 @@
     </row>
     <row r="951" spans="1:19">
       <c r="A951" s="22"/>
-      <c r="B951" s="24"/>
+      <c r="B951" s="23"/>
       <c r="C951" s="11"/>
       <c r="D951" s="12"/>
       <c r="E951" s="14"/>
@@ -49133,7 +49103,7 @@
     </row>
     <row r="952" spans="1:19">
       <c r="A952" s="22"/>
-      <c r="B952" s="24"/>
+      <c r="B952" s="23"/>
       <c r="C952" s="11"/>
       <c r="D952" s="12"/>
       <c r="E952" s="14"/>
@@ -49184,7 +49154,7 @@
     </row>
     <row r="953" spans="1:19">
       <c r="A953" s="22"/>
-      <c r="B953" s="24"/>
+      <c r="B953" s="23"/>
       <c r="C953" s="11"/>
       <c r="D953" s="12"/>
       <c r="E953" s="14"/>
@@ -49235,7 +49205,7 @@
     </row>
     <row r="954" spans="1:19">
       <c r="A954" s="22"/>
-      <c r="B954" s="24"/>
+      <c r="B954" s="23"/>
       <c r="C954" s="11"/>
       <c r="D954" s="12"/>
       <c r="E954" s="14"/>
@@ -49286,7 +49256,7 @@
     </row>
     <row r="955" spans="1:19">
       <c r="A955" s="22"/>
-      <c r="B955" s="24"/>
+      <c r="B955" s="23"/>
       <c r="C955" s="11"/>
       <c r="D955" s="12"/>
       <c r="E955" s="14"/>
@@ -49337,7 +49307,7 @@
     </row>
     <row r="956" spans="1:19">
       <c r="A956" s="22"/>
-      <c r="B956" s="24"/>
+      <c r="B956" s="23"/>
       <c r="C956" s="11"/>
       <c r="D956" s="12"/>
       <c r="E956" s="14"/>
@@ -49388,7 +49358,7 @@
     </row>
     <row r="957" spans="1:19">
       <c r="A957" s="22"/>
-      <c r="B957" s="24"/>
+      <c r="B957" s="23"/>
       <c r="C957" s="11"/>
       <c r="D957" s="12"/>
       <c r="E957" s="14"/>
@@ -49439,7 +49409,7 @@
     </row>
     <row r="958" spans="1:19">
       <c r="A958" s="22"/>
-      <c r="B958" s="24"/>
+      <c r="B958" s="23"/>
       <c r="C958" s="11"/>
       <c r="D958" s="12"/>
       <c r="E958" s="14"/>
@@ -49490,7 +49460,7 @@
     </row>
     <row r="959" spans="1:19">
       <c r="A959" s="22"/>
-      <c r="B959" s="24"/>
+      <c r="B959" s="23"/>
       <c r="C959" s="11"/>
       <c r="D959" s="12"/>
       <c r="E959" s="14"/>
@@ -49541,7 +49511,7 @@
     </row>
     <row r="960" spans="1:19">
       <c r="A960" s="22"/>
-      <c r="B960" s="24"/>
+      <c r="B960" s="23"/>
       <c r="C960" s="11"/>
       <c r="D960" s="12"/>
       <c r="E960" s="14"/>
@@ -49592,7 +49562,7 @@
     </row>
     <row r="961" spans="1:19">
       <c r="A961" s="22"/>
-      <c r="B961" s="24"/>
+      <c r="B961" s="23"/>
       <c r="C961" s="11"/>
       <c r="D961" s="12"/>
       <c r="E961" s="14"/>
@@ -49643,7 +49613,7 @@
     </row>
     <row r="962" spans="1:19">
       <c r="A962" s="22"/>
-      <c r="B962" s="24"/>
+      <c r="B962" s="23"/>
       <c r="C962" s="11"/>
       <c r="D962" s="12"/>
       <c r="E962" s="14"/>
@@ -49694,7 +49664,7 @@
     </row>
     <row r="963" spans="1:19">
       <c r="A963" s="22"/>
-      <c r="B963" s="24"/>
+      <c r="B963" s="23"/>
       <c r="C963" s="11"/>
       <c r="D963" s="12"/>
       <c r="E963" s="14"/>
@@ -49745,7 +49715,7 @@
     </row>
     <row r="964" spans="1:19">
       <c r="A964" s="22"/>
-      <c r="B964" s="24"/>
+      <c r="B964" s="23"/>
       <c r="C964" s="11"/>
       <c r="D964" s="12"/>
       <c r="E964" s="14"/>
@@ -49796,7 +49766,7 @@
     </row>
     <row r="965" spans="1:19">
       <c r="A965" s="22"/>
-      <c r="B965" s="24"/>
+      <c r="B965" s="23"/>
       <c r="C965" s="11"/>
       <c r="D965" s="12"/>
       <c r="E965" s="14"/>
@@ -49847,7 +49817,7 @@
     </row>
     <row r="966" spans="1:19">
       <c r="A966" s="22"/>
-      <c r="B966" s="24"/>
+      <c r="B966" s="23"/>
       <c r="C966" s="11"/>
       <c r="D966" s="12"/>
       <c r="E966" s="14"/>
@@ -49898,7 +49868,7 @@
     </row>
     <row r="967" spans="1:19">
       <c r="A967" s="22"/>
-      <c r="B967" s="24"/>
+      <c r="B967" s="23"/>
       <c r="C967" s="11"/>
       <c r="D967" s="12"/>
       <c r="E967" s="14"/>
@@ -49949,7 +49919,7 @@
     </row>
     <row r="968" spans="1:19">
       <c r="A968" s="22"/>
-      <c r="B968" s="24"/>
+      <c r="B968" s="23"/>
       <c r="C968" s="11"/>
       <c r="D968" s="12"/>
       <c r="E968" s="14"/>
@@ -50000,7 +49970,7 @@
     </row>
     <row r="969" spans="1:19">
       <c r="A969" s="22"/>
-      <c r="B969" s="24"/>
+      <c r="B969" s="23"/>
       <c r="C969" s="11"/>
       <c r="D969" s="12"/>
       <c r="E969" s="14"/>
@@ -50051,7 +50021,7 @@
     </row>
     <row r="970" spans="1:19">
       <c r="A970" s="22"/>
-      <c r="B970" s="24"/>
+      <c r="B970" s="23"/>
       <c r="C970" s="11"/>
       <c r="D970" s="12"/>
       <c r="E970" s="14"/>
@@ -50102,7 +50072,7 @@
     </row>
     <row r="971" spans="1:19">
       <c r="A971" s="22"/>
-      <c r="B971" s="24"/>
+      <c r="B971" s="23"/>
       <c r="C971" s="11"/>
       <c r="D971" s="12"/>
       <c r="E971" s="14"/>
@@ -50153,7 +50123,7 @@
     </row>
     <row r="972" spans="1:19">
       <c r="A972" s="22"/>
-      <c r="B972" s="24"/>
+      <c r="B972" s="23"/>
       <c r="C972" s="11"/>
       <c r="D972" s="12"/>
       <c r="E972" s="14"/>
@@ -50204,7 +50174,7 @@
     </row>
     <row r="973" spans="1:19">
       <c r="A973" s="22"/>
-      <c r="B973" s="24"/>
+      <c r="B973" s="23"/>
       <c r="C973" s="11"/>
       <c r="D973" s="12"/>
       <c r="E973" s="14"/>
@@ -50255,7 +50225,7 @@
     </row>
     <row r="974" spans="1:19">
       <c r="A974" s="22"/>
-      <c r="B974" s="24"/>
+      <c r="B974" s="23"/>
       <c r="C974" s="11"/>
       <c r="D974" s="12"/>
       <c r="E974" s="14"/>
@@ -50306,7 +50276,7 @@
     </row>
     <row r="975" spans="1:19">
       <c r="A975" s="22"/>
-      <c r="B975" s="24"/>
+      <c r="B975" s="23"/>
       <c r="C975" s="11"/>
       <c r="D975" s="12"/>
       <c r="E975" s="14"/>
@@ -50357,7 +50327,7 @@
     </row>
     <row r="976" spans="1:19">
       <c r="A976" s="22"/>
-      <c r="B976" s="24"/>
+      <c r="B976" s="23"/>
       <c r="C976" s="11"/>
       <c r="D976" s="12"/>
       <c r="E976" s="14"/>
@@ -50408,7 +50378,7 @@
     </row>
     <row r="977" spans="1:19">
       <c r="A977" s="22"/>
-      <c r="B977" s="24"/>
+      <c r="B977" s="23"/>
       <c r="C977" s="11"/>
       <c r="D977" s="12"/>
       <c r="E977" s="14"/>
@@ -50459,7 +50429,7 @@
     </row>
     <row r="978" spans="1:19">
       <c r="A978" s="22"/>
-      <c r="B978" s="24"/>
+      <c r="B978" s="23"/>
       <c r="C978" s="11"/>
       <c r="D978" s="12"/>
       <c r="E978" s="14"/>
@@ -50510,7 +50480,7 @@
     </row>
     <row r="979" spans="1:19">
       <c r="A979" s="22"/>
-      <c r="B979" s="24"/>
+      <c r="B979" s="23"/>
       <c r="C979" s="11"/>
       <c r="D979" s="12"/>
       <c r="E979" s="14"/>
@@ -50561,7 +50531,7 @@
     </row>
     <row r="980" spans="1:19">
       <c r="A980" s="22"/>
-      <c r="B980" s="24"/>
+      <c r="B980" s="23"/>
       <c r="C980" s="11"/>
       <c r="D980" s="12"/>
       <c r="E980" s="14"/>
@@ -50612,7 +50582,7 @@
     </row>
     <row r="981" spans="1:19">
       <c r="A981" s="22"/>
-      <c r="B981" s="24"/>
+      <c r="B981" s="23"/>
       <c r="C981" s="11"/>
       <c r="D981" s="12"/>
       <c r="E981" s="14"/>
@@ -50663,7 +50633,7 @@
     </row>
     <row r="982" spans="1:19">
       <c r="A982" s="22"/>
-      <c r="B982" s="24"/>
+      <c r="B982" s="23"/>
       <c r="C982" s="11"/>
       <c r="D982" s="12"/>
       <c r="E982" s="14"/>
@@ -50714,7 +50684,7 @@
     </row>
     <row r="983" spans="1:19">
       <c r="A983" s="22"/>
-      <c r="B983" s="24"/>
+      <c r="B983" s="23"/>
       <c r="C983" s="11"/>
       <c r="D983" s="12"/>
       <c r="E983" s="14"/>
@@ -50765,7 +50735,7 @@
     </row>
     <row r="984" spans="1:19">
       <c r="A984" s="22"/>
-      <c r="B984" s="24"/>
+      <c r="B984" s="23"/>
       <c r="C984" s="11"/>
       <c r="D984" s="12"/>
       <c r="E984" s="14"/>
@@ -50816,7 +50786,7 @@
     </row>
     <row r="985" spans="1:19">
       <c r="A985" s="22"/>
-      <c r="B985" s="24"/>
+      <c r="B985" s="23"/>
       <c r="C985" s="11"/>
       <c r="D985" s="12"/>
       <c r="E985" s="14"/>
@@ -50867,7 +50837,7 @@
     </row>
     <row r="986" spans="1:19">
       <c r="A986" s="22"/>
-      <c r="B986" s="24"/>
+      <c r="B986" s="23"/>
       <c r="C986" s="11"/>
       <c r="D986" s="12"/>
       <c r="E986" s="14"/>
@@ -50918,7 +50888,7 @@
     </row>
     <row r="987" spans="1:19">
       <c r="A987" s="22"/>
-      <c r="B987" s="24"/>
+      <c r="B987" s="23"/>
       <c r="C987" s="11"/>
       <c r="D987" s="12"/>
       <c r="E987" s="14"/>
@@ -50969,7 +50939,7 @@
     </row>
     <row r="988" spans="1:19">
       <c r="A988" s="22"/>
-      <c r="B988" s="24"/>
+      <c r="B988" s="23"/>
       <c r="C988" s="11"/>
       <c r="D988" s="12"/>
       <c r="E988" s="14"/>
@@ -51020,7 +50990,7 @@
     </row>
     <row r="989" spans="1:19">
       <c r="A989" s="22"/>
-      <c r="B989" s="24"/>
+      <c r="B989" s="23"/>
       <c r="C989" s="11"/>
       <c r="D989" s="12"/>
       <c r="E989" s="14"/>
@@ -51071,7 +51041,7 @@
     </row>
     <row r="990" spans="1:19">
       <c r="A990" s="22"/>
-      <c r="B990" s="24"/>
+      <c r="B990" s="23"/>
       <c r="C990" s="11"/>
       <c r="D990" s="12"/>
       <c r="E990" s="14"/>
@@ -51122,7 +51092,7 @@
     </row>
     <row r="991" spans="1:19">
       <c r="A991" s="22"/>
-      <c r="B991" s="24"/>
+      <c r="B991" s="23"/>
       <c r="C991" s="11"/>
       <c r="D991" s="12"/>
       <c r="E991" s="14"/>
@@ -51173,7 +51143,7 @@
     </row>
     <row r="992" spans="1:19">
       <c r="A992" s="22"/>
-      <c r="B992" s="24"/>
+      <c r="B992" s="23"/>
       <c r="C992" s="11"/>
       <c r="D992" s="12"/>
       <c r="E992" s="14"/>
@@ -51224,7 +51194,7 @@
     </row>
     <row r="993" spans="1:19">
       <c r="A993" s="22"/>
-      <c r="B993" s="24"/>
+      <c r="B993" s="23"/>
       <c r="C993" s="11"/>
       <c r="D993" s="12"/>
       <c r="E993" s="14"/>
@@ -51275,7 +51245,7 @@
     </row>
     <row r="994" spans="1:19">
       <c r="A994" s="22"/>
-      <c r="B994" s="24"/>
+      <c r="B994" s="23"/>
       <c r="C994" s="11"/>
       <c r="D994" s="12"/>
       <c r="E994" s="14"/>
@@ -51326,7 +51296,7 @@
     </row>
     <row r="995" spans="1:19">
       <c r="A995" s="22"/>
-      <c r="B995" s="24"/>
+      <c r="B995" s="23"/>
       <c r="C995" s="11"/>
       <c r="D995" s="12"/>
       <c r="E995" s="14"/>
@@ -51377,7 +51347,7 @@
     </row>
     <row r="996" spans="1:19">
       <c r="A996" s="22"/>
-      <c r="B996" s="24"/>
+      <c r="B996" s="23"/>
       <c r="C996" s="11"/>
       <c r="D996" s="12"/>
       <c r="E996" s="14"/>
@@ -51428,7 +51398,7 @@
     </row>
     <row r="997" spans="1:19">
       <c r="A997" s="22"/>
-      <c r="B997" s="24"/>
+      <c r="B997" s="23"/>
       <c r="C997" s="11"/>
       <c r="D997" s="12"/>
       <c r="E997" s="14"/>
@@ -51479,7 +51449,7 @@
     </row>
     <row r="998" spans="1:19">
       <c r="A998" s="22"/>
-      <c r="B998" s="24"/>
+      <c r="B998" s="23"/>
       <c r="C998" s="11"/>
       <c r="D998" s="12"/>
       <c r="E998" s="14"/>
@@ -51530,7 +51500,7 @@
     </row>
     <row r="999" spans="1:19">
       <c r="A999" s="22"/>
-      <c r="B999" s="24"/>
+      <c r="B999" s="23"/>
       <c r="C999" s="11"/>
       <c r="D999" s="12"/>
       <c r="E999" s="14"/>
@@ -51581,7 +51551,7 @@
     </row>
     <row r="1000" spans="1:19">
       <c r="A1000" s="22"/>
-      <c r="B1000" s="24"/>
+      <c r="B1000" s="23"/>
       <c r="C1000" s="11"/>
       <c r="D1000" s="12"/>
       <c r="E1000" s="14"/>
@@ -51632,123 +51602,123 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C9 C11:C1000">
-    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="1"/>
+    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C9 C11:C1000">
-    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="2"/>
+    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C9 C11:C1000">
-    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="3"/>
+    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C9 C11:C1000">
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="4"/>
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
       <formula>55</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
       <formula>89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="23" operator="equal">
       <formula>"XSM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
       <formula>"SM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="11" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="25" operator="equal">
       <formula>"MD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="10" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="26" operator="equal">
       <formula>"LG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="9" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="27" operator="equal">
       <formula>"XLG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1000">
-    <cfRule type="cellIs" dxfId="8" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="28" operator="equal">
       <formula>"XXLG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="1"/>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="2"/>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="3"/>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="4"/>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="4"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="C2:C1000">

--- a/User Stories [TEMPLATE].xlsx
+++ b/User Stories [TEMPLATE].xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Desktop\T17-Sprint2C4\T17-Spint2C4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\T17-Spint2C4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11">
     <font>
       <sz val="10"/>
@@ -1024,13 +1024,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" customWidth="1"/>
+    <col min="2" max="2" width="86.85546875" customWidth="1"/>
     <col min="3" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="47.85546875" customWidth="1"/>
     <col min="6" max="8" width="31.140625" customWidth="1"/>
